--- a/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>SPOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2036800</v>
+        <v>2046800</v>
       </c>
       <c r="E8" s="3">
-        <v>1900600</v>
+        <v>2054600</v>
       </c>
       <c r="F8" s="3">
-        <v>1830400</v>
+        <v>1917300</v>
       </c>
       <c r="G8" s="3">
-        <v>1659100</v>
+        <v>1846400</v>
       </c>
       <c r="H8" s="3">
-        <v>1641500</v>
+        <v>1673600</v>
       </c>
       <c r="I8" s="3">
-        <v>1484500</v>
+        <v>1655900</v>
       </c>
       <c r="J8" s="3">
+        <v>1497500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1397800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1277900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1289200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1157900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1129800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1058800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1023600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>876800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1516300</v>
+        <v>1524100</v>
       </c>
       <c r="E9" s="3">
-        <v>1416400</v>
+        <v>1529600</v>
       </c>
       <c r="F9" s="3">
-        <v>1353800</v>
+        <v>1428800</v>
       </c>
       <c r="G9" s="3">
-        <v>1249500</v>
+        <v>1365700</v>
       </c>
       <c r="H9" s="3">
-        <v>1203400</v>
+        <v>1260400</v>
       </c>
       <c r="I9" s="3">
-        <v>1109000</v>
+        <v>1213900</v>
       </c>
       <c r="J9" s="3">
+        <v>1118700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1036500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>960400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>972800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>899800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>869500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>935500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>844000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>744200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>520500</v>
+        <v>522800</v>
       </c>
       <c r="E10" s="3">
-        <v>484200</v>
+        <v>525000</v>
       </c>
       <c r="F10" s="3">
-        <v>476500</v>
+        <v>488500</v>
       </c>
       <c r="G10" s="3">
-        <v>409600</v>
+        <v>480700</v>
       </c>
       <c r="H10" s="3">
-        <v>438100</v>
+        <v>413100</v>
       </c>
       <c r="I10" s="3">
-        <v>375500</v>
+        <v>441900</v>
       </c>
       <c r="J10" s="3">
+        <v>378800</v>
+      </c>
+      <c r="K10" s="3">
         <v>361200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>317500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>316400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>258100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>260300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>123300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>179600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>190000</v>
+        <v>179400</v>
       </c>
       <c r="E12" s="3">
-        <v>146000</v>
+        <v>187200</v>
       </c>
       <c r="F12" s="3">
-        <v>162500</v>
+        <v>147300</v>
       </c>
       <c r="G12" s="3">
-        <v>166900</v>
+        <v>163900</v>
       </c>
       <c r="H12" s="3">
-        <v>109800</v>
+        <v>168400</v>
       </c>
       <c r="I12" s="3">
-        <v>148200</v>
+        <v>110800</v>
       </c>
       <c r="J12" s="3">
+        <v>149500</v>
+      </c>
+      <c r="K12" s="3">
         <v>157000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>129000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>138000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>110000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>106600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>93900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>72800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,15 +1025,15 @@
       <c r="G14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1024,19 +1044,22 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-2300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1044,7 +1067,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="3">
-        <v>3300</v>
+        <v>4400</v>
       </c>
       <c r="F15" s="3">
         <v>3300</v>
@@ -1052,8 +1075,8 @@
       <c r="G15" s="3">
         <v>3300</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>17</v>
+      <c r="H15" s="3">
+        <v>3300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>17</v>
@@ -1061,8 +1084,8 @@
       <c r="J15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2121300</v>
+        <v>2065700</v>
       </c>
       <c r="E17" s="3">
-        <v>1841300</v>
+        <v>2139900</v>
       </c>
       <c r="F17" s="3">
-        <v>1833700</v>
+        <v>1857400</v>
       </c>
       <c r="G17" s="3">
-        <v>1710700</v>
+        <v>1849700</v>
       </c>
       <c r="H17" s="3">
-        <v>1538300</v>
+        <v>1725600</v>
       </c>
       <c r="I17" s="3">
-        <v>1492200</v>
+        <v>1551700</v>
       </c>
       <c r="J17" s="3">
+        <v>1505200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1496600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1323900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1386800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1239800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1219600</v>
       </c>
       <c r="O17" s="3">
         <v>1219600</v>
       </c>
       <c r="P17" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1125700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>954300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-84500</v>
+        <v>-18800</v>
       </c>
       <c r="E18" s="3">
-        <v>59300</v>
+        <v>-85300</v>
       </c>
       <c r="F18" s="3">
+        <v>59800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-51600</v>
-      </c>
       <c r="H18" s="3">
-        <v>103200</v>
+        <v>-52100</v>
       </c>
       <c r="I18" s="3">
-        <v>-7700</v>
+        <v>104100</v>
       </c>
       <c r="J18" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-98800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-46000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-97600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-81900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-89800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-160800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-102100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-77500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,131 +1244,138 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-94400</v>
+        <v>64200</v>
       </c>
       <c r="E20" s="3">
-        <v>247100</v>
+        <v>-95300</v>
       </c>
       <c r="F20" s="3">
-        <v>-50500</v>
+        <v>249200</v>
       </c>
       <c r="G20" s="3">
-        <v>-124100</v>
+        <v>-50900</v>
       </c>
       <c r="H20" s="3">
-        <v>427100</v>
+        <v>-125200</v>
       </c>
       <c r="I20" s="3">
-        <v>-80200</v>
+        <v>428600</v>
       </c>
       <c r="J20" s="3">
+        <v>-83100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-329400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-156000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-571100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-230000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-120100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-41100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-71600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-152600</v>
+        <v>74200</v>
       </c>
       <c r="E21" s="3">
-        <v>330500</v>
+        <v>-154000</v>
       </c>
       <c r="F21" s="3">
-        <v>-31800</v>
+        <v>333400</v>
       </c>
       <c r="G21" s="3">
-        <v>-152600</v>
+        <v>-32100</v>
       </c>
       <c r="H21" s="3">
-        <v>539100</v>
+        <v>-154000</v>
       </c>
       <c r="I21" s="3">
-        <v>-80200</v>
+        <v>541600</v>
       </c>
       <c r="J21" s="3">
+        <v>-83100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-421600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-189600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-295100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-196300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-185500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-98600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
-        <v>11000</v>
+      <c r="D22" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E22" s="3">
-        <v>9900</v>
+        <v>11100</v>
       </c>
       <c r="F22" s="3">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="G22" s="3">
-        <v>9900</v>
+        <v>11100</v>
       </c>
       <c r="H22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="3">
         <v>2200</v>
       </c>
-      <c r="I22" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>17</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>17</v>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-190000</v>
+        <v>45400</v>
       </c>
       <c r="E23" s="3">
-        <v>296500</v>
+        <v>-191600</v>
       </c>
       <c r="F23" s="3">
-        <v>-64800</v>
+        <v>299100</v>
       </c>
       <c r="G23" s="3">
-        <v>-185600</v>
+        <v>-65300</v>
       </c>
       <c r="H23" s="3">
-        <v>528100</v>
+        <v>-187200</v>
       </c>
       <c r="I23" s="3">
-        <v>-90000</v>
+        <v>532800</v>
       </c>
       <c r="J23" s="3">
+        <v>-90800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-430400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-202000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-668700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-311900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-209800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-201900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-99800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-149100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>39500</v>
+        <v>44300</v>
       </c>
       <c r="E24" s="3">
-        <v>31800</v>
+        <v>39900</v>
       </c>
       <c r="F24" s="3">
-        <v>18700</v>
+        <v>32100</v>
       </c>
       <c r="G24" s="3">
-        <v>-29600</v>
+        <v>18800</v>
       </c>
       <c r="H24" s="3">
-        <v>42800</v>
+        <v>-29900</v>
       </c>
       <c r="I24" s="3">
-        <v>-137300</v>
+        <v>43200</v>
       </c>
       <c r="J24" s="3">
+        <v>-138500</v>
+      </c>
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-12300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-229500</v>
+        <v>1100</v>
       </c>
       <c r="E26" s="3">
-        <v>264600</v>
+        <v>-231500</v>
       </c>
       <c r="F26" s="3">
-        <v>-83400</v>
+        <v>266900</v>
       </c>
       <c r="G26" s="3">
-        <v>-155900</v>
+        <v>-84200</v>
       </c>
       <c r="H26" s="3">
-        <v>485300</v>
+        <v>-157300</v>
       </c>
       <c r="I26" s="3">
-        <v>47200</v>
+        <v>489600</v>
       </c>
       <c r="J26" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-432600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-189600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-668700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-311900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-210900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-203100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-99800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-229500</v>
+        <v>1100</v>
       </c>
       <c r="E27" s="3">
-        <v>264600</v>
+        <v>-231500</v>
       </c>
       <c r="F27" s="3">
-        <v>-83400</v>
+        <v>266900</v>
       </c>
       <c r="G27" s="3">
-        <v>-155900</v>
+        <v>-84200</v>
       </c>
       <c r="H27" s="3">
-        <v>485300</v>
+        <v>-157300</v>
       </c>
       <c r="I27" s="3">
-        <v>47200</v>
+        <v>489600</v>
       </c>
       <c r="J27" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-432600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-189600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-668700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-311900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-210900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-203100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-99800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>94400</v>
+        <v>-64200</v>
       </c>
       <c r="E32" s="3">
-        <v>-247100</v>
+        <v>95300</v>
       </c>
       <c r="F32" s="3">
-        <v>50500</v>
+        <v>-249200</v>
       </c>
       <c r="G32" s="3">
-        <v>124100</v>
+        <v>50900</v>
       </c>
       <c r="H32" s="3">
-        <v>-427100</v>
+        <v>125200</v>
       </c>
       <c r="I32" s="3">
-        <v>80200</v>
+        <v>-428600</v>
       </c>
       <c r="J32" s="3">
+        <v>83100</v>
+      </c>
+      <c r="K32" s="3">
         <v>329400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>156000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>571100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>230000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>120100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>41100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-229500</v>
+        <v>1100</v>
       </c>
       <c r="E33" s="3">
-        <v>264600</v>
+        <v>-231500</v>
       </c>
       <c r="F33" s="3">
-        <v>-83400</v>
+        <v>266900</v>
       </c>
       <c r="G33" s="3">
-        <v>-155900</v>
+        <v>-84200</v>
       </c>
       <c r="H33" s="3">
-        <v>485300</v>
+        <v>-157300</v>
       </c>
       <c r="I33" s="3">
-        <v>47200</v>
+        <v>489600</v>
       </c>
       <c r="J33" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-432600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-189600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-668700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-311900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-210900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-203100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-99800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-229500</v>
+        <v>1100</v>
       </c>
       <c r="E35" s="3">
-        <v>264600</v>
+        <v>-231500</v>
       </c>
       <c r="F35" s="3">
-        <v>-83400</v>
+        <v>266900</v>
       </c>
       <c r="G35" s="3">
-        <v>-155900</v>
+        <v>-84200</v>
       </c>
       <c r="H35" s="3">
-        <v>485300</v>
+        <v>-157300</v>
       </c>
       <c r="I35" s="3">
-        <v>47200</v>
+        <v>489600</v>
       </c>
       <c r="J35" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-432600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-189600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-668700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-311900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-210900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-203100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-99800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2139,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1169400</v>
+        <v>1053300</v>
       </c>
       <c r="E41" s="3">
-        <v>962900</v>
+        <v>1179600</v>
       </c>
       <c r="F41" s="3">
-        <v>998100</v>
+        <v>971400</v>
       </c>
       <c r="G41" s="3">
-        <v>1060700</v>
+        <v>1006800</v>
       </c>
       <c r="H41" s="3">
-        <v>978300</v>
+        <v>1069900</v>
       </c>
       <c r="I41" s="3">
-        <v>1202300</v>
+        <v>986900</v>
       </c>
       <c r="J41" s="3">
+        <v>1212800</v>
+      </c>
+      <c r="K41" s="3">
         <v>889400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>822400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>17</v>
       </c>
@@ -2100,38 +2187,41 @@
       <c r="Q41" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>759800</v>
+        <v>811900</v>
       </c>
       <c r="E42" s="3">
-        <v>702700</v>
+        <v>766500</v>
       </c>
       <c r="F42" s="3">
-        <v>643400</v>
+        <v>708900</v>
       </c>
       <c r="G42" s="3">
-        <v>724700</v>
+        <v>649100</v>
       </c>
       <c r="H42" s="3">
-        <v>1004700</v>
+        <v>731000</v>
       </c>
       <c r="I42" s="3">
-        <v>734600</v>
+        <v>1013500</v>
       </c>
       <c r="J42" s="3">
+        <v>741000</v>
+      </c>
+      <c r="K42" s="3">
         <v>971700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>945800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>17</v>
       </c>
@@ -2147,38 +2237,41 @@
       <c r="Q42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4400</v>
+        <v>3300</v>
       </c>
       <c r="E43" s="3">
-        <v>426000</v>
+        <v>449700</v>
       </c>
       <c r="F43" s="3">
-        <v>473200</v>
+        <v>429700</v>
       </c>
       <c r="G43" s="3">
-        <v>431500</v>
+        <v>477400</v>
       </c>
       <c r="H43" s="3">
-        <v>441400</v>
+        <v>435300</v>
       </c>
       <c r="I43" s="3">
-        <v>396400</v>
+        <v>445300</v>
       </c>
       <c r="J43" s="3">
+        <v>399800</v>
+      </c>
+      <c r="K43" s="3">
         <v>356900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>362400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>17</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,38 +2337,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>74700</v>
+        <v>103000</v>
       </c>
       <c r="E45" s="3">
-        <v>80200</v>
+        <v>75300</v>
       </c>
       <c r="F45" s="3">
-        <v>72500</v>
+        <v>80900</v>
       </c>
       <c r="G45" s="3">
-        <v>57100</v>
+        <v>73100</v>
       </c>
       <c r="H45" s="3">
+        <v>57600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>42100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K45" s="3">
         <v>41700</v>
       </c>
-      <c r="I45" s="3">
-        <v>38400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>41700</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>43800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>17</v>
       </c>
@@ -2288,38 +2387,41 @@
       <c r="Q45" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2449600</v>
+        <v>2373600</v>
       </c>
       <c r="E46" s="3">
-        <v>2171800</v>
+        <v>2471100</v>
       </c>
       <c r="F46" s="3">
-        <v>2187200</v>
+        <v>2190800</v>
       </c>
       <c r="G46" s="3">
-        <v>2274000</v>
+        <v>2206300</v>
       </c>
       <c r="H46" s="3">
-        <v>2466100</v>
+        <v>2293800</v>
       </c>
       <c r="I46" s="3">
-        <v>2371700</v>
+        <v>2487700</v>
       </c>
       <c r="J46" s="3">
+        <v>2392400</v>
+      </c>
+      <c r="K46" s="3">
         <v>2259700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2174400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>17</v>
       </c>
@@ -2335,38 +2437,41 @@
       <c r="Q46" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1643700</v>
+        <v>1453200</v>
       </c>
       <c r="E47" s="3">
-        <v>1842400</v>
+        <v>1658100</v>
       </c>
       <c r="F47" s="3">
-        <v>2067500</v>
+        <v>1858600</v>
       </c>
       <c r="G47" s="3">
-        <v>2524300</v>
+        <v>2085600</v>
       </c>
       <c r="H47" s="3">
-        <v>1807300</v>
+        <v>2546400</v>
       </c>
       <c r="I47" s="3">
-        <v>1744700</v>
+        <v>1823100</v>
       </c>
       <c r="J47" s="3">
+        <v>1760000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1064000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1087200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>17</v>
       </c>
@@ -2382,38 +2487,41 @@
       <c r="Q47" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>856400</v>
+        <v>866100</v>
       </c>
       <c r="E48" s="3">
-        <v>830100</v>
+        <v>863900</v>
       </c>
       <c r="F48" s="3">
-        <v>703800</v>
+        <v>837300</v>
       </c>
       <c r="G48" s="3">
-        <v>730200</v>
+        <v>710000</v>
       </c>
       <c r="H48" s="3">
-        <v>216300</v>
+        <v>736600</v>
       </c>
       <c r="I48" s="3">
-        <v>148200</v>
+        <v>218200</v>
       </c>
       <c r="J48" s="3">
+        <v>149500</v>
+      </c>
+      <c r="K48" s="3">
         <v>91100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>76300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>17</v>
       </c>
@@ -2429,38 +2537,41 @@
       <c r="Q48" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>588500</v>
+        <v>790800</v>
       </c>
       <c r="E49" s="3">
-        <v>600600</v>
+        <v>593700</v>
       </c>
       <c r="F49" s="3">
-        <v>569900</v>
+        <v>605900</v>
       </c>
       <c r="G49" s="3">
-        <v>524800</v>
+        <v>574800</v>
       </c>
       <c r="H49" s="3">
-        <v>191100</v>
+        <v>529400</v>
       </c>
       <c r="I49" s="3">
-        <v>190000</v>
+        <v>192700</v>
       </c>
       <c r="J49" s="3">
+        <v>191600</v>
+      </c>
+      <c r="K49" s="3">
         <v>192200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>180600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>17</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,38 +2687,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>85600</v>
+        <v>83100</v>
       </c>
       <c r="E52" s="3">
-        <v>84500</v>
+        <v>86400</v>
       </c>
       <c r="F52" s="3">
-        <v>85600</v>
+        <v>85300</v>
       </c>
       <c r="G52" s="3">
-        <v>87800</v>
+        <v>86400</v>
       </c>
       <c r="H52" s="3">
-        <v>80200</v>
+        <v>88600</v>
       </c>
       <c r="I52" s="3">
-        <v>83400</v>
+        <v>80900</v>
       </c>
       <c r="J52" s="3">
+        <v>84200</v>
+      </c>
+      <c r="K52" s="3">
         <v>82400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>74100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>17</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2787,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5624000</v>
+        <v>5566800</v>
       </c>
       <c r="E54" s="3">
-        <v>5529500</v>
+        <v>5673100</v>
       </c>
       <c r="F54" s="3">
-        <v>5614100</v>
+        <v>5577900</v>
       </c>
       <c r="G54" s="3">
-        <v>6141100</v>
+        <v>5663200</v>
       </c>
       <c r="H54" s="3">
-        <v>4760900</v>
+        <v>6194800</v>
       </c>
       <c r="I54" s="3">
-        <v>4538000</v>
+        <v>4802600</v>
       </c>
       <c r="J54" s="3">
+        <v>4577700</v>
+      </c>
+      <c r="K54" s="3">
         <v>3689300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3592600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>17</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,38 +2879,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>602800</v>
+        <v>605900</v>
       </c>
       <c r="E57" s="3">
-        <v>386500</v>
+        <v>417600</v>
       </c>
       <c r="F57" s="3">
-        <v>316200</v>
+        <v>389900</v>
       </c>
       <c r="G57" s="3">
-        <v>280000</v>
+        <v>319000</v>
       </c>
       <c r="H57" s="3">
-        <v>323900</v>
+        <v>282400</v>
       </c>
       <c r="I57" s="3">
-        <v>288800</v>
+        <v>326700</v>
       </c>
       <c r="J57" s="3">
+        <v>291300</v>
+      </c>
+      <c r="K57" s="3">
         <v>282200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>286100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>17</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2805,16 +2939,16 @@
         <v>17</v>
       </c>
       <c r="E58" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F58" s="3">
         <v>2200</v>
       </c>
-      <c r="F58" s="3">
-        <v>32900</v>
-      </c>
       <c r="G58" s="3">
-        <v>34000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>17</v>
+        <v>33200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>34300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>17</v>
@@ -2822,8 +2956,8 @@
       <c r="J58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2843,38 +2977,41 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2075200</v>
+        <v>1984800</v>
       </c>
       <c r="E59" s="3">
-        <v>2308000</v>
+        <v>2276100</v>
       </c>
       <c r="F59" s="3">
-        <v>2541900</v>
+        <v>2328200</v>
       </c>
       <c r="G59" s="3">
-        <v>2438700</v>
+        <v>2564100</v>
       </c>
       <c r="H59" s="3">
-        <v>2033500</v>
+        <v>2460000</v>
       </c>
       <c r="I59" s="3">
-        <v>2402400</v>
+        <v>2051300</v>
       </c>
       <c r="J59" s="3">
+        <v>2423400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2221300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1899500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>17</v>
       </c>
@@ -2890,38 +3027,41 @@
       <c r="Q59" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2678000</v>
+        <v>2590700</v>
       </c>
       <c r="E60" s="3">
-        <v>2696700</v>
+        <v>2701400</v>
       </c>
       <c r="F60" s="3">
-        <v>2891000</v>
+        <v>2720300</v>
       </c>
       <c r="G60" s="3">
-        <v>2752700</v>
+        <v>2916300</v>
       </c>
       <c r="H60" s="3">
-        <v>2357400</v>
+        <v>2776800</v>
       </c>
       <c r="I60" s="3">
-        <v>2691200</v>
+        <v>2378000</v>
       </c>
       <c r="J60" s="3">
+        <v>2714700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2503400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2185600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>17</v>
       </c>
@@ -2937,25 +3077,28 @@
       <c r="Q60" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>683000</v>
+        <v>691100</v>
       </c>
       <c r="E61" s="3">
-        <v>678600</v>
+        <v>688900</v>
       </c>
       <c r="F61" s="3">
-        <v>567700</v>
+        <v>684500</v>
       </c>
       <c r="G61" s="3">
-        <v>609400</v>
+        <v>572600</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>614700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2964,11 +3107,11 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1146700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2984,38 +3127,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26400</v>
+        <v>55400</v>
       </c>
       <c r="E62" s="3">
-        <v>22000</v>
+        <v>26600</v>
       </c>
       <c r="F62" s="3">
-        <v>19800</v>
+        <v>22200</v>
       </c>
       <c r="G62" s="3">
-        <v>75800</v>
+        <v>19900</v>
       </c>
       <c r="H62" s="3">
-        <v>104300</v>
+        <v>76400</v>
       </c>
       <c r="I62" s="3">
-        <v>96600</v>
+        <v>105200</v>
       </c>
       <c r="J62" s="3">
+        <v>97500</v>
+      </c>
+      <c r="K62" s="3">
         <v>88900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>79700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>17</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3327,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3387300</v>
+        <v>3337200</v>
       </c>
       <c r="E66" s="3">
-        <v>3397200</v>
+        <v>3416900</v>
       </c>
       <c r="F66" s="3">
-        <v>3478500</v>
+        <v>3426900</v>
       </c>
       <c r="G66" s="3">
-        <v>3437800</v>
+        <v>3508900</v>
       </c>
       <c r="H66" s="3">
-        <v>2461700</v>
+        <v>3467900</v>
       </c>
       <c r="I66" s="3">
-        <v>2787800</v>
+        <v>2483200</v>
       </c>
       <c r="J66" s="3">
+        <v>2812200</v>
+      </c>
+      <c r="K66" s="3">
         <v>2592400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3412000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>17</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,38 +3597,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1959900</v>
+        <v>-2088900</v>
       </c>
       <c r="E72" s="3">
-        <v>-2745000</v>
+        <v>-3000500</v>
       </c>
       <c r="F72" s="3">
-        <v>-3009600</v>
+        <v>-2769000</v>
       </c>
       <c r="G72" s="3">
-        <v>-2926200</v>
+        <v>-3035900</v>
       </c>
       <c r="H72" s="3">
-        <v>-2750500</v>
+        <v>-2951800</v>
       </c>
       <c r="I72" s="3">
-        <v>-3235800</v>
+        <v>-2774500</v>
       </c>
       <c r="J72" s="3">
+        <v>-3264100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3283000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2912700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>17</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,38 +3797,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2236600</v>
+        <v>2229600</v>
       </c>
       <c r="E76" s="3">
-        <v>2132300</v>
+        <v>2256200</v>
       </c>
       <c r="F76" s="3">
-        <v>2135600</v>
+        <v>2151000</v>
       </c>
       <c r="G76" s="3">
-        <v>2703300</v>
+        <v>2154300</v>
       </c>
       <c r="H76" s="3">
-        <v>2299200</v>
+        <v>2726900</v>
       </c>
       <c r="I76" s="3">
-        <v>1750200</v>
+        <v>2319300</v>
       </c>
       <c r="J76" s="3">
+        <v>1765500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1096900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>180600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>17</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-229500</v>
+        <v>1100</v>
       </c>
       <c r="E81" s="3">
-        <v>264600</v>
+        <v>-231500</v>
       </c>
       <c r="F81" s="3">
-        <v>-83400</v>
+        <v>266900</v>
       </c>
       <c r="G81" s="3">
-        <v>-155900</v>
+        <v>-84200</v>
       </c>
       <c r="H81" s="3">
-        <v>485300</v>
+        <v>-157300</v>
       </c>
       <c r="I81" s="3">
-        <v>47200</v>
+        <v>489600</v>
       </c>
       <c r="J81" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-432600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-189600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-668700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-311900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-210900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-203100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-99800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26400</v>
+        <v>28800</v>
       </c>
       <c r="E83" s="3">
-        <v>24200</v>
+        <v>26600</v>
       </c>
       <c r="F83" s="3">
-        <v>22000</v>
+        <v>24400</v>
       </c>
       <c r="G83" s="3">
-        <v>23100</v>
+        <v>22200</v>
       </c>
       <c r="H83" s="3">
-        <v>8800</v>
+        <v>23300</v>
       </c>
       <c r="I83" s="3">
-        <v>7700</v>
+        <v>8900</v>
       </c>
       <c r="J83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K83" s="3">
         <v>6600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N83" s="3">
         <v>16800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>222900</v>
+        <v>-10000</v>
       </c>
       <c r="E89" s="3">
-        <v>78000</v>
+        <v>224800</v>
       </c>
       <c r="F89" s="3">
-        <v>98800</v>
+        <v>78600</v>
       </c>
       <c r="G89" s="3">
-        <v>229500</v>
+        <v>99700</v>
       </c>
       <c r="H89" s="3">
-        <v>164700</v>
+        <v>231500</v>
       </c>
       <c r="I89" s="3">
-        <v>87800</v>
+        <v>166100</v>
       </c>
       <c r="J89" s="3">
+        <v>88600</v>
+      </c>
+      <c r="K89" s="3">
         <v>32900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>94200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>106600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-90900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>80800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>109200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35100</v>
+        <v>-13300</v>
       </c>
       <c r="E91" s="3">
-        <v>-28500</v>
+        <v>-35400</v>
       </c>
       <c r="F91" s="3">
-        <v>-43900</v>
+        <v>-28800</v>
       </c>
       <c r="G91" s="3">
-        <v>-40600</v>
+        <v>-44300</v>
       </c>
       <c r="H91" s="3">
-        <v>-71400</v>
+        <v>-41000</v>
       </c>
       <c r="I91" s="3">
-        <v>-53800</v>
+        <v>-72000</v>
       </c>
       <c r="J91" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-115300</v>
+        <v>-203800</v>
       </c>
       <c r="E94" s="3">
-        <v>-62600</v>
+        <v>-116300</v>
       </c>
       <c r="F94" s="3">
-        <v>-7700</v>
+        <v>-63100</v>
       </c>
       <c r="G94" s="3">
-        <v>-53800</v>
+        <v>-7800</v>
       </c>
       <c r="H94" s="3">
-        <v>-329400</v>
+        <v>-54300</v>
       </c>
       <c r="I94" s="3">
-        <v>171300</v>
+        <v>-332300</v>
       </c>
       <c r="J94" s="3">
+        <v>172800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-18700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>156000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N94" s="3">
         <v>12300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-47100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>119700</v>
+        <v>85300</v>
       </c>
       <c r="E100" s="3">
-        <v>-80200</v>
+        <v>120700</v>
       </c>
       <c r="F100" s="3">
-        <v>-154800</v>
+        <v>-80900</v>
       </c>
       <c r="G100" s="3">
-        <v>-107600</v>
+        <v>-156200</v>
       </c>
       <c r="H100" s="3">
-        <v>-60400</v>
+        <v>-108500</v>
       </c>
       <c r="I100" s="3">
-        <v>53800</v>
+        <v>-60900</v>
       </c>
       <c r="J100" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K100" s="3">
         <v>60400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>48200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N100" s="3">
         <v>10100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-20900</v>
+        <v>2200</v>
       </c>
       <c r="E101" s="3">
-        <v>29600</v>
+        <v>-21000</v>
       </c>
       <c r="F101" s="3">
+        <v>29900</v>
+      </c>
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
-        <v>14300</v>
-      </c>
       <c r="H101" s="3">
+        <v>14400</v>
+      </c>
+      <c r="I101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>9900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N101" s="3">
         <v>-3400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-39300</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>206400</v>
+        <v>-126300</v>
       </c>
       <c r="E102" s="3">
-        <v>-35100</v>
+        <v>208200</v>
       </c>
       <c r="F102" s="3">
-        <v>-62600</v>
+        <v>-35400</v>
       </c>
       <c r="G102" s="3">
-        <v>82400</v>
+        <v>-63100</v>
       </c>
       <c r="H102" s="3">
-        <v>-224000</v>
+        <v>83100</v>
       </c>
       <c r="I102" s="3">
-        <v>312900</v>
+        <v>-226000</v>
       </c>
       <c r="J102" s="3">
+        <v>315700</v>
+      </c>
+      <c r="K102" s="3">
         <v>84500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>287200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N102" s="3">
         <v>-71800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>SPOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2046800</v>
+        <v>2234500</v>
       </c>
       <c r="E8" s="3">
-        <v>2054600</v>
+        <v>2186000</v>
       </c>
       <c r="F8" s="3">
-        <v>1917300</v>
+        <v>2194300</v>
       </c>
       <c r="G8" s="3">
-        <v>1846400</v>
+        <v>2047600</v>
       </c>
       <c r="H8" s="3">
-        <v>1673600</v>
+        <v>1971900</v>
       </c>
       <c r="I8" s="3">
-        <v>1655900</v>
+        <v>1787400</v>
       </c>
       <c r="J8" s="3">
+        <v>1768400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1497500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1397800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1277900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1289200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1157900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1129800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1058800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1023600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>876800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1524100</v>
+        <v>1667900</v>
       </c>
       <c r="E9" s="3">
-        <v>1529600</v>
+        <v>1627700</v>
       </c>
       <c r="F9" s="3">
-        <v>1428800</v>
+        <v>1633600</v>
       </c>
       <c r="G9" s="3">
-        <v>1365700</v>
+        <v>1525900</v>
       </c>
       <c r="H9" s="3">
-        <v>1260400</v>
+        <v>1458500</v>
       </c>
       <c r="I9" s="3">
-        <v>1213900</v>
+        <v>1346100</v>
       </c>
       <c r="J9" s="3">
+        <v>1296500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1118700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1036500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>960400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>972800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>899800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>869500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>935500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>844000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>744200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>522800</v>
+        <v>566600</v>
       </c>
       <c r="E10" s="3">
-        <v>525000</v>
+        <v>558300</v>
       </c>
       <c r="F10" s="3">
-        <v>488500</v>
+        <v>560700</v>
       </c>
       <c r="G10" s="3">
-        <v>480700</v>
+        <v>521700</v>
       </c>
       <c r="H10" s="3">
-        <v>413100</v>
+        <v>513400</v>
       </c>
       <c r="I10" s="3">
-        <v>441900</v>
+        <v>441200</v>
       </c>
       <c r="J10" s="3">
+        <v>472000</v>
+      </c>
+      <c r="K10" s="3">
         <v>378800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>361200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>317500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>316400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>258100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>260300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>123300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>179600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>179400</v>
+        <v>311100</v>
       </c>
       <c r="E12" s="3">
-        <v>187200</v>
+        <v>186900</v>
       </c>
       <c r="F12" s="3">
-        <v>147300</v>
+        <v>199900</v>
       </c>
       <c r="G12" s="3">
-        <v>163900</v>
+        <v>157300</v>
       </c>
       <c r="H12" s="3">
-        <v>168400</v>
+        <v>175100</v>
       </c>
       <c r="I12" s="3">
-        <v>110800</v>
+        <v>179800</v>
       </c>
       <c r="J12" s="3">
+        <v>118300</v>
+      </c>
+      <c r="K12" s="3">
         <v>149500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>157000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>129000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>138000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>110000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>106600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>93900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>72800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,16 +1025,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
@@ -1028,15 +1048,15 @@
       <c r="H14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1047,39 +1067,42 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
+      <c r="D15" s="3">
+        <v>4700</v>
       </c>
       <c r="E15" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="F15" s="3">
-        <v>3300</v>
+        <v>4700</v>
       </c>
       <c r="G15" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="H15" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>17</v>
+        <v>3500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3500</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>17</v>
@@ -1087,8 +1110,8 @@
       <c r="K15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2065700</v>
+        <v>2432000</v>
       </c>
       <c r="E17" s="3">
-        <v>2139900</v>
+        <v>2206100</v>
       </c>
       <c r="F17" s="3">
-        <v>1857400</v>
+        <v>2285400</v>
       </c>
       <c r="G17" s="3">
-        <v>1849700</v>
+        <v>1983700</v>
       </c>
       <c r="H17" s="3">
-        <v>1725600</v>
+        <v>1975400</v>
       </c>
       <c r="I17" s="3">
-        <v>1551700</v>
+        <v>1843000</v>
       </c>
       <c r="J17" s="3">
+        <v>1657200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1505200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1496600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1323900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1386800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1239800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1219600</v>
       </c>
       <c r="P17" s="3">
         <v>1219600</v>
       </c>
       <c r="Q17" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="R17" s="3">
         <v>1125700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>954300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-18800</v>
+        <v>-197500</v>
       </c>
       <c r="E18" s="3">
-        <v>-85300</v>
+        <v>-20100</v>
       </c>
       <c r="F18" s="3">
-        <v>59800</v>
+        <v>-91100</v>
       </c>
       <c r="G18" s="3">
-        <v>-3300</v>
+        <v>63900</v>
       </c>
       <c r="H18" s="3">
-        <v>-52100</v>
+        <v>-3500</v>
       </c>
       <c r="I18" s="3">
-        <v>104100</v>
+        <v>-55600</v>
       </c>
       <c r="J18" s="3">
+        <v>111200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-7800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-98800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-46000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-97600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-81900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-89800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-160800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-102100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-77500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,140 +1278,147 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>64200</v>
+        <v>-328800</v>
       </c>
       <c r="E20" s="3">
-        <v>-95300</v>
+        <v>81600</v>
       </c>
       <c r="F20" s="3">
-        <v>249200</v>
+        <v>-101700</v>
       </c>
       <c r="G20" s="3">
-        <v>-50900</v>
+        <v>266200</v>
       </c>
       <c r="H20" s="3">
-        <v>-125200</v>
+        <v>-54400</v>
       </c>
       <c r="I20" s="3">
-        <v>428600</v>
+        <v>-133700</v>
       </c>
       <c r="J20" s="3">
+        <v>457800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-83100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-329400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-156000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-571100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-230000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-120100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-41100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-71600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>74200</v>
+        <v>-493300</v>
       </c>
       <c r="E21" s="3">
-        <v>-154000</v>
+        <v>92300</v>
       </c>
       <c r="F21" s="3">
-        <v>333400</v>
+        <v>-164400</v>
       </c>
       <c r="G21" s="3">
-        <v>-32100</v>
+        <v>356100</v>
       </c>
       <c r="H21" s="3">
-        <v>-154000</v>
+        <v>-34300</v>
       </c>
       <c r="I21" s="3">
-        <v>541600</v>
+        <v>-164400</v>
       </c>
       <c r="J21" s="3">
+        <v>578400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-83100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-421600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-189600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-295100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-196300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-185500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-98600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>17</v>
+      <c r="D22" s="3">
+        <v>11800</v>
       </c>
       <c r="E22" s="3">
-        <v>11100</v>
+        <v>13000</v>
       </c>
       <c r="F22" s="3">
-        <v>10000</v>
+        <v>11800</v>
       </c>
       <c r="G22" s="3">
-        <v>11100</v>
+        <v>10600</v>
       </c>
       <c r="H22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>17</v>
+        <v>11800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10600</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="3">
         <v>2200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>17</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>17</v>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>45400</v>
+        <v>-538200</v>
       </c>
       <c r="E23" s="3">
-        <v>-191600</v>
+        <v>48500</v>
       </c>
       <c r="F23" s="3">
-        <v>299100</v>
+        <v>-204600</v>
       </c>
       <c r="G23" s="3">
-        <v>-65300</v>
+        <v>319400</v>
       </c>
       <c r="H23" s="3">
-        <v>-187200</v>
+        <v>-69800</v>
       </c>
       <c r="I23" s="3">
-        <v>532800</v>
+        <v>-199900</v>
       </c>
       <c r="J23" s="3">
+        <v>569000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-90800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-430400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-202000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-668700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-311900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-209800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-201900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-99800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-149100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>44300</v>
+        <v>-117100</v>
       </c>
       <c r="E24" s="3">
-        <v>39900</v>
+        <v>47300</v>
       </c>
       <c r="F24" s="3">
-        <v>32100</v>
+        <v>42600</v>
       </c>
       <c r="G24" s="3">
-        <v>18800</v>
+        <v>34300</v>
       </c>
       <c r="H24" s="3">
-        <v>-29900</v>
+        <v>20100</v>
       </c>
       <c r="I24" s="3">
-        <v>43200</v>
+        <v>-31900</v>
       </c>
       <c r="J24" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-138500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-12300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1100</v>
+        <v>-421100</v>
       </c>
       <c r="E26" s="3">
-        <v>-231500</v>
+        <v>1200</v>
       </c>
       <c r="F26" s="3">
-        <v>266900</v>
+        <v>-247200</v>
       </c>
       <c r="G26" s="3">
-        <v>-84200</v>
+        <v>285100</v>
       </c>
       <c r="H26" s="3">
-        <v>-157300</v>
+        <v>-89900</v>
       </c>
       <c r="I26" s="3">
-        <v>489600</v>
+        <v>-168000</v>
       </c>
       <c r="J26" s="3">
+        <v>522800</v>
+      </c>
+      <c r="K26" s="3">
         <v>47600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-432600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-189600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-668700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-311900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-210900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-203100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-99800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1100</v>
+        <v>-421100</v>
       </c>
       <c r="E27" s="3">
-        <v>-231500</v>
+        <v>1200</v>
       </c>
       <c r="F27" s="3">
-        <v>266900</v>
+        <v>-247200</v>
       </c>
       <c r="G27" s="3">
-        <v>-84200</v>
+        <v>285100</v>
       </c>
       <c r="H27" s="3">
-        <v>-157300</v>
+        <v>-89900</v>
       </c>
       <c r="I27" s="3">
-        <v>489600</v>
+        <v>-168000</v>
       </c>
       <c r="J27" s="3">
+        <v>522800</v>
+      </c>
+      <c r="K27" s="3">
         <v>47600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-432600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-189600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-668700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-311900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-210900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-203100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-99800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-64200</v>
+        <v>328800</v>
       </c>
       <c r="E32" s="3">
-        <v>95300</v>
+        <v>-81600</v>
       </c>
       <c r="F32" s="3">
-        <v>-249200</v>
+        <v>101700</v>
       </c>
       <c r="G32" s="3">
-        <v>50900</v>
+        <v>-266200</v>
       </c>
       <c r="H32" s="3">
-        <v>125200</v>
+        <v>54400</v>
       </c>
       <c r="I32" s="3">
-        <v>-428600</v>
+        <v>133700</v>
       </c>
       <c r="J32" s="3">
+        <v>-457800</v>
+      </c>
+      <c r="K32" s="3">
         <v>83100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>329400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>156000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>571100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>230000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>120100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>41100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1100</v>
+        <v>-421100</v>
       </c>
       <c r="E33" s="3">
-        <v>-231500</v>
+        <v>1200</v>
       </c>
       <c r="F33" s="3">
-        <v>266900</v>
+        <v>-247200</v>
       </c>
       <c r="G33" s="3">
-        <v>-84200</v>
+        <v>285100</v>
       </c>
       <c r="H33" s="3">
-        <v>-157300</v>
+        <v>-89900</v>
       </c>
       <c r="I33" s="3">
-        <v>489600</v>
+        <v>-168000</v>
       </c>
       <c r="J33" s="3">
+        <v>522800</v>
+      </c>
+      <c r="K33" s="3">
         <v>47600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-432600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-189600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-668700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-311900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-210900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-203100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-99800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1100</v>
+        <v>-421100</v>
       </c>
       <c r="E35" s="3">
-        <v>-231500</v>
+        <v>1200</v>
       </c>
       <c r="F35" s="3">
-        <v>266900</v>
+        <v>-247200</v>
       </c>
       <c r="G35" s="3">
-        <v>-84200</v>
+        <v>285100</v>
       </c>
       <c r="H35" s="3">
-        <v>-157300</v>
+        <v>-89900</v>
       </c>
       <c r="I35" s="3">
-        <v>489600</v>
+        <v>-168000</v>
       </c>
       <c r="J35" s="3">
+        <v>522800</v>
+      </c>
+      <c r="K35" s="3">
         <v>47600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-432600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-189600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-668700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-311900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-210900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-203100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-99800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2226,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1053300</v>
+        <v>1358000</v>
       </c>
       <c r="E41" s="3">
-        <v>1179600</v>
+        <v>1124900</v>
       </c>
       <c r="F41" s="3">
-        <v>971400</v>
+        <v>1259800</v>
       </c>
       <c r="G41" s="3">
-        <v>1006800</v>
+        <v>1037400</v>
       </c>
       <c r="H41" s="3">
-        <v>1069900</v>
+        <v>1075300</v>
       </c>
       <c r="I41" s="3">
-        <v>986900</v>
+        <v>1142700</v>
       </c>
       <c r="J41" s="3">
+        <v>1054000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1212800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>889400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>822400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>17</v>
       </c>
@@ -2190,41 +2277,44 @@
       <c r="R41" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>811900</v>
+        <v>752300</v>
       </c>
       <c r="E42" s="3">
-        <v>766500</v>
+        <v>867100</v>
       </c>
       <c r="F42" s="3">
-        <v>708900</v>
+        <v>818600</v>
       </c>
       <c r="G42" s="3">
-        <v>649100</v>
+        <v>757100</v>
       </c>
       <c r="H42" s="3">
-        <v>731000</v>
+        <v>693200</v>
       </c>
       <c r="I42" s="3">
-        <v>1013500</v>
+        <v>780700</v>
       </c>
       <c r="J42" s="3">
+        <v>1082400</v>
+      </c>
+      <c r="K42" s="3">
         <v>741000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>971700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>945800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>17</v>
       </c>
@@ -2240,41 +2330,44 @@
       <c r="R42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3300</v>
+        <v>431800</v>
       </c>
       <c r="E43" s="3">
-        <v>449700</v>
+        <v>432900</v>
       </c>
       <c r="F43" s="3">
-        <v>429700</v>
+        <v>480300</v>
       </c>
       <c r="G43" s="3">
-        <v>477400</v>
+        <v>459000</v>
       </c>
       <c r="H43" s="3">
-        <v>435300</v>
+        <v>509800</v>
       </c>
       <c r="I43" s="3">
-        <v>445300</v>
+        <v>464900</v>
       </c>
       <c r="J43" s="3">
+        <v>475500</v>
+      </c>
+      <c r="K43" s="3">
         <v>399800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>356900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>362400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>17</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,41 +2436,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>103000</v>
+        <v>136000</v>
       </c>
       <c r="E45" s="3">
-        <v>75300</v>
+        <v>110000</v>
       </c>
       <c r="F45" s="3">
-        <v>80900</v>
+        <v>80400</v>
       </c>
       <c r="G45" s="3">
-        <v>73100</v>
+        <v>86400</v>
       </c>
       <c r="H45" s="3">
-        <v>57600</v>
+        <v>78100</v>
       </c>
       <c r="I45" s="3">
-        <v>42100</v>
+        <v>61500</v>
       </c>
       <c r="J45" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K45" s="3">
         <v>38800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>41700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>43800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>17</v>
       </c>
@@ -2390,41 +2489,44 @@
       <c r="R45" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2373600</v>
+        <v>2678100</v>
       </c>
       <c r="E46" s="3">
-        <v>2471100</v>
+        <v>2535000</v>
       </c>
       <c r="F46" s="3">
-        <v>2190800</v>
+        <v>2639000</v>
       </c>
       <c r="G46" s="3">
-        <v>2206300</v>
+        <v>2339800</v>
       </c>
       <c r="H46" s="3">
-        <v>2293800</v>
+        <v>2356300</v>
       </c>
       <c r="I46" s="3">
-        <v>2487700</v>
+        <v>2449800</v>
       </c>
       <c r="J46" s="3">
+        <v>2656800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2392400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2259700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2174400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>17</v>
       </c>
@@ -2440,41 +2542,44 @@
       <c r="R46" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1453200</v>
+        <v>2040500</v>
       </c>
       <c r="E47" s="3">
-        <v>1658100</v>
+        <v>1552000</v>
       </c>
       <c r="F47" s="3">
-        <v>1858600</v>
+        <v>1770800</v>
       </c>
       <c r="G47" s="3">
-        <v>2085600</v>
+        <v>1984900</v>
       </c>
       <c r="H47" s="3">
-        <v>2546400</v>
+        <v>2227400</v>
       </c>
       <c r="I47" s="3">
-        <v>1823100</v>
+        <v>2719500</v>
       </c>
       <c r="J47" s="3">
+        <v>1947100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1760000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1064000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1087200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>17</v>
       </c>
@@ -2490,41 +2595,44 @@
       <c r="R47" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>866100</v>
+        <v>902600</v>
       </c>
       <c r="E48" s="3">
-        <v>863900</v>
+        <v>925000</v>
       </c>
       <c r="F48" s="3">
-        <v>837300</v>
+        <v>922700</v>
       </c>
       <c r="G48" s="3">
-        <v>710000</v>
+        <v>894300</v>
       </c>
       <c r="H48" s="3">
-        <v>736600</v>
+        <v>758200</v>
       </c>
       <c r="I48" s="3">
-        <v>218200</v>
+        <v>786600</v>
       </c>
       <c r="J48" s="3">
+        <v>233000</v>
+      </c>
+      <c r="K48" s="3">
         <v>149500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>91100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>76300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>17</v>
       </c>
@@ -2540,41 +2648,44 @@
       <c r="R48" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>790800</v>
+        <v>831600</v>
       </c>
       <c r="E49" s="3">
-        <v>593700</v>
+        <v>844600</v>
       </c>
       <c r="F49" s="3">
-        <v>605900</v>
+        <v>634000</v>
       </c>
       <c r="G49" s="3">
-        <v>574800</v>
+        <v>647000</v>
       </c>
       <c r="H49" s="3">
-        <v>529400</v>
+        <v>613900</v>
       </c>
       <c r="I49" s="3">
-        <v>192700</v>
+        <v>565400</v>
       </c>
       <c r="J49" s="3">
+        <v>205800</v>
+      </c>
+      <c r="K49" s="3">
         <v>191600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>192200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>180600</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>17</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,41 +2807,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>83100</v>
+        <v>93400</v>
       </c>
       <c r="E52" s="3">
+        <v>88700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>92300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>91100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>92300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>94600</v>
+      </c>
+      <c r="J52" s="3">
         <v>86400</v>
       </c>
-      <c r="F52" s="3">
-        <v>85300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>86400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>88600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>80900</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>84200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>82400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>74100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>17</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5566800</v>
+        <v>6546200</v>
       </c>
       <c r="E54" s="3">
-        <v>5673100</v>
+        <v>5945300</v>
       </c>
       <c r="F54" s="3">
-        <v>5577900</v>
+        <v>6058800</v>
       </c>
       <c r="G54" s="3">
-        <v>5663200</v>
+        <v>5957100</v>
       </c>
       <c r="H54" s="3">
-        <v>6194800</v>
+        <v>6048200</v>
       </c>
       <c r="I54" s="3">
-        <v>4802600</v>
+        <v>6616000</v>
       </c>
       <c r="J54" s="3">
+        <v>5129100</v>
+      </c>
+      <c r="K54" s="3">
         <v>4577700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3689300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3592600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>17</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,41 +3010,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>605900</v>
+        <v>431800</v>
       </c>
       <c r="E57" s="3">
-        <v>417600</v>
+        <v>446000</v>
       </c>
       <c r="F57" s="3">
-        <v>389900</v>
+        <v>446000</v>
       </c>
       <c r="G57" s="3">
-        <v>319000</v>
+        <v>416400</v>
       </c>
       <c r="H57" s="3">
-        <v>282400</v>
+        <v>340700</v>
       </c>
       <c r="I57" s="3">
-        <v>326700</v>
+        <v>301600</v>
       </c>
       <c r="J57" s="3">
+        <v>349000</v>
+      </c>
+      <c r="K57" s="3">
         <v>291300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>282200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>286100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>17</v>
       </c>
@@ -2930,28 +3061,31 @@
       <c r="R57" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E58" s="3">
-        <v>7800</v>
+      <c r="E58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F58" s="3">
-        <v>2200</v>
+        <v>8300</v>
       </c>
       <c r="G58" s="3">
-        <v>33200</v>
+        <v>2400</v>
       </c>
       <c r="H58" s="3">
-        <v>34300</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>17</v>
+        <v>35500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>36700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>17</v>
@@ -2959,8 +3093,8 @@
       <c r="K58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2980,41 +3114,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1984800</v>
+        <v>2831900</v>
       </c>
       <c r="E59" s="3">
-        <v>2276100</v>
+        <v>2320800</v>
       </c>
       <c r="F59" s="3">
-        <v>2328200</v>
+        <v>2430900</v>
       </c>
       <c r="G59" s="3">
-        <v>2564100</v>
+        <v>2486500</v>
       </c>
       <c r="H59" s="3">
-        <v>2460000</v>
+        <v>2738400</v>
       </c>
       <c r="I59" s="3">
-        <v>2051300</v>
+        <v>2627200</v>
       </c>
       <c r="J59" s="3">
+        <v>2190700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2423400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2221300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1899500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>17</v>
       </c>
@@ -3030,41 +3167,44 @@
       <c r="R59" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2590700</v>
+        <v>3263600</v>
       </c>
       <c r="E60" s="3">
-        <v>2701400</v>
+        <v>2766800</v>
       </c>
       <c r="F60" s="3">
-        <v>2720300</v>
+        <v>2885100</v>
       </c>
       <c r="G60" s="3">
-        <v>2916300</v>
+        <v>2905200</v>
       </c>
       <c r="H60" s="3">
-        <v>2776800</v>
+        <v>3114600</v>
       </c>
       <c r="I60" s="3">
-        <v>2378000</v>
+        <v>2965500</v>
       </c>
       <c r="J60" s="3">
+        <v>2539700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2714700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2503400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2185600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>17</v>
       </c>
@@ -3080,28 +3220,31 @@
       <c r="R60" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>691100</v>
+        <v>723900</v>
       </c>
       <c r="E61" s="3">
-        <v>688900</v>
+        <v>738100</v>
       </c>
       <c r="F61" s="3">
-        <v>684500</v>
+        <v>735800</v>
       </c>
       <c r="G61" s="3">
-        <v>572600</v>
+        <v>731000</v>
       </c>
       <c r="H61" s="3">
-        <v>614700</v>
+        <v>611600</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>656500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3110,11 +3253,11 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1146700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3130,41 +3273,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>55400</v>
+        <v>47300</v>
       </c>
       <c r="E62" s="3">
-        <v>26600</v>
+        <v>59100</v>
       </c>
       <c r="F62" s="3">
-        <v>22200</v>
+        <v>28400</v>
       </c>
       <c r="G62" s="3">
-        <v>19900</v>
+        <v>23700</v>
       </c>
       <c r="H62" s="3">
-        <v>76400</v>
+        <v>21300</v>
       </c>
       <c r="I62" s="3">
-        <v>105200</v>
+        <v>81600</v>
       </c>
       <c r="J62" s="3">
+        <v>112400</v>
+      </c>
+      <c r="K62" s="3">
         <v>97500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>88900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>79700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>17</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3337200</v>
+        <v>4034900</v>
       </c>
       <c r="E66" s="3">
-        <v>3416900</v>
+        <v>3564100</v>
       </c>
       <c r="F66" s="3">
-        <v>3426900</v>
+        <v>3649200</v>
       </c>
       <c r="G66" s="3">
-        <v>3508900</v>
+        <v>3659900</v>
       </c>
       <c r="H66" s="3">
-        <v>3467900</v>
+        <v>3747400</v>
       </c>
       <c r="I66" s="3">
-        <v>2483200</v>
+        <v>3703700</v>
       </c>
       <c r="J66" s="3">
+        <v>2652100</v>
+      </c>
+      <c r="K66" s="3">
         <v>2812200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2592400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3412000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>17</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,41 +3771,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2088900</v>
+        <v>-3624400</v>
       </c>
       <c r="E72" s="3">
-        <v>-3000500</v>
+        <v>-3203300</v>
       </c>
       <c r="F72" s="3">
-        <v>-2769000</v>
+        <v>-3204500</v>
       </c>
       <c r="G72" s="3">
-        <v>-3035900</v>
+        <v>-2957300</v>
       </c>
       <c r="H72" s="3">
-        <v>-2951800</v>
+        <v>-3242300</v>
       </c>
       <c r="I72" s="3">
-        <v>-2774500</v>
+        <v>-3152400</v>
       </c>
       <c r="J72" s="3">
+        <v>-2963200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3264100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3283000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2912700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>17</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +3983,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2229600</v>
+        <v>2511300</v>
       </c>
       <c r="E76" s="3">
-        <v>2256200</v>
+        <v>2381200</v>
       </c>
       <c r="F76" s="3">
-        <v>2151000</v>
+        <v>2409600</v>
       </c>
       <c r="G76" s="3">
-        <v>2154300</v>
+        <v>2297200</v>
       </c>
       <c r="H76" s="3">
-        <v>2726900</v>
+        <v>2300700</v>
       </c>
       <c r="I76" s="3">
-        <v>2319300</v>
+        <v>2912300</v>
       </c>
       <c r="J76" s="3">
+        <v>2477000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1765500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1096900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>180600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>17</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1100</v>
+        <v>-421100</v>
       </c>
       <c r="E81" s="3">
-        <v>-231500</v>
+        <v>1200</v>
       </c>
       <c r="F81" s="3">
-        <v>266900</v>
+        <v>-247200</v>
       </c>
       <c r="G81" s="3">
-        <v>-84200</v>
+        <v>285100</v>
       </c>
       <c r="H81" s="3">
-        <v>-157300</v>
+        <v>-89900</v>
       </c>
       <c r="I81" s="3">
-        <v>489600</v>
+        <v>-168000</v>
       </c>
       <c r="J81" s="3">
+        <v>522800</v>
+      </c>
+      <c r="K81" s="3">
         <v>47600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-432600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-189600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-668700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-311900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-210900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-203100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-99800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>28800</v>
+        <v>33100</v>
       </c>
       <c r="E83" s="3">
-        <v>26600</v>
+        <v>30800</v>
       </c>
       <c r="F83" s="3">
-        <v>24400</v>
+        <v>28400</v>
       </c>
       <c r="G83" s="3">
-        <v>22200</v>
+        <v>26000</v>
       </c>
       <c r="H83" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="I83" s="3">
-        <v>8900</v>
+        <v>24800</v>
       </c>
       <c r="J83" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K83" s="3">
         <v>7800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O83" s="3">
         <v>16800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-10000</v>
+        <v>46100</v>
       </c>
       <c r="E89" s="3">
-        <v>224800</v>
+        <v>-10600</v>
       </c>
       <c r="F89" s="3">
-        <v>78600</v>
+        <v>240100</v>
       </c>
       <c r="G89" s="3">
-        <v>99700</v>
+        <v>84000</v>
       </c>
       <c r="H89" s="3">
-        <v>231500</v>
+        <v>106500</v>
       </c>
       <c r="I89" s="3">
-        <v>166100</v>
+        <v>247200</v>
       </c>
       <c r="J89" s="3">
+        <v>177400</v>
+      </c>
+      <c r="K89" s="3">
         <v>88600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>94200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>106600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-90900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>80800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>109200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13300</v>
+        <v>-16600</v>
       </c>
       <c r="E91" s="3">
-        <v>-35400</v>
+        <v>-14200</v>
       </c>
       <c r="F91" s="3">
-        <v>-28800</v>
+        <v>-37900</v>
       </c>
       <c r="G91" s="3">
-        <v>-44300</v>
+        <v>-30800</v>
       </c>
       <c r="H91" s="3">
-        <v>-41000</v>
+        <v>-47300</v>
       </c>
       <c r="I91" s="3">
-        <v>-72000</v>
+        <v>-43800</v>
       </c>
       <c r="J91" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-54300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-203800</v>
+        <v>92300</v>
       </c>
       <c r="E94" s="3">
-        <v>-116300</v>
+        <v>-217700</v>
       </c>
       <c r="F94" s="3">
-        <v>-63100</v>
+        <v>-124200</v>
       </c>
       <c r="G94" s="3">
-        <v>-7800</v>
+        <v>-67400</v>
       </c>
       <c r="H94" s="3">
-        <v>-54300</v>
+        <v>-8300</v>
       </c>
       <c r="I94" s="3">
-        <v>-332300</v>
+        <v>-58000</v>
       </c>
       <c r="J94" s="3">
+        <v>-354900</v>
+      </c>
+      <c r="K94" s="3">
         <v>172800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>156000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O94" s="3">
         <v>12300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-47100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>85300</v>
+        <v>106500</v>
       </c>
       <c r="E100" s="3">
-        <v>120700</v>
+        <v>91100</v>
       </c>
       <c r="F100" s="3">
-        <v>-80900</v>
+        <v>128900</v>
       </c>
       <c r="G100" s="3">
-        <v>-156200</v>
+        <v>-86400</v>
       </c>
       <c r="H100" s="3">
-        <v>-108500</v>
+        <v>-166800</v>
       </c>
       <c r="I100" s="3">
-        <v>-60900</v>
+        <v>-115900</v>
       </c>
       <c r="J100" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="K100" s="3">
         <v>54300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>60400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>48200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O100" s="3">
         <v>10100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>17</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2200</v>
+        <v>-11800</v>
       </c>
       <c r="E101" s="3">
-        <v>-21000</v>
+        <v>2400</v>
       </c>
       <c r="F101" s="3">
-        <v>29900</v>
+        <v>-22500</v>
       </c>
       <c r="G101" s="3">
-        <v>1100</v>
+        <v>31900</v>
       </c>
       <c r="H101" s="3">
-        <v>14400</v>
+        <v>1200</v>
       </c>
       <c r="I101" s="3">
-        <v>1100</v>
+        <v>15400</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>9900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-11200</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O101" s="3">
         <v>-3400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-39300</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>17</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-126300</v>
+        <v>233000</v>
       </c>
       <c r="E102" s="3">
-        <v>208200</v>
+        <v>-134900</v>
       </c>
       <c r="F102" s="3">
-        <v>-35400</v>
+        <v>222400</v>
       </c>
       <c r="G102" s="3">
-        <v>-63100</v>
+        <v>-37900</v>
       </c>
       <c r="H102" s="3">
-        <v>83100</v>
+        <v>-67400</v>
       </c>
       <c r="I102" s="3">
-        <v>-226000</v>
+        <v>88700</v>
       </c>
       <c r="J102" s="3">
+        <v>-241300</v>
+      </c>
+      <c r="K102" s="3">
         <v>315700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>84500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>287200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O102" s="3">
         <v>-71800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3400</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>SPOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2234500</v>
+        <v>2362500</v>
       </c>
       <c r="E8" s="3">
-        <v>2186000</v>
+        <v>2259600</v>
       </c>
       <c r="F8" s="3">
-        <v>2194300</v>
+        <v>2210600</v>
       </c>
       <c r="G8" s="3">
-        <v>2047600</v>
+        <v>2219000</v>
       </c>
       <c r="H8" s="3">
-        <v>1971900</v>
+        <v>2070600</v>
       </c>
       <c r="I8" s="3">
-        <v>1787400</v>
+        <v>1994100</v>
       </c>
       <c r="J8" s="3">
+        <v>1807500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1768400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1497500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1397800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1277900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1289200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1157900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1129800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1058800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1023600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>876800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1667900</v>
+        <v>1777600</v>
       </c>
       <c r="E9" s="3">
-        <v>1627700</v>
+        <v>1686600</v>
       </c>
       <c r="F9" s="3">
-        <v>1633600</v>
+        <v>1646000</v>
       </c>
       <c r="G9" s="3">
-        <v>1525900</v>
+        <v>1652000</v>
       </c>
       <c r="H9" s="3">
-        <v>1458500</v>
+        <v>1543100</v>
       </c>
       <c r="I9" s="3">
-        <v>1346100</v>
+        <v>1474900</v>
       </c>
       <c r="J9" s="3">
+        <v>1361300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1296500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1118700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1036500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>960400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>972800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>899800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>869500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>935500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>844000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>744200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>566600</v>
+        <v>584900</v>
       </c>
       <c r="E10" s="3">
-        <v>558300</v>
+        <v>573000</v>
       </c>
       <c r="F10" s="3">
-        <v>560700</v>
+        <v>564600</v>
       </c>
       <c r="G10" s="3">
-        <v>521700</v>
+        <v>567000</v>
       </c>
       <c r="H10" s="3">
-        <v>513400</v>
+        <v>527500</v>
       </c>
       <c r="I10" s="3">
-        <v>441200</v>
+        <v>519200</v>
       </c>
       <c r="J10" s="3">
+        <v>446200</v>
+      </c>
+      <c r="K10" s="3">
         <v>472000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>378800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>361200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>317500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>316400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>258100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>260300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>123300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>179600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>311100</v>
+        <v>204600</v>
       </c>
       <c r="E12" s="3">
-        <v>186900</v>
+        <v>314600</v>
       </c>
       <c r="F12" s="3">
-        <v>199900</v>
+        <v>189000</v>
       </c>
       <c r="G12" s="3">
-        <v>157300</v>
+        <v>202200</v>
       </c>
       <c r="H12" s="3">
-        <v>175100</v>
+        <v>159100</v>
       </c>
       <c r="I12" s="3">
-        <v>179800</v>
+        <v>177000</v>
       </c>
       <c r="J12" s="3">
+        <v>181800</v>
+      </c>
+      <c r="K12" s="3">
         <v>118300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>149500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>157000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>129000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>138000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>110000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>106600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>93900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>72800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1037,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>17</v>
@@ -1051,15 +1071,15 @@
       <c r="I14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1070,42 +1090,45 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-2300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>4700</v>
+        <v>6000</v>
       </c>
       <c r="E15" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="F15" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="G15" s="3">
-        <v>3500</v>
+        <v>4800</v>
       </c>
       <c r="H15" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I15" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>17</v>
+        <v>3600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3600</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>17</v>
@@ -1113,8 +1136,8 @@
       <c r="L15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2432000</v>
+        <v>2410300</v>
       </c>
       <c r="E17" s="3">
-        <v>2206100</v>
+        <v>2459400</v>
       </c>
       <c r="F17" s="3">
-        <v>2285400</v>
+        <v>2230900</v>
       </c>
       <c r="G17" s="3">
-        <v>1983700</v>
+        <v>2311100</v>
       </c>
       <c r="H17" s="3">
-        <v>1975400</v>
+        <v>2006000</v>
       </c>
       <c r="I17" s="3">
-        <v>1843000</v>
+        <v>1997700</v>
       </c>
       <c r="J17" s="3">
+        <v>1863700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1657200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1505200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1496600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1323900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1386800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1239800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1219600</v>
       </c>
       <c r="Q17" s="3">
         <v>1219600</v>
       </c>
       <c r="R17" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="S17" s="3">
         <v>1125700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>954300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-197500</v>
+        <v>-47800</v>
       </c>
       <c r="E18" s="3">
-        <v>-20100</v>
+        <v>-199800</v>
       </c>
       <c r="F18" s="3">
-        <v>-91100</v>
+        <v>-20300</v>
       </c>
       <c r="G18" s="3">
-        <v>63900</v>
+        <v>-92100</v>
       </c>
       <c r="H18" s="3">
-        <v>-3500</v>
+        <v>64600</v>
       </c>
       <c r="I18" s="3">
-        <v>-55600</v>
+        <v>-3600</v>
       </c>
       <c r="J18" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="K18" s="3">
         <v>111200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-98800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-46000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-97600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-81900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-89800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-160800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-102100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-77500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,149 +1312,156 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-328800</v>
+        <v>-78900</v>
       </c>
       <c r="E20" s="3">
-        <v>81600</v>
+        <v>-332500</v>
       </c>
       <c r="F20" s="3">
-        <v>-101700</v>
+        <v>82500</v>
       </c>
       <c r="G20" s="3">
-        <v>266200</v>
+        <v>-102900</v>
       </c>
       <c r="H20" s="3">
-        <v>-54400</v>
+        <v>269100</v>
       </c>
       <c r="I20" s="3">
-        <v>-133700</v>
+        <v>-55000</v>
       </c>
       <c r="J20" s="3">
+        <v>-135200</v>
+      </c>
+      <c r="K20" s="3">
         <v>457800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-83100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-329400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-156000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-571100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-230000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-120100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-41100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-71600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-493300</v>
+        <v>-93300</v>
       </c>
       <c r="E21" s="3">
-        <v>92300</v>
+        <v>-498800</v>
       </c>
       <c r="F21" s="3">
-        <v>-164400</v>
+        <v>93300</v>
       </c>
       <c r="G21" s="3">
-        <v>356100</v>
+        <v>-166300</v>
       </c>
       <c r="H21" s="3">
-        <v>-34300</v>
+        <v>360100</v>
       </c>
       <c r="I21" s="3">
-        <v>-164400</v>
+        <v>-34700</v>
       </c>
       <c r="J21" s="3">
+        <v>-166300</v>
+      </c>
+      <c r="K21" s="3">
         <v>578400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-83100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-421600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-189600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-295100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-196300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-185500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-98600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="E22" s="3">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="F22" s="3">
-        <v>11800</v>
+        <v>13200</v>
       </c>
       <c r="G22" s="3">
-        <v>10600</v>
+        <v>12000</v>
       </c>
       <c r="H22" s="3">
-        <v>11800</v>
+        <v>10800</v>
       </c>
       <c r="I22" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>17</v>
+        <v>12000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>10800</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="3">
         <v>2200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>17</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>17</v>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-538200</v>
+        <v>-138800</v>
       </c>
       <c r="E23" s="3">
-        <v>48500</v>
+        <v>-544300</v>
       </c>
       <c r="F23" s="3">
-        <v>-204600</v>
+        <v>49000</v>
       </c>
       <c r="G23" s="3">
-        <v>319400</v>
+        <v>-206900</v>
       </c>
       <c r="H23" s="3">
-        <v>-69800</v>
+        <v>323000</v>
       </c>
       <c r="I23" s="3">
-        <v>-199900</v>
+        <v>-70600</v>
       </c>
       <c r="J23" s="3">
+        <v>-202200</v>
+      </c>
+      <c r="K23" s="3">
         <v>569000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-90800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-430400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-202000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-668700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-311900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-209800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-201900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-99800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-149100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-117100</v>
+        <v>-17900</v>
       </c>
       <c r="E24" s="3">
-        <v>47300</v>
+        <v>-118400</v>
       </c>
       <c r="F24" s="3">
-        <v>42600</v>
+        <v>47800</v>
       </c>
       <c r="G24" s="3">
-        <v>34300</v>
+        <v>43100</v>
       </c>
       <c r="H24" s="3">
-        <v>20100</v>
+        <v>34700</v>
       </c>
       <c r="I24" s="3">
-        <v>-31900</v>
+        <v>20300</v>
       </c>
       <c r="J24" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="K24" s="3">
         <v>46100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-138500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-12300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-421100</v>
+        <v>-120800</v>
       </c>
       <c r="E26" s="3">
+        <v>-425800</v>
+      </c>
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-247200</v>
-      </c>
       <c r="G26" s="3">
-        <v>285100</v>
+        <v>-250000</v>
       </c>
       <c r="H26" s="3">
-        <v>-89900</v>
+        <v>288300</v>
       </c>
       <c r="I26" s="3">
-        <v>-168000</v>
+        <v>-90900</v>
       </c>
       <c r="J26" s="3">
+        <v>-169900</v>
+      </c>
+      <c r="K26" s="3">
         <v>522800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>47600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-432600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-189600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-668700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-311900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-210900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-203100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-99800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-421100</v>
+        <v>-120800</v>
       </c>
       <c r="E27" s="3">
+        <v>-425800</v>
+      </c>
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-247200</v>
-      </c>
       <c r="G27" s="3">
-        <v>285100</v>
+        <v>-250000</v>
       </c>
       <c r="H27" s="3">
-        <v>-89900</v>
+        <v>288300</v>
       </c>
       <c r="I27" s="3">
-        <v>-168000</v>
+        <v>-90900</v>
       </c>
       <c r="J27" s="3">
+        <v>-169900</v>
+      </c>
+      <c r="K27" s="3">
         <v>522800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>47600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-432600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-189600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-668700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-311900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-210900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-203100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-99800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>328800</v>
+        <v>78900</v>
       </c>
       <c r="E32" s="3">
-        <v>-81600</v>
+        <v>332500</v>
       </c>
       <c r="F32" s="3">
-        <v>101700</v>
+        <v>-82500</v>
       </c>
       <c r="G32" s="3">
-        <v>-266200</v>
+        <v>102900</v>
       </c>
       <c r="H32" s="3">
-        <v>54400</v>
+        <v>-269100</v>
       </c>
       <c r="I32" s="3">
-        <v>133700</v>
+        <v>55000</v>
       </c>
       <c r="J32" s="3">
+        <v>135200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-457800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>83100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>329400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>156000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>571100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>230000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>120100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>41100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-421100</v>
+        <v>-120800</v>
       </c>
       <c r="E33" s="3">
+        <v>-425800</v>
+      </c>
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-247200</v>
-      </c>
       <c r="G33" s="3">
-        <v>285100</v>
+        <v>-250000</v>
       </c>
       <c r="H33" s="3">
-        <v>-89900</v>
+        <v>288300</v>
       </c>
       <c r="I33" s="3">
-        <v>-168000</v>
+        <v>-90900</v>
       </c>
       <c r="J33" s="3">
+        <v>-169900</v>
+      </c>
+      <c r="K33" s="3">
         <v>522800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>47600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-432600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-189600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-668700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-311900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-210900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-203100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-99800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-421100</v>
+        <v>-120800</v>
       </c>
       <c r="E35" s="3">
+        <v>-425800</v>
+      </c>
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-247200</v>
-      </c>
       <c r="G35" s="3">
-        <v>285100</v>
+        <v>-250000</v>
       </c>
       <c r="H35" s="3">
-        <v>-89900</v>
+        <v>288300</v>
       </c>
       <c r="I35" s="3">
-        <v>-168000</v>
+        <v>-90900</v>
       </c>
       <c r="J35" s="3">
+        <v>-169900</v>
+      </c>
+      <c r="K35" s="3">
         <v>522800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>47600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-432600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-189600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-668700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-311900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-210900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-203100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-99800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,44 +2313,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1358000</v>
+        <v>1413900</v>
       </c>
       <c r="E41" s="3">
-        <v>1124900</v>
+        <v>1373200</v>
       </c>
       <c r="F41" s="3">
-        <v>1259800</v>
+        <v>1137600</v>
       </c>
       <c r="G41" s="3">
-        <v>1037400</v>
+        <v>1274000</v>
       </c>
       <c r="H41" s="3">
-        <v>1075300</v>
+        <v>1049100</v>
       </c>
       <c r="I41" s="3">
-        <v>1142700</v>
+        <v>1087300</v>
       </c>
       <c r="J41" s="3">
+        <v>1155500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1054000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1212800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>889400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>822400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>17</v>
       </c>
@@ -2280,44 +2367,47 @@
       <c r="S41" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>752300</v>
+        <v>860100</v>
       </c>
       <c r="E42" s="3">
-        <v>867100</v>
+        <v>760800</v>
       </c>
       <c r="F42" s="3">
-        <v>818600</v>
+        <v>876800</v>
       </c>
       <c r="G42" s="3">
-        <v>757100</v>
+        <v>827800</v>
       </c>
       <c r="H42" s="3">
-        <v>693200</v>
+        <v>765600</v>
       </c>
       <c r="I42" s="3">
-        <v>780700</v>
+        <v>701000</v>
       </c>
       <c r="J42" s="3">
+        <v>789500</v>
+      </c>
+      <c r="K42" s="3">
         <v>1082400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>741000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>971700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>945800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>17</v>
       </c>
@@ -2333,44 +2423,47 @@
       <c r="S42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>431800</v>
+        <v>473700</v>
       </c>
       <c r="E43" s="3">
-        <v>432900</v>
+        <v>436600</v>
       </c>
       <c r="F43" s="3">
-        <v>480300</v>
+        <v>437800</v>
       </c>
       <c r="G43" s="3">
-        <v>459000</v>
+        <v>485700</v>
       </c>
       <c r="H43" s="3">
-        <v>509800</v>
+        <v>464100</v>
       </c>
       <c r="I43" s="3">
-        <v>464900</v>
+        <v>515600</v>
       </c>
       <c r="J43" s="3">
+        <v>470100</v>
+      </c>
+      <c r="K43" s="3">
         <v>475500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>399800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>356900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>362400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>17</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,44 +2535,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>136000</v>
+        <v>169900</v>
       </c>
       <c r="E45" s="3">
-        <v>110000</v>
+        <v>137600</v>
       </c>
       <c r="F45" s="3">
-        <v>80400</v>
+        <v>111200</v>
       </c>
       <c r="G45" s="3">
-        <v>86400</v>
+        <v>81300</v>
       </c>
       <c r="H45" s="3">
-        <v>78100</v>
+        <v>87300</v>
       </c>
       <c r="I45" s="3">
-        <v>61500</v>
+        <v>78900</v>
       </c>
       <c r="J45" s="3">
+        <v>62200</v>
+      </c>
+      <c r="K45" s="3">
         <v>45000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>38800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>41700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>43800</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>17</v>
       </c>
@@ -2492,44 +2591,47 @@
       <c r="S45" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2678100</v>
+        <v>2917500</v>
       </c>
       <c r="E46" s="3">
-        <v>2535000</v>
+        <v>2708200</v>
       </c>
       <c r="F46" s="3">
-        <v>2639000</v>
+        <v>2563500</v>
       </c>
       <c r="G46" s="3">
-        <v>2339800</v>
+        <v>2668700</v>
       </c>
       <c r="H46" s="3">
-        <v>2356300</v>
+        <v>2366100</v>
       </c>
       <c r="I46" s="3">
-        <v>2449800</v>
+        <v>2382800</v>
       </c>
       <c r="J46" s="3">
+        <v>2477300</v>
+      </c>
+      <c r="K46" s="3">
         <v>2656800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2392400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2259700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2174400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>17</v>
       </c>
@@ -2545,44 +2647,47 @@
       <c r="S46" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2040500</v>
+        <v>2166300</v>
       </c>
       <c r="E47" s="3">
-        <v>1552000</v>
+        <v>2063400</v>
       </c>
       <c r="F47" s="3">
-        <v>1770800</v>
+        <v>1569400</v>
       </c>
       <c r="G47" s="3">
-        <v>1984900</v>
+        <v>1790700</v>
       </c>
       <c r="H47" s="3">
-        <v>2227400</v>
+        <v>2007200</v>
       </c>
       <c r="I47" s="3">
-        <v>2719500</v>
+        <v>2252400</v>
       </c>
       <c r="J47" s="3">
+        <v>2750100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1947100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1760000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1064000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1087200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>17</v>
       </c>
@@ -2598,44 +2703,47 @@
       <c r="S47" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>902600</v>
+        <v>906700</v>
       </c>
       <c r="E48" s="3">
-        <v>925000</v>
+        <v>912700</v>
       </c>
       <c r="F48" s="3">
-        <v>922700</v>
+        <v>935400</v>
       </c>
       <c r="G48" s="3">
-        <v>894300</v>
+        <v>933000</v>
       </c>
       <c r="H48" s="3">
-        <v>758200</v>
+        <v>904300</v>
       </c>
       <c r="I48" s="3">
-        <v>786600</v>
+        <v>766800</v>
       </c>
       <c r="J48" s="3">
+        <v>795500</v>
+      </c>
+      <c r="K48" s="3">
         <v>233000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>149500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>91100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>76300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>17</v>
       </c>
@@ -2651,44 +2759,47 @@
       <c r="S48" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>831600</v>
+        <v>809800</v>
       </c>
       <c r="E49" s="3">
-        <v>844600</v>
+        <v>840900</v>
       </c>
       <c r="F49" s="3">
-        <v>634000</v>
+        <v>854100</v>
       </c>
       <c r="G49" s="3">
-        <v>647000</v>
+        <v>641200</v>
       </c>
       <c r="H49" s="3">
-        <v>613900</v>
+        <v>654300</v>
       </c>
       <c r="I49" s="3">
-        <v>565400</v>
+        <v>620800</v>
       </c>
       <c r="J49" s="3">
+        <v>571800</v>
+      </c>
+      <c r="K49" s="3">
         <v>205800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>191600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>192200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>180600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>17</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,44 +2927,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>93400</v>
+        <v>94500</v>
       </c>
       <c r="E52" s="3">
-        <v>88700</v>
+        <v>94500</v>
       </c>
       <c r="F52" s="3">
-        <v>92300</v>
+        <v>89700</v>
       </c>
       <c r="G52" s="3">
-        <v>91100</v>
+        <v>93300</v>
       </c>
       <c r="H52" s="3">
-        <v>92300</v>
+        <v>92100</v>
       </c>
       <c r="I52" s="3">
-        <v>94600</v>
+        <v>93300</v>
       </c>
       <c r="J52" s="3">
+        <v>95700</v>
+      </c>
+      <c r="K52" s="3">
         <v>86400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>84200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>82400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>74100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>17</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,44 +3039,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6546200</v>
+        <v>6894900</v>
       </c>
       <c r="E54" s="3">
-        <v>5945300</v>
+        <v>6619800</v>
       </c>
       <c r="F54" s="3">
-        <v>6058800</v>
+        <v>6012100</v>
       </c>
       <c r="G54" s="3">
-        <v>5957100</v>
+        <v>6126900</v>
       </c>
       <c r="H54" s="3">
-        <v>6048200</v>
+        <v>6024100</v>
       </c>
       <c r="I54" s="3">
-        <v>6616000</v>
+        <v>6116200</v>
       </c>
       <c r="J54" s="3">
+        <v>6690300</v>
+      </c>
+      <c r="K54" s="3">
         <v>5129100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4577700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3689300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3592600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>17</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,44 +3141,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>431800</v>
+        <v>507200</v>
       </c>
       <c r="E57" s="3">
-        <v>446000</v>
+        <v>436600</v>
       </c>
       <c r="F57" s="3">
-        <v>446000</v>
+        <v>451000</v>
       </c>
       <c r="G57" s="3">
-        <v>416400</v>
+        <v>451000</v>
       </c>
       <c r="H57" s="3">
-        <v>340700</v>
+        <v>421100</v>
       </c>
       <c r="I57" s="3">
-        <v>301600</v>
+        <v>344500</v>
       </c>
       <c r="J57" s="3">
+        <v>305000</v>
+      </c>
+      <c r="K57" s="3">
         <v>349000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>291300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>282200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>286100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>17</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3075,20 +3209,20 @@
       <c r="E58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="3">
-        <v>8300</v>
+      <c r="F58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G58" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
-        <v>35500</v>
-      </c>
       <c r="I58" s="3">
-        <v>36700</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>17</v>
+        <v>35900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>37100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>17</v>
@@ -3096,8 +3230,8 @@
       <c r="L58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3117,44 +3251,47 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2831900</v>
+        <v>2679500</v>
       </c>
       <c r="E59" s="3">
-        <v>2320800</v>
+        <v>2863700</v>
       </c>
       <c r="F59" s="3">
-        <v>2430900</v>
+        <v>2346900</v>
       </c>
       <c r="G59" s="3">
-        <v>2486500</v>
+        <v>2458200</v>
       </c>
       <c r="H59" s="3">
-        <v>2738400</v>
+        <v>2514400</v>
       </c>
       <c r="I59" s="3">
-        <v>2627200</v>
+        <v>2769200</v>
       </c>
       <c r="J59" s="3">
+        <v>2656800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2190700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2423400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2221300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1899500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>17</v>
       </c>
@@ -3170,44 +3307,47 @@
       <c r="S59" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3263600</v>
+        <v>3186700</v>
       </c>
       <c r="E60" s="3">
-        <v>2766800</v>
+        <v>3300300</v>
       </c>
       <c r="F60" s="3">
-        <v>2885100</v>
+        <v>2797900</v>
       </c>
       <c r="G60" s="3">
-        <v>2905200</v>
+        <v>2917500</v>
       </c>
       <c r="H60" s="3">
-        <v>3114600</v>
+        <v>2937900</v>
       </c>
       <c r="I60" s="3">
-        <v>2965500</v>
+        <v>3149600</v>
       </c>
       <c r="J60" s="3">
+        <v>2998900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2539700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2714700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2503400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2185600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>17</v>
       </c>
@@ -3223,31 +3363,34 @@
       <c r="S60" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>723900</v>
+        <v>708200</v>
       </c>
       <c r="E61" s="3">
-        <v>738100</v>
+        <v>732100</v>
       </c>
       <c r="F61" s="3">
-        <v>735800</v>
+        <v>746400</v>
       </c>
       <c r="G61" s="3">
-        <v>731000</v>
+        <v>744000</v>
       </c>
       <c r="H61" s="3">
-        <v>611600</v>
+        <v>739300</v>
       </c>
       <c r="I61" s="3">
-        <v>656500</v>
+        <v>618400</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>663900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3256,11 +3399,11 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1146700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3276,44 +3419,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>47300</v>
+        <v>50200</v>
       </c>
       <c r="E62" s="3">
-        <v>59100</v>
+        <v>47800</v>
       </c>
       <c r="F62" s="3">
-        <v>28400</v>
+        <v>59800</v>
       </c>
       <c r="G62" s="3">
-        <v>23700</v>
+        <v>28700</v>
       </c>
       <c r="H62" s="3">
-        <v>21300</v>
+        <v>23900</v>
       </c>
       <c r="I62" s="3">
-        <v>81600</v>
+        <v>21500</v>
       </c>
       <c r="J62" s="3">
+        <v>82500</v>
+      </c>
+      <c r="K62" s="3">
         <v>112400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>97500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>88900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>79700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>17</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,44 +3643,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4034900</v>
+        <v>3945100</v>
       </c>
       <c r="E66" s="3">
-        <v>3564100</v>
+        <v>4080200</v>
       </c>
       <c r="F66" s="3">
-        <v>3649200</v>
+        <v>3604200</v>
       </c>
       <c r="G66" s="3">
-        <v>3659900</v>
+        <v>3690300</v>
       </c>
       <c r="H66" s="3">
-        <v>3747400</v>
+        <v>3701000</v>
       </c>
       <c r="I66" s="3">
-        <v>3703700</v>
+        <v>3789600</v>
       </c>
       <c r="J66" s="3">
+        <v>3745300</v>
+      </c>
+      <c r="K66" s="3">
         <v>2652100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2812200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2592400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3412000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>17</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,44 +3945,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3624400</v>
+        <v>-3786000</v>
       </c>
       <c r="E72" s="3">
-        <v>-3203300</v>
+        <v>-3665200</v>
       </c>
       <c r="F72" s="3">
-        <v>-3204500</v>
+        <v>-3239300</v>
       </c>
       <c r="G72" s="3">
-        <v>-2957300</v>
+        <v>-3240500</v>
       </c>
       <c r="H72" s="3">
-        <v>-3242300</v>
+        <v>-2990500</v>
       </c>
       <c r="I72" s="3">
-        <v>-3152400</v>
+        <v>-3278800</v>
       </c>
       <c r="J72" s="3">
+        <v>-3187900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2963200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3264100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3283000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2912700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>17</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,44 +4169,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2511300</v>
+        <v>2949800</v>
       </c>
       <c r="E76" s="3">
-        <v>2381200</v>
+        <v>2539500</v>
       </c>
       <c r="F76" s="3">
-        <v>2409600</v>
+        <v>2408000</v>
       </c>
       <c r="G76" s="3">
-        <v>2297200</v>
+        <v>2436700</v>
       </c>
       <c r="H76" s="3">
-        <v>2300700</v>
+        <v>2323000</v>
       </c>
       <c r="I76" s="3">
-        <v>2912300</v>
+        <v>2326600</v>
       </c>
       <c r="J76" s="3">
+        <v>2945000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2477000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1765500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1096900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>180600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>17</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-421100</v>
+        <v>-120800</v>
       </c>
       <c r="E81" s="3">
+        <v>-425800</v>
+      </c>
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-247200</v>
-      </c>
       <c r="G81" s="3">
-        <v>285100</v>
+        <v>-250000</v>
       </c>
       <c r="H81" s="3">
-        <v>-89900</v>
+        <v>288300</v>
       </c>
       <c r="I81" s="3">
-        <v>-168000</v>
+        <v>-90900</v>
       </c>
       <c r="J81" s="3">
+        <v>-169900</v>
+      </c>
+      <c r="K81" s="3">
         <v>522800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>47600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-432600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-189600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-668700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-311900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-210900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-203100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-99800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>33100</v>
+        <v>33500</v>
       </c>
       <c r="E83" s="3">
-        <v>30800</v>
+        <v>33500</v>
       </c>
       <c r="F83" s="3">
-        <v>28400</v>
+        <v>31100</v>
       </c>
       <c r="G83" s="3">
-        <v>26000</v>
+        <v>28700</v>
       </c>
       <c r="H83" s="3">
-        <v>23700</v>
+        <v>26300</v>
       </c>
       <c r="I83" s="3">
-        <v>24800</v>
+        <v>23900</v>
       </c>
       <c r="J83" s="3">
+        <v>25100</v>
+      </c>
+      <c r="K83" s="3">
         <v>9500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P83" s="3">
         <v>16800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13500</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>46100</v>
+        <v>145900</v>
       </c>
       <c r="E89" s="3">
-        <v>-10600</v>
+        <v>46700</v>
       </c>
       <c r="F89" s="3">
-        <v>240100</v>
+        <v>-10800</v>
       </c>
       <c r="G89" s="3">
-        <v>84000</v>
+        <v>242800</v>
       </c>
       <c r="H89" s="3">
-        <v>106500</v>
+        <v>84900</v>
       </c>
       <c r="I89" s="3">
-        <v>247200</v>
+        <v>107700</v>
       </c>
       <c r="J89" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K89" s="3">
         <v>177400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>88600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>94200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>106600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-90900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>80800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>109200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16600</v>
+        <v>-20300</v>
       </c>
       <c r="E91" s="3">
-        <v>-14200</v>
+        <v>-16700</v>
       </c>
       <c r="F91" s="3">
-        <v>-37900</v>
+        <v>-14400</v>
       </c>
       <c r="G91" s="3">
-        <v>-30800</v>
+        <v>-38300</v>
       </c>
       <c r="H91" s="3">
-        <v>-47300</v>
+        <v>-31100</v>
       </c>
       <c r="I91" s="3">
-        <v>-43800</v>
+        <v>-47800</v>
       </c>
       <c r="J91" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-76900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-54300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>92300</v>
+        <v>-160300</v>
       </c>
       <c r="E94" s="3">
-        <v>-217700</v>
+        <v>93300</v>
       </c>
       <c r="F94" s="3">
-        <v>-124200</v>
+        <v>-220100</v>
       </c>
       <c r="G94" s="3">
-        <v>-67400</v>
+        <v>-125600</v>
       </c>
       <c r="H94" s="3">
-        <v>-8300</v>
+        <v>-68200</v>
       </c>
       <c r="I94" s="3">
-        <v>-58000</v>
+        <v>-8400</v>
       </c>
       <c r="J94" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-354900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>172800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>156000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P94" s="3">
         <v>12300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-47100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>106500</v>
+        <v>101700</v>
       </c>
       <c r="E100" s="3">
-        <v>91100</v>
+        <v>107700</v>
       </c>
       <c r="F100" s="3">
-        <v>128900</v>
+        <v>92100</v>
       </c>
       <c r="G100" s="3">
-        <v>-86400</v>
+        <v>130400</v>
       </c>
       <c r="H100" s="3">
-        <v>-166800</v>
+        <v>-87300</v>
       </c>
       <c r="I100" s="3">
-        <v>-115900</v>
+        <v>-168700</v>
       </c>
       <c r="J100" s="3">
+        <v>-117200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-65100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>54300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>60400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>48200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P100" s="3">
         <v>10100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-11800</v>
+        <v>-46700</v>
       </c>
       <c r="E101" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F101" s="3">
         <v>2400</v>
       </c>
-      <c r="F101" s="3">
-        <v>-22500</v>
-      </c>
       <c r="G101" s="3">
-        <v>31900</v>
+        <v>-22700</v>
       </c>
       <c r="H101" s="3">
+        <v>32300</v>
+      </c>
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="I101" s="3">
-        <v>15400</v>
-      </c>
       <c r="J101" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>9900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-11200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P101" s="3">
         <v>-3400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-39300</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>233000</v>
+        <v>40700</v>
       </c>
       <c r="E102" s="3">
-        <v>-134900</v>
+        <v>235700</v>
       </c>
       <c r="F102" s="3">
-        <v>222400</v>
+        <v>-136400</v>
       </c>
       <c r="G102" s="3">
-        <v>-37900</v>
+        <v>224900</v>
       </c>
       <c r="H102" s="3">
-        <v>-67400</v>
+        <v>-38300</v>
       </c>
       <c r="I102" s="3">
-        <v>88700</v>
+        <v>-68200</v>
       </c>
       <c r="J102" s="3">
+        <v>89700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-241300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>315700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>84500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>287200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P102" s="3">
         <v>-71800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>SPOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2362500</v>
+        <v>2550400</v>
       </c>
       <c r="E8" s="3">
-        <v>2259600</v>
+        <v>2323400</v>
       </c>
       <c r="F8" s="3">
-        <v>2210600</v>
+        <v>2222200</v>
       </c>
       <c r="G8" s="3">
-        <v>2219000</v>
+        <v>2174000</v>
       </c>
       <c r="H8" s="3">
-        <v>2070600</v>
+        <v>2182200</v>
       </c>
       <c r="I8" s="3">
-        <v>1994100</v>
+        <v>2036300</v>
       </c>
       <c r="J8" s="3">
+        <v>1961100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1807500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1768400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1497500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1397800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1277900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1289200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1157900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1129800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1058800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1023600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>876800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1777600</v>
+        <v>1874000</v>
       </c>
       <c r="E9" s="3">
-        <v>1686600</v>
+        <v>1748100</v>
       </c>
       <c r="F9" s="3">
-        <v>1646000</v>
+        <v>1658700</v>
       </c>
       <c r="G9" s="3">
-        <v>1652000</v>
+        <v>1618700</v>
       </c>
       <c r="H9" s="3">
-        <v>1543100</v>
+        <v>1624600</v>
       </c>
       <c r="I9" s="3">
-        <v>1474900</v>
+        <v>1517600</v>
       </c>
       <c r="J9" s="3">
+        <v>1450500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1361300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1296500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1118700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1036500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>960400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>972800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>899800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>869500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>935500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>844000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>744200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>584900</v>
+        <v>676400</v>
       </c>
       <c r="E10" s="3">
-        <v>573000</v>
+        <v>575300</v>
       </c>
       <c r="F10" s="3">
-        <v>564600</v>
+        <v>563500</v>
       </c>
       <c r="G10" s="3">
-        <v>567000</v>
+        <v>555300</v>
       </c>
       <c r="H10" s="3">
-        <v>527500</v>
+        <v>557600</v>
       </c>
       <c r="I10" s="3">
-        <v>519200</v>
+        <v>518800</v>
       </c>
       <c r="J10" s="3">
+        <v>510600</v>
+      </c>
+      <c r="K10" s="3">
         <v>446200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>472000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>378800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>361200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>317500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>316400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>258100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>260300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>123300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>179600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>204600</v>
+        <v>265900</v>
       </c>
       <c r="E12" s="3">
-        <v>314600</v>
+        <v>201200</v>
       </c>
       <c r="F12" s="3">
-        <v>189000</v>
+        <v>309400</v>
       </c>
       <c r="G12" s="3">
-        <v>202200</v>
+        <v>185900</v>
       </c>
       <c r="H12" s="3">
-        <v>159100</v>
+        <v>198800</v>
       </c>
       <c r="I12" s="3">
-        <v>177000</v>
+        <v>156500</v>
       </c>
       <c r="J12" s="3">
+        <v>174100</v>
+      </c>
+      <c r="K12" s="3">
         <v>181800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>118300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>149500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>157000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>129000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>138000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>110000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>106600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>93900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>72800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,22 +1064,25 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>3600</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>17</v>
@@ -1074,15 +1093,15 @@
       <c r="J14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1093,54 +1112,57 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-2300</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>6000</v>
+        <v>7100</v>
       </c>
       <c r="E15" s="3">
-        <v>4800</v>
+        <v>5900</v>
       </c>
       <c r="F15" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G15" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="H15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K15" s="3">
         <v>3600</v>
       </c>
-      <c r="I15" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2410300</v>
+        <v>2631600</v>
       </c>
       <c r="E17" s="3">
-        <v>2459400</v>
+        <v>2370400</v>
       </c>
       <c r="F17" s="3">
-        <v>2230900</v>
+        <v>2418700</v>
       </c>
       <c r="G17" s="3">
-        <v>2311100</v>
+        <v>2194000</v>
       </c>
       <c r="H17" s="3">
-        <v>2006000</v>
+        <v>2272800</v>
       </c>
       <c r="I17" s="3">
-        <v>1997700</v>
+        <v>1972800</v>
       </c>
       <c r="J17" s="3">
+        <v>1964600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1863700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1657200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1505200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1496600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1323900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1386800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1239800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1219600</v>
       </c>
       <c r="R17" s="3">
         <v>1219600</v>
       </c>
       <c r="S17" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="T17" s="3">
         <v>1125700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>954300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-47800</v>
+        <v>-81200</v>
       </c>
       <c r="E18" s="3">
-        <v>-199800</v>
+        <v>-47100</v>
       </c>
       <c r="F18" s="3">
-        <v>-20300</v>
+        <v>-196500</v>
       </c>
       <c r="G18" s="3">
-        <v>-92100</v>
+        <v>-20000</v>
       </c>
       <c r="H18" s="3">
-        <v>64600</v>
+        <v>-90600</v>
       </c>
       <c r="I18" s="3">
-        <v>-3600</v>
+        <v>63500</v>
       </c>
       <c r="J18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-56200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>111200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-98800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-46000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-97600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-81900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-89800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-160800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-102100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-77500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,158 +1345,165 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-78900</v>
+        <v>-117600</v>
       </c>
       <c r="E20" s="3">
-        <v>-332500</v>
+        <v>-77600</v>
       </c>
       <c r="F20" s="3">
-        <v>82500</v>
+        <v>-327000</v>
       </c>
       <c r="G20" s="3">
-        <v>-102900</v>
+        <v>81200</v>
       </c>
       <c r="H20" s="3">
-        <v>269100</v>
+        <v>-101200</v>
       </c>
       <c r="I20" s="3">
-        <v>-55000</v>
+        <v>264700</v>
       </c>
       <c r="J20" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-135200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>457800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-83100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-329400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-156000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-571100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-230000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-120100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-41100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-71600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-93300</v>
+        <v>-164700</v>
       </c>
       <c r="E21" s="3">
-        <v>-498800</v>
+        <v>-91800</v>
       </c>
       <c r="F21" s="3">
-        <v>93300</v>
+        <v>-490600</v>
       </c>
       <c r="G21" s="3">
+        <v>91800</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-163500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>354100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-166300</v>
       </c>
-      <c r="H21" s="3">
-        <v>360100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-34700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-166300</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>578400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-83100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-421600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-189600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-295100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-196300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-185500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-98600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="E22" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="F22" s="3">
-        <v>13200</v>
+        <v>11800</v>
       </c>
       <c r="G22" s="3">
-        <v>12000</v>
+        <v>12900</v>
       </c>
       <c r="H22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K22" s="3">
         <v>10800</v>
       </c>
-      <c r="I22" s="3">
-        <v>12000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>10800</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="3">
         <v>2200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>17</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>17</v>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-138800</v>
+        <v>-210600</v>
       </c>
       <c r="E23" s="3">
-        <v>-544300</v>
+        <v>-136500</v>
       </c>
       <c r="F23" s="3">
-        <v>49000</v>
+        <v>-535300</v>
       </c>
       <c r="G23" s="3">
-        <v>-206900</v>
+        <v>48200</v>
       </c>
       <c r="H23" s="3">
-        <v>323000</v>
+        <v>-203500</v>
       </c>
       <c r="I23" s="3">
-        <v>-70600</v>
+        <v>317600</v>
       </c>
       <c r="J23" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-202200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>569000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-90800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-430400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-202000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-668700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-311900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-209800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-201900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-99800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-149100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-17900</v>
+        <v>-63500</v>
       </c>
       <c r="E24" s="3">
-        <v>-118400</v>
+        <v>-17600</v>
       </c>
       <c r="F24" s="3">
-        <v>47800</v>
+        <v>-116500</v>
       </c>
       <c r="G24" s="3">
-        <v>43100</v>
+        <v>47100</v>
       </c>
       <c r="H24" s="3">
-        <v>34700</v>
+        <v>42400</v>
       </c>
       <c r="I24" s="3">
-        <v>20300</v>
+        <v>34100</v>
       </c>
       <c r="J24" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-32300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>46100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-138500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-12300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-120800</v>
+        <v>-147100</v>
       </c>
       <c r="E26" s="3">
-        <v>-425800</v>
+        <v>-118800</v>
       </c>
       <c r="F26" s="3">
+        <v>-418800</v>
+      </c>
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-250000</v>
-      </c>
       <c r="H26" s="3">
-        <v>288300</v>
+        <v>-245900</v>
       </c>
       <c r="I26" s="3">
-        <v>-90900</v>
+        <v>283500</v>
       </c>
       <c r="J26" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-169900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>522800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>47600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-432600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-189600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-668700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-311900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-210900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-203100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-99800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-120800</v>
+        <v>-147100</v>
       </c>
       <c r="E27" s="3">
-        <v>-425800</v>
+        <v>-118800</v>
       </c>
       <c r="F27" s="3">
+        <v>-418800</v>
+      </c>
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-250000</v>
-      </c>
       <c r="H27" s="3">
-        <v>288300</v>
+        <v>-245900</v>
       </c>
       <c r="I27" s="3">
-        <v>-90900</v>
+        <v>283500</v>
       </c>
       <c r="J27" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-169900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>522800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>47600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-432600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-189600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-668700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-311900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-210900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-203100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-99800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>78900</v>
+        <v>117600</v>
       </c>
       <c r="E32" s="3">
-        <v>332500</v>
+        <v>77600</v>
       </c>
       <c r="F32" s="3">
-        <v>-82500</v>
+        <v>327000</v>
       </c>
       <c r="G32" s="3">
-        <v>102900</v>
+        <v>-81200</v>
       </c>
       <c r="H32" s="3">
-        <v>-269100</v>
+        <v>101200</v>
       </c>
       <c r="I32" s="3">
-        <v>55000</v>
+        <v>-264700</v>
       </c>
       <c r="J32" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K32" s="3">
         <v>135200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-457800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>83100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>329400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>156000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>571100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>230000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>120100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>41100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-120800</v>
+        <v>-147100</v>
       </c>
       <c r="E33" s="3">
-        <v>-425800</v>
+        <v>-118800</v>
       </c>
       <c r="F33" s="3">
+        <v>-418800</v>
+      </c>
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-250000</v>
-      </c>
       <c r="H33" s="3">
-        <v>288300</v>
+        <v>-245900</v>
       </c>
       <c r="I33" s="3">
-        <v>-90900</v>
+        <v>283500</v>
       </c>
       <c r="J33" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-169900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>522800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>47600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-432600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-189600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-668700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-311900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-210900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-203100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-99800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-120800</v>
+        <v>-147100</v>
       </c>
       <c r="E35" s="3">
-        <v>-425800</v>
+        <v>-118800</v>
       </c>
       <c r="F35" s="3">
+        <v>-418800</v>
+      </c>
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-250000</v>
-      </c>
       <c r="H35" s="3">
-        <v>288300</v>
+        <v>-245900</v>
       </c>
       <c r="I35" s="3">
-        <v>-90900</v>
+        <v>283500</v>
       </c>
       <c r="J35" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-169900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>522800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>47600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-432600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-189600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-668700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-311900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-210900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-203100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-99800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,47 +2399,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1413900</v>
+        <v>1354000</v>
       </c>
       <c r="E41" s="3">
-        <v>1373200</v>
+        <v>1390500</v>
       </c>
       <c r="F41" s="3">
-        <v>1137600</v>
+        <v>1350500</v>
       </c>
       <c r="G41" s="3">
-        <v>1274000</v>
+        <v>1118800</v>
       </c>
       <c r="H41" s="3">
-        <v>1049100</v>
+        <v>1252900</v>
       </c>
       <c r="I41" s="3">
-        <v>1087300</v>
+        <v>1031700</v>
       </c>
       <c r="J41" s="3">
+        <v>1069300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1155500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1054000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1212800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>889400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>822400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>17</v>
       </c>
@@ -2370,47 +2456,50 @@
       <c r="T41" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>860100</v>
+        <v>701100</v>
       </c>
       <c r="E42" s="3">
-        <v>760800</v>
+        <v>845800</v>
       </c>
       <c r="F42" s="3">
-        <v>876800</v>
+        <v>748200</v>
       </c>
       <c r="G42" s="3">
-        <v>827800</v>
+        <v>862300</v>
       </c>
       <c r="H42" s="3">
-        <v>765600</v>
+        <v>814100</v>
       </c>
       <c r="I42" s="3">
-        <v>701000</v>
+        <v>752900</v>
       </c>
       <c r="J42" s="3">
+        <v>689400</v>
+      </c>
+      <c r="K42" s="3">
         <v>789500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1082400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>741000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>971700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>945800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>17</v>
       </c>
@@ -2426,47 +2515,50 @@
       <c r="T42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>473700</v>
+        <v>550600</v>
       </c>
       <c r="E43" s="3">
-        <v>436600</v>
+        <v>465900</v>
       </c>
       <c r="F43" s="3">
-        <v>437800</v>
+        <v>429400</v>
       </c>
       <c r="G43" s="3">
-        <v>485700</v>
+        <v>430600</v>
       </c>
       <c r="H43" s="3">
-        <v>464100</v>
+        <v>477600</v>
       </c>
       <c r="I43" s="3">
-        <v>515600</v>
+        <v>456400</v>
       </c>
       <c r="J43" s="3">
+        <v>507000</v>
+      </c>
+      <c r="K43" s="3">
         <v>470100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>475500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>399800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>356900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>362400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>17</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,47 +2633,50 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>169900</v>
+        <v>177600</v>
       </c>
       <c r="E45" s="3">
-        <v>137600</v>
+        <v>167000</v>
       </c>
       <c r="F45" s="3">
-        <v>111200</v>
+        <v>135300</v>
       </c>
       <c r="G45" s="3">
-        <v>81300</v>
+        <v>109400</v>
       </c>
       <c r="H45" s="3">
-        <v>87300</v>
+        <v>80000</v>
       </c>
       <c r="I45" s="3">
-        <v>78900</v>
+        <v>85900</v>
       </c>
       <c r="J45" s="3">
+        <v>77600</v>
+      </c>
+      <c r="K45" s="3">
         <v>62200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>45000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>38800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>41700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>43800</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>17</v>
       </c>
@@ -2594,47 +2692,50 @@
       <c r="T45" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2917500</v>
+        <v>2783400</v>
       </c>
       <c r="E46" s="3">
-        <v>2708200</v>
+        <v>2869200</v>
       </c>
       <c r="F46" s="3">
-        <v>2563500</v>
+        <v>2663400</v>
       </c>
       <c r="G46" s="3">
-        <v>2668700</v>
+        <v>2521000</v>
       </c>
       <c r="H46" s="3">
-        <v>2366100</v>
+        <v>2624500</v>
       </c>
       <c r="I46" s="3">
-        <v>2382800</v>
+        <v>2326900</v>
       </c>
       <c r="J46" s="3">
+        <v>2343400</v>
+      </c>
+      <c r="K46" s="3">
         <v>2477300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2656800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2392400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2259700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2174400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>17</v>
       </c>
@@ -2650,47 +2751,50 @@
       <c r="T46" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2166300</v>
+        <v>2678700</v>
       </c>
       <c r="E47" s="3">
-        <v>2063400</v>
+        <v>2130500</v>
       </c>
       <c r="F47" s="3">
-        <v>1569400</v>
+        <v>2029300</v>
       </c>
       <c r="G47" s="3">
-        <v>1790700</v>
+        <v>1543400</v>
       </c>
       <c r="H47" s="3">
-        <v>2007200</v>
+        <v>1761100</v>
       </c>
       <c r="I47" s="3">
-        <v>2252400</v>
+        <v>1974000</v>
       </c>
       <c r="J47" s="3">
+        <v>2215200</v>
+      </c>
+      <c r="K47" s="3">
         <v>2750100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1947100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1760000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1064000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1087200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>17</v>
       </c>
@@ -2706,47 +2810,50 @@
       <c r="T47" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>906700</v>
+        <v>890500</v>
       </c>
       <c r="E48" s="3">
-        <v>912700</v>
+        <v>891700</v>
       </c>
       <c r="F48" s="3">
-        <v>935400</v>
+        <v>897600</v>
       </c>
       <c r="G48" s="3">
-        <v>933000</v>
+        <v>919900</v>
       </c>
       <c r="H48" s="3">
-        <v>904300</v>
+        <v>917600</v>
       </c>
       <c r="I48" s="3">
-        <v>766800</v>
+        <v>889400</v>
       </c>
       <c r="J48" s="3">
+        <v>754100</v>
+      </c>
+      <c r="K48" s="3">
         <v>795500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>233000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>149500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>91100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>76300</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>17</v>
       </c>
@@ -2762,47 +2869,50 @@
       <c r="T48" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>809800</v>
+        <v>979900</v>
       </c>
       <c r="E49" s="3">
-        <v>840900</v>
+        <v>796400</v>
       </c>
       <c r="F49" s="3">
-        <v>854100</v>
+        <v>827000</v>
       </c>
       <c r="G49" s="3">
-        <v>641200</v>
+        <v>839900</v>
       </c>
       <c r="H49" s="3">
-        <v>654300</v>
+        <v>630600</v>
       </c>
       <c r="I49" s="3">
-        <v>620800</v>
+        <v>643500</v>
       </c>
       <c r="J49" s="3">
+        <v>610600</v>
+      </c>
+      <c r="K49" s="3">
         <v>571800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>205800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>191600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>192200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>180600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>17</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,47 +3046,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>94500</v>
+        <v>109400</v>
       </c>
       <c r="E52" s="3">
-        <v>94500</v>
+        <v>92900</v>
       </c>
       <c r="F52" s="3">
-        <v>89700</v>
+        <v>92900</v>
       </c>
       <c r="G52" s="3">
-        <v>93300</v>
+        <v>88200</v>
       </c>
       <c r="H52" s="3">
-        <v>92100</v>
+        <v>91800</v>
       </c>
       <c r="I52" s="3">
-        <v>93300</v>
+        <v>90600</v>
       </c>
       <c r="J52" s="3">
+        <v>91800</v>
+      </c>
+      <c r="K52" s="3">
         <v>95700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>86400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>84200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>82400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>74100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>17</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,47 +3164,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6894900</v>
+        <v>7441900</v>
       </c>
       <c r="E54" s="3">
-        <v>6619800</v>
+        <v>6780800</v>
       </c>
       <c r="F54" s="3">
-        <v>6012100</v>
+        <v>6510200</v>
       </c>
       <c r="G54" s="3">
-        <v>6126900</v>
+        <v>5912600</v>
       </c>
       <c r="H54" s="3">
-        <v>6024100</v>
+        <v>6025500</v>
       </c>
       <c r="I54" s="3">
-        <v>6116200</v>
+        <v>5924400</v>
       </c>
       <c r="J54" s="3">
+        <v>6014900</v>
+      </c>
+      <c r="K54" s="3">
         <v>6690300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5129100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4577700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3689300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3592600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>17</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,47 +3271,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>507200</v>
+        <v>510600</v>
       </c>
       <c r="E57" s="3">
-        <v>436600</v>
+        <v>498800</v>
       </c>
       <c r="F57" s="3">
-        <v>451000</v>
+        <v>429400</v>
       </c>
       <c r="G57" s="3">
-        <v>451000</v>
+        <v>443500</v>
       </c>
       <c r="H57" s="3">
-        <v>421100</v>
+        <v>443500</v>
       </c>
       <c r="I57" s="3">
-        <v>344500</v>
+        <v>414100</v>
       </c>
       <c r="J57" s="3">
+        <v>338800</v>
+      </c>
+      <c r="K57" s="3">
         <v>305000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>349000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>291300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>282200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>286100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>17</v>
       </c>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3212,29 +3345,29 @@
       <c r="F58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G58" s="3">
-        <v>8400</v>
+      <c r="G58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H58" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="I58" s="3">
-        <v>35900</v>
-      </c>
       <c r="J58" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K58" s="3">
         <v>37100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3254,47 +3387,50 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2679500</v>
+        <v>2901000</v>
       </c>
       <c r="E59" s="3">
-        <v>2863700</v>
+        <v>2635100</v>
       </c>
       <c r="F59" s="3">
-        <v>2346900</v>
+        <v>2816300</v>
       </c>
       <c r="G59" s="3">
-        <v>2458200</v>
+        <v>2308100</v>
       </c>
       <c r="H59" s="3">
-        <v>2514400</v>
+        <v>2417500</v>
       </c>
       <c r="I59" s="3">
-        <v>2769200</v>
+        <v>2472800</v>
       </c>
       <c r="J59" s="3">
+        <v>2723400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2656800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2190700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2423400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2221300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1899500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>17</v>
       </c>
@@ -3310,47 +3446,50 @@
       <c r="T59" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3186700</v>
+        <v>3411600</v>
       </c>
       <c r="E60" s="3">
-        <v>3300300</v>
+        <v>3133900</v>
       </c>
       <c r="F60" s="3">
-        <v>2797900</v>
+        <v>3245700</v>
       </c>
       <c r="G60" s="3">
-        <v>2917500</v>
+        <v>2751600</v>
       </c>
       <c r="H60" s="3">
-        <v>2937900</v>
+        <v>2869200</v>
       </c>
       <c r="I60" s="3">
-        <v>3149600</v>
+        <v>2889200</v>
       </c>
       <c r="J60" s="3">
+        <v>3097500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2998900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2539700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2714700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2503400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2185600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>17</v>
       </c>
@@ -3366,35 +3505,38 @@
       <c r="T60" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>708200</v>
+        <v>678800</v>
       </c>
       <c r="E61" s="3">
-        <v>732100</v>
+        <v>696400</v>
       </c>
       <c r="F61" s="3">
-        <v>746400</v>
+        <v>720000</v>
       </c>
       <c r="G61" s="3">
-        <v>744000</v>
+        <v>734100</v>
       </c>
       <c r="H61" s="3">
-        <v>739300</v>
+        <v>731700</v>
       </c>
       <c r="I61" s="3">
-        <v>618400</v>
+        <v>727000</v>
       </c>
       <c r="J61" s="3">
+        <v>608200</v>
+      </c>
+      <c r="K61" s="3">
         <v>663900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3402,11 +3544,11 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1146700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3422,47 +3564,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>50200</v>
+        <v>51800</v>
       </c>
       <c r="E62" s="3">
-        <v>47800</v>
+        <v>49400</v>
       </c>
       <c r="F62" s="3">
-        <v>59800</v>
+        <v>47100</v>
       </c>
       <c r="G62" s="3">
-        <v>28700</v>
+        <v>58800</v>
       </c>
       <c r="H62" s="3">
-        <v>23900</v>
+        <v>28200</v>
       </c>
       <c r="I62" s="3">
-        <v>21500</v>
+        <v>23500</v>
       </c>
       <c r="J62" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K62" s="3">
         <v>82500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>112400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>97500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>88900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>79700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>17</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,47 +3800,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3945100</v>
+        <v>4142100</v>
       </c>
       <c r="E66" s="3">
-        <v>4080200</v>
+        <v>3879800</v>
       </c>
       <c r="F66" s="3">
-        <v>3604200</v>
+        <v>4012700</v>
       </c>
       <c r="G66" s="3">
-        <v>3690300</v>
+        <v>3544500</v>
       </c>
       <c r="H66" s="3">
-        <v>3701000</v>
+        <v>3629200</v>
       </c>
       <c r="I66" s="3">
-        <v>3789600</v>
+        <v>3639800</v>
       </c>
       <c r="J66" s="3">
+        <v>3726800</v>
+      </c>
+      <c r="K66" s="3">
         <v>3745300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2652100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2812200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2592400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3412000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>17</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,47 +4118,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3786000</v>
+        <v>-3870400</v>
       </c>
       <c r="E72" s="3">
-        <v>-3665200</v>
+        <v>-3723300</v>
       </c>
       <c r="F72" s="3">
-        <v>-3239300</v>
+        <v>-3604500</v>
       </c>
       <c r="G72" s="3">
-        <v>-3240500</v>
+        <v>-3185700</v>
       </c>
       <c r="H72" s="3">
-        <v>-2990500</v>
+        <v>-3186900</v>
       </c>
       <c r="I72" s="3">
-        <v>-3278800</v>
+        <v>-2941000</v>
       </c>
       <c r="J72" s="3">
+        <v>-3224500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3187900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2963200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3264100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3283000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2912700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>17</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,47 +4354,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2949800</v>
+        <v>3299800</v>
       </c>
       <c r="E76" s="3">
-        <v>2539500</v>
+        <v>2901000</v>
       </c>
       <c r="F76" s="3">
-        <v>2408000</v>
+        <v>2497500</v>
       </c>
       <c r="G76" s="3">
-        <v>2436700</v>
+        <v>2368100</v>
       </c>
       <c r="H76" s="3">
-        <v>2323000</v>
+        <v>2396300</v>
       </c>
       <c r="I76" s="3">
-        <v>2326600</v>
+        <v>2284600</v>
       </c>
       <c r="J76" s="3">
+        <v>2288100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2945000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2477000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1765500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1096900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>180600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>17</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-120800</v>
+        <v>-147100</v>
       </c>
       <c r="E81" s="3">
-        <v>-425800</v>
+        <v>-118800</v>
       </c>
       <c r="F81" s="3">
+        <v>-418800</v>
+      </c>
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-250000</v>
-      </c>
       <c r="H81" s="3">
-        <v>288300</v>
+        <v>-245900</v>
       </c>
       <c r="I81" s="3">
-        <v>-90900</v>
+        <v>283500</v>
       </c>
       <c r="J81" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-169900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>522800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>47600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-432600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-189600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-668700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-311900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-210900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-203100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-99800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>33500</v>
+        <v>34100</v>
       </c>
       <c r="E83" s="3">
-        <v>33500</v>
+        <v>32900</v>
       </c>
       <c r="F83" s="3">
-        <v>31100</v>
+        <v>32900</v>
       </c>
       <c r="G83" s="3">
-        <v>28700</v>
+        <v>30600</v>
       </c>
       <c r="H83" s="3">
-        <v>26300</v>
+        <v>28200</v>
       </c>
       <c r="I83" s="3">
-        <v>23900</v>
+        <v>25900</v>
       </c>
       <c r="J83" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K83" s="3">
         <v>25100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12300</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q83" s="3">
         <v>16800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13500</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>145900</v>
+        <v>125900</v>
       </c>
       <c r="E89" s="3">
-        <v>46700</v>
+        <v>143500</v>
       </c>
       <c r="F89" s="3">
-        <v>-10800</v>
+        <v>45900</v>
       </c>
       <c r="G89" s="3">
-        <v>242800</v>
+        <v>-10600</v>
       </c>
       <c r="H89" s="3">
-        <v>84900</v>
+        <v>238800</v>
       </c>
       <c r="I89" s="3">
-        <v>107700</v>
+        <v>83500</v>
       </c>
       <c r="J89" s="3">
+        <v>105900</v>
+      </c>
+      <c r="K89" s="3">
         <v>250000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>177400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>88600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>94200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>106600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-90900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>80800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>109200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20300</v>
+        <v>-41200</v>
       </c>
       <c r="E91" s="3">
-        <v>-16700</v>
+        <v>-20000</v>
       </c>
       <c r="F91" s="3">
-        <v>-14400</v>
+        <v>-16500</v>
       </c>
       <c r="G91" s="3">
-        <v>-38300</v>
+        <v>-14100</v>
       </c>
       <c r="H91" s="3">
-        <v>-31100</v>
+        <v>-37600</v>
       </c>
       <c r="I91" s="3">
-        <v>-47800</v>
+        <v>-30600</v>
       </c>
       <c r="J91" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-44300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-76900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-54300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-160300</v>
+        <v>-155300</v>
       </c>
       <c r="E94" s="3">
-        <v>93300</v>
+        <v>-157600</v>
       </c>
       <c r="F94" s="3">
-        <v>-220100</v>
+        <v>91800</v>
       </c>
       <c r="G94" s="3">
-        <v>-125600</v>
+        <v>-216500</v>
       </c>
       <c r="H94" s="3">
-        <v>-68200</v>
+        <v>-123500</v>
       </c>
       <c r="I94" s="3">
-        <v>-8400</v>
+        <v>-67100</v>
       </c>
       <c r="J94" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-58600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-354900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>172800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>156000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q94" s="3">
         <v>12300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-47100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>101700</v>
+        <v>38800</v>
       </c>
       <c r="E100" s="3">
-        <v>107700</v>
+        <v>100000</v>
       </c>
       <c r="F100" s="3">
-        <v>92100</v>
+        <v>105900</v>
       </c>
       <c r="G100" s="3">
-        <v>130400</v>
+        <v>90600</v>
       </c>
       <c r="H100" s="3">
-        <v>-87300</v>
+        <v>128200</v>
       </c>
       <c r="I100" s="3">
-        <v>-168700</v>
+        <v>-85900</v>
       </c>
       <c r="J100" s="3">
+        <v>-165900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-117200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-65100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>54300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>60400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>48200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q100" s="3">
         <v>10100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>17</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-46700</v>
+        <v>-45900</v>
       </c>
       <c r="E101" s="3">
-        <v>-12000</v>
+        <v>-45900</v>
       </c>
       <c r="F101" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="G101" s="3">
         <v>2400</v>
       </c>
-      <c r="G101" s="3">
-        <v>-22700</v>
-      </c>
       <c r="H101" s="3">
-        <v>32300</v>
+        <v>-22400</v>
       </c>
       <c r="I101" s="3">
+        <v>31800</v>
+      </c>
+      <c r="J101" s="3">
         <v>1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>15600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>9900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-11200</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-39300</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>17</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>40700</v>
+        <v>-36500</v>
       </c>
       <c r="E102" s="3">
-        <v>235700</v>
+        <v>40000</v>
       </c>
       <c r="F102" s="3">
-        <v>-136400</v>
+        <v>231800</v>
       </c>
       <c r="G102" s="3">
-        <v>224900</v>
+        <v>-134100</v>
       </c>
       <c r="H102" s="3">
-        <v>-38300</v>
+        <v>221200</v>
       </c>
       <c r="I102" s="3">
-        <v>-68200</v>
+        <v>-37600</v>
       </c>
       <c r="J102" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="K102" s="3">
         <v>89700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-241300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>315700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>84500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>287200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-71800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3400</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>SPOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2550400</v>
+        <v>2630100</v>
       </c>
       <c r="E8" s="3">
-        <v>2323400</v>
+        <v>2655800</v>
       </c>
       <c r="F8" s="3">
-        <v>2222200</v>
+        <v>2419400</v>
       </c>
       <c r="G8" s="3">
-        <v>2174000</v>
+        <v>2314000</v>
       </c>
       <c r="H8" s="3">
-        <v>2182200</v>
+        <v>2263800</v>
       </c>
       <c r="I8" s="3">
-        <v>2036300</v>
+        <v>2272400</v>
       </c>
       <c r="J8" s="3">
+        <v>2120500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1961100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1807500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1768400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1497500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1397800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1277900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1289200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1157900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1129800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1058800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1023600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>876800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1874000</v>
+        <v>1958800</v>
       </c>
       <c r="E9" s="3">
-        <v>1748100</v>
+        <v>1951400</v>
       </c>
       <c r="F9" s="3">
-        <v>1658700</v>
+        <v>1820300</v>
       </c>
       <c r="G9" s="3">
-        <v>1618700</v>
+        <v>1727200</v>
       </c>
       <c r="H9" s="3">
-        <v>1624600</v>
+        <v>1685600</v>
       </c>
       <c r="I9" s="3">
-        <v>1517600</v>
+        <v>1691700</v>
       </c>
       <c r="J9" s="3">
+        <v>1580200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1450500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1361300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1296500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1118700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1036500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>960400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>972800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>899800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>869500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>935500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>844000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>744200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>676400</v>
+        <v>671300</v>
       </c>
       <c r="E10" s="3">
-        <v>575300</v>
+        <v>704400</v>
       </c>
       <c r="F10" s="3">
-        <v>563500</v>
+        <v>599000</v>
       </c>
       <c r="G10" s="3">
-        <v>555300</v>
+        <v>586800</v>
       </c>
       <c r="H10" s="3">
-        <v>557600</v>
+        <v>578200</v>
       </c>
       <c r="I10" s="3">
-        <v>518800</v>
+        <v>580600</v>
       </c>
       <c r="J10" s="3">
+        <v>540200</v>
+      </c>
+      <c r="K10" s="3">
         <v>510600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>446200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>472000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>378800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>361200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>317500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>316400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>258100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>260300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>123300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>179600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>265900</v>
+        <v>240100</v>
       </c>
       <c r="E12" s="3">
-        <v>201200</v>
+        <v>276800</v>
       </c>
       <c r="F12" s="3">
-        <v>309400</v>
+        <v>209500</v>
       </c>
       <c r="G12" s="3">
-        <v>185900</v>
+        <v>322200</v>
       </c>
       <c r="H12" s="3">
-        <v>198800</v>
+        <v>193500</v>
       </c>
       <c r="I12" s="3">
-        <v>156500</v>
+        <v>207000</v>
       </c>
       <c r="J12" s="3">
+        <v>162900</v>
+      </c>
+      <c r="K12" s="3">
         <v>174100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>181800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>118300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>149500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>157000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>129000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>138000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>110000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>106600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>93900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>72800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,25 +1084,28 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3">
         <v>2400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3700</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>17</v>
@@ -1096,15 +1116,15 @@
       <c r="K14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1115,57 +1135,60 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-2300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>7100</v>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E15" s="3">
-        <v>5900</v>
+        <v>7300</v>
       </c>
       <c r="F15" s="3">
-        <v>4700</v>
+        <v>6100</v>
       </c>
       <c r="G15" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="H15" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="I15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K15" s="3">
         <v>3500</v>
       </c>
-      <c r="J15" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3600</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2631600</v>
+        <v>2612900</v>
       </c>
       <c r="E17" s="3">
-        <v>2370400</v>
+        <v>2740300</v>
       </c>
       <c r="F17" s="3">
-        <v>2418700</v>
+        <v>2468400</v>
       </c>
       <c r="G17" s="3">
-        <v>2194000</v>
+        <v>2518600</v>
       </c>
       <c r="H17" s="3">
-        <v>2272800</v>
+        <v>2284600</v>
       </c>
       <c r="I17" s="3">
-        <v>1972800</v>
+        <v>2366700</v>
       </c>
       <c r="J17" s="3">
+        <v>2054300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1964600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1863700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1657200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1505200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1496600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1323900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1386800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1239800</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1219600</v>
       </c>
       <c r="S17" s="3">
         <v>1219600</v>
       </c>
       <c r="T17" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="U17" s="3">
         <v>1125700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>954300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-81200</v>
+        <v>17100</v>
       </c>
       <c r="E18" s="3">
-        <v>-47100</v>
+        <v>-84500</v>
       </c>
       <c r="F18" s="3">
-        <v>-196500</v>
+        <v>-49000</v>
       </c>
       <c r="G18" s="3">
-        <v>-20000</v>
+        <v>-204600</v>
       </c>
       <c r="H18" s="3">
-        <v>-90600</v>
+        <v>-20800</v>
       </c>
       <c r="I18" s="3">
-        <v>63500</v>
+        <v>-94300</v>
       </c>
       <c r="J18" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-56200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>111200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-98800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-46000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-97600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-81900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-89800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-160800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-102100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-77500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,167 +1379,174 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-117600</v>
+        <v>89400</v>
       </c>
       <c r="E20" s="3">
-        <v>-77600</v>
+        <v>-122500</v>
       </c>
       <c r="F20" s="3">
-        <v>-327000</v>
+        <v>-80800</v>
       </c>
       <c r="G20" s="3">
-        <v>81200</v>
+        <v>-340500</v>
       </c>
       <c r="H20" s="3">
-        <v>-101200</v>
+        <v>84500</v>
       </c>
       <c r="I20" s="3">
-        <v>264700</v>
+        <v>-105300</v>
       </c>
       <c r="J20" s="3">
+        <v>275600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-54100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-135200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>457800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-83100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-329400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-156000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-571100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-230000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-120100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-41100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-71600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-164700</v>
+        <v>143300</v>
       </c>
       <c r="E21" s="3">
-        <v>-91800</v>
+        <v>-171500</v>
       </c>
       <c r="F21" s="3">
-        <v>-490600</v>
+        <v>-95500</v>
       </c>
       <c r="G21" s="3">
-        <v>91800</v>
+        <v>-510800</v>
       </c>
       <c r="H21" s="3">
-        <v>-163500</v>
+        <v>95500</v>
       </c>
       <c r="I21" s="3">
-        <v>354100</v>
+        <v>-170300</v>
       </c>
       <c r="J21" s="3">
+        <v>368700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-34100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-166300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>578400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-83100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-421600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-189600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-295100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-196300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-185500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-98600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>12200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>13500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K22" s="3">
         <v>11800</v>
       </c>
-      <c r="E22" s="3">
-        <v>11800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>11800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>12900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>11800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>11800</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10800</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="3">
         <v>2200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>17</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>17</v>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-210600</v>
+        <v>106600</v>
       </c>
       <c r="E23" s="3">
-        <v>-136500</v>
+        <v>-219300</v>
       </c>
       <c r="F23" s="3">
-        <v>-535300</v>
+        <v>-142100</v>
       </c>
       <c r="G23" s="3">
-        <v>48200</v>
+        <v>-557400</v>
       </c>
       <c r="H23" s="3">
-        <v>-203500</v>
+        <v>50200</v>
       </c>
       <c r="I23" s="3">
-        <v>317600</v>
+        <v>-211900</v>
       </c>
       <c r="J23" s="3">
+        <v>330700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-69400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-202200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>569000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-90800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-430400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-202000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-668700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-311900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-209800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-201900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-99800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-149100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-63500</v>
+        <v>78400</v>
       </c>
       <c r="E24" s="3">
-        <v>-17600</v>
+        <v>-66100</v>
       </c>
       <c r="F24" s="3">
-        <v>-116500</v>
+        <v>-18400</v>
       </c>
       <c r="G24" s="3">
-        <v>47100</v>
+        <v>-121300</v>
       </c>
       <c r="H24" s="3">
-        <v>42400</v>
+        <v>49000</v>
       </c>
       <c r="I24" s="3">
-        <v>34100</v>
+        <v>44100</v>
       </c>
       <c r="J24" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K24" s="3">
         <v>20000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-32300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>46100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-138500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-12300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1200</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-147100</v>
+        <v>28200</v>
       </c>
       <c r="E26" s="3">
-        <v>-118800</v>
+        <v>-153100</v>
       </c>
       <c r="F26" s="3">
-        <v>-418800</v>
+        <v>-123700</v>
       </c>
       <c r="G26" s="3">
+        <v>-436100</v>
+      </c>
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-245900</v>
-      </c>
       <c r="I26" s="3">
-        <v>283500</v>
+        <v>-256000</v>
       </c>
       <c r="J26" s="3">
+        <v>295200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-89400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-169900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>522800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>47600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-432600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-189600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-668700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-311900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-210900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-203100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-99800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-147100</v>
+        <v>28200</v>
       </c>
       <c r="E27" s="3">
-        <v>-118800</v>
+        <v>-153100</v>
       </c>
       <c r="F27" s="3">
-        <v>-418800</v>
+        <v>-123700</v>
       </c>
       <c r="G27" s="3">
+        <v>-436100</v>
+      </c>
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-245900</v>
-      </c>
       <c r="I27" s="3">
-        <v>283500</v>
+        <v>-256000</v>
       </c>
       <c r="J27" s="3">
+        <v>295200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-89400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-169900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>522800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>47600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-432600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-189600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-668700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-311900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-210900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-203100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-99800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>117600</v>
+        <v>-89400</v>
       </c>
       <c r="E32" s="3">
-        <v>77600</v>
+        <v>122500</v>
       </c>
       <c r="F32" s="3">
-        <v>327000</v>
+        <v>80800</v>
       </c>
       <c r="G32" s="3">
-        <v>-81200</v>
+        <v>340500</v>
       </c>
       <c r="H32" s="3">
-        <v>101200</v>
+        <v>-84500</v>
       </c>
       <c r="I32" s="3">
-        <v>-264700</v>
+        <v>105300</v>
       </c>
       <c r="J32" s="3">
+        <v>-275600</v>
+      </c>
+      <c r="K32" s="3">
         <v>54100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>135200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-457800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>83100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>329400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>156000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>571100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>230000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>120100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>41100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-147100</v>
+        <v>28200</v>
       </c>
       <c r="E33" s="3">
-        <v>-118800</v>
+        <v>-153100</v>
       </c>
       <c r="F33" s="3">
-        <v>-418800</v>
+        <v>-123700</v>
       </c>
       <c r="G33" s="3">
+        <v>-436100</v>
+      </c>
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-245900</v>
-      </c>
       <c r="I33" s="3">
-        <v>283500</v>
+        <v>-256000</v>
       </c>
       <c r="J33" s="3">
+        <v>295200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-89400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-169900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>522800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>47600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-432600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-189600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-668700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-311900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-210900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-203100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-99800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-147100</v>
+        <v>28200</v>
       </c>
       <c r="E35" s="3">
-        <v>-118800</v>
+        <v>-153100</v>
       </c>
       <c r="F35" s="3">
-        <v>-418800</v>
+        <v>-123700</v>
       </c>
       <c r="G35" s="3">
+        <v>-436100</v>
+      </c>
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-245900</v>
-      </c>
       <c r="I35" s="3">
-        <v>283500</v>
+        <v>-256000</v>
       </c>
       <c r="J35" s="3">
+        <v>295200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-89400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-169900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>522800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>47600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-432600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-189600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-668700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-311900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-210900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-203100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-99800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,50 +2486,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1354000</v>
+        <v>2991400</v>
       </c>
       <c r="E41" s="3">
-        <v>1390500</v>
+        <v>1410000</v>
       </c>
       <c r="F41" s="3">
-        <v>1350500</v>
+        <v>1447900</v>
       </c>
       <c r="G41" s="3">
-        <v>1118800</v>
+        <v>1406300</v>
       </c>
       <c r="H41" s="3">
-        <v>1252900</v>
+        <v>1165000</v>
       </c>
       <c r="I41" s="3">
-        <v>1031700</v>
+        <v>1304600</v>
       </c>
       <c r="J41" s="3">
+        <v>1074300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1069300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1155500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1054000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1212800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>889400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>822400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>17</v>
       </c>
@@ -2459,50 +2546,53 @@
       <c r="U41" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>701100</v>
+        <v>788900</v>
       </c>
       <c r="E42" s="3">
-        <v>845800</v>
+        <v>730100</v>
       </c>
       <c r="F42" s="3">
-        <v>748200</v>
+        <v>880800</v>
       </c>
       <c r="G42" s="3">
-        <v>862300</v>
+        <v>779100</v>
       </c>
       <c r="H42" s="3">
-        <v>814100</v>
+        <v>897900</v>
       </c>
       <c r="I42" s="3">
-        <v>752900</v>
+        <v>847700</v>
       </c>
       <c r="J42" s="3">
+        <v>784000</v>
+      </c>
+      <c r="K42" s="3">
         <v>689400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>789500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1082400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>741000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>971700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>945800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>17</v>
       </c>
@@ -2518,50 +2608,53 @@
       <c r="U42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>550600</v>
+        <v>545100</v>
       </c>
       <c r="E43" s="3">
-        <v>465900</v>
+        <v>573300</v>
       </c>
       <c r="F43" s="3">
-        <v>429400</v>
+        <v>485100</v>
       </c>
       <c r="G43" s="3">
-        <v>430600</v>
+        <v>447100</v>
       </c>
       <c r="H43" s="3">
-        <v>477600</v>
+        <v>448300</v>
       </c>
       <c r="I43" s="3">
-        <v>456400</v>
+        <v>497300</v>
       </c>
       <c r="J43" s="3">
+        <v>475300</v>
+      </c>
+      <c r="K43" s="3">
         <v>507000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>470100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>475500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>399800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>356900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>362400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>17</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,50 +2732,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>177600</v>
+        <v>227800</v>
       </c>
       <c r="E45" s="3">
-        <v>167000</v>
+        <v>185000</v>
       </c>
       <c r="F45" s="3">
-        <v>135300</v>
+        <v>173900</v>
       </c>
       <c r="G45" s="3">
-        <v>109400</v>
+        <v>140900</v>
       </c>
       <c r="H45" s="3">
-        <v>80000</v>
+        <v>113900</v>
       </c>
       <c r="I45" s="3">
-        <v>85900</v>
+        <v>83300</v>
       </c>
       <c r="J45" s="3">
+        <v>89400</v>
+      </c>
+      <c r="K45" s="3">
         <v>77600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>62200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>45000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>38800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>41700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>43800</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>17</v>
       </c>
@@ -2695,50 +2794,53 @@
       <c r="U45" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2783400</v>
+        <v>4553300</v>
       </c>
       <c r="E46" s="3">
-        <v>2869200</v>
+        <v>2898300</v>
       </c>
       <c r="F46" s="3">
-        <v>2663400</v>
+        <v>2987800</v>
       </c>
       <c r="G46" s="3">
-        <v>2521000</v>
+        <v>2773400</v>
       </c>
       <c r="H46" s="3">
-        <v>2624500</v>
+        <v>2625200</v>
       </c>
       <c r="I46" s="3">
-        <v>2326900</v>
+        <v>2733000</v>
       </c>
       <c r="J46" s="3">
+        <v>2423000</v>
+      </c>
+      <c r="K46" s="3">
         <v>2343400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2477300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2656800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2392400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2259700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2174400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>17</v>
       </c>
@@ -2754,50 +2856,53 @@
       <c r="U46" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2678700</v>
+        <v>3089400</v>
       </c>
       <c r="E47" s="3">
-        <v>2130500</v>
+        <v>2789300</v>
       </c>
       <c r="F47" s="3">
-        <v>2029300</v>
+        <v>2218500</v>
       </c>
       <c r="G47" s="3">
-        <v>1543400</v>
+        <v>2113100</v>
       </c>
       <c r="H47" s="3">
-        <v>1761100</v>
+        <v>1607200</v>
       </c>
       <c r="I47" s="3">
-        <v>1974000</v>
+        <v>1833800</v>
       </c>
       <c r="J47" s="3">
+        <v>2055500</v>
+      </c>
+      <c r="K47" s="3">
         <v>2215200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2750100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1947100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1760000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1064000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1087200</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>17</v>
       </c>
@@ -2813,50 +2918,53 @@
       <c r="U47" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>890500</v>
+        <v>966500</v>
       </c>
       <c r="E48" s="3">
-        <v>891700</v>
+        <v>927300</v>
       </c>
       <c r="F48" s="3">
-        <v>897600</v>
+        <v>928500</v>
       </c>
       <c r="G48" s="3">
-        <v>919900</v>
+        <v>934700</v>
       </c>
       <c r="H48" s="3">
-        <v>917600</v>
+        <v>957900</v>
       </c>
       <c r="I48" s="3">
-        <v>889400</v>
+        <v>955500</v>
       </c>
       <c r="J48" s="3">
+        <v>926100</v>
+      </c>
+      <c r="K48" s="3">
         <v>754100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>795500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>233000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>149500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>91100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>76300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>17</v>
       </c>
@@ -2872,50 +2980,53 @@
       <c r="U48" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>979900</v>
+        <v>1118400</v>
       </c>
       <c r="E49" s="3">
-        <v>796400</v>
+        <v>1020400</v>
       </c>
       <c r="F49" s="3">
-        <v>827000</v>
+        <v>829300</v>
       </c>
       <c r="G49" s="3">
-        <v>839900</v>
+        <v>861200</v>
       </c>
       <c r="H49" s="3">
-        <v>630600</v>
+        <v>874600</v>
       </c>
       <c r="I49" s="3">
-        <v>643500</v>
+        <v>656600</v>
       </c>
       <c r="J49" s="3">
+        <v>670100</v>
+      </c>
+      <c r="K49" s="3">
         <v>610600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>571800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>205800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>191600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>192200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>180600</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>17</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,50 +3166,53 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>109400</v>
+        <v>117600</v>
       </c>
       <c r="E52" s="3">
-        <v>92900</v>
+        <v>113900</v>
       </c>
       <c r="F52" s="3">
-        <v>92900</v>
+        <v>96800</v>
       </c>
       <c r="G52" s="3">
-        <v>88200</v>
+        <v>96800</v>
       </c>
       <c r="H52" s="3">
+        <v>91900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>95500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>94300</v>
+      </c>
+      <c r="K52" s="3">
         <v>91800</v>
       </c>
-      <c r="I52" s="3">
-        <v>90600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>91800</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>95700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>86400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>84200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>82400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>74100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>17</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,50 +3290,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7441900</v>
+        <v>9845200</v>
       </c>
       <c r="E54" s="3">
-        <v>6780800</v>
+        <v>7749300</v>
       </c>
       <c r="F54" s="3">
-        <v>6510200</v>
+        <v>7060800</v>
       </c>
       <c r="G54" s="3">
-        <v>5912600</v>
+        <v>6779100</v>
       </c>
       <c r="H54" s="3">
-        <v>6025500</v>
+        <v>6156800</v>
       </c>
       <c r="I54" s="3">
-        <v>5924400</v>
+        <v>6274400</v>
       </c>
       <c r="J54" s="3">
+        <v>6169000</v>
+      </c>
+      <c r="K54" s="3">
         <v>6014900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6690300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5129100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4577700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3689300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3592600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>17</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,50 +3402,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>510600</v>
+        <v>808500</v>
       </c>
       <c r="E57" s="3">
-        <v>498800</v>
+        <v>531600</v>
       </c>
       <c r="F57" s="3">
-        <v>429400</v>
+        <v>519400</v>
       </c>
       <c r="G57" s="3">
-        <v>443500</v>
+        <v>447100</v>
       </c>
       <c r="H57" s="3">
-        <v>443500</v>
+        <v>461800</v>
       </c>
       <c r="I57" s="3">
-        <v>414100</v>
+        <v>461800</v>
       </c>
       <c r="J57" s="3">
+        <v>431200</v>
+      </c>
+      <c r="K57" s="3">
         <v>338800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>305000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>349000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>291300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>282200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>286100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>17</v>
       </c>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3348,29 +3482,29 @@
       <c r="G58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="3">
-        <v>8200</v>
+      <c r="H58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I58" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J58" s="3">
         <v>2400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>35300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>37100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3390,50 +3524,53 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2901000</v>
+        <v>2788100</v>
       </c>
       <c r="E59" s="3">
-        <v>2635100</v>
+        <v>3020800</v>
       </c>
       <c r="F59" s="3">
-        <v>2816300</v>
+        <v>2744000</v>
       </c>
       <c r="G59" s="3">
-        <v>2308100</v>
+        <v>2932600</v>
       </c>
       <c r="H59" s="3">
-        <v>2417500</v>
+        <v>2403400</v>
       </c>
       <c r="I59" s="3">
-        <v>2472800</v>
+        <v>2517400</v>
       </c>
       <c r="J59" s="3">
+        <v>2574900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2723400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2656800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2190700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2423400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2221300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1899500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>17</v>
       </c>
@@ -3449,50 +3586,53 @@
       <c r="U59" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3411600</v>
+        <v>3596600</v>
       </c>
       <c r="E60" s="3">
-        <v>3133900</v>
+        <v>3552500</v>
       </c>
       <c r="F60" s="3">
-        <v>3245700</v>
+        <v>3263400</v>
       </c>
       <c r="G60" s="3">
-        <v>2751600</v>
+        <v>3379700</v>
       </c>
       <c r="H60" s="3">
-        <v>2869200</v>
+        <v>2865300</v>
       </c>
       <c r="I60" s="3">
-        <v>2889200</v>
+        <v>2987800</v>
       </c>
       <c r="J60" s="3">
+        <v>3008600</v>
+      </c>
+      <c r="K60" s="3">
         <v>3097500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2998900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2539700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2714700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2503400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2185600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>17</v>
       </c>
@@ -3508,38 +3648,41 @@
       <c r="U60" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>678800</v>
+        <v>2224600</v>
       </c>
       <c r="E61" s="3">
-        <v>696400</v>
+        <v>706800</v>
       </c>
       <c r="F61" s="3">
-        <v>720000</v>
+        <v>725200</v>
       </c>
       <c r="G61" s="3">
-        <v>734100</v>
+        <v>749700</v>
       </c>
       <c r="H61" s="3">
-        <v>731700</v>
+        <v>764400</v>
       </c>
       <c r="I61" s="3">
-        <v>727000</v>
+        <v>761900</v>
       </c>
       <c r="J61" s="3">
+        <v>757000</v>
+      </c>
+      <c r="K61" s="3">
         <v>608200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>663900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3547,11 +3690,11 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1146700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3567,50 +3710,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>51800</v>
+        <v>50200</v>
       </c>
       <c r="E62" s="3">
-        <v>49400</v>
+        <v>53900</v>
       </c>
       <c r="F62" s="3">
-        <v>47100</v>
+        <v>51400</v>
       </c>
       <c r="G62" s="3">
-        <v>58800</v>
+        <v>49000</v>
       </c>
       <c r="H62" s="3">
-        <v>28200</v>
+        <v>61200</v>
       </c>
       <c r="I62" s="3">
-        <v>23500</v>
+        <v>29400</v>
       </c>
       <c r="J62" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K62" s="3">
         <v>21200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>82500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>112400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>97500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>88900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>79700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>17</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,50 +3958,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4142100</v>
+        <v>5871400</v>
       </c>
       <c r="E66" s="3">
-        <v>3879800</v>
+        <v>4313200</v>
       </c>
       <c r="F66" s="3">
-        <v>4012700</v>
+        <v>4040000</v>
       </c>
       <c r="G66" s="3">
-        <v>3544500</v>
+        <v>4178400</v>
       </c>
       <c r="H66" s="3">
-        <v>3629200</v>
+        <v>3690900</v>
       </c>
       <c r="I66" s="3">
-        <v>3639800</v>
+        <v>3779100</v>
       </c>
       <c r="J66" s="3">
+        <v>3790100</v>
+      </c>
+      <c r="K66" s="3">
         <v>3726800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3745300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2652100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2812200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2592400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3412000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>17</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,50 +4292,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3870400</v>
+        <v>-1488400</v>
       </c>
       <c r="E72" s="3">
-        <v>-3723300</v>
+        <v>-4030200</v>
       </c>
       <c r="F72" s="3">
-        <v>-3604500</v>
+        <v>-3877100</v>
       </c>
       <c r="G72" s="3">
-        <v>-3185700</v>
+        <v>-3753400</v>
       </c>
       <c r="H72" s="3">
-        <v>-3186900</v>
+        <v>-3317300</v>
       </c>
       <c r="I72" s="3">
-        <v>-2941000</v>
+        <v>-3318500</v>
       </c>
       <c r="J72" s="3">
+        <v>-3062500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3224500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3187900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2963200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3264100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3283000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2912700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>17</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,50 +4540,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3299800</v>
+        <v>3973900</v>
       </c>
       <c r="E76" s="3">
-        <v>2901000</v>
+        <v>3436100</v>
       </c>
       <c r="F76" s="3">
-        <v>2497500</v>
+        <v>3020800</v>
       </c>
       <c r="G76" s="3">
-        <v>2368100</v>
+        <v>2600700</v>
       </c>
       <c r="H76" s="3">
-        <v>2396300</v>
+        <v>2465900</v>
       </c>
       <c r="I76" s="3">
-        <v>2284600</v>
+        <v>2495300</v>
       </c>
       <c r="J76" s="3">
+        <v>2378900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2288100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2945000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2477000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1765500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1096900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>180600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>17</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-147100</v>
+        <v>28200</v>
       </c>
       <c r="E81" s="3">
-        <v>-118800</v>
+        <v>-153100</v>
       </c>
       <c r="F81" s="3">
-        <v>-418800</v>
+        <v>-123700</v>
       </c>
       <c r="G81" s="3">
+        <v>-436100</v>
+      </c>
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-245900</v>
-      </c>
       <c r="I81" s="3">
-        <v>283500</v>
+        <v>-256000</v>
       </c>
       <c r="J81" s="3">
+        <v>295200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-89400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-169900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>522800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>47600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-432600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-189600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-668700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-311900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-210900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-203100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-99800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>34100</v>
+        <v>36700</v>
       </c>
       <c r="E83" s="3">
-        <v>32900</v>
+        <v>35500</v>
       </c>
       <c r="F83" s="3">
-        <v>32900</v>
+        <v>34300</v>
       </c>
       <c r="G83" s="3">
-        <v>30600</v>
+        <v>34300</v>
       </c>
       <c r="H83" s="3">
-        <v>28200</v>
+        <v>31800</v>
       </c>
       <c r="I83" s="3">
-        <v>25900</v>
+        <v>29400</v>
       </c>
       <c r="J83" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K83" s="3">
         <v>23500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12300</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R83" s="3">
         <v>16800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13500</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>125900</v>
+        <v>79600</v>
       </c>
       <c r="E89" s="3">
-        <v>143500</v>
+        <v>131100</v>
       </c>
       <c r="F89" s="3">
-        <v>45900</v>
+        <v>149400</v>
       </c>
       <c r="G89" s="3">
-        <v>-10600</v>
+        <v>47800</v>
       </c>
       <c r="H89" s="3">
-        <v>238800</v>
+        <v>-11000</v>
       </c>
       <c r="I89" s="3">
-        <v>83500</v>
+        <v>248700</v>
       </c>
       <c r="J89" s="3">
+        <v>87000</v>
+      </c>
+      <c r="K89" s="3">
         <v>105900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>250000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>177400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>88600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>32900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>94200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>106600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-90900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>80800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>109200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-41200</v>
+        <v>-29400</v>
       </c>
       <c r="E91" s="3">
-        <v>-20000</v>
+        <v>-42900</v>
       </c>
       <c r="F91" s="3">
-        <v>-16500</v>
+        <v>-20800</v>
       </c>
       <c r="G91" s="3">
-        <v>-14100</v>
+        <v>-17100</v>
       </c>
       <c r="H91" s="3">
-        <v>-37600</v>
+        <v>-14700</v>
       </c>
       <c r="I91" s="3">
-        <v>-30600</v>
+        <v>-39200</v>
       </c>
       <c r="J91" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-47100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-44300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-76900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-54300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-155300</v>
+        <v>-139600</v>
       </c>
       <c r="E94" s="3">
-        <v>-157600</v>
+        <v>-161700</v>
       </c>
       <c r="F94" s="3">
-        <v>91800</v>
+        <v>-164100</v>
       </c>
       <c r="G94" s="3">
-        <v>-216500</v>
+        <v>95500</v>
       </c>
       <c r="H94" s="3">
-        <v>-123500</v>
+        <v>-225400</v>
       </c>
       <c r="I94" s="3">
-        <v>-67100</v>
+        <v>-128600</v>
       </c>
       <c r="J94" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-58600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-354900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>172800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>156000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R94" s="3">
         <v>12300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-47100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>38800</v>
+        <v>1531200</v>
       </c>
       <c r="E100" s="3">
-        <v>100000</v>
+        <v>40400</v>
       </c>
       <c r="F100" s="3">
-        <v>105900</v>
+        <v>104100</v>
       </c>
       <c r="G100" s="3">
-        <v>90600</v>
+        <v>110200</v>
       </c>
       <c r="H100" s="3">
-        <v>128200</v>
+        <v>94300</v>
       </c>
       <c r="I100" s="3">
-        <v>-85900</v>
+        <v>133500</v>
       </c>
       <c r="J100" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-165900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-117200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-65100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>54300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>60400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>48200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R100" s="3">
         <v>10100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2200</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>17</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-45900</v>
+        <v>110200</v>
       </c>
       <c r="E101" s="3">
-        <v>-45900</v>
+        <v>-47800</v>
       </c>
       <c r="F101" s="3">
-        <v>-11800</v>
+        <v>-47800</v>
       </c>
       <c r="G101" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="H101" s="3">
         <v>2400</v>
       </c>
-      <c r="H101" s="3">
-        <v>-22400</v>
-      </c>
       <c r="I101" s="3">
-        <v>31800</v>
+        <v>-23300</v>
       </c>
       <c r="J101" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>15600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>9900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-11200</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R101" s="3">
         <v>-3400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-39300</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>17</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-36500</v>
+        <v>1581500</v>
       </c>
       <c r="E102" s="3">
-        <v>40000</v>
+        <v>-38000</v>
       </c>
       <c r="F102" s="3">
-        <v>231800</v>
+        <v>41600</v>
       </c>
       <c r="G102" s="3">
-        <v>-134100</v>
+        <v>241300</v>
       </c>
       <c r="H102" s="3">
-        <v>221200</v>
+        <v>-139600</v>
       </c>
       <c r="I102" s="3">
-        <v>-37600</v>
+        <v>230300</v>
       </c>
       <c r="J102" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-67100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>89700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-241300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>315700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>84500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>287200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R102" s="3">
         <v>-71800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3400</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2630100</v>
+        <v>2721200</v>
       </c>
       <c r="E8" s="3">
-        <v>2655800</v>
+        <v>2506400</v>
       </c>
       <c r="F8" s="3">
-        <v>2419400</v>
+        <v>2530900</v>
       </c>
       <c r="G8" s="3">
-        <v>2314000</v>
+        <v>2305600</v>
       </c>
       <c r="H8" s="3">
-        <v>2263800</v>
+        <v>2205200</v>
       </c>
       <c r="I8" s="3">
-        <v>2272400</v>
+        <v>2157400</v>
       </c>
       <c r="J8" s="3">
+        <v>2165500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2120500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1961100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1807500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1768400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1497500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1397800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1277900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1289200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1157900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1129800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1058800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1023600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>876800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1958800</v>
+        <v>1947200</v>
       </c>
       <c r="E9" s="3">
-        <v>1951400</v>
+        <v>1866700</v>
       </c>
       <c r="F9" s="3">
-        <v>1820300</v>
+        <v>1859700</v>
       </c>
       <c r="G9" s="3">
-        <v>1727200</v>
+        <v>1734800</v>
       </c>
       <c r="H9" s="3">
-        <v>1685600</v>
+        <v>1646000</v>
       </c>
       <c r="I9" s="3">
-        <v>1691700</v>
+        <v>1606400</v>
       </c>
       <c r="J9" s="3">
+        <v>1612200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1580200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1450500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1361300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1296500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1118700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1036500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>960400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>972800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>899800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>869500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>935500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>844000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>744200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>774000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>639700</v>
+      </c>
+      <c r="F10" s="3">
         <v>671300</v>
       </c>
-      <c r="E10" s="3">
-        <v>704400</v>
-      </c>
-      <c r="F10" s="3">
-        <v>599000</v>
-      </c>
       <c r="G10" s="3">
-        <v>586800</v>
+        <v>570900</v>
       </c>
       <c r="H10" s="3">
-        <v>578200</v>
+        <v>559200</v>
       </c>
       <c r="I10" s="3">
-        <v>580600</v>
+        <v>551000</v>
       </c>
       <c r="J10" s="3">
+        <v>553400</v>
+      </c>
+      <c r="K10" s="3">
         <v>540200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>510600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>446200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>472000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>378800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>361200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>317500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>316400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>258100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>260300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>123300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>179600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>240100</v>
+        <v>289500</v>
       </c>
       <c r="E12" s="3">
-        <v>276800</v>
+        <v>221800</v>
       </c>
       <c r="F12" s="3">
-        <v>209500</v>
+        <v>263800</v>
       </c>
       <c r="G12" s="3">
-        <v>322200</v>
+        <v>199600</v>
       </c>
       <c r="H12" s="3">
-        <v>193500</v>
+        <v>307000</v>
       </c>
       <c r="I12" s="3">
-        <v>207000</v>
+        <v>184500</v>
       </c>
       <c r="J12" s="3">
+        <v>197300</v>
+      </c>
+      <c r="K12" s="3">
         <v>162900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>174100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>181800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>118300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>149500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>157000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>129000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>138000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>110000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>106600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>93900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>72800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,28 +1104,31 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3">
-        <v>2400</v>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>17</v>
@@ -1119,15 +1139,15 @@
       <c r="L14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1138,60 +1158,63 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>1100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-2300</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
+      <c r="D15" s="3">
+        <v>8200</v>
       </c>
       <c r="E15" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="F15" s="3">
-        <v>6100</v>
+        <v>7000</v>
       </c>
       <c r="G15" s="3">
-        <v>4900</v>
+        <v>5800</v>
       </c>
       <c r="H15" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="I15" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="J15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K15" s="3">
         <v>3700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3600</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2612900</v>
+        <v>2707200</v>
       </c>
       <c r="E17" s="3">
-        <v>2740300</v>
+        <v>2490100</v>
       </c>
       <c r="F17" s="3">
-        <v>2468400</v>
+        <v>2611500</v>
       </c>
       <c r="G17" s="3">
-        <v>2518600</v>
+        <v>2352300</v>
       </c>
       <c r="H17" s="3">
-        <v>2284600</v>
+        <v>2400200</v>
       </c>
       <c r="I17" s="3">
-        <v>2366700</v>
+        <v>2177200</v>
       </c>
       <c r="J17" s="3">
+        <v>2255400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2054300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1964600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1863700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1657200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1505200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1496600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1323900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1386800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1239800</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1219600</v>
       </c>
       <c r="T17" s="3">
         <v>1219600</v>
       </c>
       <c r="U17" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="V17" s="3">
         <v>1125700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>954300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>17100</v>
+        <v>14000</v>
       </c>
       <c r="E18" s="3">
-        <v>-84500</v>
+        <v>16300</v>
       </c>
       <c r="F18" s="3">
-        <v>-49000</v>
+        <v>-80600</v>
       </c>
       <c r="G18" s="3">
-        <v>-204600</v>
+        <v>-46700</v>
       </c>
       <c r="H18" s="3">
-        <v>-20800</v>
+        <v>-195000</v>
       </c>
       <c r="I18" s="3">
-        <v>-94300</v>
+        <v>-19800</v>
       </c>
       <c r="J18" s="3">
+        <v>-89900</v>
+      </c>
+      <c r="K18" s="3">
         <v>66100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-56200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>111200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-98800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-97600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-81900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-89800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-160800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-102100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-77500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,176 +1413,183 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>89400</v>
+        <v>7000</v>
       </c>
       <c r="E20" s="3">
-        <v>-122500</v>
+        <v>96900</v>
       </c>
       <c r="F20" s="3">
-        <v>-80800</v>
+        <v>-116700</v>
       </c>
       <c r="G20" s="3">
-        <v>-340500</v>
+        <v>-77000</v>
       </c>
       <c r="H20" s="3">
-        <v>84500</v>
+        <v>-324500</v>
       </c>
       <c r="I20" s="3">
-        <v>-105300</v>
+        <v>80600</v>
       </c>
       <c r="J20" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="K20" s="3">
         <v>275600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-54100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-135200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>457800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-83100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-329400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-156000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-571100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-230000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-120100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-41100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-71600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>143300</v>
+        <v>57200</v>
       </c>
       <c r="E21" s="3">
-        <v>-171500</v>
+        <v>148300</v>
       </c>
       <c r="F21" s="3">
-        <v>-95500</v>
+        <v>-163400</v>
       </c>
       <c r="G21" s="3">
-        <v>-510800</v>
+        <v>-91100</v>
       </c>
       <c r="H21" s="3">
-        <v>95500</v>
+        <v>-486800</v>
       </c>
       <c r="I21" s="3">
-        <v>-170300</v>
+        <v>91100</v>
       </c>
       <c r="J21" s="3">
+        <v>-162300</v>
+      </c>
+      <c r="K21" s="3">
         <v>368700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-34100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-166300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>578400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-83100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-421600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-189600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-295100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-196300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-185500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-98600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>17</v>
+      <c r="D22" s="3">
+        <v>11700</v>
       </c>
       <c r="E22" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="F22" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="G22" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="H22" s="3">
-        <v>13500</v>
+        <v>11700</v>
       </c>
       <c r="I22" s="3">
-        <v>12200</v>
+        <v>12800</v>
       </c>
       <c r="J22" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K22" s="3">
         <v>11000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10800</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="3">
         <v>2200</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>17</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>17</v>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>106600</v>
+        <v>9300</v>
       </c>
       <c r="E23" s="3">
-        <v>-219300</v>
+        <v>101600</v>
       </c>
       <c r="F23" s="3">
-        <v>-142100</v>
+        <v>-209000</v>
       </c>
       <c r="G23" s="3">
-        <v>-557400</v>
+        <v>-135400</v>
       </c>
       <c r="H23" s="3">
-        <v>50200</v>
+        <v>-531200</v>
       </c>
       <c r="I23" s="3">
-        <v>-211900</v>
+        <v>47900</v>
       </c>
       <c r="J23" s="3">
+        <v>-202000</v>
+      </c>
+      <c r="K23" s="3">
         <v>330700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-69400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-202200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>569000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-90800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-430400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-202000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-668700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-311900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-209800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-201900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-99800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-149100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>78400</v>
+        <v>32700</v>
       </c>
       <c r="E24" s="3">
-        <v>-66100</v>
+        <v>74700</v>
       </c>
       <c r="F24" s="3">
-        <v>-18400</v>
+        <v>-63000</v>
       </c>
       <c r="G24" s="3">
-        <v>-121300</v>
+        <v>-17500</v>
       </c>
       <c r="H24" s="3">
-        <v>49000</v>
+        <v>-115600</v>
       </c>
       <c r="I24" s="3">
-        <v>44100</v>
+        <v>46700</v>
       </c>
       <c r="J24" s="3">
+        <v>42000</v>
+      </c>
+      <c r="K24" s="3">
         <v>35500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-32300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>46100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-138500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>28200</v>
+        <v>-23300</v>
       </c>
       <c r="E26" s="3">
-        <v>-153100</v>
+        <v>26900</v>
       </c>
       <c r="F26" s="3">
-        <v>-123700</v>
+        <v>-145900</v>
       </c>
       <c r="G26" s="3">
-        <v>-436100</v>
+        <v>-117900</v>
       </c>
       <c r="H26" s="3">
+        <v>-415600</v>
+      </c>
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-256000</v>
-      </c>
       <c r="J26" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="K26" s="3">
         <v>295200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-89400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-169900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>522800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>47600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-432600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-189600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-668700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-311900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-210900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-203100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-99800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>28200</v>
+        <v>-23300</v>
       </c>
       <c r="E27" s="3">
-        <v>-153100</v>
+        <v>26900</v>
       </c>
       <c r="F27" s="3">
-        <v>-123700</v>
+        <v>-145900</v>
       </c>
       <c r="G27" s="3">
-        <v>-436100</v>
+        <v>-117900</v>
       </c>
       <c r="H27" s="3">
+        <v>-415600</v>
+      </c>
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
-        <v>-256000</v>
-      </c>
       <c r="J27" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="K27" s="3">
         <v>295200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-89400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-169900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>522800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>47600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-432600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-189600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-668700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-311900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-210900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-203100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-99800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-89400</v>
+        <v>-7000</v>
       </c>
       <c r="E32" s="3">
-        <v>122500</v>
+        <v>-96900</v>
       </c>
       <c r="F32" s="3">
-        <v>80800</v>
+        <v>116700</v>
       </c>
       <c r="G32" s="3">
-        <v>340500</v>
+        <v>77000</v>
       </c>
       <c r="H32" s="3">
-        <v>-84500</v>
+        <v>324500</v>
       </c>
       <c r="I32" s="3">
-        <v>105300</v>
+        <v>-80600</v>
       </c>
       <c r="J32" s="3">
+        <v>100400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-275600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>54100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>135200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-457800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>83100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>329400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>156000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>571100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>230000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>120100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>41100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>28200</v>
+        <v>-23300</v>
       </c>
       <c r="E33" s="3">
-        <v>-153100</v>
+        <v>26900</v>
       </c>
       <c r="F33" s="3">
-        <v>-123700</v>
+        <v>-145900</v>
       </c>
       <c r="G33" s="3">
-        <v>-436100</v>
+        <v>-117900</v>
       </c>
       <c r="H33" s="3">
+        <v>-415600</v>
+      </c>
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-256000</v>
-      </c>
       <c r="J33" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="K33" s="3">
         <v>295200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-89400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-169900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>522800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>47600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-432600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-189600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-668700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-311900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-210900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-203100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-99800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>28200</v>
+        <v>-23300</v>
       </c>
       <c r="E35" s="3">
-        <v>-153100</v>
+        <v>26900</v>
       </c>
       <c r="F35" s="3">
-        <v>-123700</v>
+        <v>-145900</v>
       </c>
       <c r="G35" s="3">
-        <v>-436100</v>
+        <v>-117900</v>
       </c>
       <c r="H35" s="3">
+        <v>-415600</v>
+      </c>
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-256000</v>
-      </c>
       <c r="J35" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="K35" s="3">
         <v>295200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-89400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-169900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>522800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>47600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-432600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-189600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-668700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-311900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-210900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-203100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-99800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,53 +2573,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2991400</v>
+        <v>2848500</v>
       </c>
       <c r="E41" s="3">
-        <v>1410000</v>
+        <v>2850800</v>
       </c>
       <c r="F41" s="3">
-        <v>1447900</v>
+        <v>1343700</v>
       </c>
       <c r="G41" s="3">
-        <v>1406300</v>
+        <v>1379900</v>
       </c>
       <c r="H41" s="3">
-        <v>1165000</v>
+        <v>1340200</v>
       </c>
       <c r="I41" s="3">
-        <v>1304600</v>
+        <v>1110200</v>
       </c>
       <c r="J41" s="3">
+        <v>1243300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1074300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1069300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1155500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1054000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1212800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>889400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>822400</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>17</v>
       </c>
@@ -2549,53 +2636,56 @@
       <c r="V41" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>788900</v>
+        <v>714500</v>
       </c>
       <c r="E42" s="3">
-        <v>730100</v>
+        <v>751800</v>
       </c>
       <c r="F42" s="3">
-        <v>880800</v>
+        <v>695800</v>
       </c>
       <c r="G42" s="3">
-        <v>779100</v>
+        <v>839400</v>
       </c>
       <c r="H42" s="3">
-        <v>897900</v>
+        <v>742500</v>
       </c>
       <c r="I42" s="3">
-        <v>847700</v>
+        <v>855700</v>
       </c>
       <c r="J42" s="3">
+        <v>807800</v>
+      </c>
+      <c r="K42" s="3">
         <v>784000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>689400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>789500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1082400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>741000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>971700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>945800</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>17</v>
       </c>
@@ -2611,53 +2701,56 @@
       <c r="V42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>545100</v>
+        <v>722600</v>
       </c>
       <c r="E43" s="3">
-        <v>573300</v>
+        <v>644400</v>
       </c>
       <c r="F43" s="3">
-        <v>485100</v>
+        <v>546300</v>
       </c>
       <c r="G43" s="3">
-        <v>447100</v>
+        <v>462300</v>
       </c>
       <c r="H43" s="3">
-        <v>448300</v>
+        <v>426100</v>
       </c>
       <c r="I43" s="3">
-        <v>497300</v>
+        <v>427300</v>
       </c>
       <c r="J43" s="3">
+        <v>474000</v>
+      </c>
+      <c r="K43" s="3">
         <v>475300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>507000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>470100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>475500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>399800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>356900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>362400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>17</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,53 +2831,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>227800</v>
+        <v>93400</v>
       </c>
       <c r="E45" s="3">
-        <v>185000</v>
+        <v>92200</v>
       </c>
       <c r="F45" s="3">
-        <v>173900</v>
+        <v>176300</v>
       </c>
       <c r="G45" s="3">
-        <v>140900</v>
+        <v>165800</v>
       </c>
       <c r="H45" s="3">
-        <v>113900</v>
+        <v>134300</v>
       </c>
       <c r="I45" s="3">
-        <v>83300</v>
+        <v>108600</v>
       </c>
       <c r="J45" s="3">
+        <v>79400</v>
+      </c>
+      <c r="K45" s="3">
         <v>89400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>77600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>62200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>45000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>38800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>41700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>43800</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>17</v>
       </c>
@@ -2797,53 +2896,56 @@
       <c r="V45" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4553300</v>
+        <v>4379000</v>
       </c>
       <c r="E46" s="3">
-        <v>2898300</v>
+        <v>4339300</v>
       </c>
       <c r="F46" s="3">
-        <v>2987800</v>
+        <v>2762100</v>
       </c>
       <c r="G46" s="3">
-        <v>2773400</v>
+        <v>2847300</v>
       </c>
       <c r="H46" s="3">
-        <v>2625200</v>
+        <v>2643000</v>
       </c>
       <c r="I46" s="3">
-        <v>2733000</v>
+        <v>2501800</v>
       </c>
       <c r="J46" s="3">
+        <v>2604500</v>
+      </c>
+      <c r="K46" s="3">
         <v>2423000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2343400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2477300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2656800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2392400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2259700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2174400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>17</v>
       </c>
@@ -2859,53 +2961,56 @@
       <c r="V46" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3089400</v>
+        <v>2214600</v>
       </c>
       <c r="E47" s="3">
-        <v>2789300</v>
+        <v>2944200</v>
       </c>
       <c r="F47" s="3">
-        <v>2218500</v>
+        <v>2658200</v>
       </c>
       <c r="G47" s="3">
-        <v>2113100</v>
+        <v>2114200</v>
       </c>
       <c r="H47" s="3">
-        <v>1607200</v>
+        <v>2013800</v>
       </c>
       <c r="I47" s="3">
-        <v>1833800</v>
+        <v>1531600</v>
       </c>
       <c r="J47" s="3">
+        <v>1747600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2055500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2215200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2750100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1947100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1760000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1064000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1087200</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>17</v>
       </c>
@@ -2921,53 +3026,56 @@
       <c r="V47" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>966500</v>
+        <v>924600</v>
       </c>
       <c r="E48" s="3">
-        <v>927300</v>
+        <v>921100</v>
       </c>
       <c r="F48" s="3">
-        <v>928500</v>
+        <v>883700</v>
       </c>
       <c r="G48" s="3">
-        <v>934700</v>
+        <v>884900</v>
       </c>
       <c r="H48" s="3">
-        <v>957900</v>
+        <v>890700</v>
       </c>
       <c r="I48" s="3">
-        <v>955500</v>
+        <v>912900</v>
       </c>
       <c r="J48" s="3">
+        <v>910600</v>
+      </c>
+      <c r="K48" s="3">
         <v>926100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>754100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>795500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>233000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>149500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>91100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>76300</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>17</v>
       </c>
@@ -2983,53 +3091,56 @@
       <c r="V48" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1118400</v>
+        <v>1104400</v>
       </c>
       <c r="E49" s="3">
-        <v>1020400</v>
+        <v>1065800</v>
       </c>
       <c r="F49" s="3">
-        <v>829300</v>
+        <v>972500</v>
       </c>
       <c r="G49" s="3">
-        <v>861200</v>
+        <v>790300</v>
       </c>
       <c r="H49" s="3">
-        <v>874600</v>
+        <v>820700</v>
       </c>
       <c r="I49" s="3">
-        <v>656600</v>
+        <v>833500</v>
       </c>
       <c r="J49" s="3">
+        <v>625700</v>
+      </c>
+      <c r="K49" s="3">
         <v>670100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>610600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>571800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>205800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>191600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>192200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>180600</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>17</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,53 +3286,56 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>117600</v>
+        <v>110900</v>
       </c>
       <c r="E52" s="3">
-        <v>113900</v>
+        <v>112100</v>
       </c>
       <c r="F52" s="3">
-        <v>96800</v>
+        <v>108600</v>
       </c>
       <c r="G52" s="3">
-        <v>96800</v>
+        <v>92200</v>
       </c>
       <c r="H52" s="3">
-        <v>91900</v>
+        <v>92200</v>
       </c>
       <c r="I52" s="3">
-        <v>95500</v>
+        <v>87600</v>
       </c>
       <c r="J52" s="3">
+        <v>91100</v>
+      </c>
+      <c r="K52" s="3">
         <v>94300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>91800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>95700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>86400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>84200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>82400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>74100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>17</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,53 +3416,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9845200</v>
+        <v>8733400</v>
       </c>
       <c r="E54" s="3">
-        <v>7749300</v>
+        <v>9382500</v>
       </c>
       <c r="F54" s="3">
-        <v>7060800</v>
+        <v>7385000</v>
       </c>
       <c r="G54" s="3">
-        <v>6779100</v>
+        <v>6729000</v>
       </c>
       <c r="H54" s="3">
-        <v>6156800</v>
+        <v>6460400</v>
       </c>
       <c r="I54" s="3">
-        <v>6274400</v>
+        <v>5867400</v>
       </c>
       <c r="J54" s="3">
+        <v>5979500</v>
+      </c>
+      <c r="K54" s="3">
         <v>6169000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6014900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6690300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5129100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4577700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3689300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3592600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>17</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,53 +3533,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>808500</v>
+        <v>566200</v>
       </c>
       <c r="E57" s="3">
-        <v>531600</v>
+        <v>513700</v>
       </c>
       <c r="F57" s="3">
-        <v>519400</v>
+        <v>506700</v>
       </c>
       <c r="G57" s="3">
-        <v>447100</v>
+        <v>495000</v>
       </c>
       <c r="H57" s="3">
-        <v>461800</v>
+        <v>426100</v>
       </c>
       <c r="I57" s="3">
-        <v>461800</v>
+        <v>440100</v>
       </c>
       <c r="J57" s="3">
+        <v>440100</v>
+      </c>
+      <c r="K57" s="3">
         <v>431200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>338800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>305000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>349000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>291300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>282200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>286100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>17</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3485,29 +3619,29 @@
       <c r="H58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="3">
-        <v>8600</v>
+      <c r="I58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J58" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>35300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>37100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3527,53 +3661,56 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2788100</v>
+        <v>2899800</v>
       </c>
       <c r="E59" s="3">
-        <v>3020800</v>
+        <v>2913900</v>
       </c>
       <c r="F59" s="3">
-        <v>2744000</v>
+        <v>2878800</v>
       </c>
       <c r="G59" s="3">
-        <v>2932600</v>
+        <v>2615000</v>
       </c>
       <c r="H59" s="3">
-        <v>2403400</v>
+        <v>2794800</v>
       </c>
       <c r="I59" s="3">
-        <v>2517400</v>
+        <v>2290500</v>
       </c>
       <c r="J59" s="3">
+        <v>2399000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2574900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2723400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2656800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2190700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2423400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2221300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1899500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>17</v>
       </c>
@@ -3589,53 +3726,56 @@
       <c r="V59" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3596600</v>
+        <v>3466000</v>
       </c>
       <c r="E60" s="3">
-        <v>3552500</v>
+        <v>3427500</v>
       </c>
       <c r="F60" s="3">
-        <v>3263400</v>
+        <v>3385500</v>
       </c>
       <c r="G60" s="3">
-        <v>3379700</v>
+        <v>3110000</v>
       </c>
       <c r="H60" s="3">
-        <v>2865300</v>
+        <v>3220900</v>
       </c>
       <c r="I60" s="3">
-        <v>2987800</v>
+        <v>2730600</v>
       </c>
       <c r="J60" s="3">
+        <v>2847300</v>
+      </c>
+      <c r="K60" s="3">
         <v>3008600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3097500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2998900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2539700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2714700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2503400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2185600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>17</v>
       </c>
@@ -3651,41 +3791,44 @@
       <c r="V60" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2224600</v>
+        <v>2072200</v>
       </c>
       <c r="E61" s="3">
-        <v>706800</v>
+        <v>2120000</v>
       </c>
       <c r="F61" s="3">
-        <v>725200</v>
+        <v>673600</v>
       </c>
       <c r="G61" s="3">
-        <v>749700</v>
+        <v>691100</v>
       </c>
       <c r="H61" s="3">
-        <v>764400</v>
+        <v>714500</v>
       </c>
       <c r="I61" s="3">
-        <v>761900</v>
+        <v>728500</v>
       </c>
       <c r="J61" s="3">
+        <v>726100</v>
+      </c>
+      <c r="K61" s="3">
         <v>757000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>608200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>663900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3693,11 +3836,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1146700</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3713,16 +3856,19 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>50200</v>
+        <v>44400</v>
       </c>
       <c r="E62" s="3">
-        <v>53900</v>
+        <v>47900</v>
       </c>
       <c r="F62" s="3">
         <v>51400</v>
@@ -3731,35 +3877,35 @@
         <v>49000</v>
       </c>
       <c r="H62" s="3">
-        <v>61200</v>
+        <v>46700</v>
       </c>
       <c r="I62" s="3">
-        <v>29400</v>
+        <v>58400</v>
       </c>
       <c r="J62" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K62" s="3">
         <v>24500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>82500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>112400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>97500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>88900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>79700</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>17</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,53 +4116,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5871400</v>
+        <v>5582600</v>
       </c>
       <c r="E66" s="3">
-        <v>4313200</v>
+        <v>5595400</v>
       </c>
       <c r="F66" s="3">
-        <v>4040000</v>
+        <v>4110500</v>
       </c>
       <c r="G66" s="3">
-        <v>4178400</v>
+        <v>3850100</v>
       </c>
       <c r="H66" s="3">
-        <v>3690900</v>
+        <v>3982000</v>
       </c>
       <c r="I66" s="3">
-        <v>3779100</v>
+        <v>3517400</v>
       </c>
       <c r="J66" s="3">
+        <v>3601500</v>
+      </c>
+      <c r="K66" s="3">
         <v>3790100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3726800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3745300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2652100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2812200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2592400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3412000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>17</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,53 +4466,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1488400</v>
+        <v>-3837300</v>
       </c>
       <c r="E72" s="3">
-        <v>-4030200</v>
+        <v>-3813900</v>
       </c>
       <c r="F72" s="3">
-        <v>-3877100</v>
+        <v>-3840800</v>
       </c>
       <c r="G72" s="3">
-        <v>-3753400</v>
+        <v>-3694900</v>
       </c>
       <c r="H72" s="3">
-        <v>-3317300</v>
+        <v>-3576900</v>
       </c>
       <c r="I72" s="3">
-        <v>-3318500</v>
+        <v>-3161300</v>
       </c>
       <c r="J72" s="3">
+        <v>-3162500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3062500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3224500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3187900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2963200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3264100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3283000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2912700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>17</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,53 +4726,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3973900</v>
+        <v>3150800</v>
       </c>
       <c r="E76" s="3">
-        <v>3436100</v>
+        <v>3787100</v>
       </c>
       <c r="F76" s="3">
-        <v>3020800</v>
+        <v>3274600</v>
       </c>
       <c r="G76" s="3">
-        <v>2600700</v>
+        <v>2878800</v>
       </c>
       <c r="H76" s="3">
-        <v>2465900</v>
+        <v>2478400</v>
       </c>
       <c r="I76" s="3">
-        <v>2495300</v>
+        <v>2350000</v>
       </c>
       <c r="J76" s="3">
+        <v>2378000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2378900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2288100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2945000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2477000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1765500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1096900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>180600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>17</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>28200</v>
+        <v>-23300</v>
       </c>
       <c r="E81" s="3">
-        <v>-153100</v>
+        <v>26900</v>
       </c>
       <c r="F81" s="3">
-        <v>-123700</v>
+        <v>-145900</v>
       </c>
       <c r="G81" s="3">
-        <v>-436100</v>
+        <v>-117900</v>
       </c>
       <c r="H81" s="3">
+        <v>-415600</v>
+      </c>
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-256000</v>
-      </c>
       <c r="J81" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="K81" s="3">
         <v>295200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-89400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-169900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>522800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>47600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-432600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-189600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-668700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-311900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-210900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-203100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-99800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>36700</v>
+        <v>36200</v>
       </c>
       <c r="E83" s="3">
-        <v>35500</v>
+        <v>35000</v>
       </c>
       <c r="F83" s="3">
-        <v>34300</v>
+        <v>33900</v>
       </c>
       <c r="G83" s="3">
-        <v>34300</v>
+        <v>32700</v>
       </c>
       <c r="H83" s="3">
-        <v>31800</v>
+        <v>32700</v>
       </c>
       <c r="I83" s="3">
-        <v>29400</v>
+        <v>30400</v>
       </c>
       <c r="J83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K83" s="3">
         <v>26900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>25100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12300</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S83" s="3">
         <v>16800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13500</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>79600</v>
+        <v>63000</v>
       </c>
       <c r="E89" s="3">
-        <v>131100</v>
+        <v>75900</v>
       </c>
       <c r="F89" s="3">
-        <v>149400</v>
+        <v>124900</v>
       </c>
       <c r="G89" s="3">
-        <v>47800</v>
+        <v>142400</v>
       </c>
       <c r="H89" s="3">
-        <v>-11000</v>
+        <v>45500</v>
       </c>
       <c r="I89" s="3">
-        <v>248700</v>
+        <v>-10500</v>
       </c>
       <c r="J89" s="3">
+        <v>237000</v>
+      </c>
+      <c r="K89" s="3">
         <v>87000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>105900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>250000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>177400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>88600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>32900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>94200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>106600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-90900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>80800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>109200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-29400</v>
+        <v>-23300</v>
       </c>
       <c r="E91" s="3">
-        <v>-42900</v>
+        <v>-28000</v>
       </c>
       <c r="F91" s="3">
-        <v>-20800</v>
+        <v>-40900</v>
       </c>
       <c r="G91" s="3">
-        <v>-17100</v>
+        <v>-19800</v>
       </c>
       <c r="H91" s="3">
-        <v>-14700</v>
+        <v>-16300</v>
       </c>
       <c r="I91" s="3">
-        <v>-39200</v>
+        <v>-14000</v>
       </c>
       <c r="J91" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-31800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-47100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-44300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-76900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-54300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-139600</v>
+        <v>-45500</v>
       </c>
       <c r="E94" s="3">
-        <v>-161700</v>
+        <v>-133100</v>
       </c>
       <c r="F94" s="3">
-        <v>-164100</v>
+        <v>-154100</v>
       </c>
       <c r="G94" s="3">
-        <v>95500</v>
+        <v>-156400</v>
       </c>
       <c r="H94" s="3">
-        <v>-225400</v>
+        <v>91100</v>
       </c>
       <c r="I94" s="3">
-        <v>-128600</v>
+        <v>-214800</v>
       </c>
       <c r="J94" s="3">
+        <v>-122600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-69800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-58600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-354900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>172800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-18700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>156000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S94" s="3">
         <v>12300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-47100</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1531200</v>
+        <v>7000</v>
       </c>
       <c r="E100" s="3">
-        <v>40400</v>
+        <v>1459300</v>
       </c>
       <c r="F100" s="3">
-        <v>104100</v>
+        <v>38500</v>
       </c>
       <c r="G100" s="3">
-        <v>110200</v>
+        <v>99200</v>
       </c>
       <c r="H100" s="3">
-        <v>94300</v>
+        <v>105100</v>
       </c>
       <c r="I100" s="3">
-        <v>133500</v>
+        <v>89900</v>
       </c>
       <c r="J100" s="3">
+        <v>127200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-89400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-165900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-117200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-65100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>54300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>60400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>48200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S100" s="3">
         <v>10100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2200</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>17</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>110200</v>
+        <v>-26900</v>
       </c>
       <c r="E101" s="3">
-        <v>-47800</v>
+        <v>105100</v>
       </c>
       <c r="F101" s="3">
-        <v>-47800</v>
+        <v>-45500</v>
       </c>
       <c r="G101" s="3">
-        <v>-12200</v>
+        <v>-45500</v>
       </c>
       <c r="H101" s="3">
-        <v>2400</v>
+        <v>-11700</v>
       </c>
       <c r="I101" s="3">
-        <v>-23300</v>
+        <v>2300</v>
       </c>
       <c r="J101" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="K101" s="3">
         <v>33100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>15600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>9900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S101" s="3">
         <v>-3400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-39300</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U101" s="3" t="s">
         <v>17</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1581500</v>
+        <v>-2300</v>
       </c>
       <c r="E102" s="3">
-        <v>-38000</v>
+        <v>1507100</v>
       </c>
       <c r="F102" s="3">
-        <v>41600</v>
+        <v>-36200</v>
       </c>
       <c r="G102" s="3">
-        <v>241300</v>
+        <v>39700</v>
       </c>
       <c r="H102" s="3">
-        <v>-139600</v>
+        <v>230000</v>
       </c>
       <c r="I102" s="3">
-        <v>230300</v>
+        <v>-133100</v>
       </c>
       <c r="J102" s="3">
+        <v>219500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-39200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-67100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>89700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-241300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>315700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>84500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>287200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S102" s="3">
         <v>-71800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3400</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>SPOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2721200</v>
+        <v>2823900</v>
       </c>
       <c r="E8" s="3">
-        <v>2506400</v>
+        <v>2631900</v>
       </c>
       <c r="F8" s="3">
-        <v>2530900</v>
+        <v>2424200</v>
       </c>
       <c r="G8" s="3">
-        <v>2305600</v>
+        <v>2447900</v>
       </c>
       <c r="H8" s="3">
-        <v>2205200</v>
+        <v>2230000</v>
       </c>
       <c r="I8" s="3">
-        <v>2157400</v>
+        <v>2132900</v>
       </c>
       <c r="J8" s="3">
+        <v>2086600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2165500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2120500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1961100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1807500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1768400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1497500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1397800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1277900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1289200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1157900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1129800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1058800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1023600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>876800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1947200</v>
+        <v>2069600</v>
       </c>
       <c r="E9" s="3">
-        <v>1866700</v>
+        <v>1883300</v>
       </c>
       <c r="F9" s="3">
-        <v>1859700</v>
+        <v>1805400</v>
       </c>
       <c r="G9" s="3">
-        <v>1734800</v>
+        <v>1798700</v>
       </c>
       <c r="H9" s="3">
-        <v>1646000</v>
+        <v>1677800</v>
       </c>
       <c r="I9" s="3">
-        <v>1606400</v>
+        <v>1592000</v>
       </c>
       <c r="J9" s="3">
+        <v>1553600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1612200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1580200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1450500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1361300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1296500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1118700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1036500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>960400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>972800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>899800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>869500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>935500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>844000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>744200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>774000</v>
+        <v>754200</v>
       </c>
       <c r="E10" s="3">
-        <v>639700</v>
+        <v>748600</v>
       </c>
       <c r="F10" s="3">
-        <v>671300</v>
+        <v>618700</v>
       </c>
       <c r="G10" s="3">
-        <v>570900</v>
+        <v>649200</v>
       </c>
       <c r="H10" s="3">
-        <v>559200</v>
+        <v>552100</v>
       </c>
       <c r="I10" s="3">
-        <v>551000</v>
+        <v>540800</v>
       </c>
       <c r="J10" s="3">
+        <v>532900</v>
+      </c>
+      <c r="K10" s="3">
         <v>553400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>540200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>510600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>446200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>472000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>378800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>361200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>317500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>316400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>258100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>260300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>123300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>179600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>289500</v>
+        <v>228100</v>
       </c>
       <c r="E12" s="3">
-        <v>221800</v>
+        <v>280000</v>
       </c>
       <c r="F12" s="3">
-        <v>263800</v>
+        <v>214500</v>
       </c>
       <c r="G12" s="3">
-        <v>199600</v>
+        <v>255200</v>
       </c>
       <c r="H12" s="3">
-        <v>307000</v>
+        <v>193100</v>
       </c>
       <c r="I12" s="3">
-        <v>184500</v>
+        <v>297000</v>
       </c>
       <c r="J12" s="3">
+        <v>178400</v>
+      </c>
+      <c r="K12" s="3">
         <v>197300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>162900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>174100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>181800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>118300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>149500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>157000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>129000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>138000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>110000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>106600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>93900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>72800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1118,20 +1138,20 @@
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3">
         <v>2300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3400</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>17</v>
@@ -1142,15 +1162,15 @@
       <c r="M14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1161,63 +1181,66 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>1100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-2300</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>8200</v>
+        <v>6800</v>
       </c>
       <c r="E15" s="3">
-        <v>7000</v>
+        <v>7900</v>
       </c>
       <c r="F15" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="G15" s="3">
-        <v>5800</v>
+        <v>6800</v>
       </c>
       <c r="H15" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K15" s="3">
         <v>4700</v>
       </c>
-      <c r="I15" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4700</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3600</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2707200</v>
+        <v>2739200</v>
       </c>
       <c r="E17" s="3">
-        <v>2490100</v>
+        <v>2618400</v>
       </c>
       <c r="F17" s="3">
-        <v>2611500</v>
+        <v>2408400</v>
       </c>
       <c r="G17" s="3">
-        <v>2352300</v>
+        <v>2525800</v>
       </c>
       <c r="H17" s="3">
-        <v>2400200</v>
+        <v>2275100</v>
       </c>
       <c r="I17" s="3">
-        <v>2177200</v>
+        <v>2321400</v>
       </c>
       <c r="J17" s="3">
+        <v>2105800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2255400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2054300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1964600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1863700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1657200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1505200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1496600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1323900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1386800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1239800</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1219600</v>
       </c>
       <c r="U17" s="3">
         <v>1219600</v>
       </c>
       <c r="V17" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="W17" s="3">
         <v>1125700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>954300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>14000</v>
+        <v>84700</v>
       </c>
       <c r="E18" s="3">
-        <v>16300</v>
+        <v>13500</v>
       </c>
       <c r="F18" s="3">
-        <v>-80600</v>
+        <v>15800</v>
       </c>
       <c r="G18" s="3">
-        <v>-46700</v>
+        <v>-77900</v>
       </c>
       <c r="H18" s="3">
-        <v>-195000</v>
+        <v>-45200</v>
       </c>
       <c r="I18" s="3">
-        <v>-19800</v>
+        <v>-188600</v>
       </c>
       <c r="J18" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-89900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>66100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-56200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>111200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-98800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-46000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-97600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-81900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-89800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-160800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-102100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-77500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,185 +1447,192 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>7000</v>
+        <v>109500</v>
       </c>
       <c r="E20" s="3">
-        <v>96900</v>
+        <v>6800</v>
       </c>
       <c r="F20" s="3">
-        <v>-116700</v>
+        <v>93700</v>
       </c>
       <c r="G20" s="3">
-        <v>-77000</v>
+        <v>-112900</v>
       </c>
       <c r="H20" s="3">
-        <v>-324500</v>
+        <v>-74500</v>
       </c>
       <c r="I20" s="3">
-        <v>80600</v>
+        <v>-313900</v>
       </c>
       <c r="J20" s="3">
+        <v>77900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>275600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-54100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-135200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>457800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-83100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-329400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-156000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-571100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-230000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-120100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-41100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-71600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>57200</v>
+        <v>231500</v>
       </c>
       <c r="E21" s="3">
-        <v>148300</v>
+        <v>55300</v>
       </c>
       <c r="F21" s="3">
-        <v>-163400</v>
+        <v>143400</v>
       </c>
       <c r="G21" s="3">
-        <v>-91100</v>
+        <v>-158100</v>
       </c>
       <c r="H21" s="3">
-        <v>-486800</v>
+        <v>-88100</v>
       </c>
       <c r="I21" s="3">
-        <v>91100</v>
+        <v>-470800</v>
       </c>
       <c r="J21" s="3">
+        <v>88100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-162300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>368700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-34100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-166300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>578400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-83100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-421600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-189600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-295100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-196300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-185500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-98600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K22" s="3">
         <v>11700</v>
       </c>
-      <c r="E22" s="3">
-        <v>11700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>11700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>11700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>11700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>12800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>11700</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10800</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>17</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>17</v>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9300</v>
+        <v>182900</v>
       </c>
       <c r="E23" s="3">
-        <v>101600</v>
+        <v>9000</v>
       </c>
       <c r="F23" s="3">
-        <v>-209000</v>
+        <v>98200</v>
       </c>
       <c r="G23" s="3">
-        <v>-135400</v>
+        <v>-202100</v>
       </c>
       <c r="H23" s="3">
-        <v>-531200</v>
+        <v>-131000</v>
       </c>
       <c r="I23" s="3">
-        <v>47900</v>
+        <v>-513700</v>
       </c>
       <c r="J23" s="3">
+        <v>46300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-202000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>330700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-69400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-202200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>569000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-90800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-430400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-202000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-668700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-311900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-209800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-201900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-99800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-149100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32700</v>
+        <v>180700</v>
       </c>
       <c r="E24" s="3">
-        <v>74700</v>
+        <v>31600</v>
       </c>
       <c r="F24" s="3">
-        <v>-63000</v>
+        <v>72300</v>
       </c>
       <c r="G24" s="3">
-        <v>-17500</v>
+        <v>-61000</v>
       </c>
       <c r="H24" s="3">
-        <v>-115600</v>
+        <v>-16900</v>
       </c>
       <c r="I24" s="3">
-        <v>46700</v>
+        <v>-111800</v>
       </c>
       <c r="J24" s="3">
+        <v>45200</v>
+      </c>
+      <c r="K24" s="3">
         <v>42000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-32300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>46100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-138500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-12300</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1200</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-23300</v>
+        <v>2300</v>
       </c>
       <c r="E26" s="3">
-        <v>26900</v>
+        <v>-22600</v>
       </c>
       <c r="F26" s="3">
-        <v>-145900</v>
+        <v>26000</v>
       </c>
       <c r="G26" s="3">
-        <v>-117900</v>
+        <v>-141100</v>
       </c>
       <c r="H26" s="3">
-        <v>-415600</v>
+        <v>-114000</v>
       </c>
       <c r="I26" s="3">
-        <v>1200</v>
+        <v>-402000</v>
       </c>
       <c r="J26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-244000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>295200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-89400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-169900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>522800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>47600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-432600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-189600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-668700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-311900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-210900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-203100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-99800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-23300</v>
+        <v>2300</v>
       </c>
       <c r="E27" s="3">
-        <v>26900</v>
+        <v>-22600</v>
       </c>
       <c r="F27" s="3">
-        <v>-145900</v>
+        <v>26000</v>
       </c>
       <c r="G27" s="3">
-        <v>-117900</v>
+        <v>-141100</v>
       </c>
       <c r="H27" s="3">
-        <v>-415600</v>
+        <v>-114000</v>
       </c>
       <c r="I27" s="3">
-        <v>1200</v>
+        <v>-402000</v>
       </c>
       <c r="J27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-244000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>295200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-89400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-169900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>522800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>47600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-432600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-189600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-668700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-311900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-210900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-203100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-99800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7000</v>
+        <v>-109500</v>
       </c>
       <c r="E32" s="3">
-        <v>-96900</v>
+        <v>-6800</v>
       </c>
       <c r="F32" s="3">
-        <v>116700</v>
+        <v>-93700</v>
       </c>
       <c r="G32" s="3">
-        <v>77000</v>
+        <v>112900</v>
       </c>
       <c r="H32" s="3">
-        <v>324500</v>
+        <v>74500</v>
       </c>
       <c r="I32" s="3">
-        <v>-80600</v>
+        <v>313900</v>
       </c>
       <c r="J32" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="K32" s="3">
         <v>100400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-275600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>54100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>135200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-457800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>83100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>329400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>156000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>571100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>230000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>120100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>41100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-23300</v>
+        <v>2300</v>
       </c>
       <c r="E33" s="3">
-        <v>26900</v>
+        <v>-22600</v>
       </c>
       <c r="F33" s="3">
-        <v>-145900</v>
+        <v>26000</v>
       </c>
       <c r="G33" s="3">
-        <v>-117900</v>
+        <v>-141100</v>
       </c>
       <c r="H33" s="3">
-        <v>-415600</v>
+        <v>-114000</v>
       </c>
       <c r="I33" s="3">
-        <v>1200</v>
+        <v>-402000</v>
       </c>
       <c r="J33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-244000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>295200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-89400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-169900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>522800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>47600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-432600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-189600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-668700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-311900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-210900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-203100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-99800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-23300</v>
+        <v>2300</v>
       </c>
       <c r="E35" s="3">
-        <v>26900</v>
+        <v>-22600</v>
       </c>
       <c r="F35" s="3">
-        <v>-145900</v>
+        <v>26000</v>
       </c>
       <c r="G35" s="3">
-        <v>-117900</v>
+        <v>-141100</v>
       </c>
       <c r="H35" s="3">
-        <v>-415600</v>
+        <v>-114000</v>
       </c>
       <c r="I35" s="3">
-        <v>1200</v>
+        <v>-402000</v>
       </c>
       <c r="J35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-244000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>295200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-89400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-169900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>522800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>47600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-432600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-189600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-668700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-311900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-210900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-203100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-99800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,56 +2660,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2848500</v>
+        <v>2836300</v>
       </c>
       <c r="E41" s="3">
-        <v>2850800</v>
+        <v>2755000</v>
       </c>
       <c r="F41" s="3">
-        <v>1343700</v>
+        <v>2757300</v>
       </c>
       <c r="G41" s="3">
-        <v>1379900</v>
+        <v>1299600</v>
       </c>
       <c r="H41" s="3">
-        <v>1340200</v>
+        <v>1334600</v>
       </c>
       <c r="I41" s="3">
-        <v>1110200</v>
+        <v>1296200</v>
       </c>
       <c r="J41" s="3">
+        <v>1073800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1243300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1074300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1069300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1155500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1054000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1212800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>889400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>822400</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>17</v>
       </c>
@@ -2639,56 +2726,59 @@
       <c r="W41" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>714500</v>
+        <v>818600</v>
       </c>
       <c r="E42" s="3">
-        <v>751800</v>
+        <v>691000</v>
       </c>
       <c r="F42" s="3">
-        <v>695800</v>
+        <v>727100</v>
       </c>
       <c r="G42" s="3">
-        <v>839400</v>
+        <v>672900</v>
       </c>
       <c r="H42" s="3">
-        <v>742500</v>
+        <v>811800</v>
       </c>
       <c r="I42" s="3">
-        <v>855700</v>
+        <v>718100</v>
       </c>
       <c r="J42" s="3">
+        <v>827600</v>
+      </c>
+      <c r="K42" s="3">
         <v>807800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>784000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>689400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>789500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1082400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>741000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>971700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>945800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>17</v>
       </c>
@@ -2704,56 +2794,59 @@
       <c r="W42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>722600</v>
+        <v>817500</v>
       </c>
       <c r="E43" s="3">
-        <v>644400</v>
+        <v>698900</v>
       </c>
       <c r="F43" s="3">
-        <v>546300</v>
+        <v>623300</v>
       </c>
       <c r="G43" s="3">
-        <v>462300</v>
+        <v>528400</v>
       </c>
       <c r="H43" s="3">
-        <v>426100</v>
+        <v>447100</v>
       </c>
       <c r="I43" s="3">
-        <v>427300</v>
+        <v>412100</v>
       </c>
       <c r="J43" s="3">
+        <v>413300</v>
+      </c>
+      <c r="K43" s="3">
         <v>474000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>475300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>507000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>470100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>475500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>399800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>356900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>362400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>17</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,56 +2930,59 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>93400</v>
+        <v>85800</v>
       </c>
       <c r="E45" s="3">
-        <v>92200</v>
+        <v>90300</v>
       </c>
       <c r="F45" s="3">
-        <v>176300</v>
+        <v>89200</v>
       </c>
       <c r="G45" s="3">
-        <v>165800</v>
+        <v>170500</v>
       </c>
       <c r="H45" s="3">
-        <v>134300</v>
+        <v>160300</v>
       </c>
       <c r="I45" s="3">
-        <v>108600</v>
+        <v>129800</v>
       </c>
       <c r="J45" s="3">
+        <v>105000</v>
+      </c>
+      <c r="K45" s="3">
         <v>79400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>89400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>77600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>62200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>45000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>38800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>41700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>43800</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>17</v>
       </c>
@@ -2899,56 +2998,59 @@
       <c r="W45" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4379000</v>
+        <v>4558200</v>
       </c>
       <c r="E46" s="3">
-        <v>4339300</v>
+        <v>4235300</v>
       </c>
       <c r="F46" s="3">
-        <v>2762100</v>
+        <v>4196900</v>
       </c>
       <c r="G46" s="3">
-        <v>2847300</v>
+        <v>2671500</v>
       </c>
       <c r="H46" s="3">
-        <v>2643000</v>
+        <v>2753900</v>
       </c>
       <c r="I46" s="3">
-        <v>2501800</v>
+        <v>2556300</v>
       </c>
       <c r="J46" s="3">
+        <v>2419700</v>
+      </c>
+      <c r="K46" s="3">
         <v>2604500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2423000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2343400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2477300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2656800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2392400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2259700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2174400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>17</v>
       </c>
@@ -2964,56 +3066,59 @@
       <c r="W46" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2214600</v>
+        <v>1230700</v>
       </c>
       <c r="E47" s="3">
-        <v>2944200</v>
+        <v>2141900</v>
       </c>
       <c r="F47" s="3">
-        <v>2658200</v>
+        <v>2847600</v>
       </c>
       <c r="G47" s="3">
-        <v>2114200</v>
+        <v>2571000</v>
       </c>
       <c r="H47" s="3">
-        <v>2013800</v>
+        <v>2044800</v>
       </c>
       <c r="I47" s="3">
-        <v>1531600</v>
+        <v>1947700</v>
       </c>
       <c r="J47" s="3">
+        <v>1481400</v>
+      </c>
+      <c r="K47" s="3">
         <v>1747600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2055500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2215200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2750100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1947100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1760000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1064000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1087200</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>17</v>
       </c>
@@ -3029,56 +3134,59 @@
       <c r="W47" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>924600</v>
+        <v>916800</v>
       </c>
       <c r="E48" s="3">
-        <v>921100</v>
+        <v>894200</v>
       </c>
       <c r="F48" s="3">
-        <v>883700</v>
+        <v>890900</v>
       </c>
       <c r="G48" s="3">
-        <v>884900</v>
+        <v>854700</v>
       </c>
       <c r="H48" s="3">
-        <v>890700</v>
+        <v>855900</v>
       </c>
       <c r="I48" s="3">
-        <v>912900</v>
+        <v>861500</v>
       </c>
       <c r="J48" s="3">
+        <v>883000</v>
+      </c>
+      <c r="K48" s="3">
         <v>910600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>926100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>754100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>795500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>233000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>149500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>91100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>76300</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>17</v>
       </c>
@@ -3094,56 +3202,59 @@
       <c r="W48" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1104400</v>
+        <v>1083900</v>
       </c>
       <c r="E49" s="3">
-        <v>1065800</v>
+        <v>1068100</v>
       </c>
       <c r="F49" s="3">
-        <v>972500</v>
+        <v>1030900</v>
       </c>
       <c r="G49" s="3">
-        <v>790300</v>
+        <v>940500</v>
       </c>
       <c r="H49" s="3">
-        <v>820700</v>
+        <v>764400</v>
       </c>
       <c r="I49" s="3">
-        <v>833500</v>
+        <v>793800</v>
       </c>
       <c r="J49" s="3">
+        <v>806200</v>
+      </c>
+      <c r="K49" s="3">
         <v>625700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>670100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>610600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>571800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>205800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>191600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>192200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>180600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>17</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,56 +3406,59 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>110900</v>
+        <v>101600</v>
       </c>
       <c r="E52" s="3">
-        <v>112100</v>
+        <v>107300</v>
       </c>
       <c r="F52" s="3">
-        <v>108600</v>
+        <v>108400</v>
       </c>
       <c r="G52" s="3">
-        <v>92200</v>
+        <v>105000</v>
       </c>
       <c r="H52" s="3">
-        <v>92200</v>
+        <v>89200</v>
       </c>
       <c r="I52" s="3">
-        <v>87600</v>
+        <v>89200</v>
       </c>
       <c r="J52" s="3">
+        <v>84700</v>
+      </c>
+      <c r="K52" s="3">
         <v>91100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>94300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>91800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>95700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>86400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>84200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>82400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>74100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>17</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,56 +3542,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8733400</v>
+        <v>7891300</v>
       </c>
       <c r="E54" s="3">
-        <v>9382500</v>
+        <v>8446800</v>
       </c>
       <c r="F54" s="3">
-        <v>7385000</v>
+        <v>9074600</v>
       </c>
       <c r="G54" s="3">
-        <v>6729000</v>
+        <v>7142700</v>
       </c>
       <c r="H54" s="3">
-        <v>6460400</v>
+        <v>6508100</v>
       </c>
       <c r="I54" s="3">
-        <v>5867400</v>
+        <v>6248400</v>
       </c>
       <c r="J54" s="3">
+        <v>5674900</v>
+      </c>
+      <c r="K54" s="3">
         <v>5979500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6169000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6014900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6690300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5129100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4577700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3689300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3592600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>17</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,56 +3664,57 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>566200</v>
+        <v>596200</v>
       </c>
       <c r="E57" s="3">
-        <v>513700</v>
+        <v>547600</v>
       </c>
       <c r="F57" s="3">
-        <v>506700</v>
+        <v>496800</v>
       </c>
       <c r="G57" s="3">
-        <v>495000</v>
+        <v>490000</v>
       </c>
       <c r="H57" s="3">
-        <v>426100</v>
+        <v>478700</v>
       </c>
       <c r="I57" s="3">
+        <v>412100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>425700</v>
+      </c>
+      <c r="K57" s="3">
         <v>440100</v>
       </c>
-      <c r="J57" s="3">
-        <v>440100</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>431200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>338800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>305000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>349000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>291300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>282200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>286100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>17</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3622,29 +3756,29 @@
       <c r="I58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="3">
         <v>8200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>35300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>37100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3664,56 +3798,59 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2899800</v>
+        <v>2875800</v>
       </c>
       <c r="E59" s="3">
-        <v>2913900</v>
+        <v>2804700</v>
       </c>
       <c r="F59" s="3">
-        <v>2878800</v>
+        <v>2818200</v>
       </c>
       <c r="G59" s="3">
-        <v>2615000</v>
+        <v>2784400</v>
       </c>
       <c r="H59" s="3">
-        <v>2794800</v>
+        <v>2529200</v>
       </c>
       <c r="I59" s="3">
-        <v>2290500</v>
+        <v>2703100</v>
       </c>
       <c r="J59" s="3">
+        <v>2215300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2399000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2574900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2723400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2656800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2190700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2423400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2221300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1899500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>17</v>
       </c>
@@ -3729,56 +3866,59 @@
       <c r="W59" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3466000</v>
+        <v>3472000</v>
       </c>
       <c r="E60" s="3">
-        <v>3427500</v>
+        <v>3352300</v>
       </c>
       <c r="F60" s="3">
-        <v>3385500</v>
+        <v>3315000</v>
       </c>
       <c r="G60" s="3">
-        <v>3110000</v>
+        <v>3274400</v>
       </c>
       <c r="H60" s="3">
-        <v>3220900</v>
+        <v>3007900</v>
       </c>
       <c r="I60" s="3">
-        <v>2730600</v>
+        <v>3115200</v>
       </c>
       <c r="J60" s="3">
+        <v>2641000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2847300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3008600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3097500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2998900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2539700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2714700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2503400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2185600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>17</v>
       </c>
@@ -3794,44 +3934,47 @@
       <c r="W60" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2072200</v>
+        <v>1983800</v>
       </c>
       <c r="E61" s="3">
-        <v>2120000</v>
+        <v>2004200</v>
       </c>
       <c r="F61" s="3">
-        <v>673600</v>
+        <v>2050400</v>
       </c>
       <c r="G61" s="3">
-        <v>691100</v>
+        <v>651500</v>
       </c>
       <c r="H61" s="3">
-        <v>714500</v>
+        <v>668400</v>
       </c>
       <c r="I61" s="3">
-        <v>728500</v>
+        <v>691000</v>
       </c>
       <c r="J61" s="3">
+        <v>704600</v>
+      </c>
+      <c r="K61" s="3">
         <v>726100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>757000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>608200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>663900</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3839,11 +3982,11 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1146700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3859,56 +4002,59 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>44400</v>
+        <v>45200</v>
       </c>
       <c r="E62" s="3">
-        <v>47900</v>
+        <v>42900</v>
       </c>
       <c r="F62" s="3">
-        <v>51400</v>
+        <v>46300</v>
       </c>
       <c r="G62" s="3">
-        <v>49000</v>
+        <v>49700</v>
       </c>
       <c r="H62" s="3">
-        <v>46700</v>
+        <v>47400</v>
       </c>
       <c r="I62" s="3">
-        <v>58400</v>
+        <v>45200</v>
       </c>
       <c r="J62" s="3">
+        <v>56500</v>
+      </c>
+      <c r="K62" s="3">
         <v>28000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>82500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>112400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>97500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>88900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>79700</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>17</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,56 +4274,59 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5582600</v>
+        <v>5501000</v>
       </c>
       <c r="E66" s="3">
-        <v>5595400</v>
+        <v>5399400</v>
       </c>
       <c r="F66" s="3">
-        <v>4110500</v>
+        <v>5411800</v>
       </c>
       <c r="G66" s="3">
-        <v>3850100</v>
+        <v>3975600</v>
       </c>
       <c r="H66" s="3">
-        <v>3982000</v>
+        <v>3723800</v>
       </c>
       <c r="I66" s="3">
-        <v>3517400</v>
+        <v>3851400</v>
       </c>
       <c r="J66" s="3">
+        <v>3402000</v>
+      </c>
+      <c r="K66" s="3">
         <v>3601500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3790100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3726800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3745300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2652100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2812200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2592400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3412000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>17</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,56 +4640,59 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3837300</v>
+        <v>-3709100</v>
       </c>
       <c r="E72" s="3">
-        <v>-3813900</v>
+        <v>-3711400</v>
       </c>
       <c r="F72" s="3">
-        <v>-3840800</v>
+        <v>-3688800</v>
       </c>
       <c r="G72" s="3">
-        <v>-3694900</v>
+        <v>-3714700</v>
       </c>
       <c r="H72" s="3">
-        <v>-3576900</v>
+        <v>-3573600</v>
       </c>
       <c r="I72" s="3">
-        <v>-3161300</v>
+        <v>-3459600</v>
       </c>
       <c r="J72" s="3">
+        <v>-3057600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3162500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3062500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3224500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3187900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2963200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3264100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3283000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2912700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>17</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,56 +4912,59 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3150800</v>
+        <v>2390300</v>
       </c>
       <c r="E76" s="3">
-        <v>3787100</v>
+        <v>3047400</v>
       </c>
       <c r="F76" s="3">
-        <v>3274600</v>
+        <v>3662800</v>
       </c>
       <c r="G76" s="3">
-        <v>2878800</v>
+        <v>3167100</v>
       </c>
       <c r="H76" s="3">
-        <v>2478400</v>
+        <v>2784400</v>
       </c>
       <c r="I76" s="3">
-        <v>2350000</v>
+        <v>2397100</v>
       </c>
       <c r="J76" s="3">
+        <v>2272900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2378000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2378900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2288100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2945000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2477000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1765500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1096900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>180600</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>17</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-23300</v>
+        <v>2300</v>
       </c>
       <c r="E81" s="3">
-        <v>26900</v>
+        <v>-22600</v>
       </c>
       <c r="F81" s="3">
-        <v>-145900</v>
+        <v>26000</v>
       </c>
       <c r="G81" s="3">
-        <v>-117900</v>
+        <v>-141100</v>
       </c>
       <c r="H81" s="3">
-        <v>-415600</v>
+        <v>-114000</v>
       </c>
       <c r="I81" s="3">
-        <v>1200</v>
+        <v>-402000</v>
       </c>
       <c r="J81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-244000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>295200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-89400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-169900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>522800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>47600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-432600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-189600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-668700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-311900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-210900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-203100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-99800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,13 +5217,14 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>36200</v>
+        <v>37300</v>
       </c>
       <c r="E83" s="3">
         <v>35000</v>
@@ -5037,55 +5236,58 @@
         <v>32700</v>
       </c>
       <c r="H83" s="3">
-        <v>32700</v>
+        <v>31600</v>
       </c>
       <c r="I83" s="3">
-        <v>30400</v>
+        <v>31600</v>
       </c>
       <c r="J83" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K83" s="3">
         <v>28000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>26900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>25100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12300</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T83" s="3">
         <v>16800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13500</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>63000</v>
+        <v>138900</v>
       </c>
       <c r="E89" s="3">
-        <v>75900</v>
+        <v>61000</v>
       </c>
       <c r="F89" s="3">
-        <v>124900</v>
+        <v>73400</v>
       </c>
       <c r="G89" s="3">
-        <v>142400</v>
+        <v>120800</v>
       </c>
       <c r="H89" s="3">
-        <v>45500</v>
+        <v>137800</v>
       </c>
       <c r="I89" s="3">
-        <v>-10500</v>
+        <v>44000</v>
       </c>
       <c r="J89" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K89" s="3">
         <v>237000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>87000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>105900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>250000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>177400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>88600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>32900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>94200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>106600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-90900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>80800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>109200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23300</v>
+        <v>-28200</v>
       </c>
       <c r="E91" s="3">
-        <v>-28000</v>
+        <v>-22600</v>
       </c>
       <c r="F91" s="3">
-        <v>-40900</v>
+        <v>-27100</v>
       </c>
       <c r="G91" s="3">
-        <v>-19800</v>
+        <v>-39500</v>
       </c>
       <c r="H91" s="3">
-        <v>-16300</v>
+        <v>-19200</v>
       </c>
       <c r="I91" s="3">
-        <v>-14000</v>
+        <v>-15800</v>
       </c>
       <c r="J91" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-37400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-47100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-44300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-76900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-54300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-45500</v>
+        <v>-136600</v>
       </c>
       <c r="E94" s="3">
-        <v>-133100</v>
+        <v>-44000</v>
       </c>
       <c r="F94" s="3">
-        <v>-154100</v>
+        <v>-128700</v>
       </c>
       <c r="G94" s="3">
-        <v>-156400</v>
+        <v>-149000</v>
       </c>
       <c r="H94" s="3">
-        <v>91100</v>
+        <v>-151300</v>
       </c>
       <c r="I94" s="3">
-        <v>-214800</v>
+        <v>88100</v>
       </c>
       <c r="J94" s="3">
+        <v>-207800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-122600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-69800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-58600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-354900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>172800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>156000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T94" s="3">
         <v>12300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-47100</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7000</v>
+        <v>21500</v>
       </c>
       <c r="E100" s="3">
-        <v>1459300</v>
+        <v>6800</v>
       </c>
       <c r="F100" s="3">
-        <v>38500</v>
+        <v>1411400</v>
       </c>
       <c r="G100" s="3">
-        <v>99200</v>
+        <v>37300</v>
       </c>
       <c r="H100" s="3">
-        <v>105100</v>
+        <v>96000</v>
       </c>
       <c r="I100" s="3">
-        <v>89900</v>
+        <v>101600</v>
       </c>
       <c r="J100" s="3">
+        <v>86900</v>
+      </c>
+      <c r="K100" s="3">
         <v>127200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-89400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-165900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-117200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-65100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>54300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>60400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>48200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T100" s="3">
         <v>10100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2200</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>17</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-26900</v>
+        <v>57600</v>
       </c>
       <c r="E101" s="3">
-        <v>105100</v>
+        <v>-26000</v>
       </c>
       <c r="F101" s="3">
-        <v>-45500</v>
+        <v>101600</v>
       </c>
       <c r="G101" s="3">
-        <v>-45500</v>
+        <v>-44000</v>
       </c>
       <c r="H101" s="3">
-        <v>-11700</v>
+        <v>-44000</v>
       </c>
       <c r="I101" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="J101" s="3">
         <v>2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-22200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>33100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>15600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>9900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-11200</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T101" s="3">
         <v>-3400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-39300</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V101" s="3" t="s">
         <v>17</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2300</v>
       </c>
-      <c r="E102" s="3">
-        <v>1507100</v>
-      </c>
       <c r="F102" s="3">
-        <v>-36200</v>
+        <v>1457700</v>
       </c>
       <c r="G102" s="3">
-        <v>39700</v>
+        <v>-35000</v>
       </c>
       <c r="H102" s="3">
-        <v>230000</v>
+        <v>38400</v>
       </c>
       <c r="I102" s="3">
-        <v>-133100</v>
+        <v>222400</v>
       </c>
       <c r="J102" s="3">
+        <v>-128700</v>
+      </c>
+      <c r="K102" s="3">
         <v>219500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-39200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-67100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>89700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-241300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>315700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>84500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>287200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T102" s="3">
         <v>-71800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3400</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>SPOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2823900</v>
+        <v>2933500</v>
       </c>
       <c r="E8" s="3">
-        <v>2631900</v>
+        <v>2728400</v>
       </c>
       <c r="F8" s="3">
-        <v>2424200</v>
+        <v>2542900</v>
       </c>
       <c r="G8" s="3">
-        <v>2447900</v>
+        <v>2342200</v>
       </c>
       <c r="H8" s="3">
-        <v>2230000</v>
+        <v>2365100</v>
       </c>
       <c r="I8" s="3">
-        <v>2132900</v>
+        <v>2154500</v>
       </c>
       <c r="J8" s="3">
+        <v>2060700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2086600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2165500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2120500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1961100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1807500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1768400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1497500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1397800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1277900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1289200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1157900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1129800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1058800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1023600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>876800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2069600</v>
+        <v>2156700</v>
       </c>
       <c r="E9" s="3">
-        <v>1883300</v>
+        <v>1999600</v>
       </c>
       <c r="F9" s="3">
-        <v>1805400</v>
+        <v>1819600</v>
       </c>
       <c r="G9" s="3">
-        <v>1798700</v>
+        <v>1744400</v>
       </c>
       <c r="H9" s="3">
-        <v>1677800</v>
+        <v>1737800</v>
       </c>
       <c r="I9" s="3">
-        <v>1592000</v>
+        <v>1621100</v>
       </c>
       <c r="J9" s="3">
+        <v>1538200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1553600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1612200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1580200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1450500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1361300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1296500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1118700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1036500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>960400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>972800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>899800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>869500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>935500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>844000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>744200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>754200</v>
+        <v>776700</v>
       </c>
       <c r="E10" s="3">
-        <v>748600</v>
+        <v>728700</v>
       </c>
       <c r="F10" s="3">
-        <v>618700</v>
+        <v>723300</v>
       </c>
       <c r="G10" s="3">
-        <v>649200</v>
+        <v>597800</v>
       </c>
       <c r="H10" s="3">
-        <v>552100</v>
+        <v>627300</v>
       </c>
       <c r="I10" s="3">
-        <v>540800</v>
+        <v>533500</v>
       </c>
       <c r="J10" s="3">
+        <v>522500</v>
+      </c>
+      <c r="K10" s="3">
         <v>532900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>553400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>540200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>510600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>446200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>472000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>378800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>361200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>317500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>316400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>258100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>260300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>123300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>179600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>228100</v>
+        <v>269500</v>
       </c>
       <c r="E12" s="3">
-        <v>280000</v>
+        <v>220400</v>
       </c>
       <c r="F12" s="3">
-        <v>214500</v>
+        <v>270500</v>
       </c>
       <c r="G12" s="3">
-        <v>255200</v>
+        <v>207300</v>
       </c>
       <c r="H12" s="3">
-        <v>193100</v>
+        <v>246500</v>
       </c>
       <c r="I12" s="3">
-        <v>297000</v>
+        <v>186500</v>
       </c>
       <c r="J12" s="3">
+        <v>286900</v>
+      </c>
+      <c r="K12" s="3">
         <v>178400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>197300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>162900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>174100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>181800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>118300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>149500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>157000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>129000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>138000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>110000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>106600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>93900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>72800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,13 +1143,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
+      <c r="D14" s="3">
+        <v>3300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
@@ -1141,21 +1160,21 @@
       <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="3">
-        <v>2300</v>
+      <c r="G14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1165,15 +1184,15 @@
       <c r="N14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1184,66 +1203,69 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>1100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-2300</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="E15" s="3">
-        <v>7900</v>
+        <v>6500</v>
       </c>
       <c r="F15" s="3">
-        <v>6800</v>
+        <v>7600</v>
       </c>
       <c r="G15" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="H15" s="3">
-        <v>5600</v>
+        <v>6500</v>
       </c>
       <c r="I15" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K15" s="3">
         <v>4500</v>
       </c>
-      <c r="J15" s="3">
-        <v>4500</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3600</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2739200</v>
+        <v>2941100</v>
       </c>
       <c r="E17" s="3">
-        <v>2618400</v>
+        <v>2646500</v>
       </c>
       <c r="F17" s="3">
-        <v>2408400</v>
+        <v>2529800</v>
       </c>
       <c r="G17" s="3">
-        <v>2525800</v>
+        <v>2326900</v>
       </c>
       <c r="H17" s="3">
-        <v>2275100</v>
+        <v>2440400</v>
       </c>
       <c r="I17" s="3">
-        <v>2321400</v>
+        <v>2198200</v>
       </c>
       <c r="J17" s="3">
+        <v>2242900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2105800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2255400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2054300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1964600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1863700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1657200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1505200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1496600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1323900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1386800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1239800</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1219600</v>
       </c>
       <c r="V17" s="3">
         <v>1219600</v>
       </c>
       <c r="W17" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="X17" s="3">
         <v>1125700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>954300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>84700</v>
+        <v>-7600</v>
       </c>
       <c r="E18" s="3">
-        <v>13500</v>
+        <v>81800</v>
       </c>
       <c r="F18" s="3">
-        <v>15800</v>
+        <v>13100</v>
       </c>
       <c r="G18" s="3">
-        <v>-77900</v>
+        <v>15300</v>
       </c>
       <c r="H18" s="3">
-        <v>-45200</v>
+        <v>-75300</v>
       </c>
       <c r="I18" s="3">
-        <v>-188600</v>
+        <v>-43600</v>
       </c>
       <c r="J18" s="3">
+        <v>-182200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-19200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-89900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>66100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-56200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>111200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-98800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-46000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-97600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-81900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-89800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-160800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-102100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-77500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,194 +1480,201 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>109500</v>
+        <v>9800</v>
       </c>
       <c r="E20" s="3">
-        <v>6800</v>
+        <v>105800</v>
       </c>
       <c r="F20" s="3">
-        <v>93700</v>
+        <v>6500</v>
       </c>
       <c r="G20" s="3">
-        <v>-112900</v>
+        <v>90500</v>
       </c>
       <c r="H20" s="3">
-        <v>-74500</v>
+        <v>-109100</v>
       </c>
       <c r="I20" s="3">
-        <v>-313900</v>
+        <v>-72000</v>
       </c>
       <c r="J20" s="3">
+        <v>-303300</v>
+      </c>
+      <c r="K20" s="3">
         <v>77900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>275600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-54100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-135200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>457800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-83100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-329400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-156000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-571100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-230000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-120100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-41100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-71600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>231500</v>
+        <v>38200</v>
       </c>
       <c r="E21" s="3">
-        <v>55300</v>
+        <v>223600</v>
       </c>
       <c r="F21" s="3">
-        <v>143400</v>
+        <v>53500</v>
       </c>
       <c r="G21" s="3">
-        <v>-158100</v>
+        <v>138500</v>
       </c>
       <c r="H21" s="3">
-        <v>-88100</v>
+        <v>-152700</v>
       </c>
       <c r="I21" s="3">
-        <v>-470800</v>
+        <v>-85100</v>
       </c>
       <c r="J21" s="3">
+        <v>-454900</v>
+      </c>
+      <c r="K21" s="3">
         <v>88100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-162300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>368700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-34100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-166300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>578400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-83100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-421600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-189600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-295100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-196300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-185500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-98600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="E22" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="F22" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="G22" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="H22" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="I22" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="J22" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K22" s="3">
         <v>12400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10800</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="3">
         <v>2200</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>17</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>17</v>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>182900</v>
+        <v>-8700</v>
       </c>
       <c r="E23" s="3">
-        <v>9000</v>
+        <v>176700</v>
       </c>
       <c r="F23" s="3">
-        <v>98200</v>
+        <v>8700</v>
       </c>
       <c r="G23" s="3">
-        <v>-202100</v>
+        <v>94900</v>
       </c>
       <c r="H23" s="3">
-        <v>-131000</v>
+        <v>-195300</v>
       </c>
       <c r="I23" s="3">
-        <v>-513700</v>
+        <v>-126500</v>
       </c>
       <c r="J23" s="3">
+        <v>-496400</v>
+      </c>
+      <c r="K23" s="3">
         <v>46300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-202000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>330700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-69400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-202200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>569000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-90800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-430400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-202000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-668700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-311900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-209800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-201900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-99800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-149100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>180700</v>
+        <v>33800</v>
       </c>
       <c r="E24" s="3">
-        <v>31600</v>
+        <v>174500</v>
       </c>
       <c r="F24" s="3">
-        <v>72300</v>
+        <v>30500</v>
       </c>
       <c r="G24" s="3">
-        <v>-61000</v>
+        <v>69800</v>
       </c>
       <c r="H24" s="3">
-        <v>-16900</v>
+        <v>-58900</v>
       </c>
       <c r="I24" s="3">
-        <v>-111800</v>
+        <v>-16400</v>
       </c>
       <c r="J24" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="K24" s="3">
         <v>45200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>42000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-32300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>46100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-138500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-12300</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>1100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1200</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2300</v>
+        <v>-42500</v>
       </c>
       <c r="E26" s="3">
-        <v>-22600</v>
+        <v>2200</v>
       </c>
       <c r="F26" s="3">
-        <v>26000</v>
+        <v>-21800</v>
       </c>
       <c r="G26" s="3">
-        <v>-141100</v>
+        <v>25100</v>
       </c>
       <c r="H26" s="3">
-        <v>-114000</v>
+        <v>-136400</v>
       </c>
       <c r="I26" s="3">
-        <v>-402000</v>
+        <v>-110200</v>
       </c>
       <c r="J26" s="3">
+        <v>-388400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-244000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>295200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-89400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-169900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>522800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>47600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-432600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-189600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-668700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-311900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-210900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-203100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-99800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2300</v>
+        <v>-42500</v>
       </c>
       <c r="E27" s="3">
-        <v>-22600</v>
+        <v>2200</v>
       </c>
       <c r="F27" s="3">
-        <v>26000</v>
+        <v>-21800</v>
       </c>
       <c r="G27" s="3">
-        <v>-141100</v>
+        <v>25100</v>
       </c>
       <c r="H27" s="3">
-        <v>-114000</v>
+        <v>-136400</v>
       </c>
       <c r="I27" s="3">
-        <v>-402000</v>
+        <v>-110200</v>
       </c>
       <c r="J27" s="3">
+        <v>-388400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-244000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>295200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-89400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-169900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>522800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>47600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-432600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-189600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-668700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-311900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-210900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-203100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-99800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-109500</v>
+        <v>-9800</v>
       </c>
       <c r="E32" s="3">
-        <v>-6800</v>
+        <v>-105800</v>
       </c>
       <c r="F32" s="3">
-        <v>-93700</v>
+        <v>-6500</v>
       </c>
       <c r="G32" s="3">
-        <v>112900</v>
+        <v>-90500</v>
       </c>
       <c r="H32" s="3">
-        <v>74500</v>
+        <v>109100</v>
       </c>
       <c r="I32" s="3">
-        <v>313900</v>
+        <v>72000</v>
       </c>
       <c r="J32" s="3">
+        <v>303300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-77900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-275600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>54100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>135200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-457800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>83100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>329400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>156000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>571100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>230000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>120100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>41100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2300</v>
+        <v>-42500</v>
       </c>
       <c r="E33" s="3">
-        <v>-22600</v>
+        <v>2200</v>
       </c>
       <c r="F33" s="3">
-        <v>26000</v>
+        <v>-21800</v>
       </c>
       <c r="G33" s="3">
-        <v>-141100</v>
+        <v>25100</v>
       </c>
       <c r="H33" s="3">
-        <v>-114000</v>
+        <v>-136400</v>
       </c>
       <c r="I33" s="3">
-        <v>-402000</v>
+        <v>-110200</v>
       </c>
       <c r="J33" s="3">
+        <v>-388400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-244000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>295200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-89400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-169900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>522800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>47600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-432600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-189600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-668700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-311900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-210900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-203100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-99800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2300</v>
+        <v>-42500</v>
       </c>
       <c r="E35" s="3">
-        <v>-22600</v>
+        <v>2200</v>
       </c>
       <c r="F35" s="3">
-        <v>26000</v>
+        <v>-21800</v>
       </c>
       <c r="G35" s="3">
-        <v>-141100</v>
+        <v>25100</v>
       </c>
       <c r="H35" s="3">
-        <v>-114000</v>
+        <v>-136400</v>
       </c>
       <c r="I35" s="3">
-        <v>-402000</v>
+        <v>-110200</v>
       </c>
       <c r="J35" s="3">
+        <v>-388400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-244000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>295200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-89400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-169900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>522800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>47600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-432600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-189600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-668700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-311900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-210900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-203100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-99800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,59 +2746,60 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2836300</v>
+        <v>2993500</v>
       </c>
       <c r="E41" s="3">
-        <v>2755000</v>
+        <v>2740400</v>
       </c>
       <c r="F41" s="3">
-        <v>2757300</v>
+        <v>2661800</v>
       </c>
       <c r="G41" s="3">
-        <v>1299600</v>
+        <v>2664000</v>
       </c>
       <c r="H41" s="3">
-        <v>1334600</v>
+        <v>1255600</v>
       </c>
       <c r="I41" s="3">
-        <v>1296200</v>
+        <v>1289500</v>
       </c>
       <c r="J41" s="3">
+        <v>1252400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1073800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1243300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1074300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1069300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1155500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1054000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1212800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>889400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>822400</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>17</v>
       </c>
@@ -2729,59 +2815,62 @@
       <c r="X41" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>818600</v>
+        <v>824700</v>
       </c>
       <c r="E42" s="3">
-        <v>691000</v>
+        <v>790900</v>
       </c>
       <c r="F42" s="3">
-        <v>727100</v>
+        <v>667600</v>
       </c>
       <c r="G42" s="3">
-        <v>672900</v>
+        <v>702500</v>
       </c>
       <c r="H42" s="3">
-        <v>811800</v>
+        <v>650200</v>
       </c>
       <c r="I42" s="3">
-        <v>718100</v>
+        <v>784400</v>
       </c>
       <c r="J42" s="3">
+        <v>693800</v>
+      </c>
+      <c r="K42" s="3">
         <v>827600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>807800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>784000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>689400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>789500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1082400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>741000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>971700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>945800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>17</v>
       </c>
@@ -2797,59 +2886,62 @@
       <c r="X42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>817500</v>
+        <v>682900</v>
       </c>
       <c r="E43" s="3">
-        <v>698900</v>
+        <v>789800</v>
       </c>
       <c r="F43" s="3">
-        <v>623300</v>
+        <v>675300</v>
       </c>
       <c r="G43" s="3">
-        <v>528400</v>
+        <v>602200</v>
       </c>
       <c r="H43" s="3">
-        <v>447100</v>
+        <v>510500</v>
       </c>
       <c r="I43" s="3">
-        <v>412100</v>
+        <v>432000</v>
       </c>
       <c r="J43" s="3">
+        <v>398200</v>
+      </c>
+      <c r="K43" s="3">
         <v>413300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>474000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>475300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>507000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>470100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>475500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>399800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>356900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>362400</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>17</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,59 +3028,62 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>85800</v>
+        <v>268400</v>
       </c>
       <c r="E45" s="3">
-        <v>90300</v>
+        <v>82900</v>
       </c>
       <c r="F45" s="3">
-        <v>89200</v>
+        <v>87300</v>
       </c>
       <c r="G45" s="3">
-        <v>170500</v>
+        <v>86200</v>
       </c>
       <c r="H45" s="3">
-        <v>160300</v>
+        <v>164700</v>
       </c>
       <c r="I45" s="3">
-        <v>129800</v>
+        <v>154900</v>
       </c>
       <c r="J45" s="3">
+        <v>125500</v>
+      </c>
+      <c r="K45" s="3">
         <v>105000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>79400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>89400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>77600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>62200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>45000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>38800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>41700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>43800</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>17</v>
       </c>
@@ -3001,59 +3099,62 @@
       <c r="X45" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4558200</v>
+        <v>4769500</v>
       </c>
       <c r="E46" s="3">
-        <v>4235300</v>
+        <v>4404000</v>
       </c>
       <c r="F46" s="3">
-        <v>4196900</v>
+        <v>4092000</v>
       </c>
       <c r="G46" s="3">
-        <v>2671500</v>
+        <v>4054900</v>
       </c>
       <c r="H46" s="3">
-        <v>2753900</v>
+        <v>2581100</v>
       </c>
       <c r="I46" s="3">
-        <v>2556300</v>
+        <v>2660700</v>
       </c>
       <c r="J46" s="3">
+        <v>2469800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2419700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2604500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2423000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2343400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2477300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2656800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2392400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2259700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2174400</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>17</v>
       </c>
@@ -3069,59 +3170,62 @@
       <c r="X46" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1230700</v>
+        <v>999300</v>
       </c>
       <c r="E47" s="3">
-        <v>2141900</v>
+        <v>1189100</v>
       </c>
       <c r="F47" s="3">
-        <v>2847600</v>
+        <v>2069500</v>
       </c>
       <c r="G47" s="3">
-        <v>2571000</v>
+        <v>2751300</v>
       </c>
       <c r="H47" s="3">
-        <v>2044800</v>
+        <v>2484000</v>
       </c>
       <c r="I47" s="3">
-        <v>1947700</v>
+        <v>1975600</v>
       </c>
       <c r="J47" s="3">
+        <v>1881800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1481400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1747600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2055500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2215200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2750100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1947100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1760000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1064000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1087200</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>17</v>
       </c>
@@ -3137,59 +3241,62 @@
       <c r="X47" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>916800</v>
+        <v>882500</v>
       </c>
       <c r="E48" s="3">
-        <v>894200</v>
+        <v>885800</v>
       </c>
       <c r="F48" s="3">
-        <v>890900</v>
+        <v>864000</v>
       </c>
       <c r="G48" s="3">
-        <v>854700</v>
+        <v>860700</v>
       </c>
       <c r="H48" s="3">
-        <v>855900</v>
+        <v>825800</v>
       </c>
       <c r="I48" s="3">
-        <v>861500</v>
+        <v>826900</v>
       </c>
       <c r="J48" s="3">
+        <v>832400</v>
+      </c>
+      <c r="K48" s="3">
         <v>883000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>910600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>926100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>754100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>795500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>233000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>149500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>91100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>76300</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>17</v>
       </c>
@@ -3205,59 +3312,62 @@
       <c r="X48" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1083900</v>
+        <v>1072400</v>
       </c>
       <c r="E49" s="3">
-        <v>1068100</v>
+        <v>1047300</v>
       </c>
       <c r="F49" s="3">
-        <v>1030900</v>
+        <v>1032000</v>
       </c>
       <c r="G49" s="3">
-        <v>940500</v>
+        <v>996000</v>
       </c>
       <c r="H49" s="3">
-        <v>764400</v>
+        <v>908700</v>
       </c>
       <c r="I49" s="3">
-        <v>793800</v>
+        <v>738500</v>
       </c>
       <c r="J49" s="3">
+        <v>766900</v>
+      </c>
+      <c r="K49" s="3">
         <v>806200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>625700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>670100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>610600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>571800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>205800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>191600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>192200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>180600</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>17</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,59 +3525,62 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>101600</v>
+        <v>98200</v>
       </c>
       <c r="E52" s="3">
-        <v>107300</v>
+        <v>98200</v>
       </c>
       <c r="F52" s="3">
-        <v>108400</v>
+        <v>103600</v>
       </c>
       <c r="G52" s="3">
-        <v>105000</v>
+        <v>104700</v>
       </c>
       <c r="H52" s="3">
-        <v>89200</v>
+        <v>101500</v>
       </c>
       <c r="I52" s="3">
-        <v>89200</v>
+        <v>86200</v>
       </c>
       <c r="J52" s="3">
+        <v>86200</v>
+      </c>
+      <c r="K52" s="3">
         <v>84700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>91100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>94300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>91800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>95700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>86400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>84200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>82400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>74100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>17</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,59 +3667,62 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7891300</v>
+        <v>7821800</v>
       </c>
       <c r="E54" s="3">
-        <v>8446800</v>
+        <v>7624400</v>
       </c>
       <c r="F54" s="3">
-        <v>9074600</v>
+        <v>8161100</v>
       </c>
       <c r="G54" s="3">
-        <v>7142700</v>
+        <v>8767600</v>
       </c>
       <c r="H54" s="3">
-        <v>6508100</v>
+        <v>6901100</v>
       </c>
       <c r="I54" s="3">
-        <v>6248400</v>
+        <v>6288000</v>
       </c>
       <c r="J54" s="3">
+        <v>6037100</v>
+      </c>
+      <c r="K54" s="3">
         <v>5674900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5979500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6169000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6014900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6690300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5129100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4577700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3689300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3592600</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>17</v>
       </c>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,59 +3794,60 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>596200</v>
+        <v>582500</v>
       </c>
       <c r="E57" s="3">
-        <v>547600</v>
+        <v>576000</v>
       </c>
       <c r="F57" s="3">
-        <v>496800</v>
+        <v>529100</v>
       </c>
       <c r="G57" s="3">
-        <v>490000</v>
+        <v>480000</v>
       </c>
       <c r="H57" s="3">
-        <v>478700</v>
+        <v>473500</v>
       </c>
       <c r="I57" s="3">
-        <v>412100</v>
+        <v>462500</v>
       </c>
       <c r="J57" s="3">
+        <v>398200</v>
+      </c>
+      <c r="K57" s="3">
         <v>425700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>440100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>431200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>338800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>305000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>349000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>291300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>282200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>286100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>17</v>
       </c>
@@ -3733,55 +3863,58 @@
       <c r="X57" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="3">
         <v>8200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>35300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>37100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3801,59 +3934,62 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2875800</v>
+        <v>2936700</v>
       </c>
       <c r="E59" s="3">
-        <v>2804700</v>
+        <v>2778500</v>
       </c>
       <c r="F59" s="3">
-        <v>2818200</v>
+        <v>2709800</v>
       </c>
       <c r="G59" s="3">
-        <v>2784400</v>
+        <v>2722900</v>
       </c>
       <c r="H59" s="3">
-        <v>2529200</v>
+        <v>2690200</v>
       </c>
       <c r="I59" s="3">
-        <v>2703100</v>
+        <v>2443600</v>
       </c>
       <c r="J59" s="3">
+        <v>2611600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2215300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2399000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2574900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2723400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2656800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2190700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2423400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2221300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1899500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>17</v>
       </c>
@@ -3869,59 +4005,62 @@
       <c r="X59" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3472000</v>
+        <v>3519300</v>
       </c>
       <c r="E60" s="3">
-        <v>3352300</v>
+        <v>3354500</v>
       </c>
       <c r="F60" s="3">
-        <v>3315000</v>
+        <v>3238900</v>
       </c>
       <c r="G60" s="3">
-        <v>3274400</v>
+        <v>3202900</v>
       </c>
       <c r="H60" s="3">
-        <v>3007900</v>
+        <v>3163600</v>
       </c>
       <c r="I60" s="3">
-        <v>3115200</v>
+        <v>2906200</v>
       </c>
       <c r="J60" s="3">
+        <v>3009800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2641000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2847300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3008600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3097500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2998900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2539700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2714700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2503400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2185600</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>17</v>
       </c>
@@ -3937,47 +4076,50 @@
       <c r="X60" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1983800</v>
+        <v>1942900</v>
       </c>
       <c r="E61" s="3">
-        <v>2004200</v>
+        <v>1916700</v>
       </c>
       <c r="F61" s="3">
-        <v>2050400</v>
+        <v>1936400</v>
       </c>
       <c r="G61" s="3">
-        <v>651500</v>
+        <v>1981100</v>
       </c>
       <c r="H61" s="3">
-        <v>668400</v>
+        <v>629500</v>
       </c>
       <c r="I61" s="3">
-        <v>691000</v>
+        <v>645800</v>
       </c>
       <c r="J61" s="3">
+        <v>667600</v>
+      </c>
+      <c r="K61" s="3">
         <v>704600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>726100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>757000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>608200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>663900</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3985,11 +4127,11 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1146700</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4005,59 +4147,62 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>45200</v>
+        <v>48000</v>
       </c>
       <c r="E62" s="3">
-        <v>42900</v>
+        <v>43600</v>
       </c>
       <c r="F62" s="3">
-        <v>46300</v>
+        <v>41500</v>
       </c>
       <c r="G62" s="3">
-        <v>49700</v>
+        <v>44700</v>
       </c>
       <c r="H62" s="3">
-        <v>47400</v>
+        <v>48000</v>
       </c>
       <c r="I62" s="3">
-        <v>45200</v>
+        <v>45800</v>
       </c>
       <c r="J62" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K62" s="3">
         <v>56500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>28000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>82500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>112400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>97500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>88900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>79700</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>17</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,59 +4431,62 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5501000</v>
+        <v>5510200</v>
       </c>
       <c r="E66" s="3">
-        <v>5399400</v>
+        <v>5314900</v>
       </c>
       <c r="F66" s="3">
-        <v>5411800</v>
+        <v>5216700</v>
       </c>
       <c r="G66" s="3">
-        <v>3975600</v>
+        <v>5228700</v>
       </c>
       <c r="H66" s="3">
-        <v>3723800</v>
+        <v>3841100</v>
       </c>
       <c r="I66" s="3">
-        <v>3851400</v>
+        <v>3597800</v>
       </c>
       <c r="J66" s="3">
+        <v>3721100</v>
+      </c>
+      <c r="K66" s="3">
         <v>3402000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3601500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3790100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3726800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3745300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2652100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2812200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2592400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3412000</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>17</v>
       </c>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,59 +4813,62 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3709100</v>
+        <v>-3512700</v>
       </c>
       <c r="E72" s="3">
-        <v>-3711400</v>
+        <v>-3583600</v>
       </c>
       <c r="F72" s="3">
-        <v>-3688800</v>
+        <v>-3585800</v>
       </c>
       <c r="G72" s="3">
-        <v>-3714700</v>
+        <v>-3564000</v>
       </c>
       <c r="H72" s="3">
-        <v>-3573600</v>
+        <v>-3589100</v>
       </c>
       <c r="I72" s="3">
-        <v>-3459600</v>
+        <v>-3452700</v>
       </c>
       <c r="J72" s="3">
+        <v>-3342500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3057600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3162500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3062500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3224500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3187900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2963200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3264100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3283000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2912700</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>17</v>
       </c>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,59 +5097,62 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2390300</v>
+        <v>2311600</v>
       </c>
       <c r="E76" s="3">
-        <v>3047400</v>
+        <v>2309500</v>
       </c>
       <c r="F76" s="3">
-        <v>3662800</v>
+        <v>2944400</v>
       </c>
       <c r="G76" s="3">
-        <v>3167100</v>
+        <v>3538900</v>
       </c>
       <c r="H76" s="3">
-        <v>2784400</v>
+        <v>3060000</v>
       </c>
       <c r="I76" s="3">
-        <v>2397100</v>
+        <v>2690200</v>
       </c>
       <c r="J76" s="3">
+        <v>2316000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2272900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2378000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2378900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2288100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2945000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2477000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1765500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1096900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>180600</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>17</v>
       </c>
@@ -4983,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2300</v>
+        <v>-42500</v>
       </c>
       <c r="E81" s="3">
-        <v>-22600</v>
+        <v>2200</v>
       </c>
       <c r="F81" s="3">
-        <v>26000</v>
+        <v>-21800</v>
       </c>
       <c r="G81" s="3">
-        <v>-141100</v>
+        <v>25100</v>
       </c>
       <c r="H81" s="3">
-        <v>-114000</v>
+        <v>-136400</v>
       </c>
       <c r="I81" s="3">
-        <v>-402000</v>
+        <v>-110200</v>
       </c>
       <c r="J81" s="3">
+        <v>-388400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-244000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>295200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-89400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-169900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>522800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>47600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-432600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-189600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-668700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-311900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-210900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-203100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-99800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,19 +5415,20 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>37300</v>
+        <v>36000</v>
       </c>
       <c r="E83" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="F83" s="3">
-        <v>33900</v>
+        <v>33800</v>
       </c>
       <c r="G83" s="3">
         <v>32700</v>
@@ -5239,55 +5437,58 @@
         <v>31600</v>
       </c>
       <c r="I83" s="3">
-        <v>31600</v>
+        <v>30500</v>
       </c>
       <c r="J83" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K83" s="3">
         <v>29400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>28000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>26900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>23500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>25100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12300</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U83" s="3">
         <v>16800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13500</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>138900</v>
+        <v>129800</v>
       </c>
       <c r="E89" s="3">
-        <v>61000</v>
+        <v>134200</v>
       </c>
       <c r="F89" s="3">
-        <v>73400</v>
+        <v>58900</v>
       </c>
       <c r="G89" s="3">
-        <v>120800</v>
+        <v>70900</v>
       </c>
       <c r="H89" s="3">
-        <v>137800</v>
+        <v>116700</v>
       </c>
       <c r="I89" s="3">
-        <v>44000</v>
+        <v>133100</v>
       </c>
       <c r="J89" s="3">
+        <v>42500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-10200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>237000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>87000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>105900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>250000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>177400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>88600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>32900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>94200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>106600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-90900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>80800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>109200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-28200</v>
+        <v>-17500</v>
       </c>
       <c r="E91" s="3">
-        <v>-22600</v>
+        <v>-27300</v>
       </c>
       <c r="F91" s="3">
-        <v>-27100</v>
+        <v>-21800</v>
       </c>
       <c r="G91" s="3">
-        <v>-39500</v>
+        <v>-26200</v>
       </c>
       <c r="H91" s="3">
-        <v>-19200</v>
+        <v>-38200</v>
       </c>
       <c r="I91" s="3">
-        <v>-15800</v>
+        <v>-18500</v>
       </c>
       <c r="J91" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-13500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-47100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-44300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-76900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-54300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-136600</v>
+        <v>94900</v>
       </c>
       <c r="E94" s="3">
-        <v>-44000</v>
+        <v>-132000</v>
       </c>
       <c r="F94" s="3">
-        <v>-128700</v>
+        <v>-42500</v>
       </c>
       <c r="G94" s="3">
-        <v>-149000</v>
+        <v>-124400</v>
       </c>
       <c r="H94" s="3">
-        <v>-151300</v>
+        <v>-144000</v>
       </c>
       <c r="I94" s="3">
-        <v>88100</v>
+        <v>-146200</v>
       </c>
       <c r="J94" s="3">
+        <v>85100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-207800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-122600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-69800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-58600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-354900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>172800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-18700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>156000</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U94" s="3">
         <v>12300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-47100</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>21500</v>
+        <v>-27300</v>
       </c>
       <c r="E100" s="3">
-        <v>6800</v>
+        <v>20700</v>
       </c>
       <c r="F100" s="3">
-        <v>1411400</v>
+        <v>6500</v>
       </c>
       <c r="G100" s="3">
-        <v>37300</v>
+        <v>1363600</v>
       </c>
       <c r="H100" s="3">
-        <v>96000</v>
+        <v>36000</v>
       </c>
       <c r="I100" s="3">
-        <v>101600</v>
+        <v>92700</v>
       </c>
       <c r="J100" s="3">
+        <v>98200</v>
+      </c>
+      <c r="K100" s="3">
         <v>86900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>127200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-89400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-165900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-117200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-65100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>54300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>60400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>48200</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U100" s="3">
         <v>10100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2200</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>17</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>57600</v>
+        <v>55600</v>
       </c>
       <c r="E101" s="3">
-        <v>-26000</v>
+        <v>55600</v>
       </c>
       <c r="F101" s="3">
-        <v>101600</v>
+        <v>-25100</v>
       </c>
       <c r="G101" s="3">
-        <v>-44000</v>
+        <v>98200</v>
       </c>
       <c r="H101" s="3">
-        <v>-44000</v>
+        <v>-42500</v>
       </c>
       <c r="I101" s="3">
-        <v>-11300</v>
+        <v>-42500</v>
       </c>
       <c r="J101" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="K101" s="3">
         <v>2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-22200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>33100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>15600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>9900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-11200</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U101" s="3">
         <v>-3400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-39300</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W101" s="3" t="s">
         <v>17</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>81300</v>
+        <v>253100</v>
       </c>
       <c r="E102" s="3">
-        <v>-2300</v>
+        <v>78500</v>
       </c>
       <c r="F102" s="3">
-        <v>1457700</v>
+        <v>-2200</v>
       </c>
       <c r="G102" s="3">
-        <v>-35000</v>
+        <v>1408400</v>
       </c>
       <c r="H102" s="3">
-        <v>38400</v>
+        <v>-33800</v>
       </c>
       <c r="I102" s="3">
-        <v>222400</v>
+        <v>37100</v>
       </c>
       <c r="J102" s="3">
+        <v>214900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-128700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>219500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-39200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-67100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>89700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-241300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>315700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>84500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>287200</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U102" s="3">
         <v>-71800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3400</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>SPOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2933500</v>
+        <v>2761900</v>
       </c>
       <c r="E8" s="3">
-        <v>2728400</v>
+        <v>2790900</v>
       </c>
       <c r="F8" s="3">
-        <v>2542900</v>
+        <v>2595800</v>
       </c>
       <c r="G8" s="3">
-        <v>2342200</v>
+        <v>2419300</v>
       </c>
       <c r="H8" s="3">
-        <v>2365100</v>
+        <v>2228400</v>
       </c>
       <c r="I8" s="3">
-        <v>2154500</v>
+        <v>2250200</v>
       </c>
       <c r="J8" s="3">
+        <v>2049900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2060700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2086600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2165500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2120500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1961100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1807500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1768400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1497500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1397800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1277900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1289200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1157900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1129800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1058800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1023600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>876800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2156700</v>
+        <v>2065400</v>
       </c>
       <c r="E9" s="3">
-        <v>1999600</v>
+        <v>2051900</v>
       </c>
       <c r="F9" s="3">
-        <v>1819600</v>
+        <v>1902500</v>
       </c>
       <c r="G9" s="3">
-        <v>1744400</v>
+        <v>1731200</v>
       </c>
       <c r="H9" s="3">
-        <v>1737800</v>
+        <v>1659600</v>
       </c>
       <c r="I9" s="3">
-        <v>1621100</v>
+        <v>1653400</v>
       </c>
       <c r="J9" s="3">
+        <v>1542300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1538200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1553600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1612200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1580200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1450500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1361300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1296500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1118700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1036500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>960400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>972800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>899800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>869500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>935500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>844000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>744200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>776700</v>
+        <v>696400</v>
       </c>
       <c r="E10" s="3">
-        <v>728700</v>
+        <v>739000</v>
       </c>
       <c r="F10" s="3">
-        <v>723300</v>
+        <v>693300</v>
       </c>
       <c r="G10" s="3">
-        <v>597800</v>
+        <v>688100</v>
       </c>
       <c r="H10" s="3">
-        <v>627300</v>
+        <v>568800</v>
       </c>
       <c r="I10" s="3">
-        <v>533500</v>
+        <v>596800</v>
       </c>
       <c r="J10" s="3">
+        <v>507500</v>
+      </c>
+      <c r="K10" s="3">
         <v>522500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>532900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>553400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>540200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>510600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>446200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>472000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>378800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>361200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>317500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>316400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>258100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>260300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>123300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>179600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>269500</v>
+        <v>259500</v>
       </c>
       <c r="E12" s="3">
-        <v>220400</v>
+        <v>256400</v>
       </c>
       <c r="F12" s="3">
-        <v>270500</v>
+        <v>209700</v>
       </c>
       <c r="G12" s="3">
-        <v>207300</v>
+        <v>257400</v>
       </c>
       <c r="H12" s="3">
-        <v>246500</v>
+        <v>197200</v>
       </c>
       <c r="I12" s="3">
-        <v>186500</v>
+        <v>234600</v>
       </c>
       <c r="J12" s="3">
+        <v>177500</v>
+      </c>
+      <c r="K12" s="3">
         <v>286900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>178400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>197300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>162900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>174100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>181800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>118300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>149500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>157000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>129000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>138000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>110000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>106600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>93900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>72800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,16 +1163,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>3300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
@@ -1163,21 +1183,21 @@
       <c r="G14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="3">
-        <v>2200</v>
+      <c r="H14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>3400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1187,15 +1207,15 @@
       <c r="O14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1206,69 +1226,72 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>1100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-2300</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>6500</v>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E15" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="F15" s="3">
-        <v>7600</v>
+        <v>6200</v>
       </c>
       <c r="G15" s="3">
-        <v>6500</v>
+        <v>7300</v>
       </c>
       <c r="H15" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="I15" s="3">
-        <v>5500</v>
+        <v>6200</v>
       </c>
       <c r="J15" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K15" s="3">
         <v>4400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3600</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2941100</v>
+        <v>2768100</v>
       </c>
       <c r="E17" s="3">
-        <v>2646500</v>
+        <v>2798200</v>
       </c>
       <c r="F17" s="3">
-        <v>2529800</v>
+        <v>2517900</v>
       </c>
       <c r="G17" s="3">
-        <v>2326900</v>
+        <v>2406900</v>
       </c>
       <c r="H17" s="3">
-        <v>2440400</v>
+        <v>2213800</v>
       </c>
       <c r="I17" s="3">
-        <v>2198200</v>
+        <v>2321800</v>
       </c>
       <c r="J17" s="3">
+        <v>2091400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2242900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2105800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2255400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2054300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1964600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1863700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1657200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1505200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1496600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1323900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1386800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1239800</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1219600</v>
       </c>
       <c r="W17" s="3">
         <v>1219600</v>
       </c>
       <c r="X17" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1125700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>954300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-7600</v>
+        <v>-6200</v>
       </c>
       <c r="E18" s="3">
-        <v>81800</v>
+        <v>-7300</v>
       </c>
       <c r="F18" s="3">
-        <v>13100</v>
+        <v>77800</v>
       </c>
       <c r="G18" s="3">
-        <v>15300</v>
+        <v>12500</v>
       </c>
       <c r="H18" s="3">
-        <v>-75300</v>
+        <v>14500</v>
       </c>
       <c r="I18" s="3">
-        <v>-43600</v>
+        <v>-71600</v>
       </c>
       <c r="J18" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-182200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-89900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>66100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-56200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>111200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-98800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-46000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-97600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-81900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-89800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-160800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-102100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-77500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,203 +1514,210 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>9800</v>
+        <v>167100</v>
       </c>
       <c r="E20" s="3">
-        <v>105800</v>
+        <v>9300</v>
       </c>
       <c r="F20" s="3">
-        <v>6500</v>
+        <v>100700</v>
       </c>
       <c r="G20" s="3">
-        <v>90500</v>
+        <v>6200</v>
       </c>
       <c r="H20" s="3">
-        <v>-109100</v>
+        <v>86100</v>
       </c>
       <c r="I20" s="3">
-        <v>-72000</v>
+        <v>-103800</v>
       </c>
       <c r="J20" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-303300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>77900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>275600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-54100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-135200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>457800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-83100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-329400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-156000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-571100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-230000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-120100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-41100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-71600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>38200</v>
+        <v>199300</v>
       </c>
       <c r="E21" s="3">
-        <v>223600</v>
+        <v>36300</v>
       </c>
       <c r="F21" s="3">
-        <v>53500</v>
+        <v>212800</v>
       </c>
       <c r="G21" s="3">
-        <v>138500</v>
+        <v>50900</v>
       </c>
       <c r="H21" s="3">
-        <v>-152700</v>
+        <v>131800</v>
       </c>
       <c r="I21" s="3">
-        <v>-85100</v>
+        <v>-145300</v>
       </c>
       <c r="J21" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-454900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>88100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-162300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>368700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-34100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-166300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>578400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-83100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-421600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-189600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-700100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-295100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-196300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-185500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-98600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K22" s="3">
         <v>10900</v>
       </c>
-      <c r="E22" s="3">
-        <v>10900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>10900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>10900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>10900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>10900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>10900</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10800</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="3">
         <v>2200</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>17</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>17</v>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8700</v>
+        <v>160900</v>
       </c>
       <c r="E23" s="3">
-        <v>176700</v>
+        <v>-8300</v>
       </c>
       <c r="F23" s="3">
-        <v>8700</v>
+        <v>168100</v>
       </c>
       <c r="G23" s="3">
-        <v>94900</v>
+        <v>8300</v>
       </c>
       <c r="H23" s="3">
-        <v>-195300</v>
+        <v>90300</v>
       </c>
       <c r="I23" s="3">
-        <v>-126500</v>
+        <v>-185800</v>
       </c>
       <c r="J23" s="3">
+        <v>-120400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-496400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>46300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-202000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>330700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-69400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-202200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>569000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-90800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-430400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-202000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-668700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-311900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-209800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-201900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-99800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-149100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>33800</v>
+        <v>24900</v>
       </c>
       <c r="E24" s="3">
-        <v>174500</v>
+        <v>32200</v>
       </c>
       <c r="F24" s="3">
-        <v>30500</v>
+        <v>166100</v>
       </c>
       <c r="G24" s="3">
-        <v>69800</v>
+        <v>29100</v>
       </c>
       <c r="H24" s="3">
-        <v>-58900</v>
+        <v>66400</v>
       </c>
       <c r="I24" s="3">
-        <v>-16400</v>
+        <v>-56000</v>
       </c>
       <c r="J24" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-108000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>42000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>35500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>20000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-32300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>46100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-138500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-12300</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>1100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1200</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-42500</v>
+        <v>136000</v>
       </c>
       <c r="E26" s="3">
-        <v>2200</v>
+        <v>-40500</v>
       </c>
       <c r="F26" s="3">
-        <v>-21800</v>
+        <v>2100</v>
       </c>
       <c r="G26" s="3">
-        <v>25100</v>
+        <v>-20800</v>
       </c>
       <c r="H26" s="3">
-        <v>-136400</v>
+        <v>23900</v>
       </c>
       <c r="I26" s="3">
-        <v>-110200</v>
+        <v>-129700</v>
       </c>
       <c r="J26" s="3">
+        <v>-104800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-388400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-244000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>295200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-89400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-169900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>522800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>47600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-432600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-189600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-668700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-311900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-210900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-203100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-99800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-42500</v>
+        <v>136000</v>
       </c>
       <c r="E27" s="3">
-        <v>2200</v>
+        <v>-40500</v>
       </c>
       <c r="F27" s="3">
-        <v>-21800</v>
+        <v>2100</v>
       </c>
       <c r="G27" s="3">
-        <v>25100</v>
+        <v>-20800</v>
       </c>
       <c r="H27" s="3">
-        <v>-136400</v>
+        <v>23900</v>
       </c>
       <c r="I27" s="3">
-        <v>-110200</v>
+        <v>-129700</v>
       </c>
       <c r="J27" s="3">
+        <v>-104800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-388400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-244000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>295200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-89400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-169900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>522800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>47600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-432600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-189600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-668700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-311900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-210900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-203100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-99800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9800</v>
+        <v>-167100</v>
       </c>
       <c r="E32" s="3">
-        <v>-105800</v>
+        <v>-9300</v>
       </c>
       <c r="F32" s="3">
-        <v>-6500</v>
+        <v>-100700</v>
       </c>
       <c r="G32" s="3">
-        <v>-90500</v>
+        <v>-6200</v>
       </c>
       <c r="H32" s="3">
-        <v>109100</v>
+        <v>-86100</v>
       </c>
       <c r="I32" s="3">
-        <v>72000</v>
+        <v>103800</v>
       </c>
       <c r="J32" s="3">
+        <v>68500</v>
+      </c>
+      <c r="K32" s="3">
         <v>303300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-77900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-275600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>54100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>135200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-457800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>83100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>329400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>156000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>571100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>230000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>120100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>41100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-42500</v>
+        <v>136000</v>
       </c>
       <c r="E33" s="3">
-        <v>2200</v>
+        <v>-40500</v>
       </c>
       <c r="F33" s="3">
-        <v>-21800</v>
+        <v>2100</v>
       </c>
       <c r="G33" s="3">
-        <v>25100</v>
+        <v>-20800</v>
       </c>
       <c r="H33" s="3">
-        <v>-136400</v>
+        <v>23900</v>
       </c>
       <c r="I33" s="3">
-        <v>-110200</v>
+        <v>-129700</v>
       </c>
       <c r="J33" s="3">
+        <v>-104800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-388400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-244000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>295200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-89400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-169900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>522800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>47600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-432600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-189600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-668700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-311900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-210900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-203100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-99800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-42500</v>
+        <v>136000</v>
       </c>
       <c r="E35" s="3">
-        <v>2200</v>
+        <v>-40500</v>
       </c>
       <c r="F35" s="3">
-        <v>-21800</v>
+        <v>2100</v>
       </c>
       <c r="G35" s="3">
-        <v>25100</v>
+        <v>-20800</v>
       </c>
       <c r="H35" s="3">
-        <v>-136400</v>
+        <v>23900</v>
       </c>
       <c r="I35" s="3">
-        <v>-110200</v>
+        <v>-129700</v>
       </c>
       <c r="J35" s="3">
+        <v>-104800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-388400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-244000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>295200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-89400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-169900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>522800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>47600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-432600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-189600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-668700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-311900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-210900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-203100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-99800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,62 +2833,63 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2993500</v>
+        <v>2824100</v>
       </c>
       <c r="E41" s="3">
-        <v>2740400</v>
+        <v>2848000</v>
       </c>
       <c r="F41" s="3">
-        <v>2661800</v>
+        <v>2607200</v>
       </c>
       <c r="G41" s="3">
-        <v>2664000</v>
+        <v>2532500</v>
       </c>
       <c r="H41" s="3">
-        <v>1255600</v>
+        <v>2534600</v>
       </c>
       <c r="I41" s="3">
-        <v>1289500</v>
+        <v>1194600</v>
       </c>
       <c r="J41" s="3">
+        <v>1226800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1252400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1073800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1243300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1074300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1069300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1155500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1054000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1212800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>889400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>822400</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>17</v>
       </c>
@@ -2818,62 +2905,65 @@
       <c r="Y41" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>824700</v>
+        <v>846900</v>
       </c>
       <c r="E42" s="3">
-        <v>790900</v>
+        <v>784700</v>
       </c>
       <c r="F42" s="3">
-        <v>667600</v>
+        <v>752500</v>
       </c>
       <c r="G42" s="3">
-        <v>702500</v>
+        <v>635200</v>
       </c>
       <c r="H42" s="3">
-        <v>650200</v>
+        <v>668400</v>
       </c>
       <c r="I42" s="3">
-        <v>784400</v>
+        <v>618600</v>
       </c>
       <c r="J42" s="3">
+        <v>746300</v>
+      </c>
+      <c r="K42" s="3">
         <v>693800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>827600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>807800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>784000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>689400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>789500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1082400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>741000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>971700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>945800</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>17</v>
       </c>
@@ -2889,62 +2979,65 @@
       <c r="Y42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>682900</v>
+        <v>582300</v>
       </c>
       <c r="E43" s="3">
-        <v>789800</v>
+        <v>649700</v>
       </c>
       <c r="F43" s="3">
-        <v>675300</v>
+        <v>751400</v>
       </c>
       <c r="G43" s="3">
-        <v>602200</v>
+        <v>642500</v>
       </c>
       <c r="H43" s="3">
-        <v>510500</v>
+        <v>572900</v>
       </c>
       <c r="I43" s="3">
-        <v>432000</v>
+        <v>485700</v>
       </c>
       <c r="J43" s="3">
+        <v>411000</v>
+      </c>
+      <c r="K43" s="3">
         <v>398200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>413300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>474000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>475300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>507000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>470100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>475500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>399800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>356900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>362400</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>17</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,62 +3127,65 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>268400</v>
+        <v>280200</v>
       </c>
       <c r="E45" s="3">
-        <v>82900</v>
+        <v>255300</v>
       </c>
       <c r="F45" s="3">
-        <v>87300</v>
+        <v>78900</v>
       </c>
       <c r="G45" s="3">
-        <v>86200</v>
+        <v>83000</v>
       </c>
       <c r="H45" s="3">
-        <v>164700</v>
+        <v>82000</v>
       </c>
       <c r="I45" s="3">
-        <v>154900</v>
+        <v>156700</v>
       </c>
       <c r="J45" s="3">
+        <v>147400</v>
+      </c>
+      <c r="K45" s="3">
         <v>125500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>105000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>79400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>89400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>77600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>62200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>45000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>38800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>41700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>43800</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>17</v>
       </c>
@@ -3102,62 +3201,65 @@
       <c r="Y45" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4769500</v>
+        <v>4533500</v>
       </c>
       <c r="E46" s="3">
-        <v>4404000</v>
+        <v>4537700</v>
       </c>
       <c r="F46" s="3">
-        <v>4092000</v>
+        <v>4190000</v>
       </c>
       <c r="G46" s="3">
-        <v>4054900</v>
+        <v>3893200</v>
       </c>
       <c r="H46" s="3">
-        <v>2581100</v>
+        <v>3857900</v>
       </c>
       <c r="I46" s="3">
-        <v>2660700</v>
+        <v>2455700</v>
       </c>
       <c r="J46" s="3">
+        <v>2531400</v>
+      </c>
+      <c r="K46" s="3">
         <v>2469800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2419700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2604500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2423000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2343400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2477300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2656800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2392400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2259700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2174400</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>17</v>
       </c>
@@ -3173,62 +3275,65 @@
       <c r="Y46" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>999300</v>
+        <v>707800</v>
       </c>
       <c r="E47" s="3">
-        <v>1189100</v>
+        <v>950700</v>
       </c>
       <c r="F47" s="3">
-        <v>2069500</v>
+        <v>1131300</v>
       </c>
       <c r="G47" s="3">
-        <v>2751300</v>
+        <v>1968900</v>
       </c>
       <c r="H47" s="3">
-        <v>2484000</v>
+        <v>2617600</v>
       </c>
       <c r="I47" s="3">
-        <v>1975600</v>
+        <v>2363300</v>
       </c>
       <c r="J47" s="3">
+        <v>1879600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1881800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1481400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1747600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2055500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2215200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2750100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1947100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1760000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1064000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1087200</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>17</v>
       </c>
@@ -3244,62 +3349,65 @@
       <c r="Y47" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>882500</v>
+        <v>842800</v>
       </c>
       <c r="E48" s="3">
-        <v>885800</v>
+        <v>839700</v>
       </c>
       <c r="F48" s="3">
-        <v>864000</v>
+        <v>842800</v>
       </c>
       <c r="G48" s="3">
-        <v>860700</v>
+        <v>822000</v>
       </c>
       <c r="H48" s="3">
-        <v>825800</v>
+        <v>818900</v>
       </c>
       <c r="I48" s="3">
-        <v>826900</v>
+        <v>785700</v>
       </c>
       <c r="J48" s="3">
+        <v>786700</v>
+      </c>
+      <c r="K48" s="3">
         <v>832400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>883000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>910600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>926100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>754100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>795500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>233000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>149500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>91100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>76300</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>17</v>
       </c>
@@ -3315,62 +3423,65 @@
       <c r="Y48" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1072400</v>
+        <v>1128200</v>
       </c>
       <c r="E49" s="3">
-        <v>1047300</v>
+        <v>1020300</v>
       </c>
       <c r="F49" s="3">
-        <v>1032000</v>
+        <v>996400</v>
       </c>
       <c r="G49" s="3">
-        <v>996000</v>
+        <v>981900</v>
       </c>
       <c r="H49" s="3">
-        <v>908700</v>
+        <v>947600</v>
       </c>
       <c r="I49" s="3">
-        <v>738500</v>
+        <v>864600</v>
       </c>
       <c r="J49" s="3">
+        <v>702700</v>
+      </c>
+      <c r="K49" s="3">
         <v>766900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>806200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>625700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>670100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>610600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>571800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>205800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>191600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>192200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>180600</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>17</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,62 +3645,65 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>98200</v>
+        <v>93400</v>
       </c>
       <c r="E52" s="3">
-        <v>98200</v>
+        <v>93400</v>
       </c>
       <c r="F52" s="3">
-        <v>103600</v>
+        <v>93400</v>
       </c>
       <c r="G52" s="3">
-        <v>104700</v>
+        <v>98600</v>
       </c>
       <c r="H52" s="3">
-        <v>101500</v>
+        <v>99600</v>
       </c>
       <c r="I52" s="3">
+        <v>96500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>82000</v>
+      </c>
+      <c r="K52" s="3">
         <v>86200</v>
       </c>
-      <c r="J52" s="3">
-        <v>86200</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>84700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>91100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>94300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>91800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>95700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>86400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>84200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>82400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>74100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>17</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,62 +3793,65 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7821800</v>
+        <v>7305800</v>
       </c>
       <c r="E54" s="3">
-        <v>7624400</v>
+        <v>7441700</v>
       </c>
       <c r="F54" s="3">
-        <v>8161100</v>
+        <v>7253900</v>
       </c>
       <c r="G54" s="3">
-        <v>8767600</v>
+        <v>7764500</v>
       </c>
       <c r="H54" s="3">
-        <v>6901100</v>
+        <v>8341600</v>
       </c>
       <c r="I54" s="3">
-        <v>6288000</v>
+        <v>6565800</v>
       </c>
       <c r="J54" s="3">
+        <v>5982500</v>
+      </c>
+      <c r="K54" s="3">
         <v>6037100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5674900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5979500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6169000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6014900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6690300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5129100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4577700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3689300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3592600</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>17</v>
       </c>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,62 +3925,63 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>582500</v>
+        <v>721300</v>
       </c>
       <c r="E57" s="3">
-        <v>576000</v>
+        <v>554200</v>
       </c>
       <c r="F57" s="3">
-        <v>529100</v>
+        <v>548000</v>
       </c>
       <c r="G57" s="3">
-        <v>480000</v>
+        <v>503400</v>
       </c>
       <c r="H57" s="3">
-        <v>473500</v>
+        <v>456700</v>
       </c>
       <c r="I57" s="3">
-        <v>462500</v>
+        <v>450400</v>
       </c>
       <c r="J57" s="3">
+        <v>440100</v>
+      </c>
+      <c r="K57" s="3">
         <v>398200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>425700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>440100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>431200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>338800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>305000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>349000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>291300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>282200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>286100</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>17</v>
       </c>
@@ -3866,8 +3997,11 @@
       <c r="Y57" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3892,32 +4026,32 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58" s="3">
         <v>8200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>35300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>37100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3937,62 +4071,65 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2936700</v>
+        <v>2520000</v>
       </c>
       <c r="E59" s="3">
-        <v>2778500</v>
+        <v>2794000</v>
       </c>
       <c r="F59" s="3">
-        <v>2709800</v>
+        <v>2643500</v>
       </c>
       <c r="G59" s="3">
-        <v>2722900</v>
+        <v>2578100</v>
       </c>
       <c r="H59" s="3">
-        <v>2690200</v>
+        <v>2590600</v>
       </c>
       <c r="I59" s="3">
-        <v>2443600</v>
+        <v>2559500</v>
       </c>
       <c r="J59" s="3">
+        <v>2324900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2611600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2215300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2399000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2574900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2723400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2656800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2190700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2423400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2221300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1899500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>17</v>
       </c>
@@ -4008,62 +4145,65 @@
       <c r="Y59" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3519300</v>
+        <v>3241400</v>
       </c>
       <c r="E60" s="3">
-        <v>3354500</v>
+        <v>3348300</v>
       </c>
       <c r="F60" s="3">
-        <v>3238900</v>
+        <v>3191500</v>
       </c>
       <c r="G60" s="3">
-        <v>3202900</v>
+        <v>3081500</v>
       </c>
       <c r="H60" s="3">
-        <v>3163600</v>
+        <v>3047300</v>
       </c>
       <c r="I60" s="3">
-        <v>2906200</v>
+        <v>3009900</v>
       </c>
       <c r="J60" s="3">
+        <v>2765000</v>
+      </c>
+      <c r="K60" s="3">
         <v>3009800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2641000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2847300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3008600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3097500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2998900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2539700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2714700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2503400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2185600</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>17</v>
       </c>
@@ -4079,50 +4219,53 @@
       <c r="Y60" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1942900</v>
+        <v>1798700</v>
       </c>
       <c r="E61" s="3">
-        <v>1916700</v>
+        <v>1848500</v>
       </c>
       <c r="F61" s="3">
-        <v>1936400</v>
+        <v>1823600</v>
       </c>
       <c r="G61" s="3">
-        <v>1981100</v>
+        <v>1842300</v>
       </c>
       <c r="H61" s="3">
-        <v>629500</v>
+        <v>1884800</v>
       </c>
       <c r="I61" s="3">
-        <v>645800</v>
+        <v>598900</v>
       </c>
       <c r="J61" s="3">
+        <v>614400</v>
+      </c>
+      <c r="K61" s="3">
         <v>667600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>704600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>726100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>757000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>608200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>663900</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4130,11 +4273,11 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>1146700</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4150,62 +4293,65 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>48000</v>
+        <v>37400</v>
       </c>
       <c r="E62" s="3">
-        <v>43600</v>
+        <v>45700</v>
       </c>
       <c r="F62" s="3">
         <v>41500</v>
       </c>
       <c r="G62" s="3">
-        <v>44700</v>
+        <v>39400</v>
       </c>
       <c r="H62" s="3">
-        <v>48000</v>
+        <v>42600</v>
       </c>
       <c r="I62" s="3">
-        <v>45800</v>
+        <v>45700</v>
       </c>
       <c r="J62" s="3">
         <v>43600</v>
       </c>
       <c r="K62" s="3">
+        <v>43600</v>
+      </c>
+      <c r="L62" s="3">
         <v>56500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>82500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>112400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>97500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>88900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>79700</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>17</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,62 +4589,65 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5510200</v>
+        <v>5077400</v>
       </c>
       <c r="E66" s="3">
-        <v>5314900</v>
+        <v>5242400</v>
       </c>
       <c r="F66" s="3">
-        <v>5216700</v>
+        <v>5056600</v>
       </c>
       <c r="G66" s="3">
-        <v>5228700</v>
+        <v>4963200</v>
       </c>
       <c r="H66" s="3">
-        <v>3841100</v>
+        <v>4974700</v>
       </c>
       <c r="I66" s="3">
-        <v>3597800</v>
+        <v>3654400</v>
       </c>
       <c r="J66" s="3">
+        <v>3423000</v>
+      </c>
+      <c r="K66" s="3">
         <v>3721100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3402000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3601500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3790100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3726800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3745300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2652100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2812200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2592400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3412000</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>17</v>
       </c>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,62 +4987,65 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3512700</v>
+        <v>-2470200</v>
       </c>
       <c r="E72" s="3">
-        <v>-3583600</v>
+        <v>-3342000</v>
       </c>
       <c r="F72" s="3">
-        <v>-3585800</v>
+        <v>-3409500</v>
       </c>
       <c r="G72" s="3">
-        <v>-3564000</v>
+        <v>-3411600</v>
       </c>
       <c r="H72" s="3">
-        <v>-3589100</v>
+        <v>-3390800</v>
       </c>
       <c r="I72" s="3">
-        <v>-3452700</v>
+        <v>-3414700</v>
       </c>
       <c r="J72" s="3">
+        <v>-3285000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3342500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3057600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3162500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3062500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3224500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3187900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2963200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3264100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3283000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2912700</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>17</v>
       </c>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,62 +5283,65 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2311600</v>
+        <v>2228400</v>
       </c>
       <c r="E76" s="3">
-        <v>2309500</v>
+        <v>2199300</v>
       </c>
       <c r="F76" s="3">
-        <v>2944400</v>
+        <v>2197200</v>
       </c>
       <c r="G76" s="3">
-        <v>3538900</v>
+        <v>2801300</v>
       </c>
       <c r="H76" s="3">
-        <v>3060000</v>
+        <v>3366900</v>
       </c>
       <c r="I76" s="3">
-        <v>2690200</v>
+        <v>2911300</v>
       </c>
       <c r="J76" s="3">
+        <v>2559500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2316000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2272900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2378000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2378900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2288100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2945000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2477000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1765500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1096900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>180600</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>17</v>
       </c>
@@ -5171,8 +5357,11 @@
       <c r="Y76" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-42500</v>
+        <v>136000</v>
       </c>
       <c r="E81" s="3">
-        <v>2200</v>
+        <v>-40500</v>
       </c>
       <c r="F81" s="3">
-        <v>-21800</v>
+        <v>2100</v>
       </c>
       <c r="G81" s="3">
-        <v>25100</v>
+        <v>-20800</v>
       </c>
       <c r="H81" s="3">
-        <v>-136400</v>
+        <v>23900</v>
       </c>
       <c r="I81" s="3">
-        <v>-110200</v>
+        <v>-129700</v>
       </c>
       <c r="J81" s="3">
+        <v>-104800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-388400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-244000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>295200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-89400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-169900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>522800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>47600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-432600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-189600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-668700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-311900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-210900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-203100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-99800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>36000</v>
+        <v>38400</v>
       </c>
       <c r="E83" s="3">
-        <v>36000</v>
+        <v>34300</v>
       </c>
       <c r="F83" s="3">
-        <v>33800</v>
+        <v>34300</v>
       </c>
       <c r="G83" s="3">
-        <v>32700</v>
+        <v>32200</v>
       </c>
       <c r="H83" s="3">
-        <v>31600</v>
+        <v>31100</v>
       </c>
       <c r="I83" s="3">
+        <v>30100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K83" s="3">
         <v>30500</v>
       </c>
-      <c r="J83" s="3">
-        <v>30500</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>29400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>26900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>23500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>25100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12300</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V83" s="3">
         <v>16800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13500</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>129800</v>
+        <v>38400</v>
       </c>
       <c r="E89" s="3">
-        <v>134200</v>
+        <v>123500</v>
       </c>
       <c r="F89" s="3">
-        <v>58900</v>
+        <v>127700</v>
       </c>
       <c r="G89" s="3">
-        <v>70900</v>
+        <v>56000</v>
       </c>
       <c r="H89" s="3">
-        <v>116700</v>
+        <v>67500</v>
       </c>
       <c r="I89" s="3">
-        <v>133100</v>
+        <v>111100</v>
       </c>
       <c r="J89" s="3">
+        <v>126600</v>
+      </c>
+      <c r="K89" s="3">
         <v>42500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>237000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>87000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>105900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>250000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>177400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>88600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>32900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>94200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>106600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-90900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>80800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>109200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17500</v>
+        <v>-10400</v>
       </c>
       <c r="E91" s="3">
-        <v>-27300</v>
+        <v>-16600</v>
       </c>
       <c r="F91" s="3">
-        <v>-21800</v>
+        <v>-25900</v>
       </c>
       <c r="G91" s="3">
-        <v>-26200</v>
+        <v>-20800</v>
       </c>
       <c r="H91" s="3">
-        <v>-38200</v>
+        <v>-24900</v>
       </c>
       <c r="I91" s="3">
-        <v>-18500</v>
+        <v>-36300</v>
       </c>
       <c r="J91" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-15300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-47100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-44300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-76900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-54300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>94900</v>
+        <v>-161900</v>
       </c>
       <c r="E94" s="3">
-        <v>-132000</v>
+        <v>90300</v>
       </c>
       <c r="F94" s="3">
-        <v>-42500</v>
+        <v>-125600</v>
       </c>
       <c r="G94" s="3">
-        <v>-124400</v>
+        <v>-40500</v>
       </c>
       <c r="H94" s="3">
-        <v>-144000</v>
+        <v>-118300</v>
       </c>
       <c r="I94" s="3">
-        <v>-146200</v>
+        <v>-137000</v>
       </c>
       <c r="J94" s="3">
+        <v>-139100</v>
+      </c>
+      <c r="K94" s="3">
         <v>85100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-207800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-122600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-69800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-58600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-354900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>172800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-18700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>156000</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V94" s="3">
         <v>12300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-47100</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-27300</v>
+        <v>22800</v>
       </c>
       <c r="E100" s="3">
-        <v>20700</v>
+        <v>-25900</v>
       </c>
       <c r="F100" s="3">
-        <v>6500</v>
+        <v>19700</v>
       </c>
       <c r="G100" s="3">
-        <v>1363600</v>
+        <v>6200</v>
       </c>
       <c r="H100" s="3">
-        <v>36000</v>
+        <v>1297400</v>
       </c>
       <c r="I100" s="3">
-        <v>92700</v>
+        <v>34300</v>
       </c>
       <c r="J100" s="3">
+        <v>88200</v>
+      </c>
+      <c r="K100" s="3">
         <v>98200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>86900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>127200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-89400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-165900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-117200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-65100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>54300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>60400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>48200</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V100" s="3">
         <v>10100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2200</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>55600</v>
+        <v>76800</v>
       </c>
       <c r="E101" s="3">
-        <v>55600</v>
+        <v>52900</v>
       </c>
       <c r="F101" s="3">
-        <v>-25100</v>
+        <v>52900</v>
       </c>
       <c r="G101" s="3">
-        <v>98200</v>
+        <v>-23900</v>
       </c>
       <c r="H101" s="3">
-        <v>-42500</v>
+        <v>93400</v>
       </c>
       <c r="I101" s="3">
-        <v>-42500</v>
+        <v>-40500</v>
       </c>
       <c r="J101" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-10900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-22200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>33100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>15600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>9900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-11200</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V101" s="3">
         <v>-3400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-39300</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X101" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>253100</v>
+        <v>-23900</v>
       </c>
       <c r="E102" s="3">
-        <v>78500</v>
+        <v>240800</v>
       </c>
       <c r="F102" s="3">
-        <v>-2200</v>
+        <v>74700</v>
       </c>
       <c r="G102" s="3">
-        <v>1408400</v>
+        <v>-2100</v>
       </c>
       <c r="H102" s="3">
-        <v>-33800</v>
+        <v>1339900</v>
       </c>
       <c r="I102" s="3">
-        <v>37100</v>
+        <v>-32200</v>
       </c>
       <c r="J102" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K102" s="3">
         <v>214900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-128700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>219500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-39200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-67100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>89700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-241300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>315700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>84500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>287200</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V102" s="3">
         <v>-71800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3400</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>SPOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2761900</v>
+        <v>2856600</v>
       </c>
       <c r="E8" s="3">
-        <v>2790900</v>
+        <v>2654100</v>
       </c>
       <c r="F8" s="3">
-        <v>2595800</v>
+        <v>2682000</v>
       </c>
       <c r="G8" s="3">
-        <v>2419300</v>
+        <v>2494500</v>
       </c>
       <c r="H8" s="3">
-        <v>2228400</v>
+        <v>2324900</v>
       </c>
       <c r="I8" s="3">
-        <v>2250200</v>
+        <v>2141400</v>
       </c>
       <c r="J8" s="3">
+        <v>2162400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2049900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2060700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2086600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2165500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2120500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1961100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1807500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1768400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1497500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1397800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1277900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1289200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1157900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1129800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1058800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1023600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>876800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2065400</v>
+        <v>2154400</v>
       </c>
       <c r="E9" s="3">
-        <v>2051900</v>
+        <v>1984800</v>
       </c>
       <c r="F9" s="3">
-        <v>1902500</v>
+        <v>1971900</v>
       </c>
       <c r="G9" s="3">
-        <v>1731200</v>
+        <v>1828200</v>
       </c>
       <c r="H9" s="3">
-        <v>1659600</v>
+        <v>1663700</v>
       </c>
       <c r="I9" s="3">
-        <v>1653400</v>
+        <v>1594800</v>
       </c>
       <c r="J9" s="3">
+        <v>1588900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1542300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1538200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1553600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1612200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1580200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1450500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1361300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1296500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1118700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1036500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>960400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>972800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>899800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>869500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>935500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>844000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>744200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>696400</v>
+        <v>702200</v>
       </c>
       <c r="E10" s="3">
-        <v>739000</v>
+        <v>669300</v>
       </c>
       <c r="F10" s="3">
-        <v>693300</v>
+        <v>710100</v>
       </c>
       <c r="G10" s="3">
-        <v>688100</v>
+        <v>666300</v>
       </c>
       <c r="H10" s="3">
-        <v>568800</v>
+        <v>661300</v>
       </c>
       <c r="I10" s="3">
-        <v>596800</v>
+        <v>546600</v>
       </c>
       <c r="J10" s="3">
+        <v>573500</v>
+      </c>
+      <c r="K10" s="3">
         <v>507500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>522500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>532900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>553400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>540200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>510600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>446200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>472000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>378800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>361200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>317500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>316400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>258100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>260300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>123300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>179600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>259500</v>
+        <v>326100</v>
       </c>
       <c r="E12" s="3">
-        <v>256400</v>
+        <v>241400</v>
       </c>
       <c r="F12" s="3">
-        <v>209700</v>
+        <v>246400</v>
       </c>
       <c r="G12" s="3">
-        <v>257400</v>
+        <v>201500</v>
       </c>
       <c r="H12" s="3">
-        <v>197200</v>
+        <v>247400</v>
       </c>
       <c r="I12" s="3">
-        <v>234600</v>
+        <v>189500</v>
       </c>
       <c r="J12" s="3">
+        <v>225400</v>
+      </c>
+      <c r="K12" s="3">
         <v>177500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>286900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>178400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>197300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>162900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>174100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>181800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>118300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>149500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>157000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>129000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>138000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>110000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>106600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>93900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>72800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,19 +1183,22 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
+      <c r="D14" s="3">
+        <v>3000</v>
       </c>
       <c r="E14" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>17</v>
+        <v>2000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>17</v>
@@ -1186,21 +1206,21 @@
       <c r="H14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="3">
-        <v>2100</v>
+      <c r="I14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3400</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1210,15 +1230,15 @@
       <c r="P14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1229,72 +1249,75 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>1100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
+      <c r="D15" s="3">
+        <v>9000</v>
       </c>
       <c r="E15" s="3">
-        <v>6200</v>
+        <v>8000</v>
       </c>
       <c r="F15" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="G15" s="3">
-        <v>7300</v>
+        <v>6000</v>
       </c>
       <c r="H15" s="3">
-        <v>6200</v>
+        <v>7000</v>
       </c>
       <c r="I15" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="J15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K15" s="3">
         <v>5200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3600</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2768100</v>
+        <v>3050000</v>
       </c>
       <c r="E17" s="3">
-        <v>2798200</v>
+        <v>2660100</v>
       </c>
       <c r="F17" s="3">
-        <v>2517900</v>
+        <v>2689000</v>
       </c>
       <c r="G17" s="3">
-        <v>2406900</v>
+        <v>2419700</v>
       </c>
       <c r="H17" s="3">
-        <v>2213800</v>
+        <v>2313000</v>
       </c>
       <c r="I17" s="3">
-        <v>2321800</v>
+        <v>2127500</v>
       </c>
       <c r="J17" s="3">
+        <v>2231200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2091400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2242900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2105800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2255400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2054300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1964600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1863700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1657200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1505200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1496600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1323900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1386800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1239800</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1219600</v>
       </c>
       <c r="X17" s="3">
         <v>1219600</v>
       </c>
       <c r="Y17" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1125700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>954300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-6200</v>
+        <v>-193500</v>
       </c>
       <c r="E18" s="3">
-        <v>-7300</v>
+        <v>-6000</v>
       </c>
       <c r="F18" s="3">
-        <v>77800</v>
+        <v>-7000</v>
       </c>
       <c r="G18" s="3">
-        <v>12500</v>
+        <v>74800</v>
       </c>
       <c r="H18" s="3">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="I18" s="3">
-        <v>-71600</v>
+        <v>14000</v>
       </c>
       <c r="J18" s="3">
+        <v>-68800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-41500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-182200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-89900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>66100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-56200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>111200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-98800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-46000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-97600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-81900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-89800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-160800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-102100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-77500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,212 +1548,219 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>167100</v>
+        <v>113700</v>
       </c>
       <c r="E20" s="3">
-        <v>9300</v>
+        <v>170600</v>
       </c>
       <c r="F20" s="3">
-        <v>100700</v>
+        <v>9000</v>
       </c>
       <c r="G20" s="3">
-        <v>6200</v>
+        <v>96700</v>
       </c>
       <c r="H20" s="3">
-        <v>86100</v>
+        <v>6000</v>
       </c>
       <c r="I20" s="3">
-        <v>-103800</v>
+        <v>82800</v>
       </c>
       <c r="J20" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-68500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-303300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>77900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>275600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-54100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-135200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>457800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-83100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-329400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-156000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-571100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-230000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-120100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-41100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-71600</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>199300</v>
+        <v>-39900</v>
       </c>
       <c r="E21" s="3">
-        <v>36300</v>
+        <v>201500</v>
       </c>
       <c r="F21" s="3">
-        <v>212800</v>
+        <v>34900</v>
       </c>
       <c r="G21" s="3">
-        <v>50900</v>
+        <v>204500</v>
       </c>
       <c r="H21" s="3">
-        <v>131800</v>
+        <v>48900</v>
       </c>
       <c r="I21" s="3">
-        <v>-145300</v>
+        <v>126700</v>
       </c>
       <c r="J21" s="3">
+        <v>-139600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-81000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-454900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>88100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-162300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>368700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-34100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-166300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>578400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-83100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-421600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-189600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-295100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-196300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-185500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-98600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>17</v>
+      <c r="D22" s="3">
+        <v>10000</v>
       </c>
       <c r="E22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K22" s="3">
         <v>10400</v>
       </c>
-      <c r="F22" s="3">
-        <v>10400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>10400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>10400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>10400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>10400</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10800</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T22" s="3">
         <v>2200</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>17</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>17</v>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>160900</v>
+        <v>-89800</v>
       </c>
       <c r="E23" s="3">
-        <v>-8300</v>
+        <v>154600</v>
       </c>
       <c r="F23" s="3">
-        <v>168100</v>
+        <v>-8000</v>
       </c>
       <c r="G23" s="3">
-        <v>8300</v>
+        <v>161600</v>
       </c>
       <c r="H23" s="3">
-        <v>90300</v>
+        <v>8000</v>
       </c>
       <c r="I23" s="3">
-        <v>-185800</v>
+        <v>86800</v>
       </c>
       <c r="J23" s="3">
+        <v>-178500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-120400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-496400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>46300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-202000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>330700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-69400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-202200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>569000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-90800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-430400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-202000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-668700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-311900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-209800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-201900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-99800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-149100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24900</v>
+        <v>34900</v>
       </c>
       <c r="E24" s="3">
-        <v>32200</v>
+        <v>23900</v>
       </c>
       <c r="F24" s="3">
-        <v>166100</v>
+        <v>30900</v>
       </c>
       <c r="G24" s="3">
-        <v>29100</v>
+        <v>159600</v>
       </c>
       <c r="H24" s="3">
-        <v>66400</v>
+        <v>27900</v>
       </c>
       <c r="I24" s="3">
-        <v>-56000</v>
+        <v>63800</v>
       </c>
       <c r="J24" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-15600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-108000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>45200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>42000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>35500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-32300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>46100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-138500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-12300</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>1100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1200</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>136000</v>
+        <v>-124700</v>
       </c>
       <c r="E26" s="3">
-        <v>-40500</v>
+        <v>130700</v>
       </c>
       <c r="F26" s="3">
-        <v>2100</v>
+        <v>-38900</v>
       </c>
       <c r="G26" s="3">
-        <v>-20800</v>
+        <v>2000</v>
       </c>
       <c r="H26" s="3">
-        <v>23900</v>
+        <v>-19900</v>
       </c>
       <c r="I26" s="3">
-        <v>-129700</v>
+        <v>22900</v>
       </c>
       <c r="J26" s="3">
+        <v>-124700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-104800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-388400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-244000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>295200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-89400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-169900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>522800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>47600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-432600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-189600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-668700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-311900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-210900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-203100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-99800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>136000</v>
+        <v>-124700</v>
       </c>
       <c r="E27" s="3">
-        <v>-40500</v>
+        <v>130700</v>
       </c>
       <c r="F27" s="3">
-        <v>2100</v>
+        <v>-38900</v>
       </c>
       <c r="G27" s="3">
-        <v>-20800</v>
+        <v>2000</v>
       </c>
       <c r="H27" s="3">
-        <v>23900</v>
+        <v>-19900</v>
       </c>
       <c r="I27" s="3">
-        <v>-129700</v>
+        <v>22900</v>
       </c>
       <c r="J27" s="3">
+        <v>-124700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-104800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-388400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-244000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>295200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-89400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-169900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>522800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>47600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-432600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-189600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-668700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-311900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-210900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-203100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-99800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-167100</v>
+        <v>-113700</v>
       </c>
       <c r="E32" s="3">
-        <v>-9300</v>
+        <v>-170600</v>
       </c>
       <c r="F32" s="3">
-        <v>-100700</v>
+        <v>-9000</v>
       </c>
       <c r="G32" s="3">
-        <v>-6200</v>
+        <v>-96700</v>
       </c>
       <c r="H32" s="3">
-        <v>-86100</v>
+        <v>-6000</v>
       </c>
       <c r="I32" s="3">
-        <v>103800</v>
+        <v>-82800</v>
       </c>
       <c r="J32" s="3">
+        <v>99700</v>
+      </c>
+      <c r="K32" s="3">
         <v>68500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>303300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-77900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-275600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>54100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>135200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-457800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>83100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>329400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>156000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>571100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>230000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>120100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>41100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>136000</v>
+        <v>-124700</v>
       </c>
       <c r="E33" s="3">
-        <v>-40500</v>
+        <v>130700</v>
       </c>
       <c r="F33" s="3">
-        <v>2100</v>
+        <v>-38900</v>
       </c>
       <c r="G33" s="3">
-        <v>-20800</v>
+        <v>2000</v>
       </c>
       <c r="H33" s="3">
-        <v>23900</v>
+        <v>-19900</v>
       </c>
       <c r="I33" s="3">
-        <v>-129700</v>
+        <v>22900</v>
       </c>
       <c r="J33" s="3">
+        <v>-124700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-104800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-388400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-244000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>295200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-89400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-169900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>522800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>47600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-432600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-189600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-668700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-311900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-210900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-203100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-99800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>136000</v>
+        <v>-124700</v>
       </c>
       <c r="E35" s="3">
-        <v>-40500</v>
+        <v>130700</v>
       </c>
       <c r="F35" s="3">
-        <v>2100</v>
+        <v>-38900</v>
       </c>
       <c r="G35" s="3">
-        <v>-20800</v>
+        <v>2000</v>
       </c>
       <c r="H35" s="3">
-        <v>23900</v>
+        <v>-19900</v>
       </c>
       <c r="I35" s="3">
-        <v>-129700</v>
+        <v>22900</v>
       </c>
       <c r="J35" s="3">
+        <v>-124700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-104800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-388400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-244000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>295200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-89400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-169900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>522800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>47600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-432600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-189600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-668700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-311900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-210900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-203100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-99800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,65 +2920,66 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2824100</v>
+        <v>2778800</v>
       </c>
       <c r="E41" s="3">
-        <v>2848000</v>
+        <v>2713900</v>
       </c>
       <c r="F41" s="3">
-        <v>2607200</v>
+        <v>2736900</v>
       </c>
       <c r="G41" s="3">
-        <v>2532500</v>
+        <v>2505500</v>
       </c>
       <c r="H41" s="3">
-        <v>2534600</v>
+        <v>2433700</v>
       </c>
       <c r="I41" s="3">
-        <v>1194600</v>
+        <v>2435700</v>
       </c>
       <c r="J41" s="3">
+        <v>1148000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1226800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1252400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1073800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1243300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1074300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1069300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1155500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1054000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1212800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>889400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>822400</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>17</v>
       </c>
@@ -2908,65 +2995,68 @@
       <c r="Z41" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>846900</v>
+        <v>780000</v>
       </c>
       <c r="E42" s="3">
-        <v>784700</v>
+        <v>813900</v>
       </c>
       <c r="F42" s="3">
-        <v>752500</v>
+        <v>754000</v>
       </c>
       <c r="G42" s="3">
-        <v>635200</v>
+        <v>723100</v>
       </c>
       <c r="H42" s="3">
-        <v>668400</v>
+        <v>610400</v>
       </c>
       <c r="I42" s="3">
-        <v>618600</v>
+        <v>642300</v>
       </c>
       <c r="J42" s="3">
+        <v>594500</v>
+      </c>
+      <c r="K42" s="3">
         <v>746300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>693800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>827600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>807800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>784000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>689400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>789500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1082400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>741000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>971700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>945800</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>17</v>
       </c>
@@ -2982,65 +3072,68 @@
       <c r="Z42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>582300</v>
+        <v>615400</v>
       </c>
       <c r="E43" s="3">
-        <v>649700</v>
+        <v>559500</v>
       </c>
       <c r="F43" s="3">
-        <v>751400</v>
+        <v>624400</v>
       </c>
       <c r="G43" s="3">
-        <v>642500</v>
+        <v>722100</v>
       </c>
       <c r="H43" s="3">
-        <v>572900</v>
+        <v>617400</v>
       </c>
       <c r="I43" s="3">
-        <v>485700</v>
+        <v>550600</v>
       </c>
       <c r="J43" s="3">
+        <v>466800</v>
+      </c>
+      <c r="K43" s="3">
         <v>411000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>398200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>413300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>474000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>475300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>507000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>470100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>475500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>399800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>356900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>362400</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>17</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,65 +3226,68 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>280200</v>
+        <v>336100</v>
       </c>
       <c r="E45" s="3">
-        <v>255300</v>
+        <v>269300</v>
       </c>
       <c r="F45" s="3">
-        <v>78900</v>
+        <v>245400</v>
       </c>
       <c r="G45" s="3">
-        <v>83000</v>
+        <v>75800</v>
       </c>
       <c r="H45" s="3">
-        <v>82000</v>
+        <v>79800</v>
       </c>
       <c r="I45" s="3">
-        <v>156700</v>
+        <v>78800</v>
       </c>
       <c r="J45" s="3">
+        <v>150600</v>
+      </c>
+      <c r="K45" s="3">
         <v>147400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>125500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>105000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>79400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>89400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>77600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>62200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>45000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>38800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>41700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>43800</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>17</v>
       </c>
@@ -3204,65 +3303,68 @@
       <c r="Z45" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4533500</v>
+        <v>4510200</v>
       </c>
       <c r="E46" s="3">
-        <v>4537700</v>
+        <v>4356600</v>
       </c>
       <c r="F46" s="3">
-        <v>4190000</v>
+        <v>4360600</v>
       </c>
       <c r="G46" s="3">
-        <v>3893200</v>
+        <v>4026500</v>
       </c>
       <c r="H46" s="3">
-        <v>3857900</v>
+        <v>3741200</v>
       </c>
       <c r="I46" s="3">
-        <v>2455700</v>
+        <v>3707300</v>
       </c>
       <c r="J46" s="3">
+        <v>2359800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2531400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2469800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2419700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2604500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2423000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2343400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2477300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2656800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2392400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2259700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2174400</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>17</v>
       </c>
@@ -3278,65 +3380,68 @@
       <c r="Z46" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>707800</v>
+        <v>718100</v>
       </c>
       <c r="E47" s="3">
-        <v>950700</v>
+        <v>680200</v>
       </c>
       <c r="F47" s="3">
-        <v>1131300</v>
+        <v>913600</v>
       </c>
       <c r="G47" s="3">
-        <v>1968900</v>
+        <v>1087200</v>
       </c>
       <c r="H47" s="3">
-        <v>2617600</v>
+        <v>1892100</v>
       </c>
       <c r="I47" s="3">
-        <v>2363300</v>
+        <v>2515400</v>
       </c>
       <c r="J47" s="3">
+        <v>2271100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1879600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1881800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1481400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1747600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2055500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2215200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2750100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1947100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1760000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1064000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1087200</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>17</v>
       </c>
@@ -3352,65 +3457,68 @@
       <c r="Z47" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>842800</v>
+        <v>815900</v>
       </c>
       <c r="E48" s="3">
-        <v>839700</v>
+        <v>809900</v>
       </c>
       <c r="F48" s="3">
-        <v>842800</v>
+        <v>806900</v>
       </c>
       <c r="G48" s="3">
-        <v>822000</v>
+        <v>809900</v>
       </c>
       <c r="H48" s="3">
-        <v>818900</v>
+        <v>789900</v>
       </c>
       <c r="I48" s="3">
-        <v>785700</v>
+        <v>786900</v>
       </c>
       <c r="J48" s="3">
+        <v>755000</v>
+      </c>
+      <c r="K48" s="3">
         <v>786700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>832400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>883000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>910600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>926100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>754100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>795500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>233000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>149500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>91100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>76300</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>17</v>
       </c>
@@ -3426,65 +3534,68 @@
       <c r="Z48" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1128200</v>
+        <v>1233800</v>
       </c>
       <c r="E49" s="3">
-        <v>1020300</v>
+        <v>1084200</v>
       </c>
       <c r="F49" s="3">
-        <v>996400</v>
+        <v>980400</v>
       </c>
       <c r="G49" s="3">
-        <v>981900</v>
+        <v>957500</v>
       </c>
       <c r="H49" s="3">
-        <v>947600</v>
+        <v>943500</v>
       </c>
       <c r="I49" s="3">
-        <v>864600</v>
+        <v>910600</v>
       </c>
       <c r="J49" s="3">
+        <v>830800</v>
+      </c>
+      <c r="K49" s="3">
         <v>702700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>766900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>806200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>625700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>670100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>610600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>571800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>205800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>191600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>192200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>180600</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>17</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,65 +3765,68 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>93400</v>
+        <v>90800</v>
       </c>
       <c r="E52" s="3">
-        <v>93400</v>
+        <v>89800</v>
       </c>
       <c r="F52" s="3">
-        <v>93400</v>
+        <v>89800</v>
       </c>
       <c r="G52" s="3">
-        <v>98600</v>
+        <v>89800</v>
       </c>
       <c r="H52" s="3">
-        <v>99600</v>
+        <v>94800</v>
       </c>
       <c r="I52" s="3">
-        <v>96500</v>
+        <v>95800</v>
       </c>
       <c r="J52" s="3">
+        <v>92800</v>
+      </c>
+      <c r="K52" s="3">
         <v>82000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>86200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>84700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>91100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>94300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>91800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>95700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>86400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>84200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>82400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>74100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>17</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,65 +3919,68 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7305800</v>
+        <v>7368800</v>
       </c>
       <c r="E54" s="3">
-        <v>7441700</v>
+        <v>7020700</v>
       </c>
       <c r="F54" s="3">
-        <v>7253900</v>
+        <v>7151400</v>
       </c>
       <c r="G54" s="3">
-        <v>7764500</v>
+        <v>6970800</v>
       </c>
       <c r="H54" s="3">
-        <v>8341600</v>
+        <v>7461500</v>
       </c>
       <c r="I54" s="3">
-        <v>6565800</v>
+        <v>8016100</v>
       </c>
       <c r="J54" s="3">
+        <v>6309600</v>
+      </c>
+      <c r="K54" s="3">
         <v>5982500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6037100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5674900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5979500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6169000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6014900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6690300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5129100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4577700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3689300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3592600</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>17</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,65 +4056,66 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>721300</v>
+        <v>576500</v>
       </c>
       <c r="E57" s="3">
-        <v>554200</v>
+        <v>447800</v>
       </c>
       <c r="F57" s="3">
-        <v>548000</v>
+        <v>532600</v>
       </c>
       <c r="G57" s="3">
-        <v>503400</v>
+        <v>526600</v>
       </c>
       <c r="H57" s="3">
-        <v>456700</v>
+        <v>483700</v>
       </c>
       <c r="I57" s="3">
-        <v>450400</v>
+        <v>438900</v>
       </c>
       <c r="J57" s="3">
+        <v>432900</v>
+      </c>
+      <c r="K57" s="3">
         <v>440100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>398200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>425700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>440100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>431200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>338800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>305000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>349000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>291300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>282200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>286100</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>17</v>
       </c>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4029,32 +4163,32 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="3">
         <v>8200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>35300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>37100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4074,65 +4208,68 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2520000</v>
+        <v>2748800</v>
       </c>
       <c r="E59" s="3">
-        <v>2794000</v>
+        <v>2667000</v>
       </c>
       <c r="F59" s="3">
-        <v>2643500</v>
+        <v>2685000</v>
       </c>
       <c r="G59" s="3">
-        <v>2578100</v>
+        <v>2540400</v>
       </c>
       <c r="H59" s="3">
-        <v>2590600</v>
+        <v>2477500</v>
       </c>
       <c r="I59" s="3">
-        <v>2559500</v>
+        <v>2489500</v>
       </c>
       <c r="J59" s="3">
+        <v>2459600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2324900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2611600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2215300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2399000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2574900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2723400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2656800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2190700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2423400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2221300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1899500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>17</v>
       </c>
@@ -4148,65 +4285,68 @@
       <c r="Z59" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3241400</v>
+        <v>3325300</v>
       </c>
       <c r="E60" s="3">
-        <v>3348300</v>
+        <v>3114900</v>
       </c>
       <c r="F60" s="3">
-        <v>3191500</v>
+        <v>3217600</v>
       </c>
       <c r="G60" s="3">
-        <v>3081500</v>
+        <v>3067000</v>
       </c>
       <c r="H60" s="3">
-        <v>3047300</v>
+        <v>2961300</v>
       </c>
       <c r="I60" s="3">
-        <v>3009900</v>
+        <v>2928400</v>
       </c>
       <c r="J60" s="3">
+        <v>2892500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2765000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3009800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2641000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2847300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3008600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3097500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2998900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2539700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2714700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2503400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2185600</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>17</v>
       </c>
@@ -4222,53 +4362,56 @@
       <c r="Z60" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1798700</v>
+        <v>1714500</v>
       </c>
       <c r="E61" s="3">
-        <v>1848500</v>
+        <v>1728500</v>
       </c>
       <c r="F61" s="3">
-        <v>1823600</v>
+        <v>1776400</v>
       </c>
       <c r="G61" s="3">
-        <v>1842300</v>
+        <v>1752400</v>
       </c>
       <c r="H61" s="3">
-        <v>1884800</v>
+        <v>1770400</v>
       </c>
       <c r="I61" s="3">
-        <v>598900</v>
+        <v>1811300</v>
       </c>
       <c r="J61" s="3">
+        <v>575500</v>
+      </c>
+      <c r="K61" s="3">
         <v>614400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>667600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>704600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>726100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>757000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>608200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>663900</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4276,11 +4419,11 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>1146700</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4296,65 +4439,68 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>37400</v>
+        <v>33900</v>
       </c>
       <c r="E62" s="3">
-        <v>45700</v>
+        <v>35900</v>
       </c>
       <c r="F62" s="3">
-        <v>41500</v>
+        <v>43900</v>
       </c>
       <c r="G62" s="3">
-        <v>39400</v>
+        <v>39900</v>
       </c>
       <c r="H62" s="3">
-        <v>42600</v>
+        <v>37900</v>
       </c>
       <c r="I62" s="3">
-        <v>45700</v>
+        <v>40900</v>
       </c>
       <c r="J62" s="3">
-        <v>43600</v>
+        <v>43900</v>
       </c>
       <c r="K62" s="3">
         <v>43600</v>
       </c>
       <c r="L62" s="3">
+        <v>43600</v>
+      </c>
+      <c r="M62" s="3">
         <v>56500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>28000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>82500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>112400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>97500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>88900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>79700</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>17</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,65 +4747,68 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5077400</v>
+        <v>5073800</v>
       </c>
       <c r="E66" s="3">
-        <v>5242400</v>
+        <v>4879300</v>
       </c>
       <c r="F66" s="3">
-        <v>5056600</v>
+        <v>5037900</v>
       </c>
       <c r="G66" s="3">
-        <v>4963200</v>
+        <v>4859300</v>
       </c>
       <c r="H66" s="3">
-        <v>4974700</v>
+        <v>4769600</v>
       </c>
       <c r="I66" s="3">
-        <v>3654400</v>
+        <v>4780500</v>
       </c>
       <c r="J66" s="3">
+        <v>3511800</v>
+      </c>
+      <c r="K66" s="3">
         <v>3423000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3721100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3402000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3601500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3790100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3726800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3745300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2652100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2812200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2592400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3412000</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>17</v>
       </c>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,65 +5161,68 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2470200</v>
+        <v>-3205600</v>
       </c>
       <c r="E72" s="3">
-        <v>-3342000</v>
+        <v>-3081000</v>
       </c>
       <c r="F72" s="3">
-        <v>-3409500</v>
+        <v>-3211600</v>
       </c>
       <c r="G72" s="3">
-        <v>-3411600</v>
+        <v>-3276500</v>
       </c>
       <c r="H72" s="3">
-        <v>-3390800</v>
+        <v>-3278500</v>
       </c>
       <c r="I72" s="3">
-        <v>-3414700</v>
+        <v>-3258500</v>
       </c>
       <c r="J72" s="3">
+        <v>-3281400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3285000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3342500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3057600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3162500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3062500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3224500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3187900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2963200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3264100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3283000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2912700</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>17</v>
       </c>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,65 +5469,68 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2228400</v>
+        <v>2295000</v>
       </c>
       <c r="E76" s="3">
-        <v>2199300</v>
+        <v>2141400</v>
       </c>
       <c r="F76" s="3">
-        <v>2197200</v>
+        <v>2113500</v>
       </c>
       <c r="G76" s="3">
-        <v>2801300</v>
+        <v>2111500</v>
       </c>
       <c r="H76" s="3">
-        <v>3366900</v>
+        <v>2692000</v>
       </c>
       <c r="I76" s="3">
-        <v>2911300</v>
+        <v>3235600</v>
       </c>
       <c r="J76" s="3">
+        <v>2797700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2559500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2316000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2272900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2378000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2378900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2288100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2945000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2477000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1765500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1096900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>180600</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>17</v>
       </c>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>136000</v>
+        <v>-124700</v>
       </c>
       <c r="E81" s="3">
-        <v>-40500</v>
+        <v>130700</v>
       </c>
       <c r="F81" s="3">
-        <v>2100</v>
+        <v>-38900</v>
       </c>
       <c r="G81" s="3">
-        <v>-20800</v>
+        <v>2000</v>
       </c>
       <c r="H81" s="3">
-        <v>23900</v>
+        <v>-19900</v>
       </c>
       <c r="I81" s="3">
-        <v>-129700</v>
+        <v>22900</v>
       </c>
       <c r="J81" s="3">
+        <v>-124700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-104800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-388400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-244000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>295200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-89400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-169900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>522800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>47600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-432600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-189600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-668700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-311900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-210900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-203100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-99800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>38400</v>
+        <v>39900</v>
       </c>
       <c r="E83" s="3">
-        <v>34300</v>
+        <v>36900</v>
       </c>
       <c r="F83" s="3">
-        <v>34300</v>
+        <v>32900</v>
       </c>
       <c r="G83" s="3">
-        <v>32200</v>
+        <v>32900</v>
       </c>
       <c r="H83" s="3">
-        <v>31100</v>
+        <v>30900</v>
       </c>
       <c r="I83" s="3">
-        <v>30100</v>
+        <v>29900</v>
       </c>
       <c r="J83" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K83" s="3">
         <v>29100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>29400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>28000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>26900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>23500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>25100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12300</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W83" s="3">
         <v>16800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13500</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>38400</v>
+        <v>38900</v>
       </c>
       <c r="E89" s="3">
-        <v>123500</v>
+        <v>36900</v>
       </c>
       <c r="F89" s="3">
-        <v>127700</v>
+        <v>118700</v>
       </c>
       <c r="G89" s="3">
-        <v>56000</v>
+        <v>122700</v>
       </c>
       <c r="H89" s="3">
-        <v>67500</v>
+        <v>53900</v>
       </c>
       <c r="I89" s="3">
-        <v>111100</v>
+        <v>64800</v>
       </c>
       <c r="J89" s="3">
+        <v>106700</v>
+      </c>
+      <c r="K89" s="3">
         <v>126600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>42500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>237000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>87000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>105900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>250000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>177400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>88600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>32900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>94200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>106600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-90900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>80800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>109200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10400</v>
+        <v>-5000</v>
       </c>
       <c r="E91" s="3">
-        <v>-16600</v>
+        <v>-10000</v>
       </c>
       <c r="F91" s="3">
-        <v>-25900</v>
+        <v>-16000</v>
       </c>
       <c r="G91" s="3">
-        <v>-20800</v>
+        <v>-24900</v>
       </c>
       <c r="H91" s="3">
-        <v>-24900</v>
+        <v>-19900</v>
       </c>
       <c r="I91" s="3">
-        <v>-36300</v>
+        <v>-23900</v>
       </c>
       <c r="J91" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-17600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-47100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-44300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-76900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-54300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-23600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-7000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-161900</v>
+        <v>-56900</v>
       </c>
       <c r="E94" s="3">
-        <v>90300</v>
+        <v>-155600</v>
       </c>
       <c r="F94" s="3">
-        <v>-125600</v>
+        <v>86800</v>
       </c>
       <c r="G94" s="3">
-        <v>-40500</v>
+        <v>-120700</v>
       </c>
       <c r="H94" s="3">
-        <v>-118300</v>
+        <v>-38900</v>
       </c>
       <c r="I94" s="3">
-        <v>-137000</v>
+        <v>-113700</v>
       </c>
       <c r="J94" s="3">
+        <v>-131700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-139100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>85100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-207800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-122600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-69800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-58600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-354900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>172800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-18700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>156000</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W94" s="3">
         <v>12300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-47100</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>22800</v>
+        <v>-19900</v>
       </c>
       <c r="E100" s="3">
-        <v>-25900</v>
+        <v>21900</v>
       </c>
       <c r="F100" s="3">
-        <v>19700</v>
+        <v>-24900</v>
       </c>
       <c r="G100" s="3">
-        <v>6200</v>
+        <v>19000</v>
       </c>
       <c r="H100" s="3">
-        <v>1297400</v>
+        <v>6000</v>
       </c>
       <c r="I100" s="3">
-        <v>34300</v>
+        <v>1246800</v>
       </c>
       <c r="J100" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K100" s="3">
         <v>88200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>98200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>86900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>127200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-89400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-165900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-117200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-65100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>54300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>60400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>48200</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W100" s="3">
         <v>10100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2200</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Z100" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>76800</v>
+        <v>102700</v>
       </c>
       <c r="E101" s="3">
-        <v>52900</v>
+        <v>73800</v>
       </c>
       <c r="F101" s="3">
-        <v>52900</v>
+        <v>50900</v>
       </c>
       <c r="G101" s="3">
-        <v>-23900</v>
+        <v>50900</v>
       </c>
       <c r="H101" s="3">
-        <v>93400</v>
+        <v>-22900</v>
       </c>
       <c r="I101" s="3">
+        <v>89800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-40500</v>
       </c>
-      <c r="J101" s="3">
-        <v>-40500</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-22200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>33100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>15600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>9900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-11200</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W101" s="3">
         <v>-3400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-39300</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y101" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Z101" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-23900</v>
+        <v>64800</v>
       </c>
       <c r="E102" s="3">
-        <v>240800</v>
+        <v>-22900</v>
       </c>
       <c r="F102" s="3">
-        <v>74700</v>
+        <v>231400</v>
       </c>
       <c r="G102" s="3">
-        <v>-2100</v>
+        <v>71800</v>
       </c>
       <c r="H102" s="3">
-        <v>1339900</v>
+        <v>-2000</v>
       </c>
       <c r="I102" s="3">
-        <v>-32200</v>
+        <v>1287600</v>
       </c>
       <c r="J102" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="K102" s="3">
         <v>35300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>214900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-128700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>219500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-39200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-67100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>89700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-241300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>315700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>84500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>287200</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W102" s="3">
         <v>-71800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3400</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>SPOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2856600</v>
+        <v>3099100</v>
       </c>
       <c r="E8" s="3">
-        <v>2654100</v>
+        <v>2923600</v>
       </c>
       <c r="F8" s="3">
-        <v>2682000</v>
+        <v>2716300</v>
       </c>
       <c r="G8" s="3">
-        <v>2494500</v>
+        <v>2744900</v>
       </c>
       <c r="H8" s="3">
-        <v>2324900</v>
+        <v>2553000</v>
       </c>
       <c r="I8" s="3">
-        <v>2141400</v>
+        <v>2379500</v>
       </c>
       <c r="J8" s="3">
+        <v>2191700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2162400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2049900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2060700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2086600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2165500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2120500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1961100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1807500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1768400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1497500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1397800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1277900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1289200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1157900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1129800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1058800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1023600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>876800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2154400</v>
+        <v>2333500</v>
       </c>
       <c r="E9" s="3">
-        <v>1984800</v>
+        <v>2204900</v>
       </c>
       <c r="F9" s="3">
-        <v>1971900</v>
+        <v>2031400</v>
       </c>
       <c r="G9" s="3">
-        <v>1828200</v>
+        <v>2018100</v>
       </c>
       <c r="H9" s="3">
-        <v>1663700</v>
+        <v>1871100</v>
       </c>
       <c r="I9" s="3">
-        <v>1594800</v>
+        <v>1702700</v>
       </c>
       <c r="J9" s="3">
+        <v>1632300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1588900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1542300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1538200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1553600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1612200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1580200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1450500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1361300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1296500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1118700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1036500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>960400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>972800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>899800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>869500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>935500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>844000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>744200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>702200</v>
+        <v>765600</v>
       </c>
       <c r="E10" s="3">
-        <v>669300</v>
+        <v>718600</v>
       </c>
       <c r="F10" s="3">
-        <v>710100</v>
+        <v>685000</v>
       </c>
       <c r="G10" s="3">
-        <v>666300</v>
+        <v>726800</v>
       </c>
       <c r="H10" s="3">
-        <v>661300</v>
+        <v>681900</v>
       </c>
       <c r="I10" s="3">
-        <v>546600</v>
+        <v>676800</v>
       </c>
       <c r="J10" s="3">
+        <v>559400</v>
+      </c>
+      <c r="K10" s="3">
         <v>573500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>507500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>522500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>532900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>553400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>540200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>510600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>446200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>472000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>378800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>361200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>317500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>316400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>258100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>260300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>123300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>179600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>326100</v>
+        <v>394000</v>
       </c>
       <c r="E12" s="3">
-        <v>241400</v>
+        <v>333800</v>
       </c>
       <c r="F12" s="3">
-        <v>246400</v>
+        <v>247000</v>
       </c>
       <c r="G12" s="3">
-        <v>201500</v>
+        <v>252100</v>
       </c>
       <c r="H12" s="3">
-        <v>247400</v>
+        <v>206200</v>
       </c>
       <c r="I12" s="3">
-        <v>189500</v>
+        <v>253200</v>
       </c>
       <c r="J12" s="3">
+        <v>194000</v>
+      </c>
+      <c r="K12" s="3">
         <v>225400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>177500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>286900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>178400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>197300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>162900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>174100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>181800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>118300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>149500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>157000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>129000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>138000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>110000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>106600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>93900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>72800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,22 +1203,25 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>3000</v>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>17</v>
+      <c r="G14" s="3">
+        <v>3100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>17</v>
@@ -1209,21 +1229,21 @@
       <c r="I14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>3400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1233,15 +1253,15 @@
       <c r="Q14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>1100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1252,75 +1272,78 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>1100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>9000</v>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E15" s="3">
-        <v>8000</v>
+        <v>9200</v>
       </c>
       <c r="F15" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K15" s="3">
         <v>6000</v>
       </c>
-      <c r="G15" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>6000</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3600</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3050000</v>
+        <v>3331900</v>
       </c>
       <c r="E17" s="3">
-        <v>2660100</v>
+        <v>3121600</v>
       </c>
       <c r="F17" s="3">
-        <v>2689000</v>
+        <v>2722500</v>
       </c>
       <c r="G17" s="3">
-        <v>2419700</v>
+        <v>2752100</v>
       </c>
       <c r="H17" s="3">
-        <v>2313000</v>
+        <v>2476500</v>
       </c>
       <c r="I17" s="3">
-        <v>2127500</v>
+        <v>2367200</v>
       </c>
       <c r="J17" s="3">
+        <v>2177400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2231200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2091400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2242900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2105800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2255400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2054300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1964600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1863700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1657200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1505200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1496600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1323900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1386800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1239800</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1219600</v>
       </c>
       <c r="Y17" s="3">
         <v>1219600</v>
       </c>
       <c r="Z17" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="AA17" s="3">
         <v>1125700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>954300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-193500</v>
+        <v>-232700</v>
       </c>
       <c r="E18" s="3">
-        <v>-6000</v>
+        <v>-198000</v>
       </c>
       <c r="F18" s="3">
-        <v>-7000</v>
+        <v>-6100</v>
       </c>
       <c r="G18" s="3">
-        <v>74800</v>
+        <v>-7100</v>
       </c>
       <c r="H18" s="3">
-        <v>12000</v>
+        <v>76600</v>
       </c>
       <c r="I18" s="3">
-        <v>14000</v>
+        <v>12200</v>
       </c>
       <c r="J18" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-68800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-41500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-182200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-89900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>66100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-56200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>111200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-98800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-46000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-97600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-81900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-89800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-160800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-102100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-77500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,221 +1582,228 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>113700</v>
+        <v>85700</v>
       </c>
       <c r="E20" s="3">
-        <v>170600</v>
+        <v>116400</v>
       </c>
       <c r="F20" s="3">
-        <v>9000</v>
+        <v>174600</v>
       </c>
       <c r="G20" s="3">
-        <v>96700</v>
+        <v>9200</v>
       </c>
       <c r="H20" s="3">
-        <v>6000</v>
+        <v>99000</v>
       </c>
       <c r="I20" s="3">
-        <v>82800</v>
+        <v>6100</v>
       </c>
       <c r="J20" s="3">
+        <v>84700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-99700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-68500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-303300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>77900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>275600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-54100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-135200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>457800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-83100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-329400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-156000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-571100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-230000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-120100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-41100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-71600</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-39900</v>
+        <v>-102100</v>
       </c>
       <c r="E21" s="3">
-        <v>201500</v>
+        <v>-40800</v>
       </c>
       <c r="F21" s="3">
-        <v>34900</v>
+        <v>206200</v>
       </c>
       <c r="G21" s="3">
-        <v>204500</v>
+        <v>35700</v>
       </c>
       <c r="H21" s="3">
-        <v>48900</v>
+        <v>209300</v>
       </c>
       <c r="I21" s="3">
-        <v>126700</v>
+        <v>50000</v>
       </c>
       <c r="J21" s="3">
+        <v>129600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-139600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-81000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-454900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>88100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-162300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>368700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-34100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-166300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>578400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-83100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-421600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-189600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-700100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-295100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-196300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-185500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-98600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K22" s="3">
         <v>10000</v>
       </c>
-      <c r="E22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10800</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U22" s="3">
         <v>2200</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>17</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>17</v>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-89800</v>
+        <v>-147000</v>
       </c>
       <c r="E23" s="3">
-        <v>154600</v>
+        <v>-91900</v>
       </c>
       <c r="F23" s="3">
-        <v>-8000</v>
+        <v>158200</v>
       </c>
       <c r="G23" s="3">
-        <v>161600</v>
+        <v>-8200</v>
       </c>
       <c r="H23" s="3">
-        <v>8000</v>
+        <v>165400</v>
       </c>
       <c r="I23" s="3">
-        <v>86800</v>
+        <v>8200</v>
       </c>
       <c r="J23" s="3">
+        <v>88800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-178500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-120400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-496400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>46300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-202000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>330700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-69400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-202200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>569000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-90800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-430400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-202000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-668700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-311900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-209800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-201900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-99800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-149100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>34900</v>
+        <v>22500</v>
       </c>
       <c r="E24" s="3">
-        <v>23900</v>
+        <v>35700</v>
       </c>
       <c r="F24" s="3">
-        <v>30900</v>
+        <v>24500</v>
       </c>
       <c r="G24" s="3">
-        <v>159600</v>
+        <v>31600</v>
       </c>
       <c r="H24" s="3">
-        <v>27900</v>
+        <v>163300</v>
       </c>
       <c r="I24" s="3">
-        <v>63800</v>
+        <v>28600</v>
       </c>
       <c r="J24" s="3">
+        <v>65300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-53900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-15600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-108000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>45200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>42000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>35500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-32300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>46100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-138500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-12300</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>1100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1200</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-169500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-127600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>133700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-124700</v>
       </c>
-      <c r="E26" s="3">
-        <v>130700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-38900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>22900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-124700</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-104800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-388400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-244000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>295200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-89400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-169900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>522800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>47600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-432600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-189600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-668700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-311900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-210900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-203100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-99800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-169500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-127600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>133700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-124700</v>
       </c>
-      <c r="E27" s="3">
-        <v>130700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-38900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>22900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-124700</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-104800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-388400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-244000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>295200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-89400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-169900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>522800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>47600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-432600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-189600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-668700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-311900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-210900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-203100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-99800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-113700</v>
+        <v>-85700</v>
       </c>
       <c r="E32" s="3">
-        <v>-170600</v>
+        <v>-116400</v>
       </c>
       <c r="F32" s="3">
-        <v>-9000</v>
+        <v>-174600</v>
       </c>
       <c r="G32" s="3">
-        <v>-96700</v>
+        <v>-9200</v>
       </c>
       <c r="H32" s="3">
-        <v>-6000</v>
+        <v>-99000</v>
       </c>
       <c r="I32" s="3">
-        <v>-82800</v>
+        <v>-6100</v>
       </c>
       <c r="J32" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="K32" s="3">
         <v>99700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>68500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>303300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-77900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-275600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>54100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>135200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-457800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>83100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>329400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>156000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>571100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>230000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>120100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>41100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-169500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-127600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>133700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-124700</v>
       </c>
-      <c r="E33" s="3">
-        <v>130700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-38900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>22900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-124700</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-104800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-388400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-244000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>295200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-89400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-169900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>522800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>47600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-432600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-189600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-668700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-311900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-210900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-203100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-99800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-169500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-127600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>133700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-124700</v>
       </c>
-      <c r="E35" s="3">
-        <v>130700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-38900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>22900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-124700</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-104800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-388400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-244000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>295200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-89400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-169900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>522800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>47600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-432600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-189600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-668700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-311900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-210900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-203100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-99800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,68 +3007,69 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2778800</v>
+        <v>2910300</v>
       </c>
       <c r="E41" s="3">
-        <v>2713900</v>
+        <v>2843900</v>
       </c>
       <c r="F41" s="3">
-        <v>2736900</v>
+        <v>2777600</v>
       </c>
       <c r="G41" s="3">
-        <v>2505500</v>
+        <v>2801100</v>
       </c>
       <c r="H41" s="3">
-        <v>2433700</v>
+        <v>2564200</v>
       </c>
       <c r="I41" s="3">
-        <v>2435700</v>
+        <v>2490800</v>
       </c>
       <c r="J41" s="3">
+        <v>2492800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1148000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1226800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1252400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1073800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1243300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1074300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1069300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1155500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1054000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1212800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>889400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>822400</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>17</v>
       </c>
@@ -2998,68 +3085,71 @@
       <c r="AA41" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>780000</v>
+        <v>832000</v>
       </c>
       <c r="E42" s="3">
-        <v>813900</v>
+        <v>798300</v>
       </c>
       <c r="F42" s="3">
-        <v>754000</v>
+        <v>833000</v>
       </c>
       <c r="G42" s="3">
-        <v>723100</v>
+        <v>771700</v>
       </c>
       <c r="H42" s="3">
-        <v>610400</v>
+        <v>740100</v>
       </c>
       <c r="I42" s="3">
-        <v>642300</v>
+        <v>624700</v>
       </c>
       <c r="J42" s="3">
+        <v>657400</v>
+      </c>
+      <c r="K42" s="3">
         <v>594500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>746300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>693800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>827600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>807800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>784000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>689400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>789500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1082400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>741000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>971700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>945800</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>17</v>
       </c>
@@ -3075,68 +3165,71 @@
       <c r="AA42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>615400</v>
+        <v>663500</v>
       </c>
       <c r="E43" s="3">
-        <v>559500</v>
+        <v>629800</v>
       </c>
       <c r="F43" s="3">
-        <v>624400</v>
+        <v>572700</v>
       </c>
       <c r="G43" s="3">
-        <v>722100</v>
+        <v>639000</v>
       </c>
       <c r="H43" s="3">
-        <v>617400</v>
+        <v>739100</v>
       </c>
       <c r="I43" s="3">
-        <v>550600</v>
+        <v>631900</v>
       </c>
       <c r="J43" s="3">
+        <v>563500</v>
+      </c>
+      <c r="K43" s="3">
         <v>466800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>411000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>398200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>413300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>474000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>475300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>507000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>470100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>475500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>399800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>356900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>362400</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>17</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,68 +3325,71 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>336100</v>
+        <v>350100</v>
       </c>
       <c r="E45" s="3">
-        <v>269300</v>
+        <v>344000</v>
       </c>
       <c r="F45" s="3">
-        <v>245400</v>
+        <v>275600</v>
       </c>
       <c r="G45" s="3">
-        <v>75800</v>
+        <v>251100</v>
       </c>
       <c r="H45" s="3">
-        <v>79800</v>
+        <v>77600</v>
       </c>
       <c r="I45" s="3">
-        <v>78800</v>
+        <v>81700</v>
       </c>
       <c r="J45" s="3">
+        <v>80600</v>
+      </c>
+      <c r="K45" s="3">
         <v>150600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>147400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>125500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>105000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>79400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>89400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>77600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>62200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>45000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>38800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>41700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>43800</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>17</v>
       </c>
@@ -3306,68 +3405,71 @@
       <c r="AA45" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4510200</v>
+        <v>4755900</v>
       </c>
       <c r="E46" s="3">
-        <v>4356600</v>
+        <v>4616100</v>
       </c>
       <c r="F46" s="3">
-        <v>4360600</v>
+        <v>4458900</v>
       </c>
       <c r="G46" s="3">
-        <v>4026500</v>
+        <v>4462900</v>
       </c>
       <c r="H46" s="3">
-        <v>3741200</v>
+        <v>4121000</v>
       </c>
       <c r="I46" s="3">
-        <v>3707300</v>
+        <v>3829000</v>
       </c>
       <c r="J46" s="3">
+        <v>3794300</v>
+      </c>
+      <c r="K46" s="3">
         <v>2359800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2531400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2469800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2419700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2604500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2423000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2343400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2477300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2656800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2392400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2259700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2174400</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>17</v>
       </c>
@@ -3383,68 +3485,71 @@
       <c r="AA46" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>718100</v>
+        <v>643100</v>
       </c>
       <c r="E47" s="3">
-        <v>680200</v>
+        <v>735000</v>
       </c>
       <c r="F47" s="3">
-        <v>913600</v>
+        <v>696200</v>
       </c>
       <c r="G47" s="3">
+        <v>935100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1112700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1936500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2574500</v>
+      </c>
+      <c r="K47" s="3">
+        <v>2271100</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1879600</v>
+      </c>
+      <c r="M47" s="3">
+        <v>1881800</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1481400</v>
+      </c>
+      <c r="O47" s="3">
+        <v>1747600</v>
+      </c>
+      <c r="P47" s="3">
+        <v>2055500</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>2215200</v>
+      </c>
+      <c r="R47" s="3">
+        <v>2750100</v>
+      </c>
+      <c r="S47" s="3">
+        <v>1947100</v>
+      </c>
+      <c r="T47" s="3">
+        <v>1760000</v>
+      </c>
+      <c r="U47" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="V47" s="3">
         <v>1087200</v>
       </c>
-      <c r="H47" s="3">
-        <v>1892100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2515400</v>
-      </c>
-      <c r="J47" s="3">
-        <v>2271100</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1879600</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1881800</v>
-      </c>
-      <c r="M47" s="3">
-        <v>1481400</v>
-      </c>
-      <c r="N47" s="3">
-        <v>1747600</v>
-      </c>
-      <c r="O47" s="3">
-        <v>2055500</v>
-      </c>
-      <c r="P47" s="3">
-        <v>2215200</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>2750100</v>
-      </c>
-      <c r="R47" s="3">
-        <v>1947100</v>
-      </c>
-      <c r="S47" s="3">
-        <v>1760000</v>
-      </c>
-      <c r="T47" s="3">
-        <v>1064000</v>
-      </c>
-      <c r="U47" s="3">
-        <v>1087200</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>17</v>
       </c>
@@ -3460,68 +3565,71 @@
       <c r="AA47" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>815900</v>
+        <v>852400</v>
       </c>
       <c r="E48" s="3">
-        <v>809900</v>
+        <v>835000</v>
       </c>
       <c r="F48" s="3">
-        <v>806900</v>
+        <v>828900</v>
       </c>
       <c r="G48" s="3">
-        <v>809900</v>
+        <v>825800</v>
       </c>
       <c r="H48" s="3">
-        <v>789900</v>
+        <v>828900</v>
       </c>
       <c r="I48" s="3">
-        <v>786900</v>
+        <v>808500</v>
       </c>
       <c r="J48" s="3">
+        <v>805400</v>
+      </c>
+      <c r="K48" s="3">
         <v>755000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>786700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>832400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>883000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>910600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>926100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>754100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>795500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>233000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>149500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>91100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>76300</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>17</v>
       </c>
@@ -3537,68 +3645,71 @@
       <c r="AA48" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1233800</v>
+        <v>1443400</v>
       </c>
       <c r="E49" s="3">
-        <v>1084200</v>
+        <v>1262700</v>
       </c>
       <c r="F49" s="3">
-        <v>980400</v>
+        <v>1109600</v>
       </c>
       <c r="G49" s="3">
-        <v>957500</v>
+        <v>1003400</v>
       </c>
       <c r="H49" s="3">
-        <v>943500</v>
+        <v>980000</v>
       </c>
       <c r="I49" s="3">
-        <v>910600</v>
+        <v>965700</v>
       </c>
       <c r="J49" s="3">
+        <v>932000</v>
+      </c>
+      <c r="K49" s="3">
         <v>830800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>702700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>766900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>806200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>625700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>670100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>610600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>571800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>205800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>191600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>192200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>180600</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>17</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,68 +3885,71 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>90800</v>
+        <v>96000</v>
       </c>
       <c r="E52" s="3">
-        <v>89800</v>
+        <v>92900</v>
       </c>
       <c r="F52" s="3">
-        <v>89800</v>
+        <v>91900</v>
       </c>
       <c r="G52" s="3">
-        <v>89800</v>
+        <v>91900</v>
       </c>
       <c r="H52" s="3">
-        <v>94800</v>
+        <v>91900</v>
       </c>
       <c r="I52" s="3">
-        <v>95800</v>
+        <v>97000</v>
       </c>
       <c r="J52" s="3">
+        <v>98000</v>
+      </c>
+      <c r="K52" s="3">
         <v>92800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>82000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>86200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>84700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>91100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>94300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>91800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>95700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>86400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>84200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>82400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>74100</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>17</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,68 +4045,71 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7368800</v>
+        <v>7790700</v>
       </c>
       <c r="E54" s="3">
-        <v>7020700</v>
+        <v>7541700</v>
       </c>
       <c r="F54" s="3">
-        <v>7151400</v>
+        <v>7185400</v>
       </c>
       <c r="G54" s="3">
-        <v>6970800</v>
+        <v>7319100</v>
       </c>
       <c r="H54" s="3">
-        <v>7461500</v>
+        <v>7134400</v>
       </c>
       <c r="I54" s="3">
-        <v>8016100</v>
+        <v>7636600</v>
       </c>
       <c r="J54" s="3">
+        <v>8204200</v>
+      </c>
+      <c r="K54" s="3">
         <v>6309600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5982500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6037100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5674900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5979500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6169000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6014900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6690300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5129100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4577700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3689300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3592600</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>17</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,68 +4187,69 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>576500</v>
+        <v>966700</v>
       </c>
       <c r="E57" s="3">
-        <v>447800</v>
+        <v>590000</v>
       </c>
       <c r="F57" s="3">
-        <v>532600</v>
+        <v>458300</v>
       </c>
       <c r="G57" s="3">
-        <v>526600</v>
+        <v>545100</v>
       </c>
       <c r="H57" s="3">
-        <v>483700</v>
+        <v>539000</v>
       </c>
       <c r="I57" s="3">
-        <v>438900</v>
+        <v>495100</v>
       </c>
       <c r="J57" s="3">
+        <v>449200</v>
+      </c>
+      <c r="K57" s="3">
         <v>432900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>440100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>398200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>425700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>440100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>431200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>338800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>305000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>349000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>291300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>282200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>286100</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>17</v>
       </c>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4166,32 +4300,32 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O58" s="3">
         <v>8200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>35300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>37100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4211,68 +4345,71 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2748800</v>
+        <v>2665300</v>
       </c>
       <c r="E59" s="3">
-        <v>2667000</v>
+        <v>2813300</v>
       </c>
       <c r="F59" s="3">
-        <v>2685000</v>
+        <v>2729600</v>
       </c>
       <c r="G59" s="3">
-        <v>2540400</v>
+        <v>2748000</v>
       </c>
       <c r="H59" s="3">
-        <v>2477500</v>
+        <v>2600000</v>
       </c>
       <c r="I59" s="3">
-        <v>2489500</v>
+        <v>2535700</v>
       </c>
       <c r="J59" s="3">
+        <v>2547900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2459600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2324900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2611600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2215300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2399000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2574900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2723400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2656800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2190700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2423400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2221300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1899500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>17</v>
       </c>
@@ -4288,68 +4425,71 @@
       <c r="AA59" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3325300</v>
+        <v>3632000</v>
       </c>
       <c r="E60" s="3">
-        <v>3114900</v>
+        <v>3403300</v>
       </c>
       <c r="F60" s="3">
-        <v>3217600</v>
+        <v>3188000</v>
       </c>
       <c r="G60" s="3">
-        <v>3067000</v>
+        <v>3293100</v>
       </c>
       <c r="H60" s="3">
-        <v>2961300</v>
+        <v>3139000</v>
       </c>
       <c r="I60" s="3">
-        <v>2928400</v>
+        <v>3030800</v>
       </c>
       <c r="J60" s="3">
+        <v>2997100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2892500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2765000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3009800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2641000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2847300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3008600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3097500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2998900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2539700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2714700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2503400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2185600</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>17</v>
       </c>
@@ -4365,56 +4505,59 @@
       <c r="AA60" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1714500</v>
+        <v>1842500</v>
       </c>
       <c r="E61" s="3">
-        <v>1728500</v>
+        <v>1754800</v>
       </c>
       <c r="F61" s="3">
-        <v>1776400</v>
+        <v>1769000</v>
       </c>
       <c r="G61" s="3">
-        <v>1752400</v>
+        <v>1818000</v>
       </c>
       <c r="H61" s="3">
-        <v>1770400</v>
+        <v>1793500</v>
       </c>
       <c r="I61" s="3">
-        <v>1811300</v>
+        <v>1811900</v>
       </c>
       <c r="J61" s="3">
+        <v>1853800</v>
+      </c>
+      <c r="K61" s="3">
         <v>575500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>614400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>667600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>704600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>726100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>757000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>608200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>663900</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4422,11 +4565,11 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>1146700</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4442,68 +4585,71 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33900</v>
+        <v>36700</v>
       </c>
       <c r="E62" s="3">
-        <v>35900</v>
+        <v>34700</v>
       </c>
       <c r="F62" s="3">
+        <v>36700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>44900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>40800</v>
+      </c>
+      <c r="I62" s="3">
+        <v>38800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>41900</v>
+      </c>
+      <c r="K62" s="3">
         <v>43900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>39900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>37900</v>
-      </c>
-      <c r="I62" s="3">
-        <v>40900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>43900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>43600</v>
       </c>
       <c r="L62" s="3">
         <v>43600</v>
       </c>
       <c r="M62" s="3">
+        <v>43600</v>
+      </c>
+      <c r="N62" s="3">
         <v>56500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>28000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>82500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>112400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>97500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>88900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>79700</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>17</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,68 +4905,71 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5073800</v>
+        <v>5511300</v>
       </c>
       <c r="E66" s="3">
-        <v>4879300</v>
+        <v>5192800</v>
       </c>
       <c r="F66" s="3">
-        <v>5037900</v>
+        <v>4993800</v>
       </c>
       <c r="G66" s="3">
-        <v>4859300</v>
+        <v>5156100</v>
       </c>
       <c r="H66" s="3">
-        <v>4769600</v>
+        <v>4973300</v>
       </c>
       <c r="I66" s="3">
-        <v>4780500</v>
+        <v>4881500</v>
       </c>
       <c r="J66" s="3">
+        <v>4892700</v>
+      </c>
+      <c r="K66" s="3">
         <v>3511800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3423000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3721100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3402000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3601500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3790100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3726800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3745300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2652100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2812200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2592400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3412000</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>17</v>
       </c>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,68 +5335,71 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3205600</v>
+        <v>-2341700</v>
       </c>
       <c r="E72" s="3">
-        <v>-3081000</v>
+        <v>-3280900</v>
       </c>
       <c r="F72" s="3">
-        <v>-3211600</v>
+        <v>-3153300</v>
       </c>
       <c r="G72" s="3">
-        <v>-3276500</v>
+        <v>-3287000</v>
       </c>
       <c r="H72" s="3">
-        <v>-3278500</v>
+        <v>-3353300</v>
       </c>
       <c r="I72" s="3">
-        <v>-3258500</v>
+        <v>-3355400</v>
       </c>
       <c r="J72" s="3">
+        <v>-3335000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3281400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3285000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3342500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3057600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3162500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3062500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3224500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3187900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2963200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3264100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3283000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2912700</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>17</v>
       </c>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,68 +5655,71 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2295000</v>
+        <v>2279400</v>
       </c>
       <c r="E76" s="3">
-        <v>2141400</v>
+        <v>2348900</v>
       </c>
       <c r="F76" s="3">
-        <v>2113500</v>
+        <v>2191700</v>
       </c>
       <c r="G76" s="3">
-        <v>2111500</v>
+        <v>2163100</v>
       </c>
       <c r="H76" s="3">
-        <v>2692000</v>
+        <v>2161000</v>
       </c>
       <c r="I76" s="3">
-        <v>3235600</v>
+        <v>2755100</v>
       </c>
       <c r="J76" s="3">
+        <v>3311500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2797700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2559500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2316000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2272900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2378000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2378900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2288100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2945000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2477000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1765500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1096900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>180600</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>17</v>
       </c>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-169500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-127600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>133700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-124700</v>
       </c>
-      <c r="E81" s="3">
-        <v>130700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-38900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>22900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-124700</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-104800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-388400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-244000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>295200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-89400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-169900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>522800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>47600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-432600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-189600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-668700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-311900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-210900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-203100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-99800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>39900</v>
+        <v>44900</v>
       </c>
       <c r="E83" s="3">
-        <v>36900</v>
+        <v>40800</v>
       </c>
       <c r="F83" s="3">
-        <v>32900</v>
+        <v>37800</v>
       </c>
       <c r="G83" s="3">
-        <v>32900</v>
+        <v>33700</v>
       </c>
       <c r="H83" s="3">
-        <v>30900</v>
+        <v>33700</v>
       </c>
       <c r="I83" s="3">
-        <v>29900</v>
+        <v>31600</v>
       </c>
       <c r="J83" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K83" s="3">
         <v>28900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>29100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>30500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>29400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>26900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>25100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12300</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X83" s="3">
         <v>16800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13500</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>38900</v>
+        <v>40800</v>
       </c>
       <c r="E89" s="3">
-        <v>36900</v>
+        <v>39800</v>
       </c>
       <c r="F89" s="3">
-        <v>118700</v>
+        <v>37800</v>
       </c>
       <c r="G89" s="3">
-        <v>122700</v>
+        <v>121500</v>
       </c>
       <c r="H89" s="3">
-        <v>53900</v>
+        <v>125600</v>
       </c>
       <c r="I89" s="3">
-        <v>64800</v>
+        <v>55100</v>
       </c>
       <c r="J89" s="3">
+        <v>66400</v>
+      </c>
+      <c r="K89" s="3">
         <v>106700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>126600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>42500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>237000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>87000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>105900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>250000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>177400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>88600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>32900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>94200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>106600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-90900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>80800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>109200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="E91" s="3">
-        <v>-10000</v>
+        <v>-5100</v>
       </c>
       <c r="F91" s="3">
-        <v>-16000</v>
+        <v>-10200</v>
       </c>
       <c r="G91" s="3">
-        <v>-24900</v>
+        <v>-16300</v>
       </c>
       <c r="H91" s="3">
-        <v>-19900</v>
+        <v>-25500</v>
       </c>
       <c r="I91" s="3">
-        <v>-23900</v>
+        <v>-20400</v>
       </c>
       <c r="J91" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-34900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-37400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-47100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-44300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-76900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-54300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-23600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-10100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-7000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-56900</v>
+        <v>-111300</v>
       </c>
       <c r="E94" s="3">
-        <v>-155600</v>
+        <v>-58200</v>
       </c>
       <c r="F94" s="3">
-        <v>86800</v>
+        <v>-159200</v>
       </c>
       <c r="G94" s="3">
-        <v>-120700</v>
+        <v>88800</v>
       </c>
       <c r="H94" s="3">
-        <v>-38900</v>
+        <v>-123500</v>
       </c>
       <c r="I94" s="3">
-        <v>-113700</v>
+        <v>-39800</v>
       </c>
       <c r="J94" s="3">
+        <v>-116400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-131700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-139100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>85100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-207800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-122600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-69800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-58600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-354900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>172800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-18700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>156000</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X94" s="3">
         <v>12300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-47100</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-19900</v>
+        <v>-21400</v>
       </c>
       <c r="E100" s="3">
-        <v>21900</v>
+        <v>-20400</v>
       </c>
       <c r="F100" s="3">
-        <v>-24900</v>
+        <v>22500</v>
       </c>
       <c r="G100" s="3">
-        <v>19000</v>
+        <v>-25500</v>
       </c>
       <c r="H100" s="3">
-        <v>6000</v>
+        <v>19400</v>
       </c>
       <c r="I100" s="3">
-        <v>1246800</v>
+        <v>6100</v>
       </c>
       <c r="J100" s="3">
+        <v>1276000</v>
+      </c>
+      <c r="K100" s="3">
         <v>32900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>88200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>98200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>86900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>127200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-89400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-165900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-117200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-65100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>54300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>60400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>48200</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X100" s="3">
         <v>10100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2200</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z100" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AA100" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>102700</v>
+        <v>158200</v>
       </c>
       <c r="E101" s="3">
-        <v>73800</v>
+        <v>105100</v>
       </c>
       <c r="F101" s="3">
-        <v>50900</v>
+        <v>75500</v>
       </c>
       <c r="G101" s="3">
-        <v>50900</v>
+        <v>52100</v>
       </c>
       <c r="H101" s="3">
-        <v>-22900</v>
+        <v>52100</v>
       </c>
       <c r="I101" s="3">
-        <v>89800</v>
+        <v>-23500</v>
       </c>
       <c r="J101" s="3">
+        <v>91900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-38900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-40500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-22200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>33100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>15600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1200</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>9900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-11200</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X101" s="3">
         <v>-3400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-39300</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z101" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>64800</v>
+        <v>66400</v>
       </c>
       <c r="E102" s="3">
-        <v>-22900</v>
+        <v>66400</v>
       </c>
       <c r="F102" s="3">
-        <v>231400</v>
+        <v>-23500</v>
       </c>
       <c r="G102" s="3">
-        <v>71800</v>
+        <v>236800</v>
       </c>
       <c r="H102" s="3">
+        <v>73500</v>
+      </c>
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
-        <v>1287600</v>
-      </c>
       <c r="J102" s="3">
+        <v>1317900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-30900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>35300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>214900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-128700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>219500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-39200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-67100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>89700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-241300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>315700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>84500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>287200</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X102" s="3">
         <v>-71800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>SPOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3099100</v>
+        <v>3349600</v>
       </c>
       <c r="E8" s="3">
-        <v>2923600</v>
+        <v>3212100</v>
       </c>
       <c r="F8" s="3">
-        <v>2716300</v>
+        <v>3030100</v>
       </c>
       <c r="G8" s="3">
-        <v>2744900</v>
+        <v>2815300</v>
       </c>
       <c r="H8" s="3">
-        <v>2553000</v>
+        <v>2845000</v>
       </c>
       <c r="I8" s="3">
-        <v>2379500</v>
+        <v>2646100</v>
       </c>
       <c r="J8" s="3">
+        <v>2466200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2191700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2162400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2049900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2060700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2086600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2165500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2120500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1961100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1807500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1768400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1497500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1397800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1277900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1289200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1157900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1129800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1058800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1023600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>876800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2333500</v>
+        <v>2502200</v>
       </c>
       <c r="E9" s="3">
-        <v>2204900</v>
+        <v>2418600</v>
       </c>
       <c r="F9" s="3">
-        <v>2031400</v>
+        <v>2285300</v>
       </c>
       <c r="G9" s="3">
-        <v>2018100</v>
+        <v>2105400</v>
       </c>
       <c r="H9" s="3">
-        <v>1871100</v>
+        <v>2091700</v>
       </c>
       <c r="I9" s="3">
-        <v>1702700</v>
+        <v>1939300</v>
       </c>
       <c r="J9" s="3">
+        <v>1764700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1632300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1588900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1542300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1538200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1553600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1612200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1580200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1450500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1361300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1296500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1118700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1036500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>960400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>972800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>899800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>869500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>935500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>844000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>744200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>765600</v>
+        <v>847500</v>
       </c>
       <c r="E10" s="3">
-        <v>718600</v>
+        <v>793500</v>
       </c>
       <c r="F10" s="3">
-        <v>685000</v>
+        <v>744800</v>
       </c>
       <c r="G10" s="3">
-        <v>726800</v>
+        <v>709900</v>
       </c>
       <c r="H10" s="3">
-        <v>681900</v>
+        <v>753300</v>
       </c>
       <c r="I10" s="3">
-        <v>676800</v>
+        <v>706700</v>
       </c>
       <c r="J10" s="3">
+        <v>701500</v>
+      </c>
+      <c r="K10" s="3">
         <v>559400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>573500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>507500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>522500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>532900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>553400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>540200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>510600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>446200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>472000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>378800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>361200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>317500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>316400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>258100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>260300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>123300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>179600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>394000</v>
+        <v>425300</v>
       </c>
       <c r="E12" s="3">
-        <v>333800</v>
+        <v>397800</v>
       </c>
       <c r="F12" s="3">
-        <v>247000</v>
+        <v>346000</v>
       </c>
       <c r="G12" s="3">
-        <v>252100</v>
+        <v>256000</v>
       </c>
       <c r="H12" s="3">
-        <v>206200</v>
+        <v>261300</v>
       </c>
       <c r="I12" s="3">
-        <v>253200</v>
+        <v>213700</v>
       </c>
       <c r="J12" s="3">
+        <v>262400</v>
+      </c>
+      <c r="K12" s="3">
         <v>194000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>225400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>177500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>286900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>178400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>197300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>162900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>174100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>181800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>118300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>149500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>157000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>129000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>138000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>110000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>106600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>93900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>72800</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,47 +1222,50 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3100</v>
+      <c r="D14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>3400</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1256,15 +1275,15 @@
       <c r="R14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>1100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1275,78 +1294,81 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
+      <c r="D15" s="3">
+        <v>13800</v>
       </c>
       <c r="E15" s="3">
-        <v>9200</v>
+        <v>10600</v>
       </c>
       <c r="F15" s="3">
-        <v>8200</v>
+        <v>9500</v>
       </c>
       <c r="G15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K15" s="3">
         <v>6100</v>
       </c>
-      <c r="H15" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>7100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3600</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3331900</v>
+        <v>3594000</v>
       </c>
       <c r="E17" s="3">
-        <v>3121600</v>
+        <v>3453300</v>
       </c>
       <c r="F17" s="3">
-        <v>2722500</v>
+        <v>3235400</v>
       </c>
       <c r="G17" s="3">
-        <v>2752100</v>
+        <v>2821700</v>
       </c>
       <c r="H17" s="3">
-        <v>2476500</v>
+        <v>2852400</v>
       </c>
       <c r="I17" s="3">
-        <v>2367200</v>
+        <v>2566700</v>
       </c>
       <c r="J17" s="3">
+        <v>2453500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2177400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2231200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2091400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2242900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2105800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2255400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2054300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1964600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1863700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1657200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1505200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1496600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1323900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1386800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1239800</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1219600</v>
       </c>
       <c r="Z17" s="3">
         <v>1219600</v>
       </c>
       <c r="AA17" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="AB17" s="3">
         <v>1125700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>954300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-232700</v>
+        <v>-244400</v>
       </c>
       <c r="E18" s="3">
-        <v>-198000</v>
+        <v>-241200</v>
       </c>
       <c r="F18" s="3">
-        <v>-6100</v>
+        <v>-205300</v>
       </c>
       <c r="G18" s="3">
-        <v>-7100</v>
+        <v>-6300</v>
       </c>
       <c r="H18" s="3">
-        <v>76600</v>
+        <v>-7400</v>
       </c>
       <c r="I18" s="3">
-        <v>12200</v>
+        <v>79300</v>
       </c>
       <c r="J18" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K18" s="3">
         <v>14300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-68800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-41500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-182200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-19200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-89900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>66100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-56200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>111200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-7800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-98800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-46000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-97600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-81900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-89800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-160800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-102100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-77500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,230 +1615,237 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>85700</v>
+        <v>-52900</v>
       </c>
       <c r="E20" s="3">
-        <v>116400</v>
+        <v>100500</v>
       </c>
       <c r="F20" s="3">
-        <v>174600</v>
+        <v>120600</v>
       </c>
       <c r="G20" s="3">
-        <v>9200</v>
+        <v>180900</v>
       </c>
       <c r="H20" s="3">
-        <v>99000</v>
+        <v>9500</v>
       </c>
       <c r="I20" s="3">
-        <v>6100</v>
+        <v>102600</v>
       </c>
       <c r="J20" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K20" s="3">
         <v>84700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-99700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-68500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-303300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>77900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>275600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-54100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-135200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>457800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-83100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-329400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-156000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-571100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-230000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-120100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-41100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-71600</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-102100</v>
+        <v>-244400</v>
       </c>
       <c r="E21" s="3">
-        <v>-40800</v>
+        <v>-94200</v>
       </c>
       <c r="F21" s="3">
-        <v>206200</v>
+        <v>-42300</v>
       </c>
       <c r="G21" s="3">
-        <v>35700</v>
+        <v>213700</v>
       </c>
       <c r="H21" s="3">
-        <v>209300</v>
+        <v>37000</v>
       </c>
       <c r="I21" s="3">
-        <v>50000</v>
+        <v>216900</v>
       </c>
       <c r="J21" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K21" s="3">
         <v>129600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-139600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-81000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-454900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>88100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-162300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>368700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-34100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-166300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>578400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-83100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-421600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-189600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-700100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-295100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-196300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-185500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-98600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>17</v>
+      <c r="D22" s="3">
+        <v>10600</v>
       </c>
       <c r="E22" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K22" s="3">
         <v>10200</v>
       </c>
-      <c r="F22" s="3">
-        <v>10200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>10200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>10200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>10200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>10200</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10800</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V22" s="3">
         <v>2200</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>17</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>17</v>
@@ -1823,168 +1862,177 @@
       <c r="AB22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-147000</v>
+        <v>-307900</v>
       </c>
       <c r="E23" s="3">
-        <v>-91900</v>
+        <v>-152400</v>
       </c>
       <c r="F23" s="3">
-        <v>158200</v>
+        <v>-95200</v>
       </c>
       <c r="G23" s="3">
-        <v>-8200</v>
+        <v>164000</v>
       </c>
       <c r="H23" s="3">
-        <v>165400</v>
+        <v>-8500</v>
       </c>
       <c r="I23" s="3">
-        <v>8200</v>
+        <v>171400</v>
       </c>
       <c r="J23" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K23" s="3">
         <v>88800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-178500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-120400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-496400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>46300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-202000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>330700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-69400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-202200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>569000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-90800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-430400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-202000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-668700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-311900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-209800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-201900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-99800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-149100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22500</v>
+        <v>-22200</v>
       </c>
       <c r="E24" s="3">
-        <v>35700</v>
+        <v>23300</v>
       </c>
       <c r="F24" s="3">
-        <v>24500</v>
+        <v>37000</v>
       </c>
       <c r="G24" s="3">
-        <v>31600</v>
+        <v>25400</v>
       </c>
       <c r="H24" s="3">
-        <v>163300</v>
+        <v>32800</v>
       </c>
       <c r="I24" s="3">
-        <v>28600</v>
+        <v>169300</v>
       </c>
       <c r="J24" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K24" s="3">
         <v>65300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-53900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-15600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-108000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>45200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>42000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>35500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-32300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>46100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-138500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-12300</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>1100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1200</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-169500</v>
+        <v>-285700</v>
       </c>
       <c r="E26" s="3">
-        <v>-127600</v>
+        <v>-175600</v>
       </c>
       <c r="F26" s="3">
-        <v>133700</v>
+        <v>-132300</v>
       </c>
       <c r="G26" s="3">
-        <v>-39800</v>
+        <v>138600</v>
       </c>
       <c r="H26" s="3">
-        <v>2000</v>
+        <v>-41300</v>
       </c>
       <c r="I26" s="3">
-        <v>-20400</v>
+        <v>2100</v>
       </c>
       <c r="J26" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="K26" s="3">
         <v>23500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-124700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-104800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-388400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-244000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>295200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-89400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-169900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>522800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>47600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-432600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-189600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-668700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-311900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-210900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-203100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-99800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-169500</v>
+        <v>-285700</v>
       </c>
       <c r="E27" s="3">
-        <v>-127600</v>
+        <v>-175600</v>
       </c>
       <c r="F27" s="3">
-        <v>133700</v>
+        <v>-132300</v>
       </c>
       <c r="G27" s="3">
-        <v>-39800</v>
+        <v>138600</v>
       </c>
       <c r="H27" s="3">
-        <v>2000</v>
+        <v>-41300</v>
       </c>
       <c r="I27" s="3">
-        <v>-20400</v>
+        <v>2100</v>
       </c>
       <c r="J27" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="K27" s="3">
         <v>23500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-124700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-104800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-388400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-244000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>295200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-89400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-169900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>522800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>47600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-432600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-189600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-668700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-311900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-210900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-203100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-99800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-85700</v>
+        <v>52900</v>
       </c>
       <c r="E32" s="3">
-        <v>-116400</v>
+        <v>-100500</v>
       </c>
       <c r="F32" s="3">
-        <v>-174600</v>
+        <v>-120600</v>
       </c>
       <c r="G32" s="3">
-        <v>-9200</v>
+        <v>-180900</v>
       </c>
       <c r="H32" s="3">
-        <v>-99000</v>
+        <v>-9500</v>
       </c>
       <c r="I32" s="3">
-        <v>-6100</v>
+        <v>-102600</v>
       </c>
       <c r="J32" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-84700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>99700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>68500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>303300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-77900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-275600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>54100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>135200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-457800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>83100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>329400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>156000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>571100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>230000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>120100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>41100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-169500</v>
+        <v>-285700</v>
       </c>
       <c r="E33" s="3">
-        <v>-127600</v>
+        <v>-175600</v>
       </c>
       <c r="F33" s="3">
-        <v>133700</v>
+        <v>-132300</v>
       </c>
       <c r="G33" s="3">
-        <v>-39800</v>
+        <v>138600</v>
       </c>
       <c r="H33" s="3">
-        <v>2000</v>
+        <v>-41300</v>
       </c>
       <c r="I33" s="3">
-        <v>-20400</v>
+        <v>2100</v>
       </c>
       <c r="J33" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="K33" s="3">
         <v>23500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-124700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-104800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-388400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-244000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>295200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-89400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-169900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>522800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>47600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-432600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-189600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-668700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-311900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-210900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-203100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-99800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-169500</v>
+        <v>-285700</v>
       </c>
       <c r="E35" s="3">
-        <v>-127600</v>
+        <v>-175600</v>
       </c>
       <c r="F35" s="3">
-        <v>133700</v>
+        <v>-132300</v>
       </c>
       <c r="G35" s="3">
-        <v>-39800</v>
+        <v>138600</v>
       </c>
       <c r="H35" s="3">
-        <v>2000</v>
+        <v>-41300</v>
       </c>
       <c r="I35" s="3">
-        <v>-20400</v>
+        <v>2100</v>
       </c>
       <c r="J35" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="K35" s="3">
         <v>23500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-124700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-104800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-388400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-244000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>295200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-89400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-169900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>522800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>47600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-432600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-189600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-668700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-311900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-210900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-203100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-99800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,71 +3093,72 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2910300</v>
+        <v>2627000</v>
       </c>
       <c r="E41" s="3">
-        <v>2843900</v>
+        <v>3016400</v>
       </c>
       <c r="F41" s="3">
-        <v>2777600</v>
+        <v>2947600</v>
       </c>
       <c r="G41" s="3">
-        <v>2801100</v>
+        <v>2878800</v>
       </c>
       <c r="H41" s="3">
-        <v>2564200</v>
+        <v>2903200</v>
       </c>
       <c r="I41" s="3">
-        <v>2490800</v>
+        <v>2657700</v>
       </c>
       <c r="J41" s="3">
+        <v>2581500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2492800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1148000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1226800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1252400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1073800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1243300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1074300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1069300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1155500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1054000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1212800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>889400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>822400</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>17</v>
       </c>
@@ -3088,71 +3174,74 @@
       <c r="AB41" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>832000</v>
+        <v>917300</v>
       </c>
       <c r="E42" s="3">
-        <v>798300</v>
+        <v>862300</v>
       </c>
       <c r="F42" s="3">
-        <v>833000</v>
+        <v>827400</v>
       </c>
       <c r="G42" s="3">
-        <v>771700</v>
+        <v>863300</v>
       </c>
       <c r="H42" s="3">
-        <v>740100</v>
+        <v>799800</v>
       </c>
       <c r="I42" s="3">
-        <v>624700</v>
+        <v>767100</v>
       </c>
       <c r="J42" s="3">
+        <v>647500</v>
+      </c>
+      <c r="K42" s="3">
         <v>657400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>594500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>746300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>693800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>827600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>807800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>784000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>689400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>789500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1082400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>741000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>971700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>945800</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>17</v>
       </c>
@@ -3168,71 +3257,74 @@
       <c r="AB42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>663500</v>
+        <v>735300</v>
       </c>
       <c r="E43" s="3">
-        <v>629800</v>
+        <v>687700</v>
       </c>
       <c r="F43" s="3">
-        <v>572700</v>
+        <v>652800</v>
       </c>
       <c r="G43" s="3">
-        <v>639000</v>
+        <v>593500</v>
       </c>
       <c r="H43" s="3">
-        <v>739100</v>
+        <v>662300</v>
       </c>
       <c r="I43" s="3">
-        <v>631900</v>
+        <v>766000</v>
       </c>
       <c r="J43" s="3">
+        <v>654900</v>
+      </c>
+      <c r="K43" s="3">
         <v>563500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>466800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>411000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>398200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>413300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>474000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>475300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>507000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>470100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>475500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>399800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>356900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>362400</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>17</v>
       </c>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,71 +3423,74 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>350100</v>
+        <v>324800</v>
       </c>
       <c r="E45" s="3">
-        <v>344000</v>
+        <v>362900</v>
       </c>
       <c r="F45" s="3">
-        <v>275600</v>
+        <v>356500</v>
       </c>
       <c r="G45" s="3">
-        <v>251100</v>
+        <v>285700</v>
       </c>
       <c r="H45" s="3">
+        <v>260300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>80400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>84600</v>
+      </c>
+      <c r="K45" s="3">
+        <v>80600</v>
+      </c>
+      <c r="L45" s="3">
+        <v>150600</v>
+      </c>
+      <c r="M45" s="3">
+        <v>147400</v>
+      </c>
+      <c r="N45" s="3">
+        <v>125500</v>
+      </c>
+      <c r="O45" s="3">
+        <v>105000</v>
+      </c>
+      <c r="P45" s="3">
+        <v>79400</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>89400</v>
+      </c>
+      <c r="R45" s="3">
         <v>77600</v>
       </c>
-      <c r="I45" s="3">
-        <v>81700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>80600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>150600</v>
-      </c>
-      <c r="L45" s="3">
-        <v>147400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>125500</v>
-      </c>
-      <c r="N45" s="3">
-        <v>105000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>79400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>89400</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>77600</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>62200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>45000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>38800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>41700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>43800</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>17</v>
       </c>
@@ -3408,71 +3506,74 @@
       <c r="AB45" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4755900</v>
+        <v>4604400</v>
       </c>
       <c r="E46" s="3">
-        <v>4616100</v>
+        <v>4929200</v>
       </c>
       <c r="F46" s="3">
-        <v>4458900</v>
+        <v>4784300</v>
       </c>
       <c r="G46" s="3">
-        <v>4462900</v>
+        <v>4621300</v>
       </c>
       <c r="H46" s="3">
-        <v>4121000</v>
+        <v>4625600</v>
       </c>
       <c r="I46" s="3">
-        <v>3829000</v>
+        <v>4271100</v>
       </c>
       <c r="J46" s="3">
+        <v>3968600</v>
+      </c>
+      <c r="K46" s="3">
         <v>3794300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2359800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2531400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2469800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2419700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2604500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2423000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2343400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2477300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2656800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2392400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2259700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2174400</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>17</v>
       </c>
@@ -3488,71 +3589,74 @@
       <c r="AB46" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>643100</v>
+        <v>1204000</v>
       </c>
       <c r="E47" s="3">
-        <v>735000</v>
+        <v>666500</v>
       </c>
       <c r="F47" s="3">
-        <v>696200</v>
+        <v>761800</v>
       </c>
       <c r="G47" s="3">
-        <v>935100</v>
+        <v>721600</v>
       </c>
       <c r="H47" s="3">
-        <v>1112700</v>
+        <v>969100</v>
       </c>
       <c r="I47" s="3">
-        <v>1936500</v>
+        <v>1153200</v>
       </c>
       <c r="J47" s="3">
+        <v>2007000</v>
+      </c>
+      <c r="K47" s="3">
         <v>2574500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2271100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1879600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1881800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1481400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1747600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2055500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2215200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2750100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1947100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1760000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1064000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1087200</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>17</v>
       </c>
@@ -3568,71 +3672,74 @@
       <c r="AB47" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>852400</v>
+        <v>809400</v>
       </c>
       <c r="E48" s="3">
-        <v>835000</v>
+        <v>883400</v>
       </c>
       <c r="F48" s="3">
-        <v>828900</v>
+        <v>865400</v>
       </c>
       <c r="G48" s="3">
-        <v>825800</v>
+        <v>859100</v>
       </c>
       <c r="H48" s="3">
-        <v>828900</v>
+        <v>855900</v>
       </c>
       <c r="I48" s="3">
-        <v>808500</v>
+        <v>859100</v>
       </c>
       <c r="J48" s="3">
+        <v>837900</v>
+      </c>
+      <c r="K48" s="3">
         <v>805400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>755000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>786700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>832400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>883000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>910600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>926100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>754100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>795500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>233000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>149500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>91100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>76300</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>17</v>
       </c>
@@ -3648,71 +3755,74 @@
       <c r="AB48" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1443400</v>
+        <v>1370100</v>
       </c>
       <c r="E49" s="3">
-        <v>1262700</v>
+        <v>1496000</v>
       </c>
       <c r="F49" s="3">
-        <v>1109600</v>
+        <v>1308700</v>
       </c>
       <c r="G49" s="3">
-        <v>1003400</v>
+        <v>1150000</v>
       </c>
       <c r="H49" s="3">
-        <v>980000</v>
+        <v>1040000</v>
       </c>
       <c r="I49" s="3">
-        <v>965700</v>
+        <v>1015700</v>
       </c>
       <c r="J49" s="3">
+        <v>1000900</v>
+      </c>
+      <c r="K49" s="3">
         <v>932000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>830800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>702700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>766900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>806200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>625700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>670100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>610600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>571800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>205800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>191600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>192200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>180600</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>17</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,71 +4004,74 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>96000</v>
+        <v>91000</v>
       </c>
       <c r="E52" s="3">
-        <v>92900</v>
+        <v>99500</v>
       </c>
       <c r="F52" s="3">
-        <v>91900</v>
+        <v>96300</v>
       </c>
       <c r="G52" s="3">
-        <v>91900</v>
+        <v>95200</v>
       </c>
       <c r="H52" s="3">
-        <v>91900</v>
+        <v>95200</v>
       </c>
       <c r="I52" s="3">
-        <v>97000</v>
+        <v>95200</v>
       </c>
       <c r="J52" s="3">
+        <v>100500</v>
+      </c>
+      <c r="K52" s="3">
         <v>98000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>92800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>82000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>86200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>84700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>91100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>94300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>91800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>95700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>86400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>84200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>82400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>74100</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>17</v>
       </c>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,71 +4170,74 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7790700</v>
+        <v>8078900</v>
       </c>
       <c r="E54" s="3">
-        <v>7541700</v>
+        <v>8074700</v>
       </c>
       <c r="F54" s="3">
-        <v>7185400</v>
+        <v>7816500</v>
       </c>
       <c r="G54" s="3">
-        <v>7319100</v>
+        <v>7447300</v>
       </c>
       <c r="H54" s="3">
-        <v>7134400</v>
+        <v>7585900</v>
       </c>
       <c r="I54" s="3">
-        <v>7636600</v>
+        <v>7394400</v>
       </c>
       <c r="J54" s="3">
+        <v>7914900</v>
+      </c>
+      <c r="K54" s="3">
         <v>8204200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6309600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5982500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6037100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5674900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5979500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6169000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6014900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6690300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5129100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4577700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3689300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3592600</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>17</v>
       </c>
@@ -4128,8 +4253,11 @@
       <c r="AB54" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,71 +4317,72 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>966700</v>
+        <v>622100</v>
       </c>
       <c r="E57" s="3">
-        <v>590000</v>
+        <v>735300</v>
       </c>
       <c r="F57" s="3">
-        <v>458300</v>
+        <v>611500</v>
       </c>
       <c r="G57" s="3">
-        <v>545100</v>
+        <v>475000</v>
       </c>
       <c r="H57" s="3">
-        <v>539000</v>
+        <v>565000</v>
       </c>
       <c r="I57" s="3">
-        <v>495100</v>
+        <v>558600</v>
       </c>
       <c r="J57" s="3">
+        <v>513100</v>
+      </c>
+      <c r="K57" s="3">
         <v>449200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>432900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>440100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>398200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>425700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>440100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>431200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>338800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>305000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>349000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>291300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>282200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>286100</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>17</v>
       </c>
@@ -4268,8 +4398,11 @@
       <c r="AB57" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4303,32 +4436,32 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P58" s="3">
         <v>8200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>35300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>37100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4348,71 +4481,74 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2665300</v>
+        <v>3097800</v>
       </c>
       <c r="E59" s="3">
-        <v>2813300</v>
+        <v>3029100</v>
       </c>
       <c r="F59" s="3">
-        <v>2729600</v>
+        <v>2915800</v>
       </c>
       <c r="G59" s="3">
-        <v>2748000</v>
+        <v>2829100</v>
       </c>
       <c r="H59" s="3">
-        <v>2600000</v>
+        <v>2848100</v>
       </c>
       <c r="I59" s="3">
-        <v>2535700</v>
+        <v>2694700</v>
       </c>
       <c r="J59" s="3">
+        <v>2628100</v>
+      </c>
+      <c r="K59" s="3">
         <v>2547900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2459600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2324900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2611600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2215300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2399000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2574900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2723400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2656800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2190700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2423400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2221300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1899500</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>17</v>
       </c>
@@ -4428,71 +4564,74 @@
       <c r="AB59" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3632000</v>
+        <v>3719900</v>
       </c>
       <c r="E60" s="3">
-        <v>3403300</v>
+        <v>3764400</v>
       </c>
       <c r="F60" s="3">
-        <v>3188000</v>
+        <v>3527400</v>
       </c>
       <c r="G60" s="3">
-        <v>3293100</v>
+        <v>3304100</v>
       </c>
       <c r="H60" s="3">
-        <v>3139000</v>
+        <v>3413100</v>
       </c>
       <c r="I60" s="3">
-        <v>3030800</v>
+        <v>3253400</v>
       </c>
       <c r="J60" s="3">
+        <v>3141200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2997100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2892500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2765000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3009800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2641000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2847300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3008600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3097500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2998900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2539700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2714700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2503400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2185600</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>17</v>
       </c>
@@ -4508,59 +4647,62 @@
       <c r="AB60" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1842500</v>
+        <v>1780600</v>
       </c>
       <c r="E61" s="3">
-        <v>1754800</v>
+        <v>1909700</v>
       </c>
       <c r="F61" s="3">
-        <v>1769000</v>
+        <v>1818700</v>
       </c>
       <c r="G61" s="3">
-        <v>1818000</v>
+        <v>1833500</v>
       </c>
       <c r="H61" s="3">
-        <v>1793500</v>
+        <v>1884300</v>
       </c>
       <c r="I61" s="3">
-        <v>1811900</v>
+        <v>1858900</v>
       </c>
       <c r="J61" s="3">
+        <v>1878000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1853800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>575500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>614400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>667600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>704600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>726100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>757000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>608200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>663900</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4568,11 +4710,11 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>1146700</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4588,71 +4730,74 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>36700</v>
+        <v>38100</v>
       </c>
       <c r="E62" s="3">
-        <v>34700</v>
+        <v>38100</v>
       </c>
       <c r="F62" s="3">
-        <v>36700</v>
+        <v>36000</v>
       </c>
       <c r="G62" s="3">
-        <v>44900</v>
+        <v>38100</v>
       </c>
       <c r="H62" s="3">
-        <v>40800</v>
+        <v>46600</v>
       </c>
       <c r="I62" s="3">
-        <v>38800</v>
+        <v>42300</v>
       </c>
       <c r="J62" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K62" s="3">
         <v>41900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>43900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>43600</v>
       </c>
       <c r="M62" s="3">
         <v>43600</v>
       </c>
       <c r="N62" s="3">
+        <v>43600</v>
+      </c>
+      <c r="O62" s="3">
         <v>56500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>28000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>24500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>82500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>112400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>97500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>88900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>79700</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>17</v>
       </c>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,71 +5062,74 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5511300</v>
+        <v>5538600</v>
       </c>
       <c r="E66" s="3">
-        <v>5192800</v>
+        <v>5712100</v>
       </c>
       <c r="F66" s="3">
-        <v>4993800</v>
+        <v>5382000</v>
       </c>
       <c r="G66" s="3">
-        <v>5156100</v>
+        <v>5175700</v>
       </c>
       <c r="H66" s="3">
-        <v>4973300</v>
+        <v>5344000</v>
       </c>
       <c r="I66" s="3">
-        <v>4881500</v>
+        <v>5154600</v>
       </c>
       <c r="J66" s="3">
+        <v>5059400</v>
+      </c>
+      <c r="K66" s="3">
         <v>4892700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3511800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3423000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3721100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3402000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3601500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3790100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3726800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3745300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2652100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2812200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2592400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3412000</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>17</v>
       </c>
@@ -4988,8 +5145,11 @@
       <c r="AB66" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,71 +5508,74 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2341700</v>
+        <v>-3858500</v>
       </c>
       <c r="E72" s="3">
-        <v>-3280900</v>
+        <v>-3575000</v>
       </c>
       <c r="F72" s="3">
-        <v>-3153300</v>
+        <v>-3400400</v>
       </c>
       <c r="G72" s="3">
-        <v>-3287000</v>
+        <v>-3268200</v>
       </c>
       <c r="H72" s="3">
-        <v>-3353300</v>
+        <v>-3406800</v>
       </c>
       <c r="I72" s="3">
-        <v>-3355400</v>
+        <v>-3475500</v>
       </c>
       <c r="J72" s="3">
+        <v>-3477600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3335000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3281400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3285000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3342500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3057600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3162500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3062500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3224500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3187900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2963200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3264100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3283000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2912700</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>17</v>
       </c>
@@ -5418,8 +5591,11 @@
       <c r="AB72" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,71 +5840,74 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2279400</v>
+        <v>2540300</v>
       </c>
       <c r="E76" s="3">
-        <v>2348900</v>
+        <v>2362500</v>
       </c>
       <c r="F76" s="3">
-        <v>2191700</v>
+        <v>2434500</v>
       </c>
       <c r="G76" s="3">
-        <v>2163100</v>
+        <v>2271500</v>
       </c>
       <c r="H76" s="3">
-        <v>2161000</v>
+        <v>2241900</v>
       </c>
       <c r="I76" s="3">
-        <v>2755100</v>
+        <v>2239800</v>
       </c>
       <c r="J76" s="3">
+        <v>2855500</v>
+      </c>
+      <c r="K76" s="3">
         <v>3311500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2797700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2559500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2316000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2272900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2378000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2378900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2288100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2945000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2477000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1765500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1096900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>180600</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>17</v>
       </c>
@@ -5738,8 +5923,11 @@
       <c r="AB76" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-169500</v>
+        <v>-285700</v>
       </c>
       <c r="E81" s="3">
-        <v>-127600</v>
+        <v>-175600</v>
       </c>
       <c r="F81" s="3">
-        <v>133700</v>
+        <v>-132300</v>
       </c>
       <c r="G81" s="3">
-        <v>-39800</v>
+        <v>138600</v>
       </c>
       <c r="H81" s="3">
-        <v>2000</v>
+        <v>-41300</v>
       </c>
       <c r="I81" s="3">
-        <v>-20400</v>
+        <v>2100</v>
       </c>
       <c r="J81" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="K81" s="3">
         <v>23500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-124700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-104800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-388400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-244000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>295200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-89400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-169900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>522800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>47600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-432600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-189600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-668700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-311900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-210900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-203100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-99800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>44900</v>
+        <v>52900</v>
       </c>
       <c r="E83" s="3">
-        <v>40800</v>
+        <v>46600</v>
       </c>
       <c r="F83" s="3">
-        <v>37800</v>
+        <v>42300</v>
       </c>
       <c r="G83" s="3">
-        <v>33700</v>
+        <v>39100</v>
       </c>
       <c r="H83" s="3">
-        <v>33700</v>
+        <v>34900</v>
       </c>
       <c r="I83" s="3">
-        <v>31600</v>
+        <v>34900</v>
       </c>
       <c r="J83" s="3">
+        <v>32800</v>
+      </c>
+      <c r="K83" s="3">
         <v>30600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>28900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>29100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>30500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>29400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>28000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>26900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>25100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12300</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y83" s="3">
         <v>16800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13500</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AB83" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>40800</v>
+        <v>-74100</v>
       </c>
       <c r="E89" s="3">
-        <v>39800</v>
+        <v>42300</v>
       </c>
       <c r="F89" s="3">
-        <v>37800</v>
+        <v>41300</v>
       </c>
       <c r="G89" s="3">
-        <v>121500</v>
+        <v>39100</v>
       </c>
       <c r="H89" s="3">
-        <v>125600</v>
+        <v>125900</v>
       </c>
       <c r="I89" s="3">
-        <v>55100</v>
+        <v>130100</v>
       </c>
       <c r="J89" s="3">
+        <v>57100</v>
+      </c>
+      <c r="K89" s="3">
         <v>66400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>106700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>126600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>42500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>237000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>87000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>105900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>250000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>177400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>88600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>32900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>94200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>106600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-90900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>80800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>109200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="E91" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="F91" s="3">
-        <v>-10200</v>
+        <v>-5300</v>
       </c>
       <c r="G91" s="3">
-        <v>-16300</v>
+        <v>-10600</v>
       </c>
       <c r="H91" s="3">
-        <v>-25500</v>
+        <v>-16900</v>
       </c>
       <c r="I91" s="3">
-        <v>-20400</v>
+        <v>-26500</v>
       </c>
       <c r="J91" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-24500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-37400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-47100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-44300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-76900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-54300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-23600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-7000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-111300</v>
+        <v>-106900</v>
       </c>
       <c r="E94" s="3">
-        <v>-58200</v>
+        <v>-115300</v>
       </c>
       <c r="F94" s="3">
-        <v>-159200</v>
+        <v>-60300</v>
       </c>
       <c r="G94" s="3">
-        <v>88800</v>
+        <v>-165000</v>
       </c>
       <c r="H94" s="3">
-        <v>-123500</v>
+        <v>92000</v>
       </c>
       <c r="I94" s="3">
-        <v>-39800</v>
+        <v>-128000</v>
       </c>
       <c r="J94" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-116400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-131700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-139100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>85100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-207800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-122600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-69800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-58600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-354900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>172800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-18700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>156000</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y94" s="3">
         <v>12300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-47100</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AB94" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-21400</v>
+        <v>-22200</v>
       </c>
       <c r="E100" s="3">
-        <v>-20400</v>
+        <v>-22200</v>
       </c>
       <c r="F100" s="3">
-        <v>22500</v>
+        <v>-21200</v>
       </c>
       <c r="G100" s="3">
-        <v>-25500</v>
+        <v>23300</v>
       </c>
       <c r="H100" s="3">
-        <v>19400</v>
+        <v>-26500</v>
       </c>
       <c r="I100" s="3">
-        <v>6100</v>
+        <v>20100</v>
       </c>
       <c r="J100" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K100" s="3">
         <v>1276000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>32900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>88200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>98200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>86900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>127200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-89400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-165900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-117200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-65100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>54300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>60400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>48200</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y100" s="3">
         <v>10100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2200</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AB100" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>158200</v>
+        <v>-186200</v>
       </c>
       <c r="E101" s="3">
-        <v>105100</v>
+        <v>164000</v>
       </c>
       <c r="F101" s="3">
-        <v>75500</v>
+        <v>109000</v>
       </c>
       <c r="G101" s="3">
-        <v>52100</v>
+        <v>78300</v>
       </c>
       <c r="H101" s="3">
-        <v>52100</v>
+        <v>54000</v>
       </c>
       <c r="I101" s="3">
-        <v>-23500</v>
+        <v>54000</v>
       </c>
       <c r="J101" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="K101" s="3">
         <v>91900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-38900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-40500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-22200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>33100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>15600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1200</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>9900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-11200</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-39300</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA101" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AB101" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>66400</v>
+        <v>-389300</v>
       </c>
       <c r="E102" s="3">
-        <v>66400</v>
+        <v>68800</v>
       </c>
       <c r="F102" s="3">
-        <v>-23500</v>
+        <v>68800</v>
       </c>
       <c r="G102" s="3">
-        <v>236800</v>
+        <v>-24300</v>
       </c>
       <c r="H102" s="3">
-        <v>73500</v>
+        <v>245500</v>
       </c>
       <c r="I102" s="3">
-        <v>-2000</v>
+        <v>76200</v>
       </c>
       <c r="J102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K102" s="3">
         <v>1317900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-30900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>35300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>214900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-128700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>219500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-39200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-67100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>89700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-241300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>315700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>84500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>287200</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-71800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AB102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>SPOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3349600</v>
+        <v>3275900</v>
       </c>
       <c r="E8" s="3">
-        <v>3212100</v>
+        <v>3409500</v>
       </c>
       <c r="F8" s="3">
-        <v>3030100</v>
+        <v>3269500</v>
       </c>
       <c r="G8" s="3">
-        <v>2815300</v>
+        <v>3084200</v>
       </c>
       <c r="H8" s="3">
-        <v>2845000</v>
+        <v>2865600</v>
       </c>
       <c r="I8" s="3">
-        <v>2646100</v>
+        <v>2895800</v>
       </c>
       <c r="J8" s="3">
+        <v>2693300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2466200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2191700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2162400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2049900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2060700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2086600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2165500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2120500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1961100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1807500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1768400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1497500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1397800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1277900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1289200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1157900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1129800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1058800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1023600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>876800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2502200</v>
+        <v>2451000</v>
       </c>
       <c r="E9" s="3">
-        <v>2418600</v>
+        <v>2546900</v>
       </c>
       <c r="F9" s="3">
-        <v>2285300</v>
+        <v>2461800</v>
       </c>
       <c r="G9" s="3">
-        <v>2105400</v>
+        <v>2326100</v>
       </c>
       <c r="H9" s="3">
-        <v>2091700</v>
+        <v>2143000</v>
       </c>
       <c r="I9" s="3">
-        <v>1939300</v>
+        <v>2129000</v>
       </c>
       <c r="J9" s="3">
+        <v>1974000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1764700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1632300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1588900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1542300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1538200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1553600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1612200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1580200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1450500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1361300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1296500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1118700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1036500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>960400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>972800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>899800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>869500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>935500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>844000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>744200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>847500</v>
+        <v>824900</v>
       </c>
       <c r="E10" s="3">
-        <v>793500</v>
+        <v>862600</v>
       </c>
       <c r="F10" s="3">
-        <v>744800</v>
+        <v>807700</v>
       </c>
       <c r="G10" s="3">
-        <v>709900</v>
+        <v>758100</v>
       </c>
       <c r="H10" s="3">
-        <v>753300</v>
+        <v>722600</v>
       </c>
       <c r="I10" s="3">
-        <v>706700</v>
+        <v>766800</v>
       </c>
       <c r="J10" s="3">
+        <v>719400</v>
+      </c>
+      <c r="K10" s="3">
         <v>701500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>559400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>573500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>507500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>522500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>532900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>553400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>540200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>510600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>446200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>472000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>378800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>361200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>317500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>316400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>258100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>260300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>123300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>179600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>425300</v>
+        <v>468500</v>
       </c>
       <c r="E12" s="3">
-        <v>397800</v>
+        <v>432900</v>
       </c>
       <c r="F12" s="3">
-        <v>346000</v>
+        <v>404900</v>
       </c>
       <c r="G12" s="3">
-        <v>256000</v>
+        <v>352100</v>
       </c>
       <c r="H12" s="3">
-        <v>261300</v>
+        <v>260600</v>
       </c>
       <c r="I12" s="3">
-        <v>213700</v>
+        <v>266000</v>
       </c>
       <c r="J12" s="3">
+        <v>217500</v>
+      </c>
+      <c r="K12" s="3">
         <v>262400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>194000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>225400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>177500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>286900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>178400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>197300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>162900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>174100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>181800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>118300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>149500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>157000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>129000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>138000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>110000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>106600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>93900</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>72800</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,50 +1242,53 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>2100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3">
         <v>3200</v>
       </c>
-      <c r="G14" s="3">
-        <v>2100</v>
-      </c>
       <c r="H14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I14" s="3">
         <v>3200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>3400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1278,15 +1298,15 @@
       <c r="S14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>1100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1297,81 +1317,84 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>1100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>13800</v>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E15" s="3">
-        <v>10600</v>
+        <v>14000</v>
       </c>
       <c r="F15" s="3">
-        <v>9500</v>
+        <v>10800</v>
       </c>
       <c r="G15" s="3">
-        <v>8500</v>
+        <v>9700</v>
       </c>
       <c r="H15" s="3">
-        <v>6300</v>
+        <v>8600</v>
       </c>
       <c r="I15" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="J15" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K15" s="3">
         <v>7400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3600</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3594000</v>
+        <v>3443900</v>
       </c>
       <c r="E17" s="3">
-        <v>3453300</v>
+        <v>3658200</v>
       </c>
       <c r="F17" s="3">
-        <v>3235400</v>
+        <v>3515000</v>
       </c>
       <c r="G17" s="3">
-        <v>2821700</v>
+        <v>3293200</v>
       </c>
       <c r="H17" s="3">
-        <v>2852400</v>
+        <v>2872100</v>
       </c>
       <c r="I17" s="3">
-        <v>2566700</v>
+        <v>2903300</v>
       </c>
       <c r="J17" s="3">
+        <v>2612600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2453500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2177400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2231200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2091400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2242900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2105800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2255400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2054300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1964600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1863700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1657200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1505200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1496600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1323900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1386800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1239800</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>1219600</v>
       </c>
       <c r="AA17" s="3">
         <v>1219600</v>
       </c>
       <c r="AB17" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="AC17" s="3">
         <v>1125700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>954300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-244400</v>
+        <v>-168000</v>
       </c>
       <c r="E18" s="3">
-        <v>-241200</v>
+        <v>-248800</v>
       </c>
       <c r="F18" s="3">
-        <v>-205300</v>
+        <v>-245500</v>
       </c>
       <c r="G18" s="3">
-        <v>-6300</v>
+        <v>-208900</v>
       </c>
       <c r="H18" s="3">
-        <v>-7400</v>
+        <v>-6500</v>
       </c>
       <c r="I18" s="3">
-        <v>79300</v>
+        <v>-7500</v>
       </c>
       <c r="J18" s="3">
+        <v>80800</v>
+      </c>
+      <c r="K18" s="3">
         <v>12700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-68800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-41500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-182200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-89900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>66100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-56200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>111200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-7800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-98800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-46000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-97600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-81900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-89800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-160800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-102100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-77500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,239 +1649,246 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-52900</v>
+        <v>-53800</v>
       </c>
       <c r="E20" s="3">
-        <v>100500</v>
+        <v>-53800</v>
       </c>
       <c r="F20" s="3">
-        <v>120600</v>
+        <v>102300</v>
       </c>
       <c r="G20" s="3">
-        <v>180900</v>
+        <v>122800</v>
       </c>
       <c r="H20" s="3">
-        <v>9500</v>
+        <v>184100</v>
       </c>
       <c r="I20" s="3">
-        <v>102600</v>
+        <v>9700</v>
       </c>
       <c r="J20" s="3">
+        <v>104500</v>
+      </c>
+      <c r="K20" s="3">
         <v>6300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>84700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-99700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-68500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-303300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>77900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>275600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-54100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-135200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>457800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-83100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-329400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-156000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-571100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-230000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-120100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-41100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-71600</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-244400</v>
+        <v>-174500</v>
       </c>
       <c r="E21" s="3">
-        <v>-94200</v>
+        <v>-248800</v>
       </c>
       <c r="F21" s="3">
-        <v>-42300</v>
+        <v>-95800</v>
       </c>
       <c r="G21" s="3">
-        <v>213700</v>
+        <v>-43100</v>
       </c>
       <c r="H21" s="3">
-        <v>37000</v>
+        <v>217500</v>
       </c>
       <c r="I21" s="3">
-        <v>216900</v>
+        <v>37700</v>
       </c>
       <c r="J21" s="3">
+        <v>220800</v>
+      </c>
+      <c r="K21" s="3">
         <v>51800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>129600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-139600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-81000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-454900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>88100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-162300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>368700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-34100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-166300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>578400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-83100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-421600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-189600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-700100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-295100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-196300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-185500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-98600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="H22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K22" s="3">
         <v>10600</v>
       </c>
-      <c r="E22" s="3">
-        <v>11600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>10600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>10600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>10600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>10600</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10800</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W22" s="3">
         <v>2200</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>17</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>17</v>
@@ -1865,174 +1905,183 @@
       <c r="AC22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-307900</v>
+        <v>-221800</v>
       </c>
       <c r="E23" s="3">
-        <v>-152400</v>
+        <v>-313400</v>
       </c>
       <c r="F23" s="3">
-        <v>-95200</v>
+        <v>-155100</v>
       </c>
       <c r="G23" s="3">
-        <v>164000</v>
+        <v>-96900</v>
       </c>
       <c r="H23" s="3">
-        <v>-8500</v>
+        <v>166900</v>
       </c>
       <c r="I23" s="3">
-        <v>171400</v>
+        <v>-8600</v>
       </c>
       <c r="J23" s="3">
+        <v>174500</v>
+      </c>
+      <c r="K23" s="3">
         <v>8500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>88800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-178500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-120400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-496400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>46300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-202000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>330700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-69400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-202200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>569000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-90800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-430400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-202000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-668700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-311900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-209800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-201900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-99800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-149100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-22200</v>
+        <v>20500</v>
       </c>
       <c r="E24" s="3">
-        <v>23300</v>
+        <v>-22600</v>
       </c>
       <c r="F24" s="3">
-        <v>37000</v>
+        <v>23700</v>
       </c>
       <c r="G24" s="3">
-        <v>25400</v>
+        <v>37700</v>
       </c>
       <c r="H24" s="3">
-        <v>32800</v>
+        <v>25800</v>
       </c>
       <c r="I24" s="3">
-        <v>169300</v>
+        <v>33400</v>
       </c>
       <c r="J24" s="3">
+        <v>172300</v>
+      </c>
+      <c r="K24" s="3">
         <v>29600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>65300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-53900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-15600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-108000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>45200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>42000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>35500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-32300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>46100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-138500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-12300</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>1100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1200</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
       <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-285700</v>
+        <v>-242300</v>
       </c>
       <c r="E26" s="3">
-        <v>-175600</v>
+        <v>-290800</v>
       </c>
       <c r="F26" s="3">
-        <v>-132300</v>
+        <v>-178800</v>
       </c>
       <c r="G26" s="3">
-        <v>138600</v>
+        <v>-134600</v>
       </c>
       <c r="H26" s="3">
-        <v>-41300</v>
+        <v>141100</v>
       </c>
       <c r="I26" s="3">
-        <v>2100</v>
+        <v>-42000</v>
       </c>
       <c r="J26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-21200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>23500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-124700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-104800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-388400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-244000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>295200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-89400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-169900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>522800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>47600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-432600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-189600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-668700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-311900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-210900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-203100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-99800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-285700</v>
+        <v>-242300</v>
       </c>
       <c r="E27" s="3">
-        <v>-175600</v>
+        <v>-290800</v>
       </c>
       <c r="F27" s="3">
-        <v>-132300</v>
+        <v>-178800</v>
       </c>
       <c r="G27" s="3">
-        <v>138600</v>
+        <v>-134600</v>
       </c>
       <c r="H27" s="3">
-        <v>-41300</v>
+        <v>141100</v>
       </c>
       <c r="I27" s="3">
-        <v>2100</v>
+        <v>-42000</v>
       </c>
       <c r="J27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-21200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-124700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-104800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-388400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-244000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>295200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-89400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-169900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>522800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>47600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-432600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-189600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-668700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-311900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-210900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-203100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-99800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>52900</v>
+        <v>53800</v>
       </c>
       <c r="E32" s="3">
-        <v>-100500</v>
+        <v>53800</v>
       </c>
       <c r="F32" s="3">
-        <v>-120600</v>
+        <v>-102300</v>
       </c>
       <c r="G32" s="3">
-        <v>-180900</v>
+        <v>-122800</v>
       </c>
       <c r="H32" s="3">
-        <v>-9500</v>
+        <v>-184100</v>
       </c>
       <c r="I32" s="3">
-        <v>-102600</v>
+        <v>-9700</v>
       </c>
       <c r="J32" s="3">
+        <v>-104500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-84700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>99700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>68500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>303300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-77900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-275600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>54100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>135200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-457800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>83100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>329400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>156000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>571100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>230000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>120100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>41100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-285700</v>
+        <v>-242300</v>
       </c>
       <c r="E33" s="3">
-        <v>-175600</v>
+        <v>-290800</v>
       </c>
       <c r="F33" s="3">
-        <v>-132300</v>
+        <v>-178800</v>
       </c>
       <c r="G33" s="3">
-        <v>138600</v>
+        <v>-134600</v>
       </c>
       <c r="H33" s="3">
-        <v>-41300</v>
+        <v>141100</v>
       </c>
       <c r="I33" s="3">
-        <v>2100</v>
+        <v>-42000</v>
       </c>
       <c r="J33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-21200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-124700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-104800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-388400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-244000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>295200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-89400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-169900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>522800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>47600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-432600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-189600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-668700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-311900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-210900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-203100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-99800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-285700</v>
+        <v>-242300</v>
       </c>
       <c r="E35" s="3">
-        <v>-175600</v>
+        <v>-290800</v>
       </c>
       <c r="F35" s="3">
-        <v>-132300</v>
+        <v>-178800</v>
       </c>
       <c r="G35" s="3">
-        <v>138600</v>
+        <v>-134600</v>
       </c>
       <c r="H35" s="3">
-        <v>-41300</v>
+        <v>141100</v>
       </c>
       <c r="I35" s="3">
-        <v>2100</v>
+        <v>-42000</v>
       </c>
       <c r="J35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-21200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-124700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-104800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-388400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-244000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>295200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-89400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-169900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>522800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>47600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-432600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-189600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-668700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-311900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-210900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-203100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-99800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,74 +3180,75 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2627000</v>
+        <v>2630900</v>
       </c>
       <c r="E41" s="3">
-        <v>3016400</v>
+        <v>2673900</v>
       </c>
       <c r="F41" s="3">
-        <v>2947600</v>
+        <v>3070200</v>
       </c>
       <c r="G41" s="3">
-        <v>2878800</v>
+        <v>3000200</v>
       </c>
       <c r="H41" s="3">
-        <v>2903200</v>
+        <v>2930200</v>
       </c>
       <c r="I41" s="3">
-        <v>2657700</v>
+        <v>2955000</v>
       </c>
       <c r="J41" s="3">
+        <v>2705200</v>
+      </c>
+      <c r="K41" s="3">
         <v>2581500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2492800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1148000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1226800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1252400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1073800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1243300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1074300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1069300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1155500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1054000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1212800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>889400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>822400</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>17</v>
       </c>
@@ -3177,74 +3264,77 @@
       <c r="AC41" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>917300</v>
+        <v>1071500</v>
       </c>
       <c r="E42" s="3">
-        <v>862300</v>
+        <v>933700</v>
       </c>
       <c r="F42" s="3">
-        <v>827400</v>
+        <v>877700</v>
       </c>
       <c r="G42" s="3">
-        <v>863300</v>
+        <v>842100</v>
       </c>
       <c r="H42" s="3">
-        <v>799800</v>
+        <v>878800</v>
       </c>
       <c r="I42" s="3">
-        <v>767100</v>
+        <v>814100</v>
       </c>
       <c r="J42" s="3">
+        <v>780800</v>
+      </c>
+      <c r="K42" s="3">
         <v>647500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>657400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>594500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>746300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>693800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>827600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>807800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>784000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>689400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>789500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1082400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>741000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>971700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>945800</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y42" s="3" t="s">
         <v>17</v>
       </c>
@@ -3260,74 +3350,77 @@
       <c r="AC42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>735300</v>
+        <v>603100</v>
       </c>
       <c r="E43" s="3">
-        <v>687700</v>
+        <v>748400</v>
       </c>
       <c r="F43" s="3">
-        <v>652800</v>
+        <v>700000</v>
       </c>
       <c r="G43" s="3">
-        <v>593500</v>
+        <v>664400</v>
       </c>
       <c r="H43" s="3">
-        <v>662300</v>
+        <v>604100</v>
       </c>
       <c r="I43" s="3">
-        <v>766000</v>
+        <v>674100</v>
       </c>
       <c r="J43" s="3">
+        <v>779700</v>
+      </c>
+      <c r="K43" s="3">
         <v>654900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>563500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>466800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>411000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>398200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>413300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>474000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>475300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>507000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>470100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>475500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>399800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>356900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>362400</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>17</v>
       </c>
@@ -3343,8 +3436,11 @@
       <c r="AC43" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,74 +3522,77 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>324800</v>
+        <v>317700</v>
       </c>
       <c r="E45" s="3">
+        <v>330600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>369400</v>
+      </c>
+      <c r="G45" s="3">
         <v>362900</v>
       </c>
-      <c r="F45" s="3">
-        <v>356500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>285700</v>
-      </c>
       <c r="H45" s="3">
-        <v>260300</v>
+        <v>290800</v>
       </c>
       <c r="I45" s="3">
-        <v>80400</v>
+        <v>264900</v>
       </c>
       <c r="J45" s="3">
+        <v>81800</v>
+      </c>
+      <c r="K45" s="3">
         <v>84600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>80600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>150600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>147400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>125500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>105000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>79400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>89400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>77600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>62200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>45000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>38800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>41700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>43800</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>17</v>
       </c>
@@ -3509,74 +3608,77 @@
       <c r="AC45" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4604400</v>
+        <v>4623100</v>
       </c>
       <c r="E46" s="3">
-        <v>4929200</v>
+        <v>4686700</v>
       </c>
       <c r="F46" s="3">
-        <v>4784300</v>
+        <v>5017300</v>
       </c>
       <c r="G46" s="3">
-        <v>4621300</v>
+        <v>4869700</v>
       </c>
       <c r="H46" s="3">
-        <v>4625600</v>
+        <v>4703900</v>
       </c>
       <c r="I46" s="3">
-        <v>4271100</v>
+        <v>4708200</v>
       </c>
       <c r="J46" s="3">
+        <v>4347400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3968600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3794300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2359800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2531400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2469800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2419700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2604500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2423000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2343400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2477300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2656800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2392400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2259700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2174400</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>17</v>
       </c>
@@ -3592,74 +3694,77 @@
       <c r="AC46" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1204000</v>
+        <v>1221200</v>
       </c>
       <c r="E47" s="3">
-        <v>666500</v>
+        <v>1225500</v>
       </c>
       <c r="F47" s="3">
-        <v>761800</v>
+        <v>678400</v>
       </c>
       <c r="G47" s="3">
-        <v>721600</v>
+        <v>775400</v>
       </c>
       <c r="H47" s="3">
-        <v>969100</v>
+        <v>734400</v>
       </c>
       <c r="I47" s="3">
-        <v>1153200</v>
+        <v>986400</v>
       </c>
       <c r="J47" s="3">
+        <v>1173800</v>
+      </c>
+      <c r="K47" s="3">
         <v>2007000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2574500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2271100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1879600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1881800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1481400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1747600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2055500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2215200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2750100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1947100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1760000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1064000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1087200</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>17</v>
       </c>
@@ -3675,74 +3780,77 @@
       <c r="AC47" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>809400</v>
+        <v>801200</v>
       </c>
       <c r="E48" s="3">
-        <v>883400</v>
+        <v>823800</v>
       </c>
       <c r="F48" s="3">
-        <v>865400</v>
+        <v>899200</v>
       </c>
       <c r="G48" s="3">
-        <v>859100</v>
+        <v>880900</v>
       </c>
       <c r="H48" s="3">
-        <v>855900</v>
+        <v>874400</v>
       </c>
       <c r="I48" s="3">
-        <v>859100</v>
+        <v>871200</v>
       </c>
       <c r="J48" s="3">
+        <v>874400</v>
+      </c>
+      <c r="K48" s="3">
         <v>837900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>805400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>755000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>786700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>832400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>883000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>910600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>926100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>754100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>795500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>233000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>149500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>91100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>76300</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>17</v>
       </c>
@@ -3758,74 +3866,77 @@
       <c r="AC48" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1370100</v>
+        <v>1367700</v>
       </c>
       <c r="E49" s="3">
-        <v>1496000</v>
+        <v>1394600</v>
       </c>
       <c r="F49" s="3">
-        <v>1308700</v>
+        <v>1522700</v>
       </c>
       <c r="G49" s="3">
-        <v>1150000</v>
+        <v>1332100</v>
       </c>
       <c r="H49" s="3">
-        <v>1040000</v>
+        <v>1170600</v>
       </c>
       <c r="I49" s="3">
-        <v>1015700</v>
+        <v>1058600</v>
       </c>
       <c r="J49" s="3">
+        <v>1033800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1000900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>932000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>830800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>702700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>766900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>806200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>625700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>670100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>610600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>571800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>205800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>191600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>192200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>180600</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>17</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,74 +4124,77 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>91000</v>
+        <v>94800</v>
       </c>
       <c r="E52" s="3">
-        <v>99500</v>
+        <v>92600</v>
       </c>
       <c r="F52" s="3">
-        <v>96300</v>
+        <v>101200</v>
       </c>
       <c r="G52" s="3">
-        <v>95200</v>
+        <v>98000</v>
       </c>
       <c r="H52" s="3">
-        <v>95200</v>
+        <v>96900</v>
       </c>
       <c r="I52" s="3">
-        <v>95200</v>
+        <v>96900</v>
       </c>
       <c r="J52" s="3">
+        <v>96900</v>
+      </c>
+      <c r="K52" s="3">
         <v>100500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>98000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>92800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>82000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>86200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>84700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>91100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>94300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>91800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>95700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>86400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>84200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>82400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>74100</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>17</v>
       </c>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,74 +4296,77 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8078900</v>
+        <v>8108000</v>
       </c>
       <c r="E54" s="3">
-        <v>8074700</v>
+        <v>8223200</v>
       </c>
       <c r="F54" s="3">
-        <v>7816500</v>
+        <v>8218900</v>
       </c>
       <c r="G54" s="3">
-        <v>7447300</v>
+        <v>7956100</v>
       </c>
       <c r="H54" s="3">
-        <v>7585900</v>
+        <v>7580300</v>
       </c>
       <c r="I54" s="3">
-        <v>7394400</v>
+        <v>7721400</v>
       </c>
       <c r="J54" s="3">
+        <v>7526500</v>
+      </c>
+      <c r="K54" s="3">
         <v>7914900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8204200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6309600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5982500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6037100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5674900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5979500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6169000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6014900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6690300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5129100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4577700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3689300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3592600</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>17</v>
       </c>
@@ -4256,8 +4382,11 @@
       <c r="AC54" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,74 +4448,75 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>622100</v>
+        <v>915400</v>
       </c>
       <c r="E57" s="3">
-        <v>735300</v>
+        <v>633200</v>
       </c>
       <c r="F57" s="3">
-        <v>611500</v>
+        <v>748400</v>
       </c>
       <c r="G57" s="3">
-        <v>475000</v>
+        <v>622400</v>
       </c>
       <c r="H57" s="3">
-        <v>565000</v>
+        <v>483500</v>
       </c>
       <c r="I57" s="3">
-        <v>558600</v>
+        <v>575100</v>
       </c>
       <c r="J57" s="3">
+        <v>568600</v>
+      </c>
+      <c r="K57" s="3">
         <v>513100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>449200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>432900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>440100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>398200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>425700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>440100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>431200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>338800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>305000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>349000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>291300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>282200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>286100</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>17</v>
       </c>
@@ -4401,8 +4532,11 @@
       <c r="AC57" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4439,32 +4573,32 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q58" s="3">
         <v>8200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>35300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>37100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4484,74 +4618,77 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3097800</v>
+        <v>2809600</v>
       </c>
       <c r="E59" s="3">
-        <v>3029100</v>
+        <v>3153200</v>
       </c>
       <c r="F59" s="3">
-        <v>2915800</v>
+        <v>3083200</v>
       </c>
       <c r="G59" s="3">
-        <v>2829100</v>
+        <v>2967900</v>
       </c>
       <c r="H59" s="3">
-        <v>2848100</v>
+        <v>2879600</v>
       </c>
       <c r="I59" s="3">
-        <v>2694700</v>
+        <v>2899000</v>
       </c>
       <c r="J59" s="3">
+        <v>2742900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2628100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2547900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2459600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2324900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2611600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2215300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2399000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2574900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2723400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2656800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2190700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2423400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2221300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1899500</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>17</v>
       </c>
@@ -4567,74 +4704,77 @@
       <c r="AC59" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3719900</v>
+        <v>3725000</v>
       </c>
       <c r="E60" s="3">
-        <v>3764400</v>
+        <v>3786400</v>
       </c>
       <c r="F60" s="3">
-        <v>3527400</v>
+        <v>3831600</v>
       </c>
       <c r="G60" s="3">
-        <v>3304100</v>
+        <v>3590400</v>
       </c>
       <c r="H60" s="3">
-        <v>3413100</v>
+        <v>3363200</v>
       </c>
       <c r="I60" s="3">
-        <v>3253400</v>
+        <v>3474100</v>
       </c>
       <c r="J60" s="3">
+        <v>3311500</v>
+      </c>
+      <c r="K60" s="3">
         <v>3141200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2997100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2892500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2765000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3009800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2641000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2847300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3008600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3097500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2998900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2539700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2714700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2503400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2185600</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>17</v>
       </c>
@@ -4650,62 +4790,65 @@
       <c r="AC60" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1780600</v>
+        <v>1832900</v>
       </c>
       <c r="E61" s="3">
-        <v>1909700</v>
+        <v>1812400</v>
       </c>
       <c r="F61" s="3">
-        <v>1818700</v>
+        <v>1943800</v>
       </c>
       <c r="G61" s="3">
-        <v>1833500</v>
+        <v>1851200</v>
       </c>
       <c r="H61" s="3">
-        <v>1884300</v>
+        <v>1866300</v>
       </c>
       <c r="I61" s="3">
-        <v>1858900</v>
+        <v>1918000</v>
       </c>
       <c r="J61" s="3">
+        <v>1892100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1878000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1853800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>575500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>614400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>667600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>704600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>726100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>757000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>608200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>663900</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4713,11 +4856,11 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>1146700</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4733,74 +4876,77 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38100</v>
+        <v>28000</v>
       </c>
       <c r="E62" s="3">
-        <v>38100</v>
+        <v>38800</v>
       </c>
       <c r="F62" s="3">
-        <v>36000</v>
+        <v>38800</v>
       </c>
       <c r="G62" s="3">
-        <v>38100</v>
+        <v>36600</v>
       </c>
       <c r="H62" s="3">
-        <v>46600</v>
+        <v>38800</v>
       </c>
       <c r="I62" s="3">
-        <v>42300</v>
+        <v>47400</v>
       </c>
       <c r="J62" s="3">
+        <v>43100</v>
+      </c>
+      <c r="K62" s="3">
         <v>40200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>41900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>43900</v>
-      </c>
-      <c r="M62" s="3">
-        <v>43600</v>
       </c>
       <c r="N62" s="3">
         <v>43600</v>
       </c>
       <c r="O62" s="3">
+        <v>43600</v>
+      </c>
+      <c r="P62" s="3">
         <v>56500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>28000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>24500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>82500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>112400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>97500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>88900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>79700</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>17</v>
       </c>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,74 +5220,77 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5538600</v>
+        <v>5585900</v>
       </c>
       <c r="E66" s="3">
-        <v>5712100</v>
+        <v>5637600</v>
       </c>
       <c r="F66" s="3">
-        <v>5382000</v>
+        <v>5814200</v>
       </c>
       <c r="G66" s="3">
-        <v>5175700</v>
+        <v>5478200</v>
       </c>
       <c r="H66" s="3">
-        <v>5344000</v>
+        <v>5268200</v>
       </c>
       <c r="I66" s="3">
-        <v>5154600</v>
+        <v>5439400</v>
       </c>
       <c r="J66" s="3">
+        <v>5246700</v>
+      </c>
+      <c r="K66" s="3">
         <v>5059400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4892700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3511800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3423000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3721100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3402000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3601500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3790100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3726800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3745300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2652100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2812200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2592400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3412000</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>17</v>
       </c>
@@ -5148,8 +5306,11 @@
       <c r="AC66" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,74 +5682,77 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3858500</v>
+        <v>-2433800</v>
       </c>
       <c r="E72" s="3">
-        <v>-3575000</v>
+        <v>-3927500</v>
       </c>
       <c r="F72" s="3">
-        <v>-3400400</v>
+        <v>-3638800</v>
       </c>
       <c r="G72" s="3">
-        <v>-3268200</v>
+        <v>-3461200</v>
       </c>
       <c r="H72" s="3">
-        <v>-3406800</v>
+        <v>-3326500</v>
       </c>
       <c r="I72" s="3">
-        <v>-3475500</v>
+        <v>-3467600</v>
       </c>
       <c r="J72" s="3">
+        <v>-3537600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3477600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3335000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3281400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3285000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3342500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3057600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3162500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3062500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3224500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3187900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2963200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3264100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3283000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2912700</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>17</v>
       </c>
@@ -5594,8 +5768,11 @@
       <c r="AC72" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,74 +6026,77 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2540300</v>
+        <v>2522100</v>
       </c>
       <c r="E76" s="3">
-        <v>2362500</v>
+        <v>2585600</v>
       </c>
       <c r="F76" s="3">
-        <v>2434500</v>
+        <v>2404700</v>
       </c>
       <c r="G76" s="3">
-        <v>2271500</v>
+        <v>2477900</v>
       </c>
       <c r="H76" s="3">
-        <v>2241900</v>
+        <v>2312100</v>
       </c>
       <c r="I76" s="3">
-        <v>2239800</v>
+        <v>2282000</v>
       </c>
       <c r="J76" s="3">
+        <v>2279800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2855500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3311500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2797700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2559500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2316000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2272900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2378000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2378900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2288100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2945000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2477000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1765500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1096900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>180600</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>17</v>
       </c>
@@ -5926,8 +6112,11 @@
       <c r="AC76" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-285700</v>
+        <v>-242300</v>
       </c>
       <c r="E81" s="3">
-        <v>-175600</v>
+        <v>-290800</v>
       </c>
       <c r="F81" s="3">
-        <v>-132300</v>
+        <v>-178800</v>
       </c>
       <c r="G81" s="3">
-        <v>138600</v>
+        <v>-134600</v>
       </c>
       <c r="H81" s="3">
-        <v>-41300</v>
+        <v>141100</v>
       </c>
       <c r="I81" s="3">
-        <v>2100</v>
+        <v>-42000</v>
       </c>
       <c r="J81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-21200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-124700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-104800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-388400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-244000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>295200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-89400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-169900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>522800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>47600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-432600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-189600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-668700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-311900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-210900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-203100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-99800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>52900</v>
+        <v>47400</v>
       </c>
       <c r="E83" s="3">
-        <v>46600</v>
+        <v>53800</v>
       </c>
       <c r="F83" s="3">
-        <v>42300</v>
+        <v>47400</v>
       </c>
       <c r="G83" s="3">
-        <v>39100</v>
+        <v>43100</v>
       </c>
       <c r="H83" s="3">
-        <v>34900</v>
+        <v>39800</v>
       </c>
       <c r="I83" s="3">
-        <v>34900</v>
+        <v>35500</v>
       </c>
       <c r="J83" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K83" s="3">
         <v>32800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>29100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>29400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>28000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>26900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>25100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12300</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z83" s="3">
         <v>16800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>13500</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AB83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AC83" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-74100</v>
+        <v>63500</v>
       </c>
       <c r="E89" s="3">
-        <v>42300</v>
+        <v>-75400</v>
       </c>
       <c r="F89" s="3">
-        <v>41300</v>
+        <v>43100</v>
       </c>
       <c r="G89" s="3">
-        <v>39100</v>
+        <v>42000</v>
       </c>
       <c r="H89" s="3">
-        <v>125900</v>
+        <v>39800</v>
       </c>
       <c r="I89" s="3">
-        <v>130100</v>
+        <v>128200</v>
       </c>
       <c r="J89" s="3">
+        <v>132500</v>
+      </c>
+      <c r="K89" s="3">
         <v>57100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>66400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>106700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>126600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>42500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>237000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>87000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>105900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>250000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>177400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>88600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>32900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>94200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>106600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-90900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>80800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>109200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5300</v>
+        <v>-2000</v>
       </c>
       <c r="E91" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="F91" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="G91" s="3">
-        <v>-10600</v>
+        <v>-5000</v>
       </c>
       <c r="H91" s="3">
-        <v>-16900</v>
+        <v>-10000</v>
       </c>
       <c r="I91" s="3">
-        <v>-26500</v>
+        <v>-16000</v>
       </c>
       <c r="J91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-21200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-37400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-31800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-47100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-44300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-76900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-54300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-23600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-10100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-7000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-106900</v>
+        <v>-131400</v>
       </c>
       <c r="E94" s="3">
-        <v>-115300</v>
+        <v>-108800</v>
       </c>
       <c r="F94" s="3">
-        <v>-60300</v>
+        <v>-117400</v>
       </c>
       <c r="G94" s="3">
-        <v>-165000</v>
+        <v>-61400</v>
       </c>
       <c r="H94" s="3">
-        <v>92000</v>
+        <v>-168000</v>
       </c>
       <c r="I94" s="3">
-        <v>-128000</v>
+        <v>93700</v>
       </c>
       <c r="J94" s="3">
+        <v>-130300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-41300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-116400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-131700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-139100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>85100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-207800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-122600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-69800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-58600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-354900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>172800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-18700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>156000</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z94" s="3">
         <v>12300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-47100</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AC94" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22200</v>
+        <v>51700</v>
       </c>
       <c r="E100" s="3">
-        <v>-22200</v>
+        <v>-22600</v>
       </c>
       <c r="F100" s="3">
-        <v>-21200</v>
+        <v>-22600</v>
       </c>
       <c r="G100" s="3">
-        <v>23300</v>
+        <v>-21500</v>
       </c>
       <c r="H100" s="3">
-        <v>-26500</v>
+        <v>23700</v>
       </c>
       <c r="I100" s="3">
-        <v>20100</v>
+        <v>-26900</v>
       </c>
       <c r="J100" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K100" s="3">
         <v>6300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1276000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>32900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>88200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>98200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>86900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>127200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-89400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-165900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-117200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-65100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>54300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>60400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>48200</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z100" s="3">
         <v>10100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2200</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AB100" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AC100" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-186200</v>
+        <v>-26900</v>
       </c>
       <c r="E101" s="3">
-        <v>164000</v>
+        <v>-189500</v>
       </c>
       <c r="F101" s="3">
-        <v>109000</v>
+        <v>166900</v>
       </c>
       <c r="G101" s="3">
-        <v>78300</v>
+        <v>110900</v>
       </c>
       <c r="H101" s="3">
-        <v>54000</v>
+        <v>79700</v>
       </c>
       <c r="I101" s="3">
-        <v>54000</v>
+        <v>54900</v>
       </c>
       <c r="J101" s="3">
+        <v>54900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-24300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>91900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-38900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-40500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-10900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-22200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>33100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>15600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1200</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>9900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-11200</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-39300</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AB101" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AC101" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-389300</v>
+        <v>-43100</v>
       </c>
       <c r="E102" s="3">
-        <v>68800</v>
+        <v>-396300</v>
       </c>
       <c r="F102" s="3">
-        <v>68800</v>
+        <v>70000</v>
       </c>
       <c r="G102" s="3">
-        <v>-24300</v>
+        <v>70000</v>
       </c>
       <c r="H102" s="3">
-        <v>245500</v>
+        <v>-24800</v>
       </c>
       <c r="I102" s="3">
-        <v>76200</v>
+        <v>249800</v>
       </c>
       <c r="J102" s="3">
+        <v>77500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1317900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-30900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>35300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>214900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-128700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>219500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-39200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-67100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>89700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-241300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>315700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>84500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>287200</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-71800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AB102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>SPOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3275900</v>
+        <v>3444200</v>
       </c>
       <c r="E8" s="3">
-        <v>3409500</v>
+        <v>3297800</v>
       </c>
       <c r="F8" s="3">
-        <v>3269500</v>
+        <v>3432300</v>
       </c>
       <c r="G8" s="3">
-        <v>3084200</v>
+        <v>3291300</v>
       </c>
       <c r="H8" s="3">
-        <v>2865600</v>
+        <v>3104900</v>
       </c>
       <c r="I8" s="3">
-        <v>2895800</v>
+        <v>2884800</v>
       </c>
       <c r="J8" s="3">
+        <v>2915100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2693300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2466200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2191700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2162400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2049900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2060700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2086600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2165500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2120500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1961100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1807500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1768400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1497500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1397800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1277900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1289200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1157900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1129800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1058800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1023600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>876800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2451000</v>
+        <v>2588800</v>
       </c>
       <c r="E9" s="3">
-        <v>2546900</v>
+        <v>2464200</v>
       </c>
       <c r="F9" s="3">
-        <v>2461800</v>
+        <v>2563900</v>
       </c>
       <c r="G9" s="3">
-        <v>2326100</v>
+        <v>2478300</v>
       </c>
       <c r="H9" s="3">
-        <v>2143000</v>
+        <v>2341700</v>
       </c>
       <c r="I9" s="3">
-        <v>2129000</v>
+        <v>2157400</v>
       </c>
       <c r="J9" s="3">
+        <v>2143300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1974000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1764700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1632300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1588900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1542300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1538200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1553600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1612200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1580200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1450500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1361300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1296500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1118700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1036500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>960400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>972800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>899800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>869500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>935500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>844000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>744200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>824900</v>
+        <v>855400</v>
       </c>
       <c r="E10" s="3">
-        <v>862600</v>
+        <v>833700</v>
       </c>
       <c r="F10" s="3">
-        <v>807700</v>
+        <v>868400</v>
       </c>
       <c r="G10" s="3">
-        <v>758100</v>
+        <v>813100</v>
       </c>
       <c r="H10" s="3">
-        <v>722600</v>
+        <v>763200</v>
       </c>
       <c r="I10" s="3">
-        <v>766800</v>
+        <v>727400</v>
       </c>
       <c r="J10" s="3">
+        <v>771900</v>
+      </c>
+      <c r="K10" s="3">
         <v>719400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>701500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>559400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>573500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>507500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>522500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>532900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>553400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>540200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>510600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>446200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>472000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>378800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>361200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>317500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>316400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>258100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>260300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>123300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>179600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,94 +1086,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>468500</v>
+        <v>431500</v>
       </c>
       <c r="E12" s="3">
-        <v>432900</v>
+        <v>434700</v>
       </c>
       <c r="F12" s="3">
-        <v>404900</v>
+        <v>435800</v>
       </c>
       <c r="G12" s="3">
-        <v>352100</v>
+        <v>407600</v>
       </c>
       <c r="H12" s="3">
-        <v>260600</v>
+        <v>354500</v>
       </c>
       <c r="I12" s="3">
-        <v>266000</v>
+        <v>262400</v>
       </c>
       <c r="J12" s="3">
+        <v>267800</v>
+      </c>
+      <c r="K12" s="3">
         <v>217500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>262400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>194000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>225400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>177500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>286900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>178400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>197300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>162900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>174100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>181800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>118300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>149500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>157000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>129000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>138000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>110000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>106600</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>93900</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>72800</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,31 +1262,34 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
+      <c r="D14" s="3">
+        <v>124700</v>
       </c>
       <c r="E14" s="3">
+        <v>47700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I14" s="3">
         <v>2200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>17</v>
+      <c r="J14" s="3">
+        <v>3300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>17</v>
@@ -1277,21 +1297,21 @@
       <c r="L14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>3400</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1301,15 +1321,15 @@
       <c r="T14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>1100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1320,84 +1340,87 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>1100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
+      <c r="D15" s="3">
+        <v>9800</v>
       </c>
       <c r="E15" s="3">
-        <v>14000</v>
+        <v>10800</v>
       </c>
       <c r="F15" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G15" s="3">
         <v>10800</v>
       </c>
-      <c r="G15" s="3">
-        <v>9700</v>
-      </c>
       <c r="H15" s="3">
-        <v>8600</v>
+        <v>9800</v>
       </c>
       <c r="I15" s="3">
-        <v>6500</v>
+        <v>8700</v>
       </c>
       <c r="J15" s="3">
         <v>6500</v>
       </c>
       <c r="K15" s="3">
+        <v>6500</v>
+      </c>
+      <c r="L15" s="3">
         <v>7400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3600</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3443900</v>
+        <v>3712000</v>
       </c>
       <c r="E17" s="3">
-        <v>3658200</v>
+        <v>3467000</v>
       </c>
       <c r="F17" s="3">
-        <v>3515000</v>
+        <v>3682700</v>
       </c>
       <c r="G17" s="3">
-        <v>3293200</v>
+        <v>3538500</v>
       </c>
       <c r="H17" s="3">
-        <v>2872100</v>
+        <v>3315200</v>
       </c>
       <c r="I17" s="3">
-        <v>2903300</v>
+        <v>2891300</v>
       </c>
       <c r="J17" s="3">
+        <v>2922700</v>
+      </c>
+      <c r="K17" s="3">
         <v>2612600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2453500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2177400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2231200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2091400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2242900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2105800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2255400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2054300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1964600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1863700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1657200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1505200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1496600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1323900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1386800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1239800</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>1219600</v>
       </c>
       <c r="AB17" s="3">
         <v>1219600</v>
       </c>
       <c r="AC17" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="AD17" s="3">
         <v>1125700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>954300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-168000</v>
+        <v>-267800</v>
       </c>
       <c r="E18" s="3">
-        <v>-248800</v>
+        <v>-169100</v>
       </c>
       <c r="F18" s="3">
-        <v>-245500</v>
+        <v>-250400</v>
       </c>
       <c r="G18" s="3">
-        <v>-208900</v>
+        <v>-247200</v>
       </c>
       <c r="H18" s="3">
+        <v>-210300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-6500</v>
       </c>
-      <c r="I18" s="3">
-        <v>-7500</v>
-      </c>
       <c r="J18" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K18" s="3">
         <v>80800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-68800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-41500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-182200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-89900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>66100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-56200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>111200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-7800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-98800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-46000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-97600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-81900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-89800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-160800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-102100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-77500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1650,194 +1683,201 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-53800</v>
+        <v>17300</v>
       </c>
       <c r="E20" s="3">
-        <v>-53800</v>
+        <v>-43400</v>
       </c>
       <c r="F20" s="3">
-        <v>102300</v>
+        <v>-54200</v>
       </c>
       <c r="G20" s="3">
-        <v>122800</v>
+        <v>103000</v>
       </c>
       <c r="H20" s="3">
-        <v>184100</v>
+        <v>123600</v>
       </c>
       <c r="I20" s="3">
-        <v>9700</v>
+        <v>185400</v>
       </c>
       <c r="J20" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K20" s="3">
         <v>104500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>84700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-99700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-68500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-303300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>77900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>275600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-54100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-135200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>457800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-83100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-329400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-156000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-571100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-230000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-120100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-41100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2300</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-71600</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-174500</v>
+        <v>-202700</v>
       </c>
       <c r="E21" s="3">
-        <v>-248800</v>
+        <v>-164800</v>
       </c>
       <c r="F21" s="3">
-        <v>-95800</v>
+        <v>-250400</v>
       </c>
       <c r="G21" s="3">
-        <v>-43100</v>
+        <v>-96500</v>
       </c>
       <c r="H21" s="3">
-        <v>217500</v>
+        <v>-43400</v>
       </c>
       <c r="I21" s="3">
-        <v>37700</v>
+        <v>219000</v>
       </c>
       <c r="J21" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K21" s="3">
         <v>220800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>51800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>129600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-139600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-81000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-454900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>88100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-162300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>368700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-34100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-166300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>578400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-83100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-421600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-189600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-700100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-295100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-196300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-185500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-98600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>17</v>
+      <c r="D22" s="3">
+        <v>10800</v>
       </c>
       <c r="E22" s="3">
         <v>10800</v>
       </c>
       <c r="F22" s="3">
-        <v>11800</v>
+        <v>10800</v>
       </c>
       <c r="G22" s="3">
-        <v>10800</v>
+        <v>11900</v>
       </c>
       <c r="H22" s="3">
         <v>10800</v>
@@ -1849,49 +1889,49 @@
         <v>10800</v>
       </c>
       <c r="K22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="L22" s="3">
         <v>10600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10800</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X22" s="3">
         <v>2200</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>17</v>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>17</v>
@@ -1908,180 +1948,189 @@
       <c r="AD22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-221800</v>
+        <v>-261300</v>
       </c>
       <c r="E23" s="3">
-        <v>-313400</v>
+        <v>-223300</v>
       </c>
       <c r="F23" s="3">
-        <v>-155100</v>
+        <v>-315500</v>
       </c>
       <c r="G23" s="3">
-        <v>-96900</v>
+        <v>-156100</v>
       </c>
       <c r="H23" s="3">
-        <v>166900</v>
+        <v>-97600</v>
       </c>
       <c r="I23" s="3">
-        <v>-8600</v>
+        <v>168000</v>
       </c>
       <c r="J23" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K23" s="3">
         <v>174500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>88800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-178500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-120400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-496400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>46300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-202000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>330700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-69400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-202200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>569000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-90800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-430400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-202000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-668700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-311900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-209800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-201900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-99800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-149100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>20500</v>
+        <v>66100</v>
       </c>
       <c r="E24" s="3">
-        <v>-22600</v>
+        <v>20600</v>
       </c>
       <c r="F24" s="3">
-        <v>23700</v>
+        <v>-22800</v>
       </c>
       <c r="G24" s="3">
-        <v>37700</v>
+        <v>23900</v>
       </c>
       <c r="H24" s="3">
-        <v>25800</v>
+        <v>37900</v>
       </c>
       <c r="I24" s="3">
-        <v>33400</v>
+        <v>26000</v>
       </c>
       <c r="J24" s="3">
+        <v>33600</v>
+      </c>
+      <c r="K24" s="3">
         <v>172300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>65300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-53900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-15600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-108000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>45200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>42000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>35500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-32300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>46100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-138500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-12300</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>1100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1200</v>
       </c>
-      <c r="AC24" s="3">
-        <v>0</v>
-      </c>
       <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-242300</v>
+        <v>-327400</v>
       </c>
       <c r="E26" s="3">
-        <v>-290800</v>
+        <v>-243900</v>
       </c>
       <c r="F26" s="3">
-        <v>-178800</v>
+        <v>-292700</v>
       </c>
       <c r="G26" s="3">
-        <v>-134600</v>
+        <v>-180000</v>
       </c>
       <c r="H26" s="3">
-        <v>141100</v>
+        <v>-135500</v>
       </c>
       <c r="I26" s="3">
-        <v>-42000</v>
+        <v>142000</v>
       </c>
       <c r="J26" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="K26" s="3">
         <v>2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>23500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-124700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-104800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-388400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-244000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>295200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-89400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-169900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>522800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>47600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-432600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-189600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-668700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-311900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-210900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-203100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-99800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-242300</v>
+        <v>-327400</v>
       </c>
       <c r="E27" s="3">
-        <v>-290800</v>
+        <v>-243900</v>
       </c>
       <c r="F27" s="3">
-        <v>-178800</v>
+        <v>-292700</v>
       </c>
       <c r="G27" s="3">
-        <v>-134600</v>
+        <v>-180000</v>
       </c>
       <c r="H27" s="3">
-        <v>141100</v>
+        <v>-135500</v>
       </c>
       <c r="I27" s="3">
-        <v>-42000</v>
+        <v>142000</v>
       </c>
       <c r="J27" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="K27" s="3">
         <v>2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>23500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-124700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-104800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-388400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-244000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>295200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-89400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-169900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>522800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>47600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-432600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-189600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-668700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-311900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-210900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-203100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-99800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>53800</v>
+        <v>-17300</v>
       </c>
       <c r="E32" s="3">
-        <v>53800</v>
+        <v>43400</v>
       </c>
       <c r="F32" s="3">
-        <v>-102300</v>
+        <v>54200</v>
       </c>
       <c r="G32" s="3">
-        <v>-122800</v>
+        <v>-103000</v>
       </c>
       <c r="H32" s="3">
-        <v>-184100</v>
+        <v>-123600</v>
       </c>
       <c r="I32" s="3">
-        <v>-9700</v>
+        <v>-185400</v>
       </c>
       <c r="J32" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-104500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-84700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>99700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>68500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>303300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-77900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-275600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>54100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>135200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-457800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>83100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>329400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>156000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>571100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>230000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>120100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>41100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-2300</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-242300</v>
+        <v>-327400</v>
       </c>
       <c r="E33" s="3">
-        <v>-290800</v>
+        <v>-243900</v>
       </c>
       <c r="F33" s="3">
-        <v>-178800</v>
+        <v>-292700</v>
       </c>
       <c r="G33" s="3">
-        <v>-134600</v>
+        <v>-180000</v>
       </c>
       <c r="H33" s="3">
-        <v>141100</v>
+        <v>-135500</v>
       </c>
       <c r="I33" s="3">
-        <v>-42000</v>
+        <v>142000</v>
       </c>
       <c r="J33" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="K33" s="3">
         <v>2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-124700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-104800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-388400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-244000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>295200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-89400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-169900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>522800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>47600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-432600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-189600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-668700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-311900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-210900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-203100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-99800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-242300</v>
+        <v>-327400</v>
       </c>
       <c r="E35" s="3">
-        <v>-290800</v>
+        <v>-243900</v>
       </c>
       <c r="F35" s="3">
-        <v>-178800</v>
+        <v>-292700</v>
       </c>
       <c r="G35" s="3">
-        <v>-134600</v>
+        <v>-180000</v>
       </c>
       <c r="H35" s="3">
-        <v>141100</v>
+        <v>-135500</v>
       </c>
       <c r="I35" s="3">
-        <v>-42000</v>
+        <v>142000</v>
       </c>
       <c r="J35" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="K35" s="3">
         <v>2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-124700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-104800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-388400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-244000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>295200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-89400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-169900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>522800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>47600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-432600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-189600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-668700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-311900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-210900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-203100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-99800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,77 +3267,78 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2630900</v>
+        <v>2764500</v>
       </c>
       <c r="E41" s="3">
-        <v>2673900</v>
+        <v>2648500</v>
       </c>
       <c r="F41" s="3">
-        <v>3070200</v>
+        <v>2691800</v>
       </c>
       <c r="G41" s="3">
-        <v>3000200</v>
+        <v>3090800</v>
       </c>
       <c r="H41" s="3">
-        <v>2930200</v>
+        <v>3020300</v>
       </c>
       <c r="I41" s="3">
-        <v>2955000</v>
+        <v>2949800</v>
       </c>
       <c r="J41" s="3">
+        <v>2974800</v>
+      </c>
+      <c r="K41" s="3">
         <v>2705200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2581500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2492800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1148000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1226800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1252400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1073800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1243300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1074300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1069300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1155500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1054000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1212800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>889400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>822400</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>17</v>
       </c>
@@ -3267,77 +3354,80 @@
       <c r="AD41" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1071500</v>
+        <v>938800</v>
       </c>
       <c r="E42" s="3">
-        <v>933700</v>
+        <v>1078700</v>
       </c>
       <c r="F42" s="3">
-        <v>877700</v>
+        <v>939900</v>
       </c>
       <c r="G42" s="3">
-        <v>842100</v>
+        <v>883500</v>
       </c>
       <c r="H42" s="3">
-        <v>878800</v>
+        <v>847800</v>
       </c>
       <c r="I42" s="3">
-        <v>814100</v>
+        <v>884600</v>
       </c>
       <c r="J42" s="3">
+        <v>819600</v>
+      </c>
+      <c r="K42" s="3">
         <v>780800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>647500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>657400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>594500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>746300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>693800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>827600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>807800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>784000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>689400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>789500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1082400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>741000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>971700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>945800</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>17</v>
       </c>
@@ -3353,77 +3443,80 @@
       <c r="AD42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>603100</v>
+        <v>693800</v>
       </c>
       <c r="E43" s="3">
-        <v>748400</v>
+        <v>607100</v>
       </c>
       <c r="F43" s="3">
-        <v>700000</v>
+        <v>753400</v>
       </c>
       <c r="G43" s="3">
-        <v>664400</v>
+        <v>704700</v>
       </c>
       <c r="H43" s="3">
-        <v>604100</v>
+        <v>668900</v>
       </c>
       <c r="I43" s="3">
-        <v>674100</v>
+        <v>608200</v>
       </c>
       <c r="J43" s="3">
+        <v>678600</v>
+      </c>
+      <c r="K43" s="3">
         <v>779700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>654900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>563500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>466800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>411000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>398200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>413300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>474000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>475300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>507000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>470100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>475500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>399800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>356900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>362400</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>17</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,77 +3621,80 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>317700</v>
+        <v>296000</v>
       </c>
       <c r="E45" s="3">
-        <v>330600</v>
+        <v>319800</v>
       </c>
       <c r="F45" s="3">
-        <v>369400</v>
+        <v>332800</v>
       </c>
       <c r="G45" s="3">
-        <v>362900</v>
+        <v>371800</v>
       </c>
       <c r="H45" s="3">
-        <v>290800</v>
+        <v>365300</v>
       </c>
       <c r="I45" s="3">
-        <v>264900</v>
+        <v>292700</v>
       </c>
       <c r="J45" s="3">
+        <v>266700</v>
+      </c>
+      <c r="K45" s="3">
         <v>81800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>84600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>80600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>150600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>147400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>125500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>105000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>79400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>89400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>77600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>62200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>45000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>38800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>41700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>43800</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>17</v>
       </c>
@@ -3611,77 +3710,80 @@
       <c r="AD45" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4623100</v>
+        <v>4693100</v>
       </c>
       <c r="E46" s="3">
-        <v>4686700</v>
+        <v>4654000</v>
       </c>
       <c r="F46" s="3">
-        <v>5017300</v>
+        <v>4718000</v>
       </c>
       <c r="G46" s="3">
-        <v>4869700</v>
+        <v>5050800</v>
       </c>
       <c r="H46" s="3">
-        <v>4703900</v>
+        <v>4902300</v>
       </c>
       <c r="I46" s="3">
-        <v>4708200</v>
+        <v>4735300</v>
       </c>
       <c r="J46" s="3">
+        <v>4739700</v>
+      </c>
+      <c r="K46" s="3">
         <v>4347400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3968600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3794300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2359800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2531400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2469800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2419700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2604500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2423000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2343400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2477300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2656800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2392400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2259700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2174400</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>17</v>
       </c>
@@ -3697,77 +3799,80 @@
       <c r="AD46" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1221200</v>
+        <v>1100400</v>
       </c>
       <c r="E47" s="3">
-        <v>1225500</v>
+        <v>1229400</v>
       </c>
       <c r="F47" s="3">
-        <v>678400</v>
+        <v>1233700</v>
       </c>
       <c r="G47" s="3">
-        <v>775400</v>
+        <v>683000</v>
       </c>
       <c r="H47" s="3">
-        <v>734400</v>
+        <v>780600</v>
       </c>
       <c r="I47" s="3">
-        <v>986400</v>
+        <v>739400</v>
       </c>
       <c r="J47" s="3">
+        <v>993000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1173800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2007000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2574500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2271100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1879600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1881800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1481400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1747600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2055500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2215200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2750100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1947100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1760000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1064000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1087200</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>17</v>
       </c>
@@ -3783,77 +3888,80 @@
       <c r="AD47" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>801200</v>
+        <v>676500</v>
       </c>
       <c r="E48" s="3">
-        <v>823800</v>
+        <v>806600</v>
       </c>
       <c r="F48" s="3">
-        <v>899200</v>
+        <v>829300</v>
       </c>
       <c r="G48" s="3">
-        <v>880900</v>
+        <v>905200</v>
       </c>
       <c r="H48" s="3">
+        <v>886800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>880300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>877000</v>
+      </c>
+      <c r="K48" s="3">
         <v>874400</v>
       </c>
-      <c r="I48" s="3">
-        <v>871200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>874400</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>837900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>805400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>755000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>786700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>832400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>883000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>910600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>926100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>754100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>795500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>233000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>149500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>91100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>76300</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>17</v>
       </c>
@@ -3869,77 +3977,80 @@
       <c r="AD48" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1367700</v>
+        <v>1358400</v>
       </c>
       <c r="E49" s="3">
-        <v>1394600</v>
+        <v>1376800</v>
       </c>
       <c r="F49" s="3">
-        <v>1522700</v>
+        <v>1403900</v>
       </c>
       <c r="G49" s="3">
-        <v>1332100</v>
+        <v>1532900</v>
       </c>
       <c r="H49" s="3">
-        <v>1170600</v>
+        <v>1341000</v>
       </c>
       <c r="I49" s="3">
-        <v>1058600</v>
+        <v>1178400</v>
       </c>
       <c r="J49" s="3">
+        <v>1065700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1033800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1000900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>932000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>830800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>702700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>766900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>806200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>625700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>670100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>610600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>571800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>205800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>191600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>192200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>180600</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>17</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,77 +4244,80 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>94800</v>
+        <v>98700</v>
       </c>
       <c r="E52" s="3">
-        <v>92600</v>
+        <v>95400</v>
       </c>
       <c r="F52" s="3">
-        <v>101200</v>
+        <v>93200</v>
       </c>
       <c r="G52" s="3">
+        <v>101900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>98700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>97600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>97600</v>
+      </c>
+      <c r="K52" s="3">
+        <v>96900</v>
+      </c>
+      <c r="L52" s="3">
+        <v>100500</v>
+      </c>
+      <c r="M52" s="3">
         <v>98000</v>
       </c>
-      <c r="H52" s="3">
-        <v>96900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>96900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>96900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>100500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>98000</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>92800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>82000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>86200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>84700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>91100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>94300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>91800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>95700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>86400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>84200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>82400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>74100</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>17</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,77 +4422,80 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8108000</v>
+        <v>7926900</v>
       </c>
       <c r="E54" s="3">
-        <v>8223200</v>
+        <v>8162200</v>
       </c>
       <c r="F54" s="3">
-        <v>8218900</v>
+        <v>8278200</v>
       </c>
       <c r="G54" s="3">
-        <v>7956100</v>
+        <v>8273900</v>
       </c>
       <c r="H54" s="3">
-        <v>7580300</v>
+        <v>8009300</v>
       </c>
       <c r="I54" s="3">
-        <v>7721400</v>
+        <v>7631000</v>
       </c>
       <c r="J54" s="3">
+        <v>7773000</v>
+      </c>
+      <c r="K54" s="3">
         <v>7526500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7914900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8204200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6309600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5982500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6037100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5674900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5979500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6169000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6014900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6690300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5129100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4577700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3689300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3592600</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>17</v>
       </c>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,77 +4579,78 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>915400</v>
+        <v>675400</v>
       </c>
       <c r="E57" s="3">
-        <v>633200</v>
+        <v>641800</v>
       </c>
       <c r="F57" s="3">
-        <v>748400</v>
+        <v>637500</v>
       </c>
       <c r="G57" s="3">
-        <v>622400</v>
+        <v>753400</v>
       </c>
       <c r="H57" s="3">
-        <v>483500</v>
+        <v>626600</v>
       </c>
       <c r="I57" s="3">
-        <v>575100</v>
+        <v>486800</v>
       </c>
       <c r="J57" s="3">
+        <v>578900</v>
+      </c>
+      <c r="K57" s="3">
         <v>568600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>513100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>449200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>432900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>440100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>398200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>425700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>440100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>431200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>338800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>305000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>349000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>291300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>282200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>286100</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>17</v>
       </c>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4576,32 +4710,32 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R58" s="3">
         <v>8200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>35300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>37100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4621,77 +4755,80 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2809600</v>
+        <v>3168800</v>
       </c>
       <c r="E59" s="3">
-        <v>3153200</v>
+        <v>3108100</v>
       </c>
       <c r="F59" s="3">
-        <v>3083200</v>
+        <v>3174200</v>
       </c>
       <c r="G59" s="3">
-        <v>2967900</v>
+        <v>3103800</v>
       </c>
       <c r="H59" s="3">
-        <v>2879600</v>
+        <v>2987800</v>
       </c>
       <c r="I59" s="3">
-        <v>2899000</v>
+        <v>2898900</v>
       </c>
       <c r="J59" s="3">
+        <v>2918400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2742900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2628100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2547900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2459600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2324900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2611600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2215300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2399000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2574900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2723400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2656800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2190700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2423400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2221300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1899500</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>17</v>
       </c>
@@ -4707,77 +4844,80 @@
       <c r="AD59" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3725000</v>
+        <v>3844200</v>
       </c>
       <c r="E60" s="3">
-        <v>3786400</v>
+        <v>3749900</v>
       </c>
       <c r="F60" s="3">
-        <v>3831600</v>
+        <v>3811700</v>
       </c>
       <c r="G60" s="3">
-        <v>3590400</v>
+        <v>3857200</v>
       </c>
       <c r="H60" s="3">
-        <v>3363200</v>
+        <v>3614400</v>
       </c>
       <c r="I60" s="3">
-        <v>3474100</v>
+        <v>3385600</v>
       </c>
       <c r="J60" s="3">
+        <v>3497300</v>
+      </c>
+      <c r="K60" s="3">
         <v>3311500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3141200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2997100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2892500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2765000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3009800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2641000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2847300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3008600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3097500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2998900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2539700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2714700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2503400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2185600</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>17</v>
       </c>
@@ -4793,65 +4933,68 @@
       <c r="AD60" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1832900</v>
+        <v>1831000</v>
       </c>
       <c r="E61" s="3">
-        <v>1812400</v>
+        <v>1845100</v>
       </c>
       <c r="F61" s="3">
-        <v>1943800</v>
+        <v>1824500</v>
       </c>
       <c r="G61" s="3">
-        <v>1851200</v>
+        <v>1956800</v>
       </c>
       <c r="H61" s="3">
-        <v>1866300</v>
+        <v>1863600</v>
       </c>
       <c r="I61" s="3">
-        <v>1918000</v>
+        <v>1878700</v>
       </c>
       <c r="J61" s="3">
+        <v>1930800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1892100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1878000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1853800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>575500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>614400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>667600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>704600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>726100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>757000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>608200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>663900</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4859,11 +5002,11 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>1146700</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4879,77 +5022,80 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28000</v>
+        <v>24900</v>
       </c>
       <c r="E62" s="3">
-        <v>38800</v>
+        <v>28200</v>
       </c>
       <c r="F62" s="3">
-        <v>38800</v>
+        <v>39000</v>
       </c>
       <c r="G62" s="3">
-        <v>36600</v>
+        <v>39000</v>
       </c>
       <c r="H62" s="3">
-        <v>38800</v>
+        <v>36900</v>
       </c>
       <c r="I62" s="3">
-        <v>47400</v>
+        <v>39000</v>
       </c>
       <c r="J62" s="3">
+        <v>47700</v>
+      </c>
+      <c r="K62" s="3">
         <v>43100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>40200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>41900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>43900</v>
-      </c>
-      <c r="N62" s="3">
-        <v>43600</v>
       </c>
       <c r="O62" s="3">
         <v>43600</v>
       </c>
       <c r="P62" s="3">
+        <v>43600</v>
+      </c>
+      <c r="Q62" s="3">
         <v>56500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>28000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>24500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>21200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>82500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>112400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>97500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>88900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>79700</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>17</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,77 +5378,80 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5585900</v>
+        <v>5700200</v>
       </c>
       <c r="E66" s="3">
-        <v>5637600</v>
+        <v>5623200</v>
       </c>
       <c r="F66" s="3">
-        <v>5814200</v>
+        <v>5675300</v>
       </c>
       <c r="G66" s="3">
-        <v>5478200</v>
+        <v>5853100</v>
       </c>
       <c r="H66" s="3">
-        <v>5268200</v>
+        <v>5514800</v>
       </c>
       <c r="I66" s="3">
-        <v>5439400</v>
+        <v>5303400</v>
       </c>
       <c r="J66" s="3">
+        <v>5475800</v>
+      </c>
+      <c r="K66" s="3">
         <v>5246700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5059400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4892700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3511800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3423000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3721100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3402000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3601500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3790100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3726800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3745300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2652100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2812200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2592400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3412000</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>17</v>
       </c>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,77 +5856,80 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2433800</v>
+        <v>-4528300</v>
       </c>
       <c r="E72" s="3">
-        <v>-3927500</v>
+        <v>-4200900</v>
       </c>
       <c r="F72" s="3">
-        <v>-3638800</v>
+        <v>-3953700</v>
       </c>
       <c r="G72" s="3">
-        <v>-3461200</v>
+        <v>-3663200</v>
       </c>
       <c r="H72" s="3">
-        <v>-3326500</v>
+        <v>-3484300</v>
       </c>
       <c r="I72" s="3">
-        <v>-3467600</v>
+        <v>-3348800</v>
       </c>
       <c r="J72" s="3">
+        <v>-3490800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3537600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3477600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3335000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3281400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3285000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3342500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3057600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3162500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3062500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3224500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3187900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2963200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3264100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3283000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2912700</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>17</v>
       </c>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,77 +6212,80 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2522100</v>
+        <v>2226700</v>
       </c>
       <c r="E76" s="3">
-        <v>2585600</v>
+        <v>2539000</v>
       </c>
       <c r="F76" s="3">
-        <v>2404700</v>
+        <v>2602900</v>
       </c>
       <c r="G76" s="3">
-        <v>2477900</v>
+        <v>2420800</v>
       </c>
       <c r="H76" s="3">
-        <v>2312100</v>
+        <v>2494500</v>
       </c>
       <c r="I76" s="3">
-        <v>2282000</v>
+        <v>2327600</v>
       </c>
       <c r="J76" s="3">
+        <v>2297200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2279800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2855500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3311500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2797700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2559500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2316000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2272900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2378000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2378900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2288100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2945000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2477000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1765500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1096900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>180600</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>17</v>
       </c>
@@ -6115,8 +6301,11 @@
       <c r="AD76" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-242300</v>
+        <v>-327400</v>
       </c>
       <c r="E81" s="3">
-        <v>-290800</v>
+        <v>-243900</v>
       </c>
       <c r="F81" s="3">
-        <v>-178800</v>
+        <v>-292700</v>
       </c>
       <c r="G81" s="3">
-        <v>-134600</v>
+        <v>-180000</v>
       </c>
       <c r="H81" s="3">
-        <v>141100</v>
+        <v>-135500</v>
       </c>
       <c r="I81" s="3">
-        <v>-42000</v>
+        <v>142000</v>
       </c>
       <c r="J81" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="K81" s="3">
         <v>2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-124700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-104800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-388400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-244000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>295200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-89400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-169900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>522800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>47600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-432600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-189600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-668700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-311900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-210900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-203100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-99800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>47400</v>
+        <v>47700</v>
       </c>
       <c r="E83" s="3">
-        <v>53800</v>
+        <v>47700</v>
       </c>
       <c r="F83" s="3">
-        <v>47400</v>
+        <v>54200</v>
       </c>
       <c r="G83" s="3">
-        <v>43100</v>
+        <v>47700</v>
       </c>
       <c r="H83" s="3">
-        <v>39800</v>
+        <v>43400</v>
       </c>
       <c r="I83" s="3">
+        <v>40100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>35800</v>
+      </c>
+      <c r="K83" s="3">
         <v>35500</v>
       </c>
-      <c r="J83" s="3">
-        <v>35500</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>30600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>28900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>29100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>29400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>26900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>23500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>25100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12300</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA83" s="3">
         <v>16800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>13500</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AC83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AD83" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>63500</v>
+        <v>14100</v>
       </c>
       <c r="E89" s="3">
-        <v>-75400</v>
+        <v>64000</v>
       </c>
       <c r="F89" s="3">
-        <v>43100</v>
+        <v>-75900</v>
       </c>
       <c r="G89" s="3">
-        <v>42000</v>
+        <v>43400</v>
       </c>
       <c r="H89" s="3">
-        <v>39800</v>
+        <v>42300</v>
       </c>
       <c r="I89" s="3">
-        <v>128200</v>
+        <v>40100</v>
       </c>
       <c r="J89" s="3">
+        <v>129000</v>
+      </c>
+      <c r="K89" s="3">
         <v>132500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>57100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>66400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>106700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>126600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>42500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>237000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>87000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>105900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>250000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>177400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>88600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>32900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>94200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>106600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-90900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>80800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>109200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-3500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7053,7 +7274,7 @@
         <v>-2000</v>
       </c>
       <c r="E91" s="3">
-        <v>-5000</v>
+        <v>-2000</v>
       </c>
       <c r="F91" s="3">
         <v>-5000</v>
@@ -7062,76 +7283,79 @@
         <v>-5000</v>
       </c>
       <c r="H91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-10000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-37400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-31800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-47100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-44300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-76900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-54300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-23600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-10100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-7000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-131400</v>
+        <v>122500</v>
       </c>
       <c r="E94" s="3">
-        <v>-108800</v>
+        <v>-132300</v>
       </c>
       <c r="F94" s="3">
-        <v>-117400</v>
+        <v>-109500</v>
       </c>
       <c r="G94" s="3">
-        <v>-61400</v>
+        <v>-118200</v>
       </c>
       <c r="H94" s="3">
-        <v>-168000</v>
+        <v>-61800</v>
       </c>
       <c r="I94" s="3">
-        <v>93700</v>
+        <v>-169100</v>
       </c>
       <c r="J94" s="3">
+        <v>94300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-130300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-41300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-116400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-131700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-139100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>85100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-207800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-122600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-69800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-58600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-354900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>172800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-18700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>156000</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA94" s="3">
         <v>12300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-47100</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AC94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AD94" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>51700</v>
+        <v>-8700</v>
       </c>
       <c r="E100" s="3">
-        <v>-22600</v>
+        <v>53100</v>
       </c>
       <c r="F100" s="3">
-        <v>-22600</v>
+        <v>-22800</v>
       </c>
       <c r="G100" s="3">
-        <v>-21500</v>
+        <v>-22800</v>
       </c>
       <c r="H100" s="3">
-        <v>23700</v>
+        <v>-21700</v>
       </c>
       <c r="I100" s="3">
-        <v>-26900</v>
+        <v>23900</v>
       </c>
       <c r="J100" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="K100" s="3">
         <v>20500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1276000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>32900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>88200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>98200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>86900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>127200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-89400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-165900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-117200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-65100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>54300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>60400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>48200</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA100" s="3">
         <v>10100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2200</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AC100" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AD100" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-26900</v>
+        <v>-11900</v>
       </c>
       <c r="E101" s="3">
-        <v>-189500</v>
+        <v>-28200</v>
       </c>
       <c r="F101" s="3">
-        <v>166900</v>
+        <v>-190800</v>
       </c>
       <c r="G101" s="3">
-        <v>110900</v>
+        <v>168000</v>
       </c>
       <c r="H101" s="3">
-        <v>79700</v>
+        <v>111700</v>
       </c>
       <c r="I101" s="3">
+        <v>80200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>55300</v>
+      </c>
+      <c r="K101" s="3">
         <v>54900</v>
       </c>
-      <c r="J101" s="3">
-        <v>54900</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-24300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>91900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-38900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-40500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-10900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-22200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>33100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>15600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1200</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>9900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-39300</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AC101" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AD101" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-43100</v>
+        <v>116000</v>
       </c>
       <c r="E102" s="3">
-        <v>-396300</v>
+        <v>-43400</v>
       </c>
       <c r="F102" s="3">
-        <v>70000</v>
+        <v>-398900</v>
       </c>
       <c r="G102" s="3">
-        <v>70000</v>
+        <v>70500</v>
       </c>
       <c r="H102" s="3">
-        <v>-24800</v>
+        <v>70500</v>
       </c>
       <c r="I102" s="3">
-        <v>249800</v>
+        <v>-24900</v>
       </c>
       <c r="J102" s="3">
+        <v>251500</v>
+      </c>
+      <c r="K102" s="3">
         <v>77500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1317900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-30900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>35300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>214900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-128700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>219500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-39200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-67100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>89700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-241300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>315700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>84500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>287200</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-71800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AC102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AD102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE102" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>SPOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3444200</v>
+        <v>3642300</v>
       </c>
       <c r="E8" s="3">
-        <v>3297800</v>
+        <v>3447000</v>
       </c>
       <c r="F8" s="3">
-        <v>3432300</v>
+        <v>3300600</v>
       </c>
       <c r="G8" s="3">
-        <v>3291300</v>
+        <v>3435100</v>
       </c>
       <c r="H8" s="3">
-        <v>3104900</v>
+        <v>3294100</v>
       </c>
       <c r="I8" s="3">
-        <v>2884800</v>
+        <v>3107400</v>
       </c>
       <c r="J8" s="3">
+        <v>2887200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2915100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2693300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2466200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2191700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2162400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2049900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2060700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2086600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2165500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2120500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1961100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1807500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1768400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1497500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1397800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1277900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1289200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1157900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1129800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1058800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1023600</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>876800</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2588800</v>
+        <v>2682100</v>
       </c>
       <c r="E9" s="3">
-        <v>2464200</v>
+        <v>2591000</v>
       </c>
       <c r="F9" s="3">
-        <v>2563900</v>
+        <v>2466200</v>
       </c>
       <c r="G9" s="3">
-        <v>2478300</v>
+        <v>2566000</v>
       </c>
       <c r="H9" s="3">
-        <v>2341700</v>
+        <v>2480300</v>
       </c>
       <c r="I9" s="3">
-        <v>2157400</v>
+        <v>2343600</v>
       </c>
       <c r="J9" s="3">
+        <v>2159200</v>
+      </c>
+      <c r="K9" s="3">
         <v>2143300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1974000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1764700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1632300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1588900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1542300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1538200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1553600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1612200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1580200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1450500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1361300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1296500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1118700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1036500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>960400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>972800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>899800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>869500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>935500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>844000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>744200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>855400</v>
+        <v>960200</v>
       </c>
       <c r="E10" s="3">
-        <v>833700</v>
+        <v>856100</v>
       </c>
       <c r="F10" s="3">
-        <v>868400</v>
+        <v>834400</v>
       </c>
       <c r="G10" s="3">
-        <v>813100</v>
+        <v>869100</v>
       </c>
       <c r="H10" s="3">
-        <v>763200</v>
+        <v>813800</v>
       </c>
       <c r="I10" s="3">
-        <v>727400</v>
+        <v>763800</v>
       </c>
       <c r="J10" s="3">
+        <v>728000</v>
+      </c>
+      <c r="K10" s="3">
         <v>771900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>719400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>701500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>559400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>573500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>507500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>522500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>532900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>553400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>540200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>510600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>446200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>472000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>378800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>361200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>317500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>316400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>258100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>260300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>123300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>179600</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,97 +1100,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>431500</v>
+        <v>400400</v>
       </c>
       <c r="E12" s="3">
-        <v>434700</v>
+        <v>431800</v>
       </c>
       <c r="F12" s="3">
-        <v>435800</v>
+        <v>435100</v>
       </c>
       <c r="G12" s="3">
-        <v>407600</v>
+        <v>436200</v>
       </c>
       <c r="H12" s="3">
-        <v>354500</v>
+        <v>408000</v>
       </c>
       <c r="I12" s="3">
+        <v>354800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>262600</v>
+      </c>
+      <c r="K12" s="3">
+        <v>267800</v>
+      </c>
+      <c r="L12" s="3">
+        <v>217500</v>
+      </c>
+      <c r="M12" s="3">
         <v>262400</v>
       </c>
-      <c r="J12" s="3">
-        <v>267800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>217500</v>
-      </c>
-      <c r="L12" s="3">
-        <v>262400</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>194000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>225400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>177500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>286900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>178400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>197300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>162900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>174100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>181800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>118300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>149500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>157000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>129000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>138000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>110000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>106600</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>93900</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>72800</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,56 +1282,59 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>124700</v>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="3">
+        <v>124800</v>
+      </c>
+      <c r="F14" s="3">
         <v>47700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-3300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="3">
         <v>3300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>3400</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1324,15 +1344,15 @@
       <c r="U14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>1100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
@@ -1343,87 +1363,90 @@
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>1100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-2300</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="3">
         <v>9800</v>
       </c>
-      <c r="E15" s="3">
-        <v>10800</v>
-      </c>
       <c r="F15" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G15" s="3">
         <v>14100</v>
       </c>
-      <c r="G15" s="3">
-        <v>10800</v>
-      </c>
       <c r="H15" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I15" s="3">
         <v>9800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>6500</v>
       </c>
       <c r="K15" s="3">
         <v>6500</v>
       </c>
       <c r="L15" s="3">
+        <v>6500</v>
+      </c>
+      <c r="M15" s="3">
         <v>7400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3600</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3712000</v>
+        <v>3607600</v>
       </c>
       <c r="E17" s="3">
-        <v>3467000</v>
+        <v>3715000</v>
       </c>
       <c r="F17" s="3">
-        <v>3682700</v>
+        <v>3469800</v>
       </c>
       <c r="G17" s="3">
-        <v>3538500</v>
+        <v>3685700</v>
       </c>
       <c r="H17" s="3">
-        <v>3315200</v>
+        <v>3541400</v>
       </c>
       <c r="I17" s="3">
-        <v>2891300</v>
+        <v>3317900</v>
       </c>
       <c r="J17" s="3">
+        <v>2893700</v>
+      </c>
+      <c r="K17" s="3">
         <v>2922700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2612600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2453500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2177400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2231200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2091400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2242900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2105800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2255400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2054300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1964600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1863700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1657200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1505200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1496600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1323900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1386800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1239800</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>1219600</v>
       </c>
       <c r="AC17" s="3">
         <v>1219600</v>
       </c>
       <c r="AD17" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="AE17" s="3">
         <v>1125700</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>954300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-267800</v>
+        <v>34700</v>
       </c>
       <c r="E18" s="3">
-        <v>-169100</v>
+        <v>-268000</v>
       </c>
       <c r="F18" s="3">
-        <v>-250400</v>
+        <v>-169300</v>
       </c>
       <c r="G18" s="3">
-        <v>-247200</v>
+        <v>-250600</v>
       </c>
       <c r="H18" s="3">
-        <v>-210300</v>
+        <v>-247400</v>
       </c>
       <c r="I18" s="3">
+        <v>-210500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-6500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>80800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-68800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-41500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-182200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-19200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-89900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>66100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-56200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>111200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-7800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-98800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-46000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-97600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-81900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-89800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-160800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-102100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-77500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1684,257 +1717,264 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>17300</v>
+        <v>44500</v>
       </c>
       <c r="E20" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-43400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-54200</v>
       </c>
-      <c r="G20" s="3">
-        <v>103000</v>
-      </c>
       <c r="H20" s="3">
-        <v>123600</v>
+        <v>103100</v>
       </c>
       <c r="I20" s="3">
-        <v>185400</v>
+        <v>123700</v>
       </c>
       <c r="J20" s="3">
+        <v>185500</v>
+      </c>
+      <c r="K20" s="3">
         <v>9800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>104500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>84700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-99700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-68500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-303300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>77900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>275600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-54100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-135200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>457800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-83100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-329400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-156000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-571100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-230000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-120100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-41100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>2300</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-71600</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-202700</v>
+        <v>118300</v>
       </c>
       <c r="E21" s="3">
-        <v>-164800</v>
+        <v>-202900</v>
       </c>
       <c r="F21" s="3">
-        <v>-250400</v>
+        <v>-164900</v>
       </c>
       <c r="G21" s="3">
-        <v>-96500</v>
+        <v>-250600</v>
       </c>
       <c r="H21" s="3">
+        <v>-96600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-43400</v>
       </c>
-      <c r="I21" s="3">
-        <v>219000</v>
-      </c>
       <c r="J21" s="3">
+        <v>219200</v>
+      </c>
+      <c r="K21" s="3">
         <v>37900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>220800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>51800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>129600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-139600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-81000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-454900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>88100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-162300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>368700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-34100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-166300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>578400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-83100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-421600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-189600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-700100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-295100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-196300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-185500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-98600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
-        <v>10800</v>
+      <c r="D22" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E22" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="F22" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="G22" s="3">
+        <v>10900</v>
+      </c>
+      <c r="H22" s="3">
         <v>11900</v>
       </c>
-      <c r="H22" s="3">
-        <v>10800</v>
-      </c>
       <c r="I22" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="J22" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="K22" s="3">
         <v>10800</v>
       </c>
       <c r="L22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="M22" s="3">
         <v>10600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>11800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10800</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y22" s="3">
         <v>2200</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>17</v>
+      <c r="Z22" s="3">
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>17</v>
@@ -1951,186 +1991,195 @@
       <c r="AE22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-261300</v>
+        <v>79200</v>
       </c>
       <c r="E23" s="3">
-        <v>-223300</v>
+        <v>-261500</v>
       </c>
       <c r="F23" s="3">
-        <v>-315500</v>
+        <v>-223500</v>
       </c>
       <c r="G23" s="3">
-        <v>-156100</v>
+        <v>-315700</v>
       </c>
       <c r="H23" s="3">
-        <v>-97600</v>
+        <v>-156200</v>
       </c>
       <c r="I23" s="3">
-        <v>168000</v>
+        <v>-97700</v>
       </c>
       <c r="J23" s="3">
+        <v>168200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-8700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>174500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>88800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-178500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-120400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-496400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>46300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-202000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>330700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-69400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-202200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>569000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-90800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-430400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-202000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-668700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-311900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-209800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-201900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-99800</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-149100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>66100</v>
+        <v>8700</v>
       </c>
       <c r="E24" s="3">
+        <v>66200</v>
+      </c>
+      <c r="F24" s="3">
         <v>20600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-22800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23900</v>
       </c>
-      <c r="H24" s="3">
-        <v>37900</v>
-      </c>
       <c r="I24" s="3">
+        <v>38000</v>
+      </c>
+      <c r="J24" s="3">
         <v>26000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>33600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>172300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>65300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-53900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-15600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-108000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>45200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>42000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>35500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-32300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>46100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-138500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-12300</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>1100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1200</v>
       </c>
-      <c r="AD24" s="3">
-        <v>0</v>
-      </c>
       <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-327400</v>
+        <v>70500</v>
       </c>
       <c r="E26" s="3">
-        <v>-243900</v>
+        <v>-327700</v>
       </c>
       <c r="F26" s="3">
-        <v>-292700</v>
+        <v>-244100</v>
       </c>
       <c r="G26" s="3">
-        <v>-180000</v>
+        <v>-293000</v>
       </c>
       <c r="H26" s="3">
-        <v>-135500</v>
+        <v>-180100</v>
       </c>
       <c r="I26" s="3">
-        <v>142000</v>
+        <v>-135600</v>
       </c>
       <c r="J26" s="3">
+        <v>142100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-42300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>23500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-124700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-104800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-388400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-244000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>295200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-89400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-169900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>522800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>47600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-432600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-189600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-668700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-311900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-210900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-203100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-99800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-327400</v>
+        <v>70500</v>
       </c>
       <c r="E27" s="3">
-        <v>-243900</v>
+        <v>-327700</v>
       </c>
       <c r="F27" s="3">
-        <v>-292700</v>
+        <v>-244100</v>
       </c>
       <c r="G27" s="3">
-        <v>-180000</v>
+        <v>-293000</v>
       </c>
       <c r="H27" s="3">
-        <v>-135500</v>
+        <v>-180100</v>
       </c>
       <c r="I27" s="3">
-        <v>142000</v>
+        <v>-135600</v>
       </c>
       <c r="J27" s="3">
+        <v>142100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-42300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-21200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-124700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-104800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-388400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-244000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>295200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-89400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-169900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>522800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>47600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-432600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-189600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-668700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-311900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-210900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-203100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-99800</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17300</v>
+        <v>-44500</v>
       </c>
       <c r="E32" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="F32" s="3">
         <v>43400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>54200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-103000</v>
-      </c>
       <c r="H32" s="3">
-        <v>-123600</v>
+        <v>-103100</v>
       </c>
       <c r="I32" s="3">
-        <v>-185400</v>
+        <v>-123700</v>
       </c>
       <c r="J32" s="3">
+        <v>-185500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-104500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-84700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>99700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>68500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>303300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-77900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-275600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>54100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>135200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-457800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>83100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>329400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>156000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>571100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>230000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>120100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>41100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-2300</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-327400</v>
+        <v>70500</v>
       </c>
       <c r="E33" s="3">
-        <v>-243900</v>
+        <v>-327700</v>
       </c>
       <c r="F33" s="3">
-        <v>-292700</v>
+        <v>-244100</v>
       </c>
       <c r="G33" s="3">
-        <v>-180000</v>
+        <v>-293000</v>
       </c>
       <c r="H33" s="3">
-        <v>-135500</v>
+        <v>-180100</v>
       </c>
       <c r="I33" s="3">
-        <v>142000</v>
+        <v>-135600</v>
       </c>
       <c r="J33" s="3">
+        <v>142100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-42300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-124700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-104800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-388400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-244000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>295200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-89400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-169900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>522800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>47600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-432600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-189600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-668700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-311900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-210900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-203100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-99800</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-327400</v>
+        <v>70500</v>
       </c>
       <c r="E35" s="3">
-        <v>-243900</v>
+        <v>-327700</v>
       </c>
       <c r="F35" s="3">
-        <v>-292700</v>
+        <v>-244100</v>
       </c>
       <c r="G35" s="3">
-        <v>-180000</v>
+        <v>-293000</v>
       </c>
       <c r="H35" s="3">
-        <v>-135500</v>
+        <v>-180100</v>
       </c>
       <c r="I35" s="3">
-        <v>142000</v>
+        <v>-135600</v>
       </c>
       <c r="J35" s="3">
+        <v>142100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-42300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-124700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-104800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-388400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-244000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>295200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-89400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-169900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>522800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>47600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-432600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-189600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-668700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-311900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-210900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-203100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-99800</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,80 +3354,81 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2764500</v>
+        <v>2840500</v>
       </c>
       <c r="E41" s="3">
-        <v>2648500</v>
+        <v>2766800</v>
       </c>
       <c r="F41" s="3">
-        <v>2691800</v>
+        <v>2650700</v>
       </c>
       <c r="G41" s="3">
-        <v>3090800</v>
+        <v>2694100</v>
       </c>
       <c r="H41" s="3">
-        <v>3020300</v>
+        <v>3093300</v>
       </c>
       <c r="I41" s="3">
-        <v>2949800</v>
+        <v>3022800</v>
       </c>
       <c r="J41" s="3">
+        <v>2952300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2974800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2705200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2581500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2492800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1148000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1226800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1252400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1073800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1243300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1074300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1069300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1155500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1054000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1212800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>889400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>822400</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>17</v>
       </c>
@@ -3357,80 +3444,83 @@
       <c r="AE41" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>938800</v>
+        <v>1190200</v>
       </c>
       <c r="E42" s="3">
-        <v>1078700</v>
+        <v>939600</v>
       </c>
       <c r="F42" s="3">
-        <v>939900</v>
+        <v>1079600</v>
       </c>
       <c r="G42" s="3">
-        <v>883500</v>
+        <v>940700</v>
       </c>
       <c r="H42" s="3">
-        <v>847800</v>
+        <v>884300</v>
       </c>
       <c r="I42" s="3">
-        <v>884600</v>
+        <v>848500</v>
       </c>
       <c r="J42" s="3">
+        <v>885400</v>
+      </c>
+      <c r="K42" s="3">
         <v>819600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>780800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>647500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>657400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>594500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>746300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>693800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>827600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>807800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>784000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>689400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>789500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1082400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>741000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>971700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>945800</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA42" s="3" t="s">
         <v>17</v>
       </c>
@@ -3446,80 +3536,83 @@
       <c r="AE42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>693800</v>
+        <v>819200</v>
       </c>
       <c r="E43" s="3">
-        <v>607100</v>
+        <v>694400</v>
       </c>
       <c r="F43" s="3">
-        <v>753400</v>
+        <v>607600</v>
       </c>
       <c r="G43" s="3">
-        <v>704700</v>
+        <v>754100</v>
       </c>
       <c r="H43" s="3">
-        <v>668900</v>
+        <v>705300</v>
       </c>
       <c r="I43" s="3">
-        <v>608200</v>
+        <v>669400</v>
       </c>
       <c r="J43" s="3">
+        <v>608700</v>
+      </c>
+      <c r="K43" s="3">
         <v>678600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>779700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>654900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>563500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>466800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>411000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>398200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>413300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>474000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>475300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>507000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>470100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>475500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>399800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>356900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>362400</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>17</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,80 +3720,83 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>296000</v>
+        <v>244100</v>
       </c>
       <c r="E45" s="3">
-        <v>319800</v>
+        <v>296200</v>
       </c>
       <c r="F45" s="3">
-        <v>332800</v>
+        <v>320100</v>
       </c>
       <c r="G45" s="3">
-        <v>371800</v>
+        <v>333100</v>
       </c>
       <c r="H45" s="3">
-        <v>365300</v>
+        <v>372200</v>
       </c>
       <c r="I45" s="3">
-        <v>292700</v>
+        <v>365600</v>
       </c>
       <c r="J45" s="3">
+        <v>293000</v>
+      </c>
+      <c r="K45" s="3">
         <v>266700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>81800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>84600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>80600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>150600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>147400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>125500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>105000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>79400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>89400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>77600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>62200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>45000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>38800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>41700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>43800</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA45" s="3" t="s">
         <v>17</v>
       </c>
@@ -3713,80 +3812,83 @@
       <c r="AE45" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4693100</v>
+        <v>5094100</v>
       </c>
       <c r="E46" s="3">
-        <v>4654000</v>
+        <v>4697000</v>
       </c>
       <c r="F46" s="3">
-        <v>4718000</v>
+        <v>4657900</v>
       </c>
       <c r="G46" s="3">
-        <v>5050800</v>
+        <v>4721900</v>
       </c>
       <c r="H46" s="3">
-        <v>4902300</v>
+        <v>5055000</v>
       </c>
       <c r="I46" s="3">
-        <v>4735300</v>
+        <v>4906400</v>
       </c>
       <c r="J46" s="3">
+        <v>4739300</v>
+      </c>
+      <c r="K46" s="3">
         <v>4739700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4347400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3968600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3794300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2359800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2531400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2469800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2419700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2604500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2423000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2343400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2477300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2656800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2392400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2259700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2174400</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>17</v>
       </c>
@@ -3802,80 +3904,83 @@
       <c r="AE46" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1100400</v>
+        <v>979800</v>
       </c>
       <c r="E47" s="3">
-        <v>1229400</v>
+        <v>1101300</v>
       </c>
       <c r="F47" s="3">
-        <v>1233700</v>
+        <v>1230400</v>
       </c>
       <c r="G47" s="3">
-        <v>683000</v>
+        <v>1234700</v>
       </c>
       <c r="H47" s="3">
-        <v>780600</v>
+        <v>683600</v>
       </c>
       <c r="I47" s="3">
-        <v>739400</v>
+        <v>781200</v>
       </c>
       <c r="J47" s="3">
+        <v>740000</v>
+      </c>
+      <c r="K47" s="3">
         <v>993000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1173800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2007000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2574500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2271100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1879600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1881800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1481400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1747600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2055500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2215200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2750100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1947100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1760000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1064000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1087200</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA47" s="3" t="s">
         <v>17</v>
       </c>
@@ -3891,80 +3996,83 @@
       <c r="AE47" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>676500</v>
+        <v>670500</v>
       </c>
       <c r="E48" s="3">
-        <v>806600</v>
+        <v>677000</v>
       </c>
       <c r="F48" s="3">
-        <v>829300</v>
+        <v>807200</v>
       </c>
       <c r="G48" s="3">
-        <v>905200</v>
+        <v>830000</v>
       </c>
       <c r="H48" s="3">
-        <v>886800</v>
+        <v>906000</v>
       </c>
       <c r="I48" s="3">
-        <v>880300</v>
+        <v>887500</v>
       </c>
       <c r="J48" s="3">
+        <v>881000</v>
+      </c>
+      <c r="K48" s="3">
         <v>877000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>874400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>837900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>805400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>755000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>786700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>832400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>883000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>910600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>926100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>754100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>795500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>233000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>149500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>91100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>76300</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>17</v>
       </c>
@@ -3980,80 +4088,83 @@
       <c r="AE48" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1358400</v>
+        <v>1386600</v>
       </c>
       <c r="E49" s="3">
-        <v>1376800</v>
+        <v>1359500</v>
       </c>
       <c r="F49" s="3">
-        <v>1403900</v>
+        <v>1378000</v>
       </c>
       <c r="G49" s="3">
-        <v>1532900</v>
+        <v>1405100</v>
       </c>
       <c r="H49" s="3">
-        <v>1341000</v>
+        <v>1534200</v>
       </c>
       <c r="I49" s="3">
-        <v>1178400</v>
+        <v>1342100</v>
       </c>
       <c r="J49" s="3">
+        <v>1179400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1065700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1033800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1000900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>932000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>830800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>702700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>766900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>806200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>625700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>670100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>610600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>571800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>205800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>191600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>192200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>180600</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>17</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,80 +4364,83 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>106300</v>
+      </c>
+      <c r="E52" s="3">
         <v>98700</v>
       </c>
-      <c r="E52" s="3">
-        <v>95400</v>
-      </c>
       <c r="F52" s="3">
-        <v>93200</v>
+        <v>95500</v>
       </c>
       <c r="G52" s="3">
-        <v>101900</v>
+        <v>93300</v>
       </c>
       <c r="H52" s="3">
+        <v>102000</v>
+      </c>
+      <c r="I52" s="3">
         <v>98700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
+        <v>97700</v>
+      </c>
+      <c r="K52" s="3">
         <v>97600</v>
       </c>
-      <c r="J52" s="3">
-        <v>97600</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>96900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>98000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>92800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>82000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>86200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>84700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>91100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>94300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>91800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>95700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>86400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>84200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>82400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>74100</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>17</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,80 +4548,83 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7926900</v>
+        <v>8237300</v>
       </c>
       <c r="E54" s="3">
-        <v>8162200</v>
+        <v>7933500</v>
       </c>
       <c r="F54" s="3">
-        <v>8278200</v>
+        <v>8169000</v>
       </c>
       <c r="G54" s="3">
-        <v>8273900</v>
+        <v>8285100</v>
       </c>
       <c r="H54" s="3">
-        <v>8009300</v>
+        <v>8280700</v>
       </c>
       <c r="I54" s="3">
-        <v>7631000</v>
+        <v>8016000</v>
       </c>
       <c r="J54" s="3">
+        <v>7637300</v>
+      </c>
+      <c r="K54" s="3">
         <v>7773000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7526500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7914900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8204200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6309600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5982500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6037100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5674900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5979500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6169000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6014900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6690300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5129100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4577700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3689300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3592600</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>17</v>
       </c>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,80 +4710,81 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>675400</v>
+        <v>1025300</v>
       </c>
       <c r="E57" s="3">
-        <v>641800</v>
+        <v>676000</v>
       </c>
       <c r="F57" s="3">
-        <v>637500</v>
+        <v>642300</v>
       </c>
       <c r="G57" s="3">
-        <v>753400</v>
+        <v>638000</v>
       </c>
       <c r="H57" s="3">
-        <v>626600</v>
+        <v>754100</v>
       </c>
       <c r="I57" s="3">
-        <v>486800</v>
+        <v>627100</v>
       </c>
       <c r="J57" s="3">
+        <v>487200</v>
+      </c>
+      <c r="K57" s="3">
         <v>578900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>568600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>513100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>449200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>432900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>440100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>398200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>425700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>440100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>431200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>338800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>305000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>349000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>291300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>282200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>286100</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>17</v>
       </c>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4713,32 +4847,32 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S58" s="3">
         <v>8200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>35300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>37100</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4758,80 +4892,83 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3168800</v>
+        <v>2990300</v>
       </c>
       <c r="E59" s="3">
-        <v>3108100</v>
+        <v>3171500</v>
       </c>
       <c r="F59" s="3">
-        <v>3174200</v>
+        <v>3110700</v>
       </c>
       <c r="G59" s="3">
-        <v>3103800</v>
+        <v>3176900</v>
       </c>
       <c r="H59" s="3">
-        <v>2987800</v>
+        <v>3106400</v>
       </c>
       <c r="I59" s="3">
-        <v>2898900</v>
+        <v>2990300</v>
       </c>
       <c r="J59" s="3">
+        <v>2901300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2918400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2742900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2628100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2547900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2459600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2324900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2611600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2215300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2399000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2574900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2723400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2656800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2190700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2423400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2221300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1899500</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>17</v>
       </c>
@@ -4847,80 +4984,83 @@
       <c r="AE59" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3844200</v>
+        <v>4015600</v>
       </c>
       <c r="E60" s="3">
-        <v>3749900</v>
+        <v>3847400</v>
       </c>
       <c r="F60" s="3">
-        <v>3811700</v>
+        <v>3753000</v>
       </c>
       <c r="G60" s="3">
-        <v>3857200</v>
+        <v>3814900</v>
       </c>
       <c r="H60" s="3">
-        <v>3614400</v>
+        <v>3860400</v>
       </c>
       <c r="I60" s="3">
-        <v>3385600</v>
+        <v>3617400</v>
       </c>
       <c r="J60" s="3">
+        <v>3388500</v>
+      </c>
+      <c r="K60" s="3">
         <v>3497300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3311500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3141200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2997100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2892500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2765000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3009800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2641000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2847300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3008600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3097500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2998900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2539700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2714700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2503400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2185600</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>17</v>
       </c>
@@ -4936,68 +5076,71 @@
       <c r="AE60" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1831000</v>
+        <v>1876000</v>
       </c>
       <c r="E61" s="3">
-        <v>1845100</v>
+        <v>1832600</v>
       </c>
       <c r="F61" s="3">
-        <v>1824500</v>
+        <v>1846700</v>
       </c>
       <c r="G61" s="3">
-        <v>1956800</v>
+        <v>1826100</v>
       </c>
       <c r="H61" s="3">
-        <v>1863600</v>
+        <v>1958400</v>
       </c>
       <c r="I61" s="3">
-        <v>1878700</v>
+        <v>1865100</v>
       </c>
       <c r="J61" s="3">
+        <v>1880300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1930800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1892100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1878000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1853800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>575500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>614400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>667600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>704600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>726100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>757000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>608200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>663900</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -5005,11 +5148,11 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>1146700</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
@@ -5025,80 +5168,83 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="E62" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F62" s="3">
         <v>28200</v>
       </c>
-      <c r="F62" s="3">
-        <v>39000</v>
-      </c>
       <c r="G62" s="3">
-        <v>39000</v>
+        <v>39100</v>
       </c>
       <c r="H62" s="3">
+        <v>39100</v>
+      </c>
+      <c r="I62" s="3">
         <v>36900</v>
       </c>
-      <c r="I62" s="3">
-        <v>39000</v>
-      </c>
       <c r="J62" s="3">
+        <v>39100</v>
+      </c>
+      <c r="K62" s="3">
         <v>47700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>43100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>41900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>43900</v>
-      </c>
-      <c r="O62" s="3">
-        <v>43600</v>
       </c>
       <c r="P62" s="3">
         <v>43600</v>
       </c>
       <c r="Q62" s="3">
+        <v>43600</v>
+      </c>
+      <c r="R62" s="3">
         <v>56500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>28000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>24500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>21200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>82500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>112400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>97500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>88900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>79700</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>17</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,80 +5536,83 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5700200</v>
+        <v>5916500</v>
       </c>
       <c r="E66" s="3">
-        <v>5623200</v>
+        <v>5704900</v>
       </c>
       <c r="F66" s="3">
-        <v>5675300</v>
+        <v>5627900</v>
       </c>
       <c r="G66" s="3">
-        <v>5853100</v>
+        <v>5680000</v>
       </c>
       <c r="H66" s="3">
-        <v>5514800</v>
+        <v>5857900</v>
       </c>
       <c r="I66" s="3">
-        <v>5303400</v>
+        <v>5519400</v>
       </c>
       <c r="J66" s="3">
+        <v>5307800</v>
+      </c>
+      <c r="K66" s="3">
         <v>5475800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5246700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5059400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4892700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3511800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3423000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3721100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3402000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3601500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3790100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3726800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3745300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2652100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2812200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2592400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3412000</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>17</v>
       </c>
@@ -5470,8 +5628,11 @@
       <c r="AE66" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,80 +6030,83 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4528300</v>
+        <v>-2745100</v>
       </c>
       <c r="E72" s="3">
-        <v>-4200900</v>
+        <v>-4532000</v>
       </c>
       <c r="F72" s="3">
-        <v>-3953700</v>
+        <v>-4204400</v>
       </c>
       <c r="G72" s="3">
-        <v>-3663200</v>
+        <v>-3957000</v>
       </c>
       <c r="H72" s="3">
-        <v>-3484300</v>
+        <v>-3666200</v>
       </c>
       <c r="I72" s="3">
-        <v>-3348800</v>
+        <v>-3487200</v>
       </c>
       <c r="J72" s="3">
+        <v>-3351600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3490800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3537600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3477600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3335000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3281400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3285000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3342500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3057600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3162500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3062500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3224500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3187900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2963200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3264100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3283000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2912700</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>17</v>
       </c>
@@ -5948,8 +6122,11 @@
       <c r="AE72" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,80 +6398,83 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2226700</v>
+        <v>2320800</v>
       </c>
       <c r="E76" s="3">
-        <v>2539000</v>
+        <v>2228600</v>
       </c>
       <c r="F76" s="3">
-        <v>2602900</v>
+        <v>2541100</v>
       </c>
       <c r="G76" s="3">
-        <v>2420800</v>
+        <v>2605100</v>
       </c>
       <c r="H76" s="3">
-        <v>2494500</v>
+        <v>2422800</v>
       </c>
       <c r="I76" s="3">
-        <v>2327600</v>
+        <v>2496600</v>
       </c>
       <c r="J76" s="3">
+        <v>2329500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2297200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2279800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2855500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3311500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2797700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2559500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2316000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2272900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2378000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2378900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2288100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2945000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2477000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1765500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1096900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>180600</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>17</v>
       </c>
@@ -6304,8 +6490,11 @@
       <c r="AE76" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-327400</v>
+        <v>70500</v>
       </c>
       <c r="E81" s="3">
-        <v>-243900</v>
+        <v>-327700</v>
       </c>
       <c r="F81" s="3">
-        <v>-292700</v>
+        <v>-244100</v>
       </c>
       <c r="G81" s="3">
-        <v>-180000</v>
+        <v>-293000</v>
       </c>
       <c r="H81" s="3">
-        <v>-135500</v>
+        <v>-180100</v>
       </c>
       <c r="I81" s="3">
-        <v>142000</v>
+        <v>-135600</v>
       </c>
       <c r="J81" s="3">
+        <v>142100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-42300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-124700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-104800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-388400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-244000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>295200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-89400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-169900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>522800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>47600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-432600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-189600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-668700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-311900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-210900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-203100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-99800</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-152600</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>47700</v>
+        <v>39100</v>
       </c>
       <c r="E83" s="3">
         <v>47700</v>
       </c>
       <c r="F83" s="3">
-        <v>54200</v>
+        <v>47700</v>
       </c>
       <c r="G83" s="3">
+        <v>54300</v>
+      </c>
+      <c r="H83" s="3">
         <v>47700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>43400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>40100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>30600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>29100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>30500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>29400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>28000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>26900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>23500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>25100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>6600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>12300</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB83" s="3">
         <v>16800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>13500</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AD83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AE83" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>228900</v>
+      </c>
+      <c r="E89" s="3">
         <v>14100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>64000</v>
       </c>
-      <c r="F89" s="3">
-        <v>-75900</v>
-      </c>
       <c r="G89" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="H89" s="3">
         <v>43400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>42300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>40100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>129000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>132500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>57100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>66400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>106700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>126600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>42500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>237000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>87000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>105900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>250000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>177400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>88600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>32900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>94200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>106600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-90900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>80800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>109200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-3500</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,19 +7485,20 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2000</v>
+        <v>-1000</v>
       </c>
       <c r="E91" s="3">
         <v>-2000</v>
       </c>
       <c r="F91" s="3">
-        <v>-5000</v>
+        <v>-2000</v>
       </c>
       <c r="G91" s="3">
         <v>-5000</v>
@@ -7286,76 +7507,79 @@
         <v>-5000</v>
       </c>
       <c r="I91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-10000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-24500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-37400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-31800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-47100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-44300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-76900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-54300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-23600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-10100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-7000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>122500</v>
+        <v>-220300</v>
       </c>
       <c r="E94" s="3">
-        <v>-132300</v>
+        <v>122600</v>
       </c>
       <c r="F94" s="3">
-        <v>-109500</v>
+        <v>-132400</v>
       </c>
       <c r="G94" s="3">
-        <v>-118200</v>
+        <v>-109600</v>
       </c>
       <c r="H94" s="3">
+        <v>-118300</v>
+      </c>
+      <c r="I94" s="3">
         <v>-61800</v>
       </c>
-      <c r="I94" s="3">
-        <v>-169100</v>
-      </c>
       <c r="J94" s="3">
+        <v>-169300</v>
+      </c>
+      <c r="K94" s="3">
         <v>94300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-130300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-41300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-116400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-131700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-139100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>85100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-207800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-122600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-69800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-58600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-354900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>172800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-18700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>156000</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="AA94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB94" s="3">
         <v>12300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-47100</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AD94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AE94" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8700</v>
       </c>
-      <c r="E100" s="3">
-        <v>53100</v>
-      </c>
       <c r="F100" s="3">
-        <v>-22800</v>
+        <v>53200</v>
       </c>
       <c r="G100" s="3">
         <v>-22800</v>
       </c>
       <c r="H100" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="I100" s="3">
         <v>-21700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>23900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-27100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>20500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1276000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>32900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>88200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>98200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>86900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>127200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-89400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-165900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-117200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-65100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>54300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>60400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>48200</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AA100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB100" s="3">
         <v>10100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>2200</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AD100" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AE100" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-11900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-28200</v>
       </c>
-      <c r="F101" s="3">
-        <v>-190800</v>
-      </c>
       <c r="G101" s="3">
-        <v>168000</v>
+        <v>-191000</v>
       </c>
       <c r="H101" s="3">
-        <v>111700</v>
+        <v>168200</v>
       </c>
       <c r="I101" s="3">
-        <v>80200</v>
+        <v>111800</v>
       </c>
       <c r="J101" s="3">
+        <v>80300</v>
+      </c>
+      <c r="K101" s="3">
         <v>55300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>54900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-24300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>91900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-38900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-40500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-22200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>33100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>15600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1200</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>9900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AA101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-39300</v>
       </c>
-      <c r="AC101" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AD101" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AE101" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>116000</v>
+        <v>70500</v>
       </c>
       <c r="E102" s="3">
+        <v>116100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-43400</v>
       </c>
-      <c r="F102" s="3">
-        <v>-398900</v>
-      </c>
       <c r="G102" s="3">
-        <v>70500</v>
+        <v>-399300</v>
       </c>
       <c r="H102" s="3">
         <v>70500</v>
       </c>
       <c r="I102" s="3">
-        <v>-24900</v>
+        <v>70500</v>
       </c>
       <c r="J102" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="K102" s="3">
         <v>251500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>77500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1317900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-30900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>35300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>214900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-128700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>219500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-39200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-67100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>89700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-241300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>315700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>84500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>287200</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AA102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-71800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-3400</v>
       </c>
-      <c r="AC102" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AD102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AE102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF102" s="3" t="s">
         <v>17</v>
       </c>
     </row>
